--- a/Översikt KLIPPAN.xlsx
+++ b/Översikt KLIPPAN.xlsx
@@ -575,7 +575,7 @@
         <v>45314</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45960</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>45973</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,14 +856,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 45242-2025</t>
+          <t>A 513-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45919.59901620371</v>
+        <v>45664</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -875,18 +875,23 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
@@ -900,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -909,426 +914,421 @@
         <v>3</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Talltita
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 513-2025 artfynd.xlsx", "A 513-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 513-2025 karta.png", "A 513-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 513-2025 FSC-klagomål.docx", "A 513-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 513-2025 FSC-klagomål mail.docx", "A 513-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 513-2025 tillsynsbegäran.docx", "A 513-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 513-2025 tillsynsbegäran mail.docx", "A 513-2025")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 513-2025 prioriterade fågelarter.docx", "A 513-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 46256-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45581</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Rostfläck
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 46256-2024 artfynd.xlsx", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 46256-2024 karta.png", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 46256-2024 FSC-klagomål.docx", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 46256-2024 FSC-klagomål mail.docx", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 46256-2024 tillsynsbegäran.docx", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 46256-2024 tillsynsbegäran mail.docx", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 46256-2024 prioriterade fågelarter.docx", "A 46256-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 45242-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45919.59901620371</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Blåmossa
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 45242-2025 artfynd.xlsx", "A 45242-2025")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 45242-2025 karta.png", "A 45242-2025")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 45242-2025 FSC-klagomål.docx", "A 45242-2025")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 45242-2025 FSC-klagomål mail.docx", "A 45242-2025")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 45242-2025 tillsynsbegäran.docx", "A 45242-2025")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 45242-2025 tillsynsbegäran mail.docx", "A 45242-2025")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 45242-2025 prioriterade fågelarter.docx", "A 45242-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 42004-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45903</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Gröngöling
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 42004-2025 artfynd.xlsx", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 42004-2025 karta.png", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 42004-2025 FSC-klagomål.docx", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 42004-2025 FSC-klagomål mail.docx", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 42004-2025 tillsynsbegäran.docx", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 42004-2025 tillsynsbegäran mail.docx", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 42004-2025 prioriterade fågelarter.docx", "A 42004-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 54644-2023</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>45235</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="C9" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>8.1</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H9" t="n">
         <v>2</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>3</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Havstulpanlav
 Skogsduva</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 54644-2023 artfynd.xlsx", "A 54644-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 54644-2023 karta.png", "A 54644-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 54644-2023 FSC-klagomål.docx", "A 54644-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 54644-2023 FSC-klagomål mail.docx", "A 54644-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 54644-2023 tillsynsbegäran.docx", "A 54644-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 54644-2023 tillsynsbegäran mail.docx", "A 54644-2023")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 54644-2023 prioriterade fågelarter.docx", "A 54644-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 42004-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45903</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Gröngöling
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 42004-2025 artfynd.xlsx", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 42004-2025 karta.png", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 42004-2025 FSC-klagomål.docx", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 42004-2025 FSC-klagomål mail.docx", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 42004-2025 tillsynsbegäran.docx", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 42004-2025 tillsynsbegäran mail.docx", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 42004-2025 prioriterade fågelarter.docx", "A 42004-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 46256-2024</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45581</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Rostfläck
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 46256-2024 artfynd.xlsx", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 46256-2024 karta.png", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 46256-2024 FSC-klagomål.docx", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 46256-2024 FSC-klagomål mail.docx", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 46256-2024 tillsynsbegäran.docx", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 46256-2024 tillsynsbegäran mail.docx", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 46256-2024 prioriterade fågelarter.docx", "A 46256-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 513-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45664</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Talltita
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 513-2025 artfynd.xlsx", "A 513-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 513-2025 karta.png", "A 513-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 513-2025 FSC-klagomål.docx", "A 513-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 513-2025 FSC-klagomål mail.docx", "A 513-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 513-2025 tillsynsbegäran.docx", "A 513-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 513-2025 tillsynsbegäran mail.docx", "A 513-2025")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 513-2025 prioriterade fågelarter.docx", "A 513-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 53878-2022</t>
+          <t>A 5797-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44880</v>
+        <v>45335</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>8.300000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1376,575 +1376,575 @@
       <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Entita
+Gröngöling</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 5797-2024 artfynd.xlsx", "A 5797-2024")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 5797-2024 karta.png", "A 5797-2024")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 5797-2024 FSC-klagomål.docx", "A 5797-2024")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 5797-2024 FSC-klagomål mail.docx", "A 5797-2024")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 5797-2024 tillsynsbegäran.docx", "A 5797-2024")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 5797-2024 tillsynsbegäran mail.docx", "A 5797-2024")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 5797-2024 prioriterade fågelarter.docx", "A 5797-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 11673-2022</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>44633</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Talltita
+Vanlig groda</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 11673-2022 artfynd.xlsx", "A 11673-2022")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 11673-2022 karta.png", "A 11673-2022")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 11673-2022 FSC-klagomål.docx", "A 11673-2022")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 11673-2022 FSC-klagomål mail.docx", "A 11673-2022")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 11673-2022 tillsynsbegäran.docx", "A 11673-2022")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 11673-2022 tillsynsbegäran mail.docx", "A 11673-2022")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 11673-2022 prioriterade fågelarter.docx", "A 11673-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 37966-2024</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45544</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Större vattensalamander
+Vanlig padda</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 37966-2024 artfynd.xlsx", "A 37966-2024")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 37966-2024 karta.png", "A 37966-2024")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 37966-2024 FSC-klagomål.docx", "A 37966-2024")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 37966-2024 FSC-klagomål mail.docx", "A 37966-2024")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 37966-2024 tillsynsbegäran.docx", "A 37966-2024")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 37966-2024 tillsynsbegäran mail.docx", "A 37966-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 44567-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45917</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Gråkråka
+Grönsiska</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 44567-2025 artfynd.xlsx", "A 44567-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 44567-2025 karta.png", "A 44567-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 44567-2025 FSC-klagomål.docx", "A 44567-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 44567-2025 FSC-klagomål mail.docx", "A 44567-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 44567-2025 tillsynsbegäran.docx", "A 44567-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 44567-2025 tillsynsbegäran mail.docx", "A 44567-2025")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 44567-2025 prioriterade fågelarter.docx", "A 44567-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 20702-2023</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45058</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Svinrot
+Grönvit nattviol</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 20702-2023 artfynd.xlsx", "A 20702-2023")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 20702-2023 karta.png", "A 20702-2023")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 20702-2023 FSC-klagomål.docx", "A 20702-2023")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 20702-2023 FSC-klagomål mail.docx", "A 20702-2023")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 20702-2023 tillsynsbegäran.docx", "A 20702-2023")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 20702-2023 tillsynsbegäran mail.docx", "A 20702-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 59769-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45992</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 59769-2025 artfynd.xlsx", "A 59769-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 59769-2025 karta.png", "A 59769-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 59769-2025 FSC-klagomål.docx", "A 59769-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 59769-2025 FSC-klagomål mail.docx", "A 59769-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 59769-2025 tillsynsbegäran.docx", "A 59769-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 59769-2025 tillsynsbegäran mail.docx", "A 59769-2025")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 59769-2025 prioriterade fågelarter.docx", "A 59769-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 53878-2022</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>44880</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Entita
 Gulsparv</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 53878-2022 artfynd.xlsx", "A 53878-2022")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 53878-2022 karta.png", "A 53878-2022")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 53878-2022 FSC-klagomål.docx", "A 53878-2022")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 53878-2022 FSC-klagomål mail.docx", "A 53878-2022")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 53878-2022 tillsynsbegäran.docx", "A 53878-2022")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 53878-2022 tillsynsbegäran mail.docx", "A 53878-2022")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 53878-2022 prioriterade fågelarter.docx", "A 53878-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 37966-2024</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45544</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Större vattensalamander
-Vanlig padda</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 37966-2024 artfynd.xlsx", "A 37966-2024")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 37966-2024 karta.png", "A 37966-2024")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 37966-2024 FSC-klagomål.docx", "A 37966-2024")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 37966-2024 FSC-klagomål mail.docx", "A 37966-2024")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 37966-2024 tillsynsbegäran.docx", "A 37966-2024")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 37966-2024 tillsynsbegäran mail.docx", "A 37966-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 44567-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45917</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Gråkråka
-Grönsiska</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 44567-2025 artfynd.xlsx", "A 44567-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 44567-2025 karta.png", "A 44567-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 44567-2025 FSC-klagomål.docx", "A 44567-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 44567-2025 FSC-klagomål mail.docx", "A 44567-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 44567-2025 tillsynsbegäran.docx", "A 44567-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 44567-2025 tillsynsbegäran mail.docx", "A 44567-2025")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 44567-2025 prioriterade fågelarter.docx", "A 44567-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 59769-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45992</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 59769-2025 artfynd.xlsx", "A 59769-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 59769-2025 karta.png", "A 59769-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 59769-2025 FSC-klagomål.docx", "A 59769-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 59769-2025 FSC-klagomål mail.docx", "A 59769-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 59769-2025 tillsynsbegäran.docx", "A 59769-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 59769-2025 tillsynsbegäran mail.docx", "A 59769-2025")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 59769-2025 prioriterade fågelarter.docx", "A 59769-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 11673-2022</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>44633</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Talltita
-Vanlig groda</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 11673-2022 artfynd.xlsx", "A 11673-2022")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 11673-2022 karta.png", "A 11673-2022")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 11673-2022 FSC-klagomål.docx", "A 11673-2022")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 11673-2022 FSC-klagomål mail.docx", "A 11673-2022")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 11673-2022 tillsynsbegäran.docx", "A 11673-2022")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 11673-2022 tillsynsbegäran mail.docx", "A 11673-2022")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 11673-2022 prioriterade fågelarter.docx", "A 11673-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 20702-2023</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45058</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Svinrot
-Grönvit nattviol</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 20702-2023 artfynd.xlsx", "A 20702-2023")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 20702-2023 karta.png", "A 20702-2023")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 20702-2023 FSC-klagomål.docx", "A 20702-2023")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 20702-2023 FSC-klagomål mail.docx", "A 20702-2023")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 20702-2023 tillsynsbegäran.docx", "A 20702-2023")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 20702-2023 tillsynsbegäran mail.docx", "A 20702-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 5797-2024</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45335</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Gröngöling</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 5797-2024 artfynd.xlsx", "A 5797-2024")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 5797-2024 karta.png", "A 5797-2024")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 5797-2024 FSC-klagomål.docx", "A 5797-2024")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 5797-2024 FSC-klagomål mail.docx", "A 5797-2024")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 5797-2024 tillsynsbegäran.docx", "A 5797-2024")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 5797-2024 tillsynsbegäran mail.docx", "A 5797-2024")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 5797-2024 prioriterade fågelarter.docx", "A 5797-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>44365</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44596</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2122,14 +2122,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 50089-2023</t>
+          <t>A 23403-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45208</v>
+        <v>45453</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2142,10 +2142,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>13.6</v>
+        <v>9.1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2176,670 +2176,670 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
+          <t>Vårstarr</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 23403-2024 artfynd.xlsx", "A 23403-2024")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 23403-2024 karta.png", "A 23403-2024")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 23403-2024 FSC-klagomål.docx", "A 23403-2024")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 23403-2024 FSC-klagomål mail.docx", "A 23403-2024")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 23403-2024 tillsynsbegäran.docx", "A 23403-2024")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 23403-2024 tillsynsbegäran mail.docx", "A 23403-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 30721-2021</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>44365</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Brandticka</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 30721-2021 artfynd.xlsx", "A 30721-2021")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 30721-2021 karta.png", "A 30721-2021")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 30721-2021 FSC-klagomål.docx", "A 30721-2021")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 30721-2021 FSC-klagomål mail.docx", "A 30721-2021")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 30721-2021 tillsynsbegäran.docx", "A 30721-2021")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 30721-2021 tillsynsbegäran mail.docx", "A 30721-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 14892-2023</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45015</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Mindre hackspett</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 14892-2023 artfynd.xlsx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 14892-2023 karta.png", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 14892-2023 FSC-klagomål.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 14892-2023 FSC-klagomål mail.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 14892-2023 tillsynsbegäran.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 14892-2023 tillsynsbegäran mail.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 14892-2023 prioriterade fågelarter.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 50089-2023</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>45208</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
           <t>Entita</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 50089-2023 artfynd.xlsx", "A 50089-2023")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 50089-2023 karta.png", "A 50089-2023")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 50089-2023 FSC-klagomål.docx", "A 50089-2023")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 50089-2023 FSC-klagomål mail.docx", "A 50089-2023")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 50089-2023 tillsynsbegäran.docx", "A 50089-2023")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 50089-2023 tillsynsbegäran mail.docx", "A 50089-2023")</f>
         <v/>
       </c>
-      <c r="Z19">
+      <c r="Z22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 50089-2023 prioriterade fågelarter.docx", "A 50089-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 61058-2025</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>46000</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 61058-2025 artfynd.xlsx", "A 61058-2025")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 61058-2025 karta.png", "A 61058-2025")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 61058-2025 FSC-klagomål.docx", "A 61058-2025")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 61058-2025 FSC-klagomål mail.docx", "A 61058-2025")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 61058-2025 tillsynsbegäran.docx", "A 61058-2025")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 61058-2025 tillsynsbegäran mail.docx", "A 61058-2025")</f>
+        <v/>
+      </c>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 61058-2025 prioriterade fågelarter.docx", "A 61058-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>A 61049-2025</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B24" s="1" t="n">
         <v>46000</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="C24" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G24" t="n">
         <v>3.6</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>1</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>1</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Mindre hackspett</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 61049-2025 artfynd.xlsx", "A 61049-2025")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 61049-2025 karta.png", "A 61049-2025")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 61049-2025 FSC-klagomål.docx", "A 61049-2025")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 61049-2025 FSC-klagomål mail.docx", "A 61049-2025")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 61049-2025 tillsynsbegäran.docx", "A 61049-2025")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 61049-2025 tillsynsbegäran mail.docx", "A 61049-2025")</f>
         <v/>
       </c>
-      <c r="Z20">
+      <c r="Z24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 61049-2025 prioriterade fågelarter.docx", "A 61049-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 61058-2025</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>46000</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H21" t="n">
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>A 2839-2026</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>46038</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 61058-2025 artfynd.xlsx", "A 61058-2025")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 61058-2025 karta.png", "A 61058-2025")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 61058-2025 FSC-klagomål.docx", "A 61058-2025")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 61058-2025 FSC-klagomål mail.docx", "A 61058-2025")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 61058-2025 tillsynsbegäran.docx", "A 61058-2025")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 61058-2025 tillsynsbegäran mail.docx", "A 61058-2025")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 61058-2025 prioriterade fågelarter.docx", "A 61058-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 2839-2026</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>46038</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H22" t="n">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>1</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R25" s="2" t="inlineStr">
         <is>
           <t>Entita</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 2839-2026 artfynd.xlsx", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 2839-2026 karta.png", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 2839-2026 FSC-klagomål.docx", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 2839-2026 FSC-klagomål mail.docx", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 2839-2026 tillsynsbegäran.docx", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 2839-2026 tillsynsbegäran mail.docx", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="Z22">
+      <c r="Z25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 2839-2026 prioriterade fågelarter.docx", "A 2839-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 14892-2023</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>45015</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H23" t="n">
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A 10000-2025</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>45719.44871527778</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>1</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Mindre hackspett</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 14892-2023 artfynd.xlsx", "A 14892-2023")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 14892-2023 karta.png", "A 14892-2023")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 14892-2023 FSC-klagomål.docx", "A 14892-2023")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 14892-2023 FSC-klagomål mail.docx", "A 14892-2023")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 14892-2023 tillsynsbegäran.docx", "A 14892-2023")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 14892-2023 tillsynsbegäran mail.docx", "A 14892-2023")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 14892-2023 prioriterade fågelarter.docx", "A 14892-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 10000-2025</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>45719.44871527778</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>Dvärghäxört</t>
         </is>
       </c>
-      <c r="S24">
+      <c r="S26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 10000-2025 artfynd.xlsx", "A 10000-2025")</f>
         <v/>
       </c>
-      <c r="T24">
+      <c r="T26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 10000-2025 karta.png", "A 10000-2025")</f>
         <v/>
       </c>
-      <c r="V24">
+      <c r="V26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 10000-2025 FSC-klagomål.docx", "A 10000-2025")</f>
         <v/>
       </c>
-      <c r="W24">
+      <c r="W26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 10000-2025 FSC-klagomål mail.docx", "A 10000-2025")</f>
         <v/>
       </c>
-      <c r="X24">
+      <c r="X26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 10000-2025 tillsynsbegäran.docx", "A 10000-2025")</f>
         <v/>
       </c>
-      <c r="Y24">
+      <c r="Y26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 10000-2025 tillsynsbegäran mail.docx", "A 10000-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A 23403-2024</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>45453</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Vårstarr</t>
-        </is>
-      </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 23403-2024 artfynd.xlsx", "A 23403-2024")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 23403-2024 karta.png", "A 23403-2024")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 23403-2024 FSC-klagomål.docx", "A 23403-2024")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 23403-2024 FSC-klagomål mail.docx", "A 23403-2024")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 23403-2024 tillsynsbegäran.docx", "A 23403-2024")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 23403-2024 tillsynsbegäran mail.docx", "A 23403-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A 30721-2021</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>44365</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Brandticka</t>
-        </is>
-      </c>
-      <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 30721-2021 artfynd.xlsx", "A 30721-2021")</f>
-        <v/>
-      </c>
-      <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 30721-2021 karta.png", "A 30721-2021")</f>
-        <v/>
-      </c>
-      <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 30721-2021 FSC-klagomål.docx", "A 30721-2021")</f>
-        <v/>
-      </c>
-      <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 30721-2021 FSC-klagomål mail.docx", "A 30721-2021")</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 30721-2021 tillsynsbegäran.docx", "A 30721-2021")</f>
-        <v/>
-      </c>
-      <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 30721-2021 tillsynsbegäran mail.docx", "A 30721-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 55629-2022</t>
+          <t>A 16189-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44883</v>
+        <v>44287</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2894,14 +2894,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 16189-2021</t>
+          <t>A 55629-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44287</v>
+        <v>44883</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2963,7 +2963,7 @@
         <v>44368.50049768519</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44883</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>44596</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44489.35295138889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>44691.52568287037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44697.63137731481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>44697</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>44531</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>44487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44575</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44621.59760416667</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3603,14 +3603,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 53582-2022</t>
+          <t>A 19094-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44875</v>
+        <v>44691</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3622,13 +3622,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3665,14 +3660,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 19094-2022</t>
+          <t>A 53582-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44691</v>
+        <v>44875</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3684,8 +3679,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>44363</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>44245</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>44445</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3903,14 +3903,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 2046-2022</t>
+          <t>A 7839-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44575</v>
+        <v>44608</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3924,11 +3924,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3965,14 +3965,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 7839-2022</t>
+          <t>A 2046-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44608</v>
+        <v>44575</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3986,11 +3986,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>44825</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>44782.541875</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>44825</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>44882</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44880</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>44246</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>44418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44251</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44245</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>44700</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44679.2472337963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4684,14 +4684,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 22120-2025</t>
+          <t>A 39056-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45785.5165625</v>
+        <v>44816</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4741,14 +4741,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 19097-2025</t>
+          <t>A 47967-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45767.68126157407</v>
+        <v>44448</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4798,14 +4798,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 50357-2021</t>
+          <t>A 17792-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44455</v>
+        <v>44300</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4855,14 +4855,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 39056-2022</t>
+          <t>A 11105-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44816</v>
+        <v>44259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4874,8 +4874,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4912,14 +4917,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 24813-2025</t>
+          <t>A 243-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45799.44813657407</v>
+        <v>45660</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4932,7 +4937,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4969,14 +4974,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 9142-2025</t>
+          <t>A 25393-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45714.31886574074</v>
+        <v>45079</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4989,7 +4994,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5026,14 +5031,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 6615-2024</t>
+          <t>A 3198-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45341</v>
+        <v>44944</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5046,7 +5051,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5083,14 +5088,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 17060-2021</t>
+          <t>A 53868-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44296.63025462963</v>
+        <v>44880.64693287037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5103,7 +5108,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.6</v>
+        <v>7.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5140,14 +5145,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 52851-2024</t>
+          <t>A 34051-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45610</v>
+        <v>45523</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5160,7 +5165,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5197,14 +5202,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 69041-2021</t>
+          <t>A 14620-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44529</v>
+        <v>45742.41289351852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5217,7 +5222,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.8</v>
+        <v>7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5254,14 +5259,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 22540-2025</t>
+          <t>A 37967-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45788.30451388889</v>
+        <v>45544.55668981482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5274,7 +5279,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.9</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5311,14 +5316,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 23741-2023</t>
+          <t>A 28844-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45077.77087962963</v>
+        <v>45104</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5368,14 +5373,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 25393-2023</t>
+          <t>A 4623-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45079</v>
+        <v>45328</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5388,7 +5393,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5425,14 +5430,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 8712-2023</t>
+          <t>A 593-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44978.3975462963</v>
+        <v>44930.55528935185</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5445,7 +5450,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5482,14 +5487,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 36842-2024</t>
+          <t>A 33331-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45538</v>
+        <v>45519</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5507,7 +5512,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5544,14 +5549,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 593-2023</t>
+          <t>A 30725-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44930.55528935185</v>
+        <v>44365.44506944445</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5564,7 +5569,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5601,14 +5606,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 27529-2025</t>
+          <t>A 217-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45813</v>
+        <v>44928</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5620,13 +5625,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>7.9</v>
+        <v>3.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5663,14 +5663,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 22976-2023</t>
+          <t>A 15070-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45072</v>
+        <v>45399.59040509259</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5682,8 +5682,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5720,14 +5725,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 46147-2022</t>
+          <t>A 38724-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44846</v>
+        <v>45163</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5740,7 +5745,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5777,14 +5782,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 20591-2023</t>
+          <t>A 58642-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45055</v>
+        <v>44489.36314814815</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5797,7 +5802,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5834,14 +5839,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 55588-2021</t>
+          <t>A 24815-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44475</v>
+        <v>45799.44935185185</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5854,7 +5859,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5891,14 +5896,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 47856-2024</t>
+          <t>A 5256-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45588.6680324074</v>
+        <v>44593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5911,7 +5916,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5948,14 +5953,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 28247-2023</t>
+          <t>A 44228-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45099</v>
+        <v>45573</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5968,7 +5973,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6005,14 +6010,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 2755-2023</t>
+          <t>A 49989-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44944</v>
+        <v>45597</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6024,13 +6029,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>6.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6067,14 +6067,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 28847-2023</t>
+          <t>A 69394-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45104</v>
+        <v>44531</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6086,8 +6086,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>5.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6124,14 +6129,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 4321-2024</t>
+          <t>A 25069-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45324.66635416666</v>
+        <v>45086</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6144,7 +6149,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6181,14 +6186,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 4301-2024</t>
+          <t>A 52851-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45324</v>
+        <v>45610</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6200,13 +6205,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6243,14 +6243,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 42281-2024</t>
+          <t>A 22540-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45562.6105787037</v>
+        <v>45788.30451388889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6262,13 +6262,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>0.6</v>
+        <v>4.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6305,14 +6300,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 17792-2021</t>
+          <t>A 18520-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44300</v>
+        <v>44305</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6324,8 +6319,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6362,14 +6362,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 17856-2024</t>
+          <t>A 27529-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45419</v>
+        <v>45813</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.5</v>
+        <v>7.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6424,14 +6424,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 43855-2022</t>
+          <t>A 18214-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44838</v>
+        <v>45040</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6443,13 +6443,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6486,14 +6481,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 47869-2022</t>
+          <t>A 27898-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44855.43141203704</v>
+        <v>45817</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6506,7 +6501,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6543,14 +6538,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 55833-2023</t>
+          <t>A 59482-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45239</v>
+        <v>45638.52831018518</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6563,7 +6558,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6600,14 +6595,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 38156-2022</t>
+          <t>A 27010-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44812.37135416667</v>
+        <v>45094.36791666667</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6620,7 +6615,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6657,14 +6652,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 44885-2022</t>
+          <t>A 10544-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44841</v>
+        <v>45721.48859953704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6677,7 +6672,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6714,14 +6709,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 57687-2025</t>
+          <t>A 43855-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45981.44112268519</v>
+        <v>44838</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6739,7 +6734,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6776,14 +6771,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 14278-2024</t>
+          <t>A 60791-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45393.60961805555</v>
+        <v>45260.65283564815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6796,7 +6791,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6833,14 +6828,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 30738-2021</t>
+          <t>A 2262-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44365.45446759259</v>
+        <v>45673</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6853,7 +6848,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6890,14 +6885,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 21654-2024</t>
+          <t>A 23681-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45442</v>
+        <v>45077</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6910,7 +6905,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>7.2</v>
+        <v>0.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6947,14 +6942,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 56089-2021</t>
+          <t>A 4324-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44477</v>
+        <v>45324.67409722223</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6967,7 +6962,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>20.9</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7004,14 +6999,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 23260-2023</t>
+          <t>A 28490-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45075.87199074074</v>
+        <v>45103.44039351852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7024,7 +7019,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7061,14 +7056,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 42627-2025</t>
+          <t>A 44891-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45905.77766203704</v>
+        <v>44841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7081,7 +7076,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7125,7 +7120,7 @@
         <v>45905.41005787037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7180,14 +7175,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 317-2026</t>
+          <t>A 42627-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46027.56958333333</v>
+        <v>45905.77766203704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7200,7 +7195,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7237,14 +7232,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 43698-2025</t>
+          <t>A 17856-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45912.39892361111</v>
+        <v>45419</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7256,8 +7251,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7294,14 +7294,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 3489-2024</t>
+          <t>A 34479-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45320</v>
+        <v>45847.37570601852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7314,7 +7314,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7351,14 +7351,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 34479-2025</t>
+          <t>A 7515-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45847.37570601852</v>
+        <v>45702</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7370,8 +7370,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7408,14 +7413,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 44891-2022</t>
+          <t>A 13994-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44841</v>
+        <v>45739.73532407408</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7428,7 +7433,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7465,14 +7470,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 54348-2022</t>
+          <t>A 43698-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44882</v>
+        <v>45912.39892361111</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7485,7 +7490,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>7.8</v>
+        <v>0.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7522,14 +7527,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 45641-2022</t>
+          <t>A 39238-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44845</v>
+        <v>44817</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7542,7 +7547,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7579,14 +7584,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 46260-2024</t>
+          <t>A 52882-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45581</v>
+        <v>45610</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7598,13 +7603,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7641,14 +7641,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 45574-2025</t>
+          <t>A 45096-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45922.65922453703</v>
+        <v>45919.38780092593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7698,14 +7698,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 47967-2021</t>
+          <t>A 29284-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44448</v>
+        <v>45824</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7755,14 +7755,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 45096-2025</t>
+          <t>A 45574-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45919.38780092593</v>
+        <v>45922.65922453703</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7812,14 +7812,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 45717-2025</t>
+          <t>A 11497-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45923.44155092593</v>
+        <v>44991</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>9.1</v>
+        <v>2.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7869,14 +7869,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 59885-2025</t>
+          <t>A 46260-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45993.32192129629</v>
+        <v>45581</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7888,8 +7888,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7926,14 +7931,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 45886-2025</t>
+          <t>A 45717-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45923.66560185186</v>
+        <v>45923.44155092593</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7946,7 +7951,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.8</v>
+        <v>9.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7983,14 +7988,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 2806-2026</t>
+          <t>A 45886-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46038.41621527778</v>
+        <v>45923.66560185186</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8003,7 +8008,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>7.9</v>
+        <v>0.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8047,7 +8052,7 @@
         <v>45924.59914351852</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8097,14 +8102,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 55586-2021</t>
+          <t>A 5141-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44475.88427083333</v>
+        <v>45330</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8117,7 +8122,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8154,14 +8159,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 10695-2023</t>
+          <t>A 39244-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44988</v>
+        <v>44817.60482638889</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8174,7 +8179,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8211,14 +8216,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 2413-2026</t>
+          <t>A 20717-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46036.73725694444</v>
+        <v>45055</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8231,7 +8236,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8268,14 +8273,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 58642-2021</t>
+          <t>A 37068-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44489.36314814815</v>
+        <v>45155</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8288,7 +8293,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8325,14 +8330,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 31893-2021</t>
+          <t>A 40762-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44370.45880787037</v>
+        <v>44420</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8345,7 +8350,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8382,14 +8387,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 52882-2024</t>
+          <t>A 32132-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45610</v>
+        <v>45835.50878472222</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8402,7 +8407,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8439,14 +8444,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 13994-2025</t>
+          <t>A 55588-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45739.73532407408</v>
+        <v>44475</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8459,7 +8464,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8496,14 +8501,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 42006-2025</t>
+          <t>A 8204-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45903</v>
+        <v>44244</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8516,7 +8521,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8553,14 +8558,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 33331-2024</t>
+          <t>A 52286-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45519</v>
+        <v>45224.58796296296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8572,13 +8577,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8615,14 +8615,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 63720-2023</t>
+          <t>A 46619-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45275</v>
+        <v>45583.32314814815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8672,14 +8672,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 58387-2022</t>
+          <t>A 11857-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44901</v>
+        <v>45728.39798611111</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8693,11 +8693,11 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8734,14 +8734,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 49394-2025</t>
+          <t>A 24333-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45938.65101851852</v>
+        <v>44726.32643518518</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8753,13 +8753,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8796,14 +8791,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 217-2023</t>
+          <t>A 56089-2021</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44928</v>
+        <v>44477</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8816,7 +8811,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.6</v>
+        <v>20.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8853,14 +8848,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 4968-2026</t>
+          <t>A 33450-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>46049</v>
+        <v>45841.46677083334</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8873,7 +8868,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.4</v>
+        <v>5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8910,14 +8905,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 50163-2025</t>
+          <t>A 33456-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45943.58734953704</v>
+        <v>45841.47364583334</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8930,7 +8925,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8967,14 +8962,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 8017-2022</t>
+          <t>A 49394-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44609.39615740741</v>
+        <v>45938.65101851852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8986,8 +8981,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9024,14 +9024,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 50781-2025</t>
+          <t>A 54348-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45946</v>
+        <v>44882</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>7.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9081,14 +9081,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 42275-2024</t>
+          <t>A 33761-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45562.60690972222</v>
+        <v>45842.38335648148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9100,13 +9100,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9143,14 +9138,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 42303-2024</t>
+          <t>A 38156-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45562.6322337963</v>
+        <v>44812.37135416667</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9162,13 +9157,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9205,14 +9195,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 61060-2025</t>
+          <t>A 18516-2021</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>46000</v>
+        <v>44305</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9226,11 +9216,11 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9267,14 +9257,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 40092-2025</t>
+          <t>A 50163-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45894</v>
+        <v>45943.58734953704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9287,7 +9277,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9324,14 +9314,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 40105-2025</t>
+          <t>A 33766-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45894</v>
+        <v>45842.3869675926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9344,7 +9334,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9381,14 +9371,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 62849-2025</t>
+          <t>A 34472-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>46008.69979166667</v>
+        <v>45847.35877314815</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9401,7 +9391,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9438,14 +9428,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 51396-2025</t>
+          <t>A 40105-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45950.47131944444</v>
+        <v>45894</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9458,7 +9448,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9495,14 +9485,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 51384-2025</t>
+          <t>A 40092-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45950.46399305556</v>
+        <v>45894</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9515,7 +9505,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9552,14 +9542,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 11676-2023</t>
+          <t>A 40710-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44992</v>
+        <v>45170.63194444445</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9571,13 +9561,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9614,14 +9599,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 11705-2023</t>
+          <t>A 51396-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44992</v>
+        <v>45950.47131944444</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9634,7 +9619,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9671,14 +9656,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 15810-2024</t>
+          <t>A 51946-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45404</v>
+        <v>45951</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9690,13 +9675,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9733,14 +9713,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 51946-2025</t>
+          <t>A 55833-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45951</v>
+        <v>45239</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9753,7 +9733,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9790,14 +9770,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 14614-2023</t>
+          <t>A 51384-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45013</v>
+        <v>45950.46399305556</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9810,7 +9790,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>5.1</v>
+        <v>1.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9847,14 +9827,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 5645-2026</t>
+          <t>A 20128-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46051.42502314815</v>
+        <v>45055</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9867,7 +9847,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9904,14 +9884,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 8204-2021</t>
+          <t>A 22120-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44244</v>
+        <v>45785.5165625</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9924,7 +9904,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9961,14 +9941,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 20128-2023</t>
+          <t>A 2252-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45055</v>
+        <v>45673</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9981,7 +9961,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.9</v>
+        <v>0.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10018,14 +9998,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 7515-2025</t>
+          <t>A 2083-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45702</v>
+        <v>45672.58853009259</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10037,13 +10017,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10080,14 +10055,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 62473-2023</t>
+          <t>A 61682-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45267</v>
+        <v>45264</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10099,13 +10074,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10142,14 +10112,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 6446-2026</t>
+          <t>A 11676-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>46055.85770833334</v>
+        <v>44992</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10161,8 +10131,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10199,14 +10174,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 6447-2026</t>
+          <t>A 51844-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>46055</v>
+        <v>45223</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10219,7 +10194,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10256,14 +10231,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 23978-2022</t>
+          <t>A 28847-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44722</v>
+        <v>45104</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10276,7 +10251,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>9.699999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10313,14 +10288,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 6890-2026</t>
+          <t>A 15442-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46057.471875</v>
+        <v>44659.85333333333</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10333,7 +10308,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10370,14 +10345,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 63499-2025</t>
+          <t>A 2755-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46013</v>
+        <v>44944</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10389,8 +10364,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10427,14 +10407,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 60783-2023</t>
+          <t>A 50357-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45260.6441087963</v>
+        <v>44455</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10447,7 +10427,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10484,14 +10464,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 53289-2025</t>
+          <t>A 49370-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45958</v>
+        <v>45211</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10504,7 +10484,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10541,14 +10521,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 53290-2025</t>
+          <t>A 28709-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45958</v>
+        <v>45103</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10561,7 +10541,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10598,14 +10578,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 30292-2021</t>
+          <t>A 46728-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44364.33482638889</v>
+        <v>45198</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10655,14 +10635,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 8500-2023</t>
+          <t>A 15065-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44977</v>
+        <v>45399.57625</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10674,8 +10654,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>5.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10712,14 +10697,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 5523-2022</t>
+          <t>A 24813-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44593</v>
+        <v>45799.44813657407</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10732,7 +10717,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>5.3</v>
+        <v>2.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10769,14 +10754,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 60791-2023</t>
+          <t>A 3498-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45260.65283564815</v>
+        <v>45320.47233796296</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10789,7 +10774,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10826,14 +10811,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 52838-2024</t>
+          <t>A 41294-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45610</v>
+        <v>44825</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10846,7 +10831,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.7</v>
+        <v>6.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10883,14 +10868,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 13420-2023</t>
+          <t>A 39097-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45005</v>
+        <v>45548.56422453704</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10902,13 +10887,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10945,14 +10925,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 22202-2023</t>
+          <t>A 8712-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45069</v>
+        <v>44978.3975462963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10965,7 +10945,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>7.5</v>
+        <v>0.7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11002,14 +10982,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 18214-2023</t>
+          <t>A 55696-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45040</v>
+        <v>45972</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11022,7 +11002,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11059,14 +11039,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 49073-2024</t>
+          <t>A 33462-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45594.61548611111</v>
+        <v>45841</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11079,7 +11059,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11116,14 +11096,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 3183-2023</t>
+          <t>A 49073-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44944</v>
+        <v>45594.61548611111</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11136,7 +11116,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>6.9</v>
+        <v>1.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11173,14 +11153,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 24647-2023</t>
+          <t>A 7661-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45084</v>
+        <v>45706</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11192,13 +11172,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>11.6</v>
+        <v>0.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11235,14 +11210,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 7661-2025</t>
+          <t>A 3183-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45706</v>
+        <v>44944</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11255,7 +11230,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.7</v>
+        <v>6.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11292,14 +11267,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 55696-2025</t>
+          <t>A 48965-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45972</v>
+        <v>45209</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11312,7 +11287,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11349,14 +11324,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 20717-2023</t>
+          <t>A 9270-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45055</v>
+        <v>44616</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11369,7 +11344,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11406,14 +11381,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 56759-2023</t>
+          <t>A 57687-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45238</v>
+        <v>45981.44112268519</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11425,8 +11400,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>7.4</v>
+        <v>1.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11463,14 +11443,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 27538-2021</t>
+          <t>A 36842-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44351.67984953704</v>
+        <v>45538</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11482,8 +11462,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11520,14 +11505,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 2252-2025</t>
+          <t>A 5523-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45673</v>
+        <v>44593</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11540,7 +11525,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.3</v>
+        <v>5.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11577,14 +11562,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 27454-2024</t>
+          <t>A 317-2026</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45474</v>
+        <v>46027.56958333333</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11597,7 +11582,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11634,14 +11619,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 15065-2024</t>
+          <t>A 17060-2021</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45399.57625</v>
+        <v>44296.63025462963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11653,13 +11638,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11696,14 +11676,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 28490-2023</t>
+          <t>A 4321-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45103.44039351852</v>
+        <v>45324.66635416666</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11716,7 +11696,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11753,14 +11733,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 18516-2021</t>
+          <t>A 62473-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44305</v>
+        <v>45267</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11778,7 +11758,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11815,14 +11795,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 33462-2025</t>
+          <t>A 8500-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45841</v>
+        <v>44977</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11872,14 +11852,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 46619-2024</t>
+          <t>A 55291-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45583.32314814815</v>
+        <v>45237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11892,7 +11872,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11929,14 +11909,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 4324-2024</t>
+          <t>A 69041-2021</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45324.67409722223</v>
+        <v>44529</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11949,7 +11929,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11986,14 +11966,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 41294-2022</t>
+          <t>A 59885-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44825</v>
+        <v>45993.32192129629</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12006,7 +11986,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>6.1</v>
+        <v>1.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12043,14 +12023,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 9270-2022</t>
+          <t>A 42006-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44616</v>
+        <v>45903</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12063,7 +12043,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12100,14 +12080,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 11857-2025</t>
+          <t>A 2806-2026</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45728.39798611111</v>
+        <v>46038.41621527778</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12119,13 +12099,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>4.3</v>
+        <v>7.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12162,14 +12137,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 13363-2023</t>
+          <t>A 23260-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45005</v>
+        <v>45075.87199074074</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12181,13 +12156,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12224,14 +12194,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 39097-2024</t>
+          <t>A 55586-2021</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45548.56422453704</v>
+        <v>44475.88427083333</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12244,7 +12214,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12281,14 +12251,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 51844-2023</t>
+          <t>A 15810-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45223</v>
+        <v>45404</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12300,8 +12270,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12338,14 +12313,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 14619-2023</t>
+          <t>A 19097-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45013</v>
+        <v>45767.68126157407</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12358,7 +12333,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12395,14 +12370,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 46835-2023</t>
+          <t>A 10695-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45199</v>
+        <v>44988</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12415,7 +12390,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12452,14 +12427,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 55587-2021</t>
+          <t>A 44885-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44475</v>
+        <v>44841</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12472,7 +12447,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12509,14 +12484,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 28844-2023</t>
+          <t>A 50781-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45104</v>
+        <v>45946</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12529,7 +12504,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12566,14 +12541,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 39238-2022</t>
+          <t>A 61060-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44817</v>
+        <v>46000</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12585,8 +12560,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12623,14 +12603,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 5256-2022</t>
+          <t>A 14614-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44593</v>
+        <v>45013</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12643,7 +12623,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.7</v>
+        <v>5.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12680,14 +12660,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 15442-2022</t>
+          <t>A 4968-2026</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44659.85333333333</v>
+        <v>46049</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12700,7 +12680,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12737,14 +12717,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 48965-2023</t>
+          <t>A 62849-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45209</v>
+        <v>46008.69979166667</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12757,7 +12737,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12794,14 +12774,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 18520-2021</t>
+          <t>A 5645-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44305</v>
+        <v>46051.42502314815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12813,13 +12793,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12856,14 +12831,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 20012-2022</t>
+          <t>A 8017-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44697</v>
+        <v>44609.39615740741</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12876,7 +12851,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>17.2</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12913,14 +12888,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 5151-2022</t>
+          <t>A 6446-2026</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44593</v>
+        <v>46055.85770833334</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12933,7 +12908,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>6.5</v>
+        <v>0.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12970,14 +12945,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 243-2025</t>
+          <t>A 13995-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45660</v>
+        <v>45739.74271990741</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12990,7 +12965,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13027,14 +13002,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 40762-2021</t>
+          <t>A 53290-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44420</v>
+        <v>45958</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13047,7 +13022,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13084,14 +13059,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 28709-2023</t>
+          <t>A 63499-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45103</v>
+        <v>46013</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13104,7 +13079,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13141,14 +13116,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 21636-2024</t>
+          <t>A 42275-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45442</v>
+        <v>45562.60690972222</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13160,8 +13135,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>6.3</v>
+        <v>0.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13198,14 +13178,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 46728-2023</t>
+          <t>A 42303-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45198</v>
+        <v>45562.6322337963</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13217,8 +13197,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13255,14 +13240,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 23874-2022</t>
+          <t>A 6890-2026</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44722</v>
+        <v>46057.471875</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13275,7 +13260,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13312,14 +13297,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 38724-2023</t>
+          <t>A 24034-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45163</v>
+        <v>45078.86898148148</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13332,7 +13317,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13369,14 +13354,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 24333-2022</t>
+          <t>A 5196-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44726.32643518518</v>
+        <v>44593</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13389,7 +13374,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13426,14 +13411,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 40710-2023</t>
+          <t>A 6447-2026</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45170.63194444445</v>
+        <v>46055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13446,7 +13431,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13483,14 +13468,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 37068-2023</t>
+          <t>A 53289-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45155</v>
+        <v>45958</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13503,7 +13488,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13540,14 +13525,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 39530-2023</t>
+          <t>A 2413-2026</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45167.34055555556</v>
+        <v>46036.73725694444</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13560,7 +13545,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.9</v>
+        <v>8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13597,14 +13582,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 24034-2023</t>
+          <t>A 52838-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45078.86898148148</v>
+        <v>45610</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13617,7 +13602,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13654,14 +13639,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 38945-2023</t>
+          <t>A 45641-2022</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45163.60909722222</v>
+        <v>44845</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13674,7 +13659,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13711,14 +13696,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 55291-2023</t>
+          <t>A 21636-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45237</v>
+        <v>45442</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13731,7 +13716,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.1</v>
+        <v>6.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13768,14 +13753,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 5141-2024</t>
+          <t>A 60783-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45330</v>
+        <v>45260.6441087963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13788,7 +13773,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13825,14 +13810,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 3498-2024</t>
+          <t>A 14619-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45320.47233796296</v>
+        <v>45013</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13845,7 +13830,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13882,14 +13867,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 64224-2023</t>
+          <t>A 27454-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45279</v>
+        <v>45474</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13902,7 +13887,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13939,14 +13924,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 27813-2023</t>
+          <t>A 11335-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45098</v>
+        <v>44993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13996,14 +13981,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 20002-2022</t>
+          <t>A 13363-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44697.62150462963</v>
+        <v>45005</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14015,8 +14000,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14053,14 +14043,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 49686-2023</t>
+          <t>A 5151-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45212.36239583333</v>
+        <v>44593</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14073,7 +14063,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.3</v>
+        <v>6.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14110,14 +14100,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 27452-2024</t>
+          <t>A 23741-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45474</v>
+        <v>45077.77087962963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14130,7 +14120,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14167,14 +14157,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 53868-2022</t>
+          <t>A 46147-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44880.64693287037</v>
+        <v>44846</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14187,7 +14177,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>7.6</v>
+        <v>5.7</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14224,14 +14214,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 68856-2021</t>
+          <t>A 47870-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44530</v>
+        <v>44855.43302083333</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14244,7 +14234,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14281,14 +14271,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 30725-2021</t>
+          <t>A 27813-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44365.44506944445</v>
+        <v>45098</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14301,7 +14291,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14338,14 +14328,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 42284-2024</t>
+          <t>A 58387-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45562</v>
+        <v>44901</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14359,7 +14349,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G225" t="n">
@@ -14400,14 +14390,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 5196-2022</t>
+          <t>A 27452-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44593</v>
+        <v>45474</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14420,7 +14410,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>5.6</v>
+        <v>1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14457,14 +14447,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 1280-2023</t>
+          <t>A 45596-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44936</v>
+        <v>45579</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14514,14 +14504,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 39244-2022</t>
+          <t>A 38323-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44817.60482638889</v>
+        <v>45161</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14534,7 +14524,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14571,14 +14561,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 11335-2023</t>
+          <t>A 38325-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44993</v>
+        <v>45161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14591,7 +14581,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14628,14 +14618,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 30852-2021</t>
+          <t>A 21654-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44365</v>
+        <v>45442</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14648,7 +14638,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.6</v>
+        <v>7.2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14685,14 +14675,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 38323-2023</t>
+          <t>A 1280-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45161</v>
+        <v>44936</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14705,7 +14695,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14742,14 +14732,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 38325-2023</t>
+          <t>A 20591-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45161</v>
+        <v>45055</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14762,7 +14752,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14799,14 +14789,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 5557-2022</t>
+          <t>A 52877-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44593</v>
+        <v>44875.53217592592</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14819,7 +14809,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14856,14 +14846,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 52877-2022</t>
+          <t>A 31893-2021</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44875.53217592592</v>
+        <v>44370.45880787037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14876,7 +14866,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14913,14 +14903,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 11105-2021</t>
+          <t>A 11705-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44259</v>
+        <v>44992</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14932,13 +14922,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G235" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14975,14 +14960,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 46253-2024</t>
+          <t>A 27538-2021</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45581</v>
+        <v>44351.67984953704</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14994,13 +14979,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>9.300000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15037,14 +15017,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 2262-2025</t>
+          <t>A 64224-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45673</v>
+        <v>45279</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15057,7 +15037,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15094,14 +15074,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 4623-2024</t>
+          <t>A 20002-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45328</v>
+        <v>44697.62150462963</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15114,7 +15094,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15151,14 +15131,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 3198-2023</t>
+          <t>A 47856-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44944</v>
+        <v>45588.6680324074</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15171,7 +15151,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15208,14 +15188,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 23681-2023</t>
+          <t>A 49686-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45077</v>
+        <v>45212.36239583333</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15228,7 +15208,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15265,14 +15245,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 37967-2024</t>
+          <t>A 68856-2021</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45544.55668981482</v>
+        <v>44530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15285,7 +15265,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15322,14 +15302,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 34051-2024</t>
+          <t>A 46835-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45523</v>
+        <v>45199</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15342,7 +15322,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15379,14 +15359,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 2083-2025</t>
+          <t>A 5557-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45672.58853009259</v>
+        <v>44593</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15399,7 +15379,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15436,14 +15416,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 52286-2023</t>
+          <t>A 46253-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45224.58796296296</v>
+        <v>45581</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15455,8 +15435,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G244" t="n">
-        <v>0.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15493,14 +15478,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 47870-2022</t>
+          <t>A 39530-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44855.43302083333</v>
+        <v>45167.34055555556</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15513,7 +15498,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15550,14 +15535,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 15070-2024</t>
+          <t>A 22976-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45399.59040509259</v>
+        <v>45072</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15569,13 +15554,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G246" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15612,14 +15592,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 16418-2025</t>
+          <t>A 23978-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45751.46372685185</v>
+        <v>44722</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15632,7 +15612,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15669,14 +15649,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 13995-2025</t>
+          <t>A 15812-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45739.74271990741</v>
+        <v>45404.6669212963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15688,8 +15668,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G248" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15726,14 +15711,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 11497-2023</t>
+          <t>A 38945-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44991</v>
+        <v>45163.60909722222</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15746,7 +15731,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15783,14 +15768,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 45596-2024</t>
+          <t>A 55587-2021</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45579</v>
+        <v>44475</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15803,7 +15788,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15840,14 +15825,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 15812-2024</t>
+          <t>A 23874-2022</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45404.6669212963</v>
+        <v>44722</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15859,13 +15844,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G251" t="n">
-        <v>2.8</v>
+        <v>7.8</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15902,14 +15882,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 25069-2023</t>
+          <t>A 9142-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45086</v>
+        <v>45714.31886574074</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15922,7 +15902,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15959,14 +15939,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 49370-2023</t>
+          <t>A 30292-2021</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45211</v>
+        <v>44364.33482638889</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15979,7 +15959,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16016,14 +15996,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 14620-2025</t>
+          <t>A 28247-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45742.41289351852</v>
+        <v>45099</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16036,7 +16016,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16073,14 +16053,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 61682-2023</t>
+          <t>A 56759-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45264</v>
+        <v>45238</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16093,7 +16073,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.8</v>
+        <v>7.4</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16130,14 +16110,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 16399-2025</t>
+          <t>A 4301-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45751</v>
+        <v>45324</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16149,8 +16129,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G256" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16187,14 +16172,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 51276-2024</t>
+          <t>A 22202-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45603</v>
+        <v>45069</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16207,7 +16192,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16244,14 +16229,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 7746-2024</t>
+          <t>A 20012-2022</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45349</v>
+        <v>44697</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16263,13 +16248,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G258" t="n">
-        <v>1.9</v>
+        <v>17.2</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16306,14 +16286,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 40173-2024</t>
+          <t>A 16418-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45554.55435185185</v>
+        <v>45751.46372685185</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16325,13 +16305,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G259" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16368,14 +16343,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 55613-2022</t>
+          <t>A 30852-2021</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44883</v>
+        <v>44365</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16387,13 +16362,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G260" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16430,14 +16400,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 36606-2024</t>
+          <t>A 63720-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45537.56913194444</v>
+        <v>45275</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16450,7 +16420,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16487,14 +16457,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 24217-2025</t>
+          <t>A 14278-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45797.35565972222</v>
+        <v>45393.60961805555</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16507,7 +16477,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16544,14 +16514,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 49989-2024</t>
+          <t>A 47869-2022</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45597</v>
+        <v>44855.43141203704</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16564,7 +16534,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>6.1</v>
+        <v>2.4</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16601,14 +16571,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 44228-2024</t>
+          <t>A 6615-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45573</v>
+        <v>45341</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16621,7 +16591,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16658,14 +16628,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 69394-2021</t>
+          <t>A 24647-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44531</v>
+        <v>45084</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16683,7 +16653,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>5.7</v>
+        <v>11.6</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16720,14 +16690,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 24815-2025</t>
+          <t>A 13420-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45799.44935185185</v>
+        <v>45005</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16739,8 +16709,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G266" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16777,14 +16752,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 27898-2025</t>
+          <t>A 42281-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45817</v>
+        <v>45562.6105787037</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16796,8 +16771,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G267" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16834,14 +16814,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 10544-2025</t>
+          <t>A 42284-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45721.48859953704</v>
+        <v>45562</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16853,8 +16833,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G268" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16891,14 +16876,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 59482-2024</t>
+          <t>A 3489-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45638.52831018518</v>
+        <v>45320</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16911,7 +16896,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16948,14 +16933,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 27010-2023</t>
+          <t>A 30738-2021</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45094.36791666667</v>
+        <v>44365.45446759259</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16968,7 +16953,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -17005,14 +16990,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 29284-2025</t>
+          <t>A 16399-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45824</v>
+        <v>45751</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17025,7 +17010,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17062,14 +17047,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 32132-2025</t>
+          <t>A 51276-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45835.50878472222</v>
+        <v>45603</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17082,7 +17067,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17119,14 +17104,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 33766-2025</t>
+          <t>A 40173-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45842.3869675926</v>
+        <v>45554.55435185185</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17138,8 +17123,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G273" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17176,14 +17166,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 33761-2025</t>
+          <t>A 7746-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45842.38335648148</v>
+        <v>45349</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17195,8 +17185,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G274" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17233,14 +17228,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 33450-2025</t>
+          <t>A 55613-2022</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45841.46677083334</v>
+        <v>44883</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17252,8 +17247,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G275" t="n">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17290,14 +17290,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 33456-2025</t>
+          <t>A 36606-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45841.47364583334</v>
+        <v>45537.56913194444</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17310,7 +17310,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17347,14 +17347,14 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 34472-2025</t>
+          <t>A 24217-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45847.35877314815</v>
+        <v>45797.35565972222</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>

--- a/Översikt KLIPPAN.xlsx
+++ b/Översikt KLIPPAN.xlsx
@@ -575,7 +575,7 @@
         <v>45314</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45960</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>45973</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>45664</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>45581</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>45919.59901620371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>45903</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>45235</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45335</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>44633</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>45544</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>45917</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>45058</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45992</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44880</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>44365</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44596</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>45453</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>44365</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>45015</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>45208</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>46000</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>46000</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>46038</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>45719.44871527778</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44287</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>44883</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>44368.50049768519</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44883</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>44596</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44489.35295138889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>44691.52568287037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44697.63137731481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>44697</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>44531</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>44487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44575</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44621.59760416667</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44691</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44875</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>44363</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>44245</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>44445</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44608</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44575</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44825</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>44782.541875</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>44825</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>44882</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44880</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>44246</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>44418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44251</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44245</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>44700</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44679.2472337963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44816</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44448</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44300</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>45660</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>45079</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44944</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44880.64693287037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>45523</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>45742.41289351852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>45544.55668981482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>45104</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>45328</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44930.55528935185</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>45519</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>44365.44506944445</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>44928</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>45399.59040509259</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>45163</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>44489.36314814815</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>45799.44935185185</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>44593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         <v>45573</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>45597</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>44531</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>45086</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>45610</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>45788.30451388889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>44305</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>45813</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>45040</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>45817</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>45638.52831018518</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>45094.36791666667</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>45721.48859953704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6716,7 +6716,7 @@
         <v>44838</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         <v>45260.65283564815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>45673</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>45077</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>45324.67409722223</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>45103.44039351852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7063,7 +7063,7 @@
         <v>44841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>45905.41005787037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         <v>45905.77766203704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>45419</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>45847.37570601852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>45702</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>45739.73532407408</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>45912.39892361111</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>44817</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>45610</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>45919.38780092593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>45824</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>45922.65922453703</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44991</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>45581</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>45923.44155092593</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45923.66560185186</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>45924.59914351852</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>45330</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44817.60482638889</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>45055</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>45155</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>44420</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8394,7 +8394,7 @@
         <v>45835.50878472222</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44475</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>44244</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>45224.58796296296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>45583.32314814815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8679,7 +8679,7 @@
         <v>45728.39798611111</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44726.32643518518</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44477</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>45841.46677083334</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>45841.47364583334</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>45938.65101851852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44882</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>45842.38335648148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44812.37135416667</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44305</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>45943.58734953704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>45842.3869675926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9378,7 +9378,7 @@
         <v>45847.35877314815</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>45894</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9492,7 +9492,7 @@
         <v>45894</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>45170.63194444445</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>45950.47131944444</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>45951</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>45239</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>45950.46399305556</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>45055</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>45785.5165625</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>45673</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>45672.58853009259</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>45264</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>44992</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>45223</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>45104</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>44659.85333333333</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>44944</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44455</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>45211</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>45103</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>45198</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>45399.57625</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>45799.44813657407</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>45320.47233796296</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>44825</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>45548.56422453704</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>44978.3975462963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>45972</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>45841</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>45594.61548611111</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>45706</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>44944</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>45209</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>44616</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>45981.44112268519</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>45538</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>44593</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>46027.56958333333</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44296.63025462963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>45324.66635416666</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>45267</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44977</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>45237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44529</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>45993.32192129629</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>45903</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>46038.41621527778</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>45075.87199074074</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44475.88427083333</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>45404</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>45767.68126157407</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44988</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44841</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>45946</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>46000</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>45013</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>46049</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>46008.69979166667</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>46051.42502314815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>44609.39615740741</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>46055.85770833334</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45739.74271990741</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>45958</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>46013</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>45562.60690972222</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45562.6322337963</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>46057.471875</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>45078.86898148148</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>44593</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>46055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>45958</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>46036.73725694444</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>45610</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>44845</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>45442</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45260.6441087963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45013</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45474</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>45005</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44593</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>45077.77087962963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>44846</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>44855.43302083333</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>45098</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44901</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>45474</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>45579</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>45161</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>45161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>45442</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44936</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>45055</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44875.53217592592</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>44370.45880787037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14910,7 +14910,7 @@
         <v>44992</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14967,7 +14967,7 @@
         <v>44351.67984953704</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15024,7 +15024,7 @@
         <v>45279</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15081,7 +15081,7 @@
         <v>44697.62150462963</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>45588.6680324074</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>45212.36239583333</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>44530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         <v>45199</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>44593</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>45581</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15485,7 +15485,7 @@
         <v>45167.34055555556</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15542,7 +15542,7 @@
         <v>45072</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>44722</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15656,7 +15656,7 @@
         <v>45404.6669212963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>45163.60909722222</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>44475</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>44722</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>45714.31886574074</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>44364.33482638889</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>45099</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>45238</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>45324</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16179,7 +16179,7 @@
         <v>45069</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16236,7 +16236,7 @@
         <v>44697</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>45751.46372685185</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16350,7 +16350,7 @@
         <v>44365</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16407,7 +16407,7 @@
         <v>45275</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16464,7 +16464,7 @@
         <v>45393.60961805555</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>44855.43141203704</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16578,7 +16578,7 @@
         <v>45341</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>45084</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>45005</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16759,7 +16759,7 @@
         <v>45562.6105787037</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>45562</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>45320</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>44365.45446759259</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>45751</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>45603</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>45554.55435185185</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17173,7 +17173,7 @@
         <v>45349</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>44883</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17297,7 +17297,7 @@
         <v>45537.56913194444</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>45797.35565972222</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>

--- a/Översikt KLIPPAN.xlsx
+++ b/Översikt KLIPPAN.xlsx
@@ -575,7 +575,7 @@
         <v>45314</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45960</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>45973</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>45664</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>45581</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>45919.59901620371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>45903</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>45235</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45335</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>44633</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>45544</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>45917</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>45058</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45992</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44880</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>44365</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44596</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>45453</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>44365</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>45015</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>45208</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>46000</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>46000</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>46038</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>45719.44871527778</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44287</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>44883</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>44368.50049768519</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44883</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>44596</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44489.35295138889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>44691.52568287037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44697.63137731481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>44697</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>44531</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>44487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44575</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44621.59760416667</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44691</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44875</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>44363</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>44245</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>44445</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44608</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44575</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44825</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>44782.541875</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>44825</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>44882</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44880</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>44246</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>44418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44251</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44245</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>44700</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44679.2472337963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44816</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44448</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44300</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>45660</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>45079</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>44944</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>44880.64693287037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>45523</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>45742.41289351852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>45544.55668981482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>45104</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>45328</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         <v>44930.55528935185</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>45519</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>44365.44506944445</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>44928</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>45399.59040509259</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>45163</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>44489.36314814815</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>45799.44935185185</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>44593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         <v>45573</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>45597</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>44531</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>45086</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>45610</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>45788.30451388889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>44305</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>45813</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>45040</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>45817</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6545,7 +6545,7 @@
         <v>45638.52831018518</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>45094.36791666667</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>45721.48859953704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6716,7 +6716,7 @@
         <v>44838</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         <v>45260.65283564815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>45673</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>45077</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>45324.67409722223</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>45103.44039351852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7063,7 +7063,7 @@
         <v>44841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>45905.41005787037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         <v>45905.77766203704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>45419</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         <v>45847.37570601852</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         <v>45702</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>45739.73532407408</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>45912.39892361111</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>44817</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>45610</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>45919.38780092593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>45824</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>45922.65922453703</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44991</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>45581</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>45923.44155092593</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>45923.66560185186</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>45924.59914351852</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>45330</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44817.60482638889</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>45055</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>45155</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>44420</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8394,7 +8394,7 @@
         <v>45835.50878472222</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44475</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>44244</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>45224.58796296296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>45583.32314814815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8679,7 +8679,7 @@
         <v>45728.39798611111</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44726.32643518518</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44477</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>45841.46677083334</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>45841.47364583334</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>45938.65101851852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44882</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>45842.38335648148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44812.37135416667</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44305</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>45943.58734953704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>45842.3869675926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9378,7 +9378,7 @@
         <v>45847.35877314815</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>45894</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9492,7 +9492,7 @@
         <v>45894</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>45170.63194444445</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>45950.47131944444</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>45951</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>45239</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>45950.46399305556</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>45055</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9891,7 +9891,7 @@
         <v>45785.5165625</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>45673</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>45672.58853009259</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>45264</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>44992</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>45223</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>45104</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>44659.85333333333</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>44944</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44455</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>45211</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>45103</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>45198</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>45399.57625</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>45799.44813657407</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>45320.47233796296</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>44825</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>45548.56422453704</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>44978.3975462963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>45972</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>45841</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>45594.61548611111</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>45706</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>44944</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>45209</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>44616</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>45981.44112268519</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>45538</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>44593</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>46027.56958333333</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>44296.63025462963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>45324.66635416666</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>45267</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44977</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>45237</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>44529</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>45993.32192129629</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>45903</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>46038.41621527778</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>45075.87199074074</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44475.88427083333</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>45404</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>45767.68126157407</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44988</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44841</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>45946</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>46000</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>45013</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>46049</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12724,7 +12724,7 @@
         <v>46008.69979166667</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12781,7 +12781,7 @@
         <v>46051.42502314815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>44609.39615740741</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>46055.85770833334</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>45739.74271990741</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>45958</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13066,7 +13066,7 @@
         <v>46013</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>45562.60690972222</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45562.6322337963</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>46057.471875</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>45078.86898148148</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>44593</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>46055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>45958</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>46036.73725694444</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>45610</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>44845</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>45442</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45260.6441087963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45013</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45474</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>44993</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>45005</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>44593</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>45077.77087962963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>44846</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>44855.43302083333</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>45098</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44901</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
         <v>45474</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>45579</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>45161</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14568,7 +14568,7 @@
         <v>45161</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14625,7 +14625,7 @@
         <v>45442</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14682,7 +14682,7 @@
         <v>44936</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14739,7 +14739,7 @@
         <v>45055</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44875.53217592592</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>44370.45880787037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14910,7 +14910,7 @@
         <v>44992</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14967,7 +14967,7 @@
         <v>44351.67984953704</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15024,7 +15024,7 @@
         <v>45279</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15081,7 +15081,7 @@
         <v>44697.62150462963</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>45588.6680324074</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>45212.36239583333</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>44530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         <v>45199</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>44593</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>45581</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15485,7 +15485,7 @@
         <v>45167.34055555556</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15542,7 +15542,7 @@
         <v>45072</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15599,7 +15599,7 @@
         <v>44722</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15656,7 +15656,7 @@
         <v>45404.6669212963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>45163.60909722222</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>44475</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>44722</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>45714.31886574074</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15946,7 +15946,7 @@
         <v>44364.33482638889</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         <v>45099</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>45238</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>45324</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16179,7 +16179,7 @@
         <v>45069</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16236,7 +16236,7 @@
         <v>44697</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16293,7 +16293,7 @@
         <v>45751.46372685185</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16350,7 +16350,7 @@
         <v>44365</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16407,7 +16407,7 @@
         <v>45275</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16464,7 +16464,7 @@
         <v>45393.60961805555</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>44855.43141203704</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16578,7 +16578,7 @@
         <v>45341</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>45084</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>45005</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16759,7 +16759,7 @@
         <v>45562.6105787037</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>45562</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>45320</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>44365.45446759259</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>45751</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>45603</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>45554.55435185185</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17173,7 +17173,7 @@
         <v>45349</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>44883</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17297,7 +17297,7 @@
         <v>45537.56913194444</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>45797.35565972222</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>

--- a/Översikt KLIPPAN.xlsx
+++ b/Översikt KLIPPAN.xlsx
@@ -575,7 +575,7 @@
         <v>45314</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45960</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>45973</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,14 +856,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 513-2025</t>
+          <t>A 54644-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45664</v>
+        <v>45235</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -875,22 +875,17 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G5" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -905,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -914,421 +909,426 @@
         <v>3</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Havstulpanlav
+Skogsduva</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 54644-2023 artfynd.xlsx", "A 54644-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 54644-2023 karta.png", "A 54644-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 54644-2023 FSC-klagomål.docx", "A 54644-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 54644-2023 FSC-klagomål mail.docx", "A 54644-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 54644-2023 tillsynsbegäran.docx", "A 54644-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 54644-2023 tillsynsbegäran mail.docx", "A 54644-2023")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 54644-2023 prioriterade fågelarter.docx", "A 54644-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 45242-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45919.59901620371</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 45242-2025 artfynd.xlsx", "A 45242-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 45242-2025 karta.png", "A 45242-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 45242-2025 FSC-klagomål.docx", "A 45242-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 45242-2025 FSC-klagomål mail.docx", "A 45242-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 45242-2025 tillsynsbegäran.docx", "A 45242-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 45242-2025 tillsynsbegäran mail.docx", "A 45242-2025")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 45242-2025 prioriterade fågelarter.docx", "A 45242-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 42004-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45903</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Gröngöling
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 42004-2025 artfynd.xlsx", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 42004-2025 karta.png", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 42004-2025 FSC-klagomål.docx", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 42004-2025 FSC-klagomål mail.docx", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 42004-2025 tillsynsbegäran.docx", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 42004-2025 tillsynsbegäran mail.docx", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 42004-2025 prioriterade fågelarter.docx", "A 42004-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 46256-2024</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45581</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Rostfläck
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 46256-2024 artfynd.xlsx", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 46256-2024 karta.png", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 46256-2024 FSC-klagomål.docx", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 46256-2024 FSC-klagomål mail.docx", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 46256-2024 tillsynsbegäran.docx", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 46256-2024 tillsynsbegäran mail.docx", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 46256-2024 prioriterade fågelarter.docx", "A 46256-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 513-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45664</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Talltita
 Revlummer</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 513-2025 artfynd.xlsx", "A 513-2025")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 513-2025 karta.png", "A 513-2025")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 513-2025 FSC-klagomål.docx", "A 513-2025")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 513-2025 FSC-klagomål mail.docx", "A 513-2025")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 513-2025 tillsynsbegäran.docx", "A 513-2025")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 513-2025 tillsynsbegäran mail.docx", "A 513-2025")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 513-2025 prioriterade fågelarter.docx", "A 513-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 46256-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45581</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Rostfläck
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 46256-2024 artfynd.xlsx", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 46256-2024 karta.png", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 46256-2024 FSC-klagomål.docx", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 46256-2024 FSC-klagomål mail.docx", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 46256-2024 tillsynsbegäran.docx", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 46256-2024 tillsynsbegäran mail.docx", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 46256-2024 prioriterade fågelarter.docx", "A 46256-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 45242-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45919.59901620371</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 45242-2025 artfynd.xlsx", "A 45242-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 45242-2025 karta.png", "A 45242-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 45242-2025 FSC-klagomål.docx", "A 45242-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 45242-2025 FSC-klagomål mail.docx", "A 45242-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 45242-2025 tillsynsbegäran.docx", "A 45242-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 45242-2025 tillsynsbegäran mail.docx", "A 45242-2025")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 45242-2025 prioriterade fågelarter.docx", "A 45242-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 42004-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45903</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Gröngöling
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 42004-2025 artfynd.xlsx", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 42004-2025 karta.png", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 42004-2025 FSC-klagomål.docx", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 42004-2025 FSC-klagomål mail.docx", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 42004-2025 tillsynsbegäran.docx", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 42004-2025 tillsynsbegäran mail.docx", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 42004-2025 prioriterade fågelarter.docx", "A 42004-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 54644-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45235</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Havstulpanlav
-Skogsduva</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 54644-2023 artfynd.xlsx", "A 54644-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 54644-2023 karta.png", "A 54644-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 54644-2023 FSC-klagomål.docx", "A 54644-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 54644-2023 FSC-klagomål mail.docx", "A 54644-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 54644-2023 tillsynsbegäran.docx", "A 54644-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 54644-2023 tillsynsbegäran mail.docx", "A 54644-2023")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 54644-2023 prioriterade fågelarter.docx", "A 54644-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 5797-2024</t>
+          <t>A 53878-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45335</v>
+        <v>44880</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1376,35 +1376,35 @@
       <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Entita
-Gröngöling</t>
+Gulsparv</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 5797-2024 artfynd.xlsx", "A 5797-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 53878-2022 artfynd.xlsx", "A 53878-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 5797-2024 karta.png", "A 5797-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 53878-2022 karta.png", "A 53878-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 5797-2024 FSC-klagomål.docx", "A 5797-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 53878-2022 FSC-klagomål.docx", "A 53878-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 5797-2024 FSC-klagomål mail.docx", "A 5797-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 53878-2022 FSC-klagomål mail.docx", "A 53878-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 5797-2024 tillsynsbegäran.docx", "A 5797-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 53878-2022 tillsynsbegäran.docx", "A 53878-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 5797-2024 tillsynsbegäran mail.docx", "A 5797-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 53878-2022 tillsynsbegäran mail.docx", "A 53878-2022")</f>
         <v/>
       </c>
       <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 5797-2024 prioriterade fågelarter.docx", "A 5797-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 53878-2022 prioriterade fågelarter.docx", "A 53878-2022")</f>
         <v/>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
         <v>44633</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>45544</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>45917</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>45058</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45992</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1858,14 +1858,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 53878-2022</t>
+          <t>A 5797-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44880</v>
+        <v>45335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>8.300000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="H16" t="n">
         <v>2</v>
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1913,35 +1913,35 @@
       <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Entita
-Gulsparv</t>
+Gröngöling</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 53878-2022 artfynd.xlsx", "A 53878-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 5797-2024 artfynd.xlsx", "A 5797-2024")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 53878-2022 karta.png", "A 53878-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 5797-2024 karta.png", "A 5797-2024")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 53878-2022 FSC-klagomål.docx", "A 53878-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 5797-2024 FSC-klagomål.docx", "A 5797-2024")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 53878-2022 FSC-klagomål mail.docx", "A 53878-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 5797-2024 FSC-klagomål mail.docx", "A 5797-2024")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 53878-2022 tillsynsbegäran.docx", "A 53878-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 5797-2024 tillsynsbegäran.docx", "A 5797-2024")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 53878-2022 tillsynsbegäran mail.docx", "A 53878-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 5797-2024 tillsynsbegäran mail.docx", "A 5797-2024")</f>
         <v/>
       </c>
       <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 53878-2022 prioriterade fågelarter.docx", "A 53878-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 5797-2024 prioriterade fågelarter.docx", "A 5797-2024")</f>
         <v/>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
         <v>44365</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44596</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2122,14 +2122,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 23403-2024</t>
+          <t>A 50089-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45453</v>
+        <v>45208</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2142,10 +2142,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>9.1</v>
+        <v>13.6</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2176,45 +2176,49 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Vårstarr</t>
+          <t>Entita</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 23403-2024 artfynd.xlsx", "A 23403-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 50089-2023 artfynd.xlsx", "A 50089-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 23403-2024 karta.png", "A 23403-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 50089-2023 karta.png", "A 50089-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 23403-2024 FSC-klagomål.docx", "A 23403-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 50089-2023 FSC-klagomål.docx", "A 50089-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 23403-2024 FSC-klagomål mail.docx", "A 23403-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 50089-2023 FSC-klagomål mail.docx", "A 50089-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 23403-2024 tillsynsbegäran.docx", "A 23403-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 50089-2023 tillsynsbegäran.docx", "A 50089-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 23403-2024 tillsynsbegäran mail.docx", "A 23403-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 50089-2023 tillsynsbegäran mail.docx", "A 50089-2023")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 50089-2023 prioriterade fågelarter.docx", "A 50089-2023")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 30721-2021</t>
+          <t>A 14892-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44365</v>
+        <v>45015</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2227,17 +2231,17 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
@@ -2251,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2261,45 +2265,49 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 30721-2021 artfynd.xlsx", "A 30721-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 14892-2023 artfynd.xlsx", "A 14892-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 30721-2021 karta.png", "A 30721-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 14892-2023 karta.png", "A 14892-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 30721-2021 FSC-klagomål.docx", "A 30721-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 14892-2023 FSC-klagomål.docx", "A 14892-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 30721-2021 FSC-klagomål mail.docx", "A 30721-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 14892-2023 FSC-klagomål mail.docx", "A 14892-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 30721-2021 tillsynsbegäran.docx", "A 30721-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 14892-2023 tillsynsbegäran.docx", "A 14892-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 30721-2021 tillsynsbegäran mail.docx", "A 30721-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 14892-2023 tillsynsbegäran mail.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 14892-2023 prioriterade fågelarter.docx", "A 14892-2023")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 14892-2023</t>
+          <t>A 61058-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45015</v>
+        <v>46000</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2311,8 +2319,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2321,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2336,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2346,49 +2359,49 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 14892-2023 artfynd.xlsx", "A 14892-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 61058-2025 artfynd.xlsx", "A 61058-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 14892-2023 karta.png", "A 14892-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 61058-2025 karta.png", "A 61058-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 14892-2023 FSC-klagomål.docx", "A 14892-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 61058-2025 FSC-klagomål.docx", "A 61058-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 14892-2023 FSC-klagomål mail.docx", "A 14892-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 61058-2025 FSC-klagomål mail.docx", "A 61058-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 14892-2023 tillsynsbegäran.docx", "A 14892-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 61058-2025 tillsynsbegäran.docx", "A 61058-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 14892-2023 tillsynsbegäran mail.docx", "A 14892-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 61058-2025 tillsynsbegäran mail.docx", "A 61058-2025")</f>
         <v/>
       </c>
       <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 14892-2023 prioriterade fågelarter.docx", "A 14892-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 61058-2025 prioriterade fågelarter.docx", "A 61058-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 50089-2023</t>
+          <t>A 10000-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45208</v>
+        <v>45719.44871527778</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2401,16 +2414,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>13.6</v>
+        <v>2.6</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2425,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2435,49 +2448,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Entita</t>
+          <t>Dvärghäxört</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 50089-2023 artfynd.xlsx", "A 50089-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 10000-2025 artfynd.xlsx", "A 10000-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 50089-2023 karta.png", "A 50089-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 10000-2025 karta.png", "A 10000-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 50089-2023 FSC-klagomål.docx", "A 50089-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 10000-2025 FSC-klagomål.docx", "A 10000-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 50089-2023 FSC-klagomål mail.docx", "A 50089-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 10000-2025 FSC-klagomål mail.docx", "A 10000-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 50089-2023 tillsynsbegäran.docx", "A 50089-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 10000-2025 tillsynsbegäran.docx", "A 10000-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 50089-2023 tillsynsbegäran mail.docx", "A 50089-2023")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 50089-2023 prioriterade fågelarter.docx", "A 50089-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 10000-2025 tillsynsbegäran mail.docx", "A 10000-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 61058-2025</t>
+          <t>A 2839-2026</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>46000</v>
+        <v>46038</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2489,13 +2498,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -2504,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2519,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2529,35 +2533,35 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Entita</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 61058-2025 artfynd.xlsx", "A 61058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 2839-2026 artfynd.xlsx", "A 2839-2026")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 61058-2025 karta.png", "A 61058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 2839-2026 karta.png", "A 2839-2026")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 61058-2025 FSC-klagomål.docx", "A 61058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 2839-2026 FSC-klagomål.docx", "A 2839-2026")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 61058-2025 FSC-klagomål mail.docx", "A 61058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 2839-2026 FSC-klagomål mail.docx", "A 2839-2026")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 61058-2025 tillsynsbegäran.docx", "A 61058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 2839-2026 tillsynsbegäran.docx", "A 2839-2026")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 61058-2025 tillsynsbegäran mail.docx", "A 61058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 2839-2026 tillsynsbegäran mail.docx", "A 2839-2026")</f>
         <v/>
       </c>
       <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 61058-2025 prioriterade fågelarter.docx", "A 61058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 2839-2026 prioriterade fågelarter.docx", "A 2839-2026")</f>
         <v/>
       </c>
     </row>
@@ -2571,7 +2575,7 @@
         <v>46000</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2658,14 +2662,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 2839-2026</t>
+          <t>A 23403-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>46038</v>
+        <v>45453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2678,10 +2682,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.4</v>
+        <v>9.1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2712,49 +2716,45 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Entita</t>
+          <t>Vårstarr</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 2839-2026 artfynd.xlsx", "A 2839-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 23403-2024 artfynd.xlsx", "A 23403-2024")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 2839-2026 karta.png", "A 2839-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 23403-2024 karta.png", "A 23403-2024")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 2839-2026 FSC-klagomål.docx", "A 2839-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 23403-2024 FSC-klagomål.docx", "A 23403-2024")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 2839-2026 FSC-klagomål mail.docx", "A 2839-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 23403-2024 FSC-klagomål mail.docx", "A 23403-2024")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 2839-2026 tillsynsbegäran.docx", "A 2839-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 23403-2024 tillsynsbegäran.docx", "A 23403-2024")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 2839-2026 tillsynsbegäran mail.docx", "A 2839-2026")</f>
-        <v/>
-      </c>
-      <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 2839-2026 prioriterade fågelarter.docx", "A 2839-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 23403-2024 tillsynsbegäran mail.docx", "A 23403-2024")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 10000-2025</t>
+          <t>A 30721-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45719.44871527778</v>
+        <v>44365</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2801,45 +2801,45 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Dvärghäxört</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 10000-2025 artfynd.xlsx", "A 10000-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 30721-2021 artfynd.xlsx", "A 30721-2021")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 10000-2025 karta.png", "A 10000-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 30721-2021 karta.png", "A 30721-2021")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 10000-2025 FSC-klagomål.docx", "A 10000-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 30721-2021 FSC-klagomål.docx", "A 30721-2021")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 10000-2025 FSC-klagomål mail.docx", "A 10000-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 30721-2021 FSC-klagomål mail.docx", "A 30721-2021")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 10000-2025 tillsynsbegäran.docx", "A 10000-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 30721-2021 tillsynsbegäran.docx", "A 30721-2021")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 10000-2025 tillsynsbegäran mail.docx", "A 10000-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 30721-2021 tillsynsbegäran mail.docx", "A 30721-2021")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 16189-2021</t>
+          <t>A 55629-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44287</v>
+        <v>44883</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2894,14 +2894,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 55629-2022</t>
+          <t>A 16189-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44883</v>
+        <v>44287</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2963,7 +2963,7 @@
         <v>44368.50049768519</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44883</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>44596</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44489.35295138889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>44691.52568287037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44697.63137731481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>44697</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>44531</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>44487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44575</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44621.59760416667</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3603,14 +3603,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 19094-2022</t>
+          <t>A 53582-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44691</v>
+        <v>44875</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3622,8 +3622,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3660,14 +3665,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 53582-2022</t>
+          <t>A 19094-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44875</v>
+        <v>44691</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3679,13 +3684,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>44363</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>44245</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>44445</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44608</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44575</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44825</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>44782.541875</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>44825</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>44882</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44880</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>44246</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>44418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44251</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44245</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>44700</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44679.2472337963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44816</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4741,14 +4741,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 47967-2021</t>
+          <t>A 17060-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44448</v>
+        <v>44296.63025462963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4798,14 +4798,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 17792-2021</t>
+          <t>A 6615-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44300</v>
+        <v>45341</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.1</v>
+        <v>0.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4855,14 +4855,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 11105-2021</t>
+          <t>A 9142-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44259</v>
+        <v>45714.31886574074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4874,13 +4874,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4917,14 +4912,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 243-2025</t>
+          <t>A 22976-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45660</v>
+        <v>45072</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4937,7 +4932,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4974,14 +4969,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 25393-2023</t>
+          <t>A 4301-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45079</v>
+        <v>45324</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4993,8 +4988,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5031,14 +5031,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 3198-2023</t>
+          <t>A 4321-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44944</v>
+        <v>45324.66635416666</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5088,14 +5088,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 53868-2022</t>
+          <t>A 17792-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44880.64693287037</v>
+        <v>44300</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>7.6</v>
+        <v>3.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5145,14 +5145,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 34051-2024</t>
+          <t>A 17856-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45523</v>
+        <v>45419</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5164,8 +5164,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5202,14 +5207,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 14620-2025</t>
+          <t>A 47869-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45742.41289351852</v>
+        <v>44855.43141203704</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5222,7 +5227,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5259,14 +5264,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 37967-2024</t>
+          <t>A 55833-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45544.55668981482</v>
+        <v>45239</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5279,7 +5284,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5316,14 +5321,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 28844-2023</t>
+          <t>A 38156-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45104</v>
+        <v>44812.37135416667</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5336,7 +5341,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5373,14 +5378,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 4623-2024</t>
+          <t>A 44885-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45328</v>
+        <v>44841</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5393,7 +5398,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5430,14 +5435,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 593-2023</t>
+          <t>A 14278-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44930.55528935185</v>
+        <v>45393.60961805555</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5450,7 +5455,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5487,14 +5492,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 33331-2024</t>
+          <t>A 30738-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45519</v>
+        <v>44365.45446759259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5506,13 +5511,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5549,14 +5549,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 30725-2021</t>
+          <t>A 56089-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44365.44506944445</v>
+        <v>44477</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.6</v>
+        <v>20.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5606,14 +5606,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 217-2023</t>
+          <t>A 23260-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44928</v>
+        <v>45075.87199074074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5663,14 +5663,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 15070-2024</t>
+          <t>A 21654-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45399.59040509259</v>
+        <v>45442</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5682,13 +5682,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>4.9</v>
+        <v>7.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5725,14 +5720,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 38724-2023</t>
+          <t>A 3489-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45163</v>
+        <v>45320</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5745,7 +5740,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5782,14 +5777,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 58642-2021</t>
+          <t>A 44891-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44489.36314814815</v>
+        <v>44841</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5802,7 +5797,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5839,14 +5834,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 24815-2025</t>
+          <t>A 54348-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45799.44935185185</v>
+        <v>44882</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5859,7 +5854,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.8</v>
+        <v>7.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5896,14 +5891,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 5256-2022</t>
+          <t>A 45641-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44593</v>
+        <v>44845</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5916,7 +5911,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5953,14 +5948,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 44228-2024</t>
+          <t>A 55586-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45573</v>
+        <v>44475.88427083333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6010,14 +6005,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 49989-2024</t>
+          <t>A 52882-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45597</v>
+        <v>45610</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6030,7 +6025,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>6.1</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6067,14 +6062,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 69394-2021</t>
+          <t>A 10695-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44531</v>
+        <v>44988</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6086,13 +6081,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>5.7</v>
+        <v>2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6129,14 +6119,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 25069-2023</t>
+          <t>A 13994-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45086</v>
+        <v>45739.73532407408</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6149,7 +6139,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6186,14 +6176,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 52851-2024</t>
+          <t>A 33331-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45610</v>
+        <v>45519</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6205,8 +6195,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6243,14 +6238,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 22540-2025</t>
+          <t>A 58387-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45788.30451388889</v>
+        <v>44901</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6262,8 +6257,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>4.9</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6300,14 +6300,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 18520-2021</t>
+          <t>A 217-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44305</v>
+        <v>44928</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6319,13 +6319,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6362,14 +6357,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 27529-2025</t>
+          <t>A 27010-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45813</v>
+        <v>45094.36791666667</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6381,13 +6376,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>7.9</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6424,14 +6414,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 18214-2023</t>
+          <t>A 31893-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45040</v>
+        <v>44370.45880787037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6444,7 +6434,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6481,14 +6471,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 27898-2025</t>
+          <t>A 8017-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45817</v>
+        <v>44609.39615740741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6501,7 +6491,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6538,14 +6528,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 59482-2024</t>
+          <t>A 42275-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45638.52831018518</v>
+        <v>45562.60690972222</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6557,8 +6547,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6595,14 +6590,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 27010-2023</t>
+          <t>A 42303-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45094.36791666667</v>
+        <v>45562.6322337963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6614,8 +6609,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6652,14 +6652,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 10544-2025</t>
+          <t>A 15810-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45721.48859953704</v>
+        <v>45404</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6671,8 +6671,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6709,14 +6714,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 43855-2022</t>
+          <t>A 14614-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44838</v>
+        <v>45013</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6728,13 +6733,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>1.3</v>
+        <v>5.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6771,14 +6771,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 60791-2023</t>
+          <t>A 29284-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45260.65283564815</v>
+        <v>45824</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6828,14 +6828,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 2262-2025</t>
+          <t>A 8204-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45673</v>
+        <v>44244</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6885,14 +6885,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 23681-2023</t>
+          <t>A 20128-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45077</v>
+        <v>45055</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6942,14 +6942,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 4324-2024</t>
+          <t>A 7515-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45324.67409722223</v>
+        <v>45702</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6961,8 +6961,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6999,14 +7004,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 28490-2023</t>
+          <t>A 52851-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45103.44039351852</v>
+        <v>45610</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7019,7 +7024,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7056,14 +7061,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 44891-2022</t>
+          <t>A 62473-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44841</v>
+        <v>45267</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7075,8 +7080,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7113,14 +7123,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 42423-2025</t>
+          <t>A 22540-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45905.41005787037</v>
+        <v>45788.30451388889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7130,11 +7140,6 @@
       <c r="E100" t="inlineStr">
         <is>
           <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -7175,14 +7180,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 42627-2025</t>
+          <t>A 32132-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45905.77766203704</v>
+        <v>45835.50878472222</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7195,7 +7200,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7232,14 +7237,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 17856-2024</t>
+          <t>A 23978-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45419</v>
+        <v>44722</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7251,13 +7256,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>3.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7294,14 +7294,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 34479-2025</t>
+          <t>A 27529-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45847.37570601852</v>
+        <v>45813</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7313,8 +7313,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>1.6</v>
+        <v>7.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7351,14 +7356,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 7515-2025</t>
+          <t>A 60783-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45702</v>
+        <v>45260.6441087963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7370,13 +7375,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7413,14 +7413,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 13994-2025</t>
+          <t>A 8500-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45739.73532407408</v>
+        <v>44977</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7470,14 +7470,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 43698-2025</t>
+          <t>A 33766-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45912.39892361111</v>
+        <v>45842.3869675926</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7527,14 +7527,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 39238-2022</t>
+          <t>A 33761-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44817</v>
+        <v>45842.38335648148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7584,14 +7584,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 52882-2024</t>
+          <t>A 33450-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45610</v>
+        <v>45841.46677083334</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7641,14 +7641,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 45096-2025</t>
+          <t>A 33456-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45919.38780092593</v>
+        <v>45841.47364583334</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7698,14 +7698,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 29284-2025</t>
+          <t>A 60791-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45824</v>
+        <v>45260.65283564815</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7755,14 +7755,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 45574-2025</t>
+          <t>A 52838-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45922.65922453703</v>
+        <v>45610</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7812,14 +7812,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 11497-2023</t>
+          <t>A 13420-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44991</v>
+        <v>45005</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7831,8 +7831,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7869,14 +7874,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 46260-2024</t>
+          <t>A 22202-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45581</v>
+        <v>45069</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7888,13 +7893,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7931,14 +7931,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 45717-2025</t>
+          <t>A 43855-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45923.44155092593</v>
+        <v>44838</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7950,8 +7950,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>9.1</v>
+        <v>1.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7988,14 +7993,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 45886-2025</t>
+          <t>A 34472-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45923.66560185186</v>
+        <v>45847.35877314815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8008,7 +8013,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8045,14 +8050,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 46138-2025</t>
+          <t>A 49073-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45924.59914351852</v>
+        <v>45594.61548611111</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8065,7 +8070,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8102,14 +8107,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 5141-2024</t>
+          <t>A 20717-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45330</v>
+        <v>45055</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8122,7 +8127,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8159,14 +8164,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 39244-2022</t>
+          <t>A 56759-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44817.60482638889</v>
+        <v>45238</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8179,7 +8184,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.4</v>
+        <v>7.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8216,14 +8221,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 20717-2023</t>
+          <t>A 42627-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45055</v>
+        <v>45905.77766203704</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8236,7 +8241,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8273,14 +8278,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 37068-2023</t>
+          <t>A 27538-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45155</v>
+        <v>44351.67984953704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8293,7 +8298,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8330,14 +8335,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 40762-2021</t>
+          <t>A 42423-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44420</v>
+        <v>45905.41005787037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8349,8 +8354,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8387,14 +8397,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 32132-2025</t>
+          <t>A 27454-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45835.50878472222</v>
+        <v>45474</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8407,7 +8417,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8444,14 +8454,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 55588-2021</t>
+          <t>A 28490-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44475</v>
+        <v>45103.44039351852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8464,7 +8474,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8501,14 +8511,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 8204-2021</t>
+          <t>A 18516-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44244</v>
+        <v>44305</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8520,8 +8530,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8558,14 +8573,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 52286-2023</t>
+          <t>A 22120-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45224.58796296296</v>
+        <v>45785.5165625</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8578,7 +8593,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8622,7 +8637,7 @@
         <v>45583.32314814815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8672,14 +8687,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 11857-2025</t>
+          <t>A 43698-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45728.39798611111</v>
+        <v>45912.39892361111</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8691,13 +8706,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8734,14 +8744,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 24333-2022</t>
+          <t>A 34479-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44726.32643518518</v>
+        <v>45847.37570601852</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8754,7 +8764,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8791,14 +8801,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 56089-2021</t>
+          <t>A 11857-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44477</v>
+        <v>45728.39798611111</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8810,8 +8820,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>20.9</v>
+        <v>4.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8848,14 +8863,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 33450-2025</t>
+          <t>A 50357-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45841.46677083334</v>
+        <v>44455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8868,7 +8883,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8905,14 +8920,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 33456-2025</t>
+          <t>A 13363-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45841.47364583334</v>
+        <v>45005</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8924,8 +8939,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8962,14 +8982,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 49394-2025</t>
+          <t>A 24813-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45938.65101851852</v>
+        <v>45799.44813657407</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8981,13 +9001,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9024,14 +9039,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 54348-2022</t>
+          <t>A 45574-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44882</v>
+        <v>45922.65922453703</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9044,7 +9059,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>7.8</v>
+        <v>1.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9081,14 +9096,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 33761-2025</t>
+          <t>A 14619-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45842.38335648148</v>
+        <v>45013</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9101,7 +9116,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9138,14 +9153,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 38156-2022</t>
+          <t>A 45096-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44812.37135416667</v>
+        <v>45919.38780092593</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9158,7 +9173,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9195,14 +9210,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 18516-2021</t>
+          <t>A 45717-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44305</v>
+        <v>45923.44155092593</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9214,13 +9229,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>4.1</v>
+        <v>9.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9257,14 +9267,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 50163-2025</t>
+          <t>A 45886-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45943.58734953704</v>
+        <v>45923.66560185186</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9277,7 +9287,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9314,14 +9324,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 33766-2025</t>
+          <t>A 46138-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45842.3869675926</v>
+        <v>45924.59914351852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9334,7 +9344,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9371,14 +9381,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 34472-2025</t>
+          <t>A 55587-2021</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45847.35877314815</v>
+        <v>44475</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9391,7 +9401,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9428,14 +9438,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 40105-2025</t>
+          <t>A 19097-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45894</v>
+        <v>45767.68126157407</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9448,7 +9458,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9485,14 +9495,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 40092-2025</t>
+          <t>A 49394-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45894</v>
+        <v>45938.65101851852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9504,8 +9514,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9542,14 +9557,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 40710-2023</t>
+          <t>A 69041-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45170.63194444445</v>
+        <v>44529</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9562,7 +9577,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9599,14 +9614,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 51396-2025</t>
+          <t>A 23741-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45950.47131944444</v>
+        <v>45077.77087962963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9619,7 +9634,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9656,14 +9671,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 51946-2025</t>
+          <t>A 25393-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45951</v>
+        <v>45079</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9676,7 +9691,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9713,14 +9728,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 55833-2023</t>
+          <t>A 8712-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45239</v>
+        <v>44978.3975462963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9733,7 +9748,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9770,14 +9785,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 51384-2025</t>
+          <t>A 50163-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45950.46399305556</v>
+        <v>45943.58734953704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9790,7 +9805,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9827,14 +9842,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 20128-2023</t>
+          <t>A 36842-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45055</v>
+        <v>45538</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9846,8 +9861,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9884,14 +9904,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 22120-2025</t>
+          <t>A 593-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45785.5165625</v>
+        <v>44930.55528935185</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9904,7 +9924,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.7</v>
+        <v>0.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9941,14 +9961,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 2252-2025</t>
+          <t>A 46147-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45673</v>
+        <v>44846</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9961,7 +9981,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.3</v>
+        <v>5.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9998,14 +10018,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 2083-2025</t>
+          <t>A 20591-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45672.58853009259</v>
+        <v>45055</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10018,7 +10038,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10055,14 +10075,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 61682-2023</t>
+          <t>A 55588-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45264</v>
+        <v>44475</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10075,7 +10095,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10112,14 +10132,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 11676-2023</t>
+          <t>A 40092-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44992</v>
+        <v>45894</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10131,13 +10151,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10174,14 +10189,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 51844-2023</t>
+          <t>A 40105-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45223</v>
+        <v>45894</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10194,7 +10209,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10231,14 +10246,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 28847-2023</t>
+          <t>A 51396-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45104</v>
+        <v>45950.47131944444</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10251,7 +10266,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10288,14 +10303,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 15442-2022</t>
+          <t>A 51384-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44659.85333333333</v>
+        <v>45950.46399305556</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10308,7 +10323,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10345,14 +10360,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 2755-2023</t>
+          <t>A 47856-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44944</v>
+        <v>45588.6680324074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10364,13 +10379,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10407,14 +10417,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 50357-2021</t>
+          <t>A 28247-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44455</v>
+        <v>45099</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10427,7 +10437,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10464,14 +10474,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 49370-2023</t>
+          <t>A 51946-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45211</v>
+        <v>45951</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10484,7 +10494,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10521,14 +10531,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 28709-2023</t>
+          <t>A 2755-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45103</v>
+        <v>44944</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10540,8 +10550,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10578,14 +10593,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 46728-2023</t>
+          <t>A 28847-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45198</v>
+        <v>45104</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10598,7 +10613,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10635,14 +10650,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 15065-2024</t>
+          <t>A 42281-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45399.57625</v>
+        <v>45562.6105787037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10656,11 +10671,11 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>5.8</v>
+        <v>0.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10697,14 +10712,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 24813-2025</t>
+          <t>A 46260-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45799.44813657407</v>
+        <v>45581</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10716,8 +10731,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10754,14 +10774,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 3498-2024</t>
+          <t>A 47967-2021</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45320.47233796296</v>
+        <v>44448</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10811,14 +10831,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 41294-2022</t>
+          <t>A 58642-2021</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44825</v>
+        <v>44489.36314814815</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10831,7 +10851,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>6.1</v>
+        <v>2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10868,14 +10888,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 39097-2024</t>
+          <t>A 63720-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45548.56422453704</v>
+        <v>45275</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10888,7 +10908,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10925,14 +10945,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 8712-2023</t>
+          <t>A 11676-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44978.3975462963</v>
+        <v>44992</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10944,8 +10964,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10982,14 +11007,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 55696-2025</t>
+          <t>A 11705-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45972</v>
+        <v>44992</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11002,7 +11027,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11039,14 +11064,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 33462-2025</t>
+          <t>A 55696-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45841</v>
+        <v>45972</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11059,7 +11084,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11096,14 +11121,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 49073-2024</t>
+          <t>A 30292-2021</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45594.61548611111</v>
+        <v>44364.33482638889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11116,7 +11141,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11153,14 +11178,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 7661-2025</t>
+          <t>A 5523-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45706</v>
+        <v>44593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11173,7 +11198,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.7</v>
+        <v>5.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11210,14 +11235,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 3183-2023</t>
+          <t>A 18214-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44944</v>
+        <v>45040</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11230,7 +11255,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>6.9</v>
+        <v>4.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11267,14 +11292,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 48965-2023</t>
+          <t>A 3183-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45209</v>
+        <v>44944</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11287,7 +11312,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.9</v>
+        <v>6.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11324,14 +11349,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 9270-2022</t>
+          <t>A 24647-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44616</v>
+        <v>45084</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11343,8 +11368,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>1.7</v>
+        <v>11.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11381,14 +11411,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 57687-2025</t>
+          <t>A 7661-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45981.44112268519</v>
+        <v>45706</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11400,13 +11430,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11443,14 +11468,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 36842-2024</t>
+          <t>A 2252-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45538</v>
+        <v>45673</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11462,13 +11487,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>3.8</v>
+        <v>0.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11505,14 +11525,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 5523-2022</t>
+          <t>A 15065-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44593</v>
+        <v>45399.57625</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11524,8 +11544,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11562,14 +11587,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 317-2026</t>
+          <t>A 33462-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46027.56958333333</v>
+        <v>45841</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11582,7 +11607,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11619,14 +11644,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 17060-2021</t>
+          <t>A 4324-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44296.63025462963</v>
+        <v>45324.67409722223</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11639,7 +11664,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11676,14 +11701,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 4321-2024</t>
+          <t>A 41294-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45324.66635416666</v>
+        <v>44825</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11696,7 +11721,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.7</v>
+        <v>6.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11733,14 +11758,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 62473-2023</t>
+          <t>A 9270-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45267</v>
+        <v>44616</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11752,13 +11777,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11795,14 +11815,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 8500-2023</t>
+          <t>A 57687-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44977</v>
+        <v>45981.44112268519</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11814,8 +11834,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11852,14 +11877,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 55291-2023</t>
+          <t>A 39097-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45237</v>
+        <v>45548.56422453704</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11872,7 +11897,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11909,14 +11934,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 69041-2021</t>
+          <t>A 51844-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44529</v>
+        <v>45223</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11929,7 +11954,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11966,14 +11991,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 59885-2025</t>
+          <t>A 317-2026</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45993.32192129629</v>
+        <v>46027.56958333333</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11986,7 +12011,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12023,14 +12048,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 42006-2025</t>
+          <t>A 46835-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45903</v>
+        <v>45199</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12043,7 +12068,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12080,14 +12105,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 2806-2026</t>
+          <t>A 28844-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46038.41621527778</v>
+        <v>45104</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12100,7 +12125,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>7.9</v>
+        <v>0.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12137,14 +12162,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 23260-2023</t>
+          <t>A 39238-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45075.87199074074</v>
+        <v>44817</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12157,7 +12182,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12194,14 +12219,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 55586-2021</t>
+          <t>A 59885-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44475.88427083333</v>
+        <v>45993.32192129629</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12214,7 +12239,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12251,14 +12276,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 15810-2024</t>
+          <t>A 2806-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45404</v>
+        <v>46038.41621527778</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12270,13 +12295,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>3.7</v>
+        <v>7.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12313,14 +12333,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 19097-2025</t>
+          <t>A 5256-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45767.68126157407</v>
+        <v>44593</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12333,7 +12353,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12370,14 +12390,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 10695-2023</t>
+          <t>A 15442-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44988</v>
+        <v>44659.85333333333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12390,7 +12410,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12427,14 +12447,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 44885-2022</t>
+          <t>A 48965-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44841</v>
+        <v>45209</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12447,7 +12467,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12484,14 +12504,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 50781-2025</t>
+          <t>A 18520-2021</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45946</v>
+        <v>44305</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12503,8 +12523,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12541,14 +12566,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 61060-2025</t>
+          <t>A 42006-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46000</v>
+        <v>45903</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12560,13 +12585,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12603,14 +12623,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 14614-2023</t>
+          <t>A 20012-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45013</v>
+        <v>44697</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12623,7 +12643,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>5.1</v>
+        <v>17.2</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12660,14 +12680,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 4968-2026</t>
+          <t>A 5151-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46049</v>
+        <v>44593</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12680,7 +12700,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.4</v>
+        <v>6.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12717,14 +12737,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 62849-2025</t>
+          <t>A 243-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46008.69979166667</v>
+        <v>45660</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12737,7 +12757,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12774,14 +12794,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 5645-2026</t>
+          <t>A 40762-2021</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46051.42502314815</v>
+        <v>44420</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12794,7 +12814,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12831,14 +12851,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 8017-2022</t>
+          <t>A 28709-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44609.39615740741</v>
+        <v>45103</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12851,7 +12871,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12888,14 +12908,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 6446-2026</t>
+          <t>A 21636-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46055.85770833334</v>
+        <v>45442</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12908,7 +12928,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.5</v>
+        <v>6.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12945,14 +12965,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 13995-2025</t>
+          <t>A 46728-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45739.74271990741</v>
+        <v>45198</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12965,7 +12985,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13002,14 +13022,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 53290-2025</t>
+          <t>A 23874-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45958</v>
+        <v>44722</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13022,7 +13042,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.9</v>
+        <v>7.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13059,14 +13079,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 63499-2025</t>
+          <t>A 38724-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46013</v>
+        <v>45163</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13079,7 +13099,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13116,14 +13136,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 42275-2024</t>
+          <t>A 24333-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45562.60690972222</v>
+        <v>44726.32643518518</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13135,13 +13155,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13178,14 +13193,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 42303-2024</t>
+          <t>A 40710-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45562.6322337963</v>
+        <v>45170.63194444445</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13197,13 +13212,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13240,14 +13250,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 6890-2026</t>
+          <t>A 4968-2026</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46057.471875</v>
+        <v>46049</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13260,7 +13270,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>8</v>
+        <v>0.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13297,14 +13307,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 24034-2023</t>
+          <t>A 61060-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45078.86898148148</v>
+        <v>46000</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13314,6 +13324,11 @@
       <c r="E207" t="inlineStr">
         <is>
           <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G207" t="n">
@@ -13354,14 +13369,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 5196-2022</t>
+          <t>A 62849-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44593</v>
+        <v>46008.69979166667</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13374,7 +13389,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>5.6</v>
+        <v>1.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13411,14 +13426,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 6447-2026</t>
+          <t>A 37068-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46055</v>
+        <v>45155</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13431,7 +13446,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13468,14 +13483,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 53289-2025</t>
+          <t>A 39530-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45958</v>
+        <v>45167.34055555556</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13488,7 +13503,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13525,14 +13540,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 2413-2026</t>
+          <t>A 5645-2026</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46036.73725694444</v>
+        <v>46051.42502314815</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13545,7 +13560,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>8</v>
+        <v>1.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13582,14 +13597,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 52838-2024</t>
+          <t>A 24034-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45610</v>
+        <v>45078.86898148148</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13602,7 +13617,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13639,14 +13654,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 45641-2022</t>
+          <t>A 38945-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44845</v>
+        <v>45163.60909722222</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13659,7 +13674,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13696,14 +13711,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 21636-2024</t>
+          <t>A 55291-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45442</v>
+        <v>45237</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13716,7 +13731,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>6.3</v>
+        <v>2.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13753,14 +13768,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 60783-2023</t>
+          <t>A 6446-2026</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45260.6441087963</v>
+        <v>46055.85770833334</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13773,7 +13788,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13810,14 +13825,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 14619-2023</t>
+          <t>A 5141-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45013</v>
+        <v>45330</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13830,7 +13845,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13867,14 +13882,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 27454-2024</t>
+          <t>A 6447-2026</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45474</v>
+        <v>46055</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13887,7 +13902,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13924,14 +13939,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 11335-2023</t>
+          <t>A 3498-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44993</v>
+        <v>45320.47233796296</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13944,7 +13959,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13981,14 +13996,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 13363-2023</t>
+          <t>A 6890-2026</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45005</v>
+        <v>46057.471875</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14000,13 +14015,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G219" t="n">
-        <v>0.6</v>
+        <v>8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14043,14 +14053,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 5151-2022</t>
+          <t>A 63499-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44593</v>
+        <v>46013</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14063,7 +14073,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>6.5</v>
+        <v>3.9</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14100,14 +14110,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 23741-2023</t>
+          <t>A 64224-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45077.77087962963</v>
+        <v>45279</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14120,7 +14130,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14157,14 +14167,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 46147-2022</t>
+          <t>A 27813-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44846</v>
+        <v>45098</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14177,7 +14187,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>5.7</v>
+        <v>1.3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14214,14 +14224,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 47870-2022</t>
+          <t>A 20002-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44855.43302083333</v>
+        <v>44697.62150462963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14234,7 +14244,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14271,14 +14281,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 27813-2023</t>
+          <t>A 53289-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45098</v>
+        <v>45958</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14328,14 +14338,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 58387-2022</t>
+          <t>A 53290-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44901</v>
+        <v>45958</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14347,13 +14357,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14390,14 +14395,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 27452-2024</t>
+          <t>A 2413-2026</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45474</v>
+        <v>46036.73725694444</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14410,7 +14415,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14447,14 +14452,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 45596-2024</t>
+          <t>A 49686-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45579</v>
+        <v>45212.36239583333</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14467,7 +14472,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14504,14 +14509,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 38323-2023</t>
+          <t>A 27452-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45161</v>
+        <v>45474</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14524,7 +14529,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14561,14 +14566,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 38325-2023</t>
+          <t>A 53868-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45161</v>
+        <v>44880.64693287037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14581,7 +14586,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>4.1</v>
+        <v>7.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14618,14 +14623,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 21654-2024</t>
+          <t>A 68856-2021</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45442</v>
+        <v>44530</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14638,7 +14643,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>7.2</v>
+        <v>0.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14675,14 +14680,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 1280-2023</t>
+          <t>A 50781-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44936</v>
+        <v>45946</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14695,7 +14700,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14732,14 +14737,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 20591-2023</t>
+          <t>A 30725-2021</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45055</v>
+        <v>44365.44506944445</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14752,7 +14757,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14789,14 +14794,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 52877-2022</t>
+          <t>A 42284-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44875.53217592592</v>
+        <v>45562</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14808,8 +14813,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G233" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14846,14 +14856,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 31893-2021</t>
+          <t>A 5196-2022</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44370.45880787037</v>
+        <v>44593</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14866,7 +14876,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.6</v>
+        <v>5.6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14903,14 +14913,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 11705-2023</t>
+          <t>A 1280-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44992</v>
+        <v>44936</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14923,7 +14933,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14960,14 +14970,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 27538-2021</t>
+          <t>A 39244-2022</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44351.67984953704</v>
+        <v>44817.60482638889</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14980,7 +14990,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15017,14 +15027,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 64224-2023</t>
+          <t>A 11335-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45279</v>
+        <v>44993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15037,7 +15047,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15074,14 +15084,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 20002-2022</t>
+          <t>A 30852-2021</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44697.62150462963</v>
+        <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15094,7 +15104,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15131,14 +15141,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 47856-2024</t>
+          <t>A 38323-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45588.6680324074</v>
+        <v>45161</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15151,7 +15161,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15188,14 +15198,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 49686-2023</t>
+          <t>A 38325-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45212.36239583333</v>
+        <v>45161</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15208,7 +15218,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15245,14 +15255,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 68856-2021</t>
+          <t>A 5557-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44530</v>
+        <v>44593</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15265,7 +15275,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15302,14 +15312,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 46835-2023</t>
+          <t>A 52877-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45199</v>
+        <v>44875.53217592592</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15322,7 +15332,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15359,14 +15369,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 5557-2022</t>
+          <t>A 11105-2021</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44593</v>
+        <v>44259</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15378,8 +15388,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G243" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15423,7 +15438,7 @@
         <v>45581</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15478,14 +15493,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 39530-2023</t>
+          <t>A 2262-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45167.34055555556</v>
+        <v>45673</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15498,7 +15513,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15535,14 +15550,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 22976-2023</t>
+          <t>A 4623-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45072</v>
+        <v>45328</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15555,7 +15570,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15592,14 +15607,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 23978-2022</t>
+          <t>A 3198-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44722</v>
+        <v>44944</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15612,7 +15627,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>9.699999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15649,14 +15664,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 15812-2024</t>
+          <t>A 23681-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45404.6669212963</v>
+        <v>45077</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15668,13 +15683,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G248" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15711,14 +15721,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 38945-2023</t>
+          <t>A 37967-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45163.60909722222</v>
+        <v>45544.55668981482</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15731,7 +15741,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15768,14 +15778,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 55587-2021</t>
+          <t>A 34051-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44475</v>
+        <v>45523</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15788,7 +15798,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15825,14 +15835,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 23874-2022</t>
+          <t>A 2083-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44722</v>
+        <v>45672.58853009259</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15845,7 +15855,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>7.8</v>
+        <v>3.4</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15882,14 +15892,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 9142-2025</t>
+          <t>A 52286-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45714.31886574074</v>
+        <v>45224.58796296296</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15902,7 +15912,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15939,14 +15949,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 30292-2021</t>
+          <t>A 47870-2022</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44364.33482638889</v>
+        <v>44855.43302083333</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15959,7 +15969,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15996,14 +16006,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 28247-2023</t>
+          <t>A 15070-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45099</v>
+        <v>45399.59040509259</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16015,8 +16025,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G254" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16053,14 +16068,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 56759-2023</t>
+          <t>A 16418-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45238</v>
+        <v>45751.46372685185</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16073,7 +16088,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>7.4</v>
+        <v>0.8</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16110,14 +16125,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 4301-2024</t>
+          <t>A 13995-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45324</v>
+        <v>45739.74271990741</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16129,13 +16144,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G256" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16172,14 +16182,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 22202-2023</t>
+          <t>A 11497-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45069</v>
+        <v>44991</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16192,7 +16202,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16229,14 +16239,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 20012-2022</t>
+          <t>A 45596-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44697</v>
+        <v>45579</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16249,7 +16259,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>17.2</v>
+        <v>0.9</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16286,14 +16296,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 16418-2025</t>
+          <t>A 15812-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45751.46372685185</v>
+        <v>45404.6669212963</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16305,8 +16315,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G259" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16343,14 +16358,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 30852-2021</t>
+          <t>A 25069-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44365</v>
+        <v>45086</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16363,7 +16378,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16400,14 +16415,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 63720-2023</t>
+          <t>A 49370-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45275</v>
+        <v>45211</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16420,7 +16435,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16457,14 +16472,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 14278-2024</t>
+          <t>A 14620-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45393.60961805555</v>
+        <v>45742.41289351852</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16477,7 +16492,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16514,14 +16529,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 47869-2022</t>
+          <t>A 61682-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44855.43141203704</v>
+        <v>45264</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16534,7 +16549,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16571,14 +16586,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 6615-2024</t>
+          <t>A 16399-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45341</v>
+        <v>45751</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16591,7 +16606,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16628,14 +16643,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 24647-2023</t>
+          <t>A 51276-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45084</v>
+        <v>45603</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16647,13 +16662,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G265" t="n">
-        <v>11.6</v>
+        <v>2.4</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16690,14 +16700,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 13420-2023</t>
+          <t>A 7746-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45005</v>
+        <v>45349</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16715,7 +16725,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16752,14 +16762,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 42281-2024</t>
+          <t>A 40173-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45562.6105787037</v>
+        <v>45554.55435185185</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16777,7 +16787,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16814,14 +16824,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 42284-2024</t>
+          <t>A 55613-2022</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45562</v>
+        <v>44883</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16835,11 +16845,11 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16876,14 +16886,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 3489-2024</t>
+          <t>A 36606-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45320</v>
+        <v>45537.56913194444</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16896,7 +16906,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16933,14 +16943,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 30738-2021</t>
+          <t>A 24217-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44365.45446759259</v>
+        <v>45797.35565972222</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16953,7 +16963,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16990,14 +17000,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 16399-2025</t>
+          <t>A 49989-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45751</v>
+        <v>45597</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17010,7 +17020,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.7</v>
+        <v>6.1</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17047,14 +17057,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 51276-2024</t>
+          <t>A 44228-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45603</v>
+        <v>45573</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17067,7 +17077,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17104,14 +17114,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 40173-2024</t>
+          <t>A 69394-2021</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45554.55435185185</v>
+        <v>44531</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17125,11 +17135,11 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2.4</v>
+        <v>5.7</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17166,14 +17176,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 7746-2024</t>
+          <t>A 24815-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45349</v>
+        <v>45799.44935185185</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17185,13 +17195,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G274" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17228,14 +17233,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 55613-2022</t>
+          <t>A 27898-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44883</v>
+        <v>45817</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17247,13 +17252,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G275" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17290,14 +17290,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 36606-2024</t>
+          <t>A 10544-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45537.56913194444</v>
+        <v>45721.48859953704</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17310,7 +17310,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17347,14 +17347,14 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 24217-2025</t>
+          <t>A 59482-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45797.35565972222</v>
+        <v>45638.52831018518</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>

--- a/Översikt KLIPPAN.xlsx
+++ b/Översikt KLIPPAN.xlsx
@@ -575,7 +575,7 @@
         <v>45314</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45960</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>45973</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,14 +856,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 54644-2023</t>
+          <t>A 513-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45235</v>
+        <v>45664</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -875,18 +875,23 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G5" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
@@ -900,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -909,426 +914,421 @@
         <v>3</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Talltita
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 513-2025 artfynd.xlsx", "A 513-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 513-2025 karta.png", "A 513-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 513-2025 FSC-klagomål.docx", "A 513-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 513-2025 FSC-klagomål mail.docx", "A 513-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 513-2025 tillsynsbegäran.docx", "A 513-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 513-2025 tillsynsbegäran mail.docx", "A 513-2025")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 513-2025 prioriterade fågelarter.docx", "A 513-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 46256-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45581</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Rostfläck
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 46256-2024 artfynd.xlsx", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 46256-2024 karta.png", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 46256-2024 FSC-klagomål.docx", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 46256-2024 FSC-klagomål mail.docx", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 46256-2024 tillsynsbegäran.docx", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 46256-2024 tillsynsbegäran mail.docx", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 46256-2024 prioriterade fågelarter.docx", "A 46256-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 45242-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45919.59901620371</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 45242-2025 artfynd.xlsx", "A 45242-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 45242-2025 karta.png", "A 45242-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 45242-2025 FSC-klagomål.docx", "A 45242-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 45242-2025 FSC-klagomål mail.docx", "A 45242-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 45242-2025 tillsynsbegäran.docx", "A 45242-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 45242-2025 tillsynsbegäran mail.docx", "A 45242-2025")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 45242-2025 prioriterade fågelarter.docx", "A 45242-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 42004-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45903</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Gröngöling
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 42004-2025 artfynd.xlsx", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 42004-2025 karta.png", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 42004-2025 FSC-klagomål.docx", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 42004-2025 FSC-klagomål mail.docx", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 42004-2025 tillsynsbegäran.docx", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 42004-2025 tillsynsbegäran mail.docx", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 42004-2025 prioriterade fågelarter.docx", "A 42004-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 54644-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45235</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Havstulpanlav
 Skogsduva</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 54644-2023 artfynd.xlsx", "A 54644-2023")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 54644-2023 karta.png", "A 54644-2023")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 54644-2023 FSC-klagomål.docx", "A 54644-2023")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 54644-2023 FSC-klagomål mail.docx", "A 54644-2023")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 54644-2023 tillsynsbegäran.docx", "A 54644-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 54644-2023 tillsynsbegäran mail.docx", "A 54644-2023")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 54644-2023 prioriterade fågelarter.docx", "A 54644-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 45242-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45919.59901620371</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 45242-2025 artfynd.xlsx", "A 45242-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 45242-2025 karta.png", "A 45242-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 45242-2025 FSC-klagomål.docx", "A 45242-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 45242-2025 FSC-klagomål mail.docx", "A 45242-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 45242-2025 tillsynsbegäran.docx", "A 45242-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 45242-2025 tillsynsbegäran mail.docx", "A 45242-2025")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 45242-2025 prioriterade fågelarter.docx", "A 45242-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 42004-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45903</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Gröngöling
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 42004-2025 artfynd.xlsx", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 42004-2025 karta.png", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 42004-2025 FSC-klagomål.docx", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 42004-2025 FSC-klagomål mail.docx", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 42004-2025 tillsynsbegäran.docx", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 42004-2025 tillsynsbegäran mail.docx", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 42004-2025 prioriterade fågelarter.docx", "A 42004-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 46256-2024</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45581</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Rostfläck
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 46256-2024 artfynd.xlsx", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 46256-2024 karta.png", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 46256-2024 FSC-klagomål.docx", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 46256-2024 FSC-klagomål mail.docx", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 46256-2024 tillsynsbegäran.docx", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 46256-2024 tillsynsbegäran mail.docx", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 46256-2024 prioriterade fågelarter.docx", "A 46256-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 513-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45664</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Talltita
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 513-2025 artfynd.xlsx", "A 513-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 513-2025 karta.png", "A 513-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 513-2025 FSC-klagomål.docx", "A 513-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 513-2025 FSC-klagomål mail.docx", "A 513-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 513-2025 tillsynsbegäran.docx", "A 513-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 513-2025 tillsynsbegäran mail.docx", "A 513-2025")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 513-2025 prioriterade fågelarter.docx", "A 513-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 53878-2022</t>
+          <t>A 5797-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44880</v>
+        <v>45335</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>8.300000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1376,35 +1376,35 @@
       <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Entita
-Gulsparv</t>
+Gröngöling</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 53878-2022 artfynd.xlsx", "A 53878-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 5797-2024 artfynd.xlsx", "A 5797-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 53878-2022 karta.png", "A 53878-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 5797-2024 karta.png", "A 5797-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 53878-2022 FSC-klagomål.docx", "A 53878-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 5797-2024 FSC-klagomål.docx", "A 5797-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 53878-2022 FSC-klagomål mail.docx", "A 53878-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 5797-2024 FSC-klagomål mail.docx", "A 5797-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 53878-2022 tillsynsbegäran.docx", "A 53878-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 5797-2024 tillsynsbegäran.docx", "A 5797-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 53878-2022 tillsynsbegäran mail.docx", "A 53878-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 5797-2024 tillsynsbegäran mail.docx", "A 5797-2024")</f>
         <v/>
       </c>
       <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 53878-2022 prioriterade fågelarter.docx", "A 53878-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 5797-2024 prioriterade fågelarter.docx", "A 5797-2024")</f>
         <v/>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
         <v>44633</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>45544</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>45917</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         <v>45058</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>45992</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1858,14 +1858,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 5797-2024</t>
+          <t>A 53878-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45335</v>
+        <v>44880</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H16" t="n">
         <v>2</v>
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1913,35 +1913,35 @@
       <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Entita
-Gröngöling</t>
+Gulsparv</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 5797-2024 artfynd.xlsx", "A 5797-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 53878-2022 artfynd.xlsx", "A 53878-2022")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 5797-2024 karta.png", "A 5797-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 53878-2022 karta.png", "A 53878-2022")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 5797-2024 FSC-klagomål.docx", "A 5797-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 53878-2022 FSC-klagomål.docx", "A 53878-2022")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 5797-2024 FSC-klagomål mail.docx", "A 5797-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 53878-2022 FSC-klagomål mail.docx", "A 53878-2022")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 5797-2024 tillsynsbegäran.docx", "A 5797-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 53878-2022 tillsynsbegäran.docx", "A 53878-2022")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 5797-2024 tillsynsbegäran mail.docx", "A 5797-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 53878-2022 tillsynsbegäran mail.docx", "A 53878-2022")</f>
         <v/>
       </c>
       <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 5797-2024 prioriterade fågelarter.docx", "A 5797-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 53878-2022 prioriterade fågelarter.docx", "A 53878-2022")</f>
         <v/>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
         <v>44365</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44596</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2122,14 +2122,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 50089-2023</t>
+          <t>A 10000-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45208</v>
+        <v>45719.44871527778</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2142,16 +2142,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>13.6</v>
+        <v>2.6</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2176,659 +2176,659 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
+          <t>Dvärghäxört</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 10000-2025 artfynd.xlsx", "A 10000-2025")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 10000-2025 karta.png", "A 10000-2025")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 10000-2025 FSC-klagomål.docx", "A 10000-2025")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 10000-2025 FSC-klagomål mail.docx", "A 10000-2025")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 10000-2025 tillsynsbegäran.docx", "A 10000-2025")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 10000-2025 tillsynsbegäran mail.docx", "A 10000-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 23403-2024</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45453</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Vårstarr</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 23403-2024 artfynd.xlsx", "A 23403-2024")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 23403-2024 karta.png", "A 23403-2024")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 23403-2024 FSC-klagomål.docx", "A 23403-2024")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 23403-2024 FSC-klagomål mail.docx", "A 23403-2024")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 23403-2024 tillsynsbegäran.docx", "A 23403-2024")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 23403-2024 tillsynsbegäran mail.docx", "A 23403-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 30721-2021</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>44365</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Brandticka</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 30721-2021 artfynd.xlsx", "A 30721-2021")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 30721-2021 karta.png", "A 30721-2021")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 30721-2021 FSC-klagomål.docx", "A 30721-2021")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 30721-2021 FSC-klagomål mail.docx", "A 30721-2021")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 30721-2021 tillsynsbegäran.docx", "A 30721-2021")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 30721-2021 tillsynsbegäran mail.docx", "A 30721-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 14892-2023</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>45015</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Mindre hackspett</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 14892-2023 artfynd.xlsx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 14892-2023 karta.png", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 14892-2023 FSC-klagomål.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 14892-2023 FSC-klagomål mail.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 14892-2023 tillsynsbegäran.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 14892-2023 tillsynsbegäran mail.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 14892-2023 prioriterade fågelarter.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 50089-2023</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>45208</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
           <t>Entita</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 50089-2023 artfynd.xlsx", "A 50089-2023")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 50089-2023 karta.png", "A 50089-2023")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 50089-2023 FSC-klagomål.docx", "A 50089-2023")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 50089-2023 FSC-klagomål mail.docx", "A 50089-2023")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 50089-2023 tillsynsbegäran.docx", "A 50089-2023")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 50089-2023 tillsynsbegäran mail.docx", "A 50089-2023")</f>
         <v/>
       </c>
-      <c r="Z19">
+      <c r="Z23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 50089-2023 prioriterade fågelarter.docx", "A 50089-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 14892-2023</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45015</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H20" t="n">
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 61058-2025</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>46000</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>1</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Mindre hackspett</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 14892-2023 artfynd.xlsx", "A 14892-2023")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 14892-2023 karta.png", "A 14892-2023")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 14892-2023 FSC-klagomål.docx", "A 14892-2023")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 14892-2023 FSC-klagomål mail.docx", "A 14892-2023")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 14892-2023 tillsynsbegäran.docx", "A 14892-2023")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 14892-2023 tillsynsbegäran mail.docx", "A 14892-2023")</f>
-        <v/>
-      </c>
-      <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 14892-2023 prioriterade fågelarter.docx", "A 14892-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 61058-2025</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>46000</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Kungsfågel</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 61058-2025 artfynd.xlsx", "A 61058-2025")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 61058-2025 karta.png", "A 61058-2025")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 61058-2025 FSC-klagomål.docx", "A 61058-2025")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 61058-2025 FSC-klagomål mail.docx", "A 61058-2025")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 61058-2025 tillsynsbegäran.docx", "A 61058-2025")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 61058-2025 tillsynsbegäran mail.docx", "A 61058-2025")</f>
         <v/>
       </c>
-      <c r="Z21">
+      <c r="Z24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 61058-2025 prioriterade fågelarter.docx", "A 61058-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 10000-2025</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>45719.44871527778</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>A 2839-2026</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>46038</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Dvärghäxört</t>
-        </is>
-      </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 10000-2025 artfynd.xlsx", "A 10000-2025")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 10000-2025 karta.png", "A 10000-2025")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 10000-2025 FSC-klagomål.docx", "A 10000-2025")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 10000-2025 FSC-klagomål mail.docx", "A 10000-2025")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 10000-2025 tillsynsbegäran.docx", "A 10000-2025")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 10000-2025 tillsynsbegäran mail.docx", "A 10000-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 2839-2026</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>46038</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H23" t="n">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>1</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
+      <c r="R25" s="2" t="inlineStr">
         <is>
           <t>Entita</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 2839-2026 artfynd.xlsx", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 2839-2026 karta.png", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 2839-2026 FSC-klagomål.docx", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 2839-2026 FSC-klagomål mail.docx", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 2839-2026 tillsynsbegäran.docx", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 2839-2026 tillsynsbegäran mail.docx", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="Z23">
+      <c r="Z25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 2839-2026 prioriterade fågelarter.docx", "A 2839-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>A 61049-2025</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B26" s="1" t="n">
         <v>46000</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
+      <c r="C26" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G24" t="n">
+      <c r="G26" t="n">
         <v>3.6</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>1</v>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>1</v>
       </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>1</v>
       </c>
-      <c r="R24" s="2" t="inlineStr">
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>Mindre hackspett</t>
         </is>
       </c>
-      <c r="S24">
+      <c r="S26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 61049-2025 artfynd.xlsx", "A 61049-2025")</f>
         <v/>
       </c>
-      <c r="T24">
+      <c r="T26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 61049-2025 karta.png", "A 61049-2025")</f>
         <v/>
       </c>
-      <c r="V24">
+      <c r="V26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 61049-2025 FSC-klagomål.docx", "A 61049-2025")</f>
         <v/>
       </c>
-      <c r="W24">
+      <c r="W26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 61049-2025 FSC-klagomål mail.docx", "A 61049-2025")</f>
         <v/>
       </c>
-      <c r="X24">
+      <c r="X26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 61049-2025 tillsynsbegäran.docx", "A 61049-2025")</f>
         <v/>
       </c>
-      <c r="Y24">
+      <c r="Y26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 61049-2025 tillsynsbegäran mail.docx", "A 61049-2025")</f>
         <v/>
       </c>
-      <c r="Z24">
+      <c r="Z26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 61049-2025 prioriterade fågelarter.docx", "A 61049-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A 23403-2024</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>45453</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Vårstarr</t>
-        </is>
-      </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 23403-2024 artfynd.xlsx", "A 23403-2024")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 23403-2024 karta.png", "A 23403-2024")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 23403-2024 FSC-klagomål.docx", "A 23403-2024")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 23403-2024 FSC-klagomål mail.docx", "A 23403-2024")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 23403-2024 tillsynsbegäran.docx", "A 23403-2024")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 23403-2024 tillsynsbegäran mail.docx", "A 23403-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A 30721-2021</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>44365</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Brandticka</t>
-        </is>
-      </c>
-      <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 30721-2021 artfynd.xlsx", "A 30721-2021")</f>
-        <v/>
-      </c>
-      <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 30721-2021 karta.png", "A 30721-2021")</f>
-        <v/>
-      </c>
-      <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 30721-2021 FSC-klagomål.docx", "A 30721-2021")</f>
-        <v/>
-      </c>
-      <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 30721-2021 FSC-klagomål mail.docx", "A 30721-2021")</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 30721-2021 tillsynsbegäran.docx", "A 30721-2021")</f>
-        <v/>
-      </c>
-      <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 30721-2021 tillsynsbegäran mail.docx", "A 30721-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44883</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>44287</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>44368.50049768519</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44883</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>44596</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44489.35295138889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>44691.52568287037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44697.63137731481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>44697</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>44531</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>44487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44575</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3546,14 +3546,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 10055-2022</t>
+          <t>A 53582-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44621.59760416667</v>
+        <v>44875</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3565,8 +3565,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3603,14 +3608,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 53582-2022</t>
+          <t>A 10055-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44875</v>
+        <v>44621.59760416667</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3622,13 +3627,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>44691</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>44363</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>44245</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>44445</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44608</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44575</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44825</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>44782.541875</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>44825</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>44882</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44880</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>44246</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>44418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44251</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44245</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>44700</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44679.2472337963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44816</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4741,14 +4741,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 17060-2021</t>
+          <t>A 47967-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44296.63025462963</v>
+        <v>44448</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4798,14 +4798,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 6615-2024</t>
+          <t>A 30852-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45341</v>
+        <v>44365</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4855,14 +4855,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 9142-2025</t>
+          <t>A 17792-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45714.31886574074</v>
+        <v>44300</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4875,7 +4875,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4912,14 +4912,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 22976-2023</t>
+          <t>A 11105-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45072</v>
+        <v>44259</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4931,8 +4931,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4969,14 +4974,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 4301-2024</t>
+          <t>A 63720-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45324</v>
+        <v>45275</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4988,13 +4993,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5031,14 +5031,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 4321-2024</t>
+          <t>A 243-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45324.66635416666</v>
+        <v>45660</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5088,14 +5088,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 17792-2021</t>
+          <t>A 43855-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44300</v>
+        <v>44838</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5107,8 +5107,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5145,14 +5150,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 17856-2024</t>
+          <t>A 14278-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45419</v>
+        <v>45393.60961805555</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5164,13 +5169,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5214,7 +5214,7 @@
         <v>44855.43141203704</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5264,14 +5264,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 55833-2023</t>
+          <t>A 6615-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45239</v>
+        <v>45341</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5321,14 +5321,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 38156-2022</t>
+          <t>A 52851-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44812.37135416667</v>
+        <v>45610</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5378,14 +5378,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 44885-2022</t>
+          <t>A 24647-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44841</v>
+        <v>45084</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5397,8 +5397,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>1.7</v>
+        <v>11.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5435,14 +5440,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 14278-2024</t>
+          <t>A 22540-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45393.60961805555</v>
+        <v>45788.30451388889</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5455,7 +5460,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5492,14 +5497,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 30738-2021</t>
+          <t>A 3198-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44365.45446759259</v>
+        <v>44944</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5512,7 +5517,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5549,14 +5554,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 56089-2021</t>
+          <t>A 34051-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44477</v>
+        <v>45523</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5569,7 +5574,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>20.9</v>
+        <v>1.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5606,14 +5611,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 23260-2023</t>
+          <t>A 13420-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45075.87199074074</v>
+        <v>45005</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5625,8 +5630,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5663,14 +5673,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 21654-2024</t>
+          <t>A 53868-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45442</v>
+        <v>44880.64693287037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5683,7 +5693,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5720,14 +5730,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 3489-2024</t>
+          <t>A 27529-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45320</v>
+        <v>45813</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5739,8 +5749,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1.7</v>
+        <v>7.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5777,14 +5792,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 44891-2022</t>
+          <t>A 25393-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44841</v>
+        <v>45079</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5797,7 +5812,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5834,14 +5849,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 54348-2022</t>
+          <t>A 42281-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44882</v>
+        <v>45562.6105787037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5853,8 +5868,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>7.8</v>
+        <v>0.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5891,14 +5911,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 45641-2022</t>
+          <t>A 42284-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44845</v>
+        <v>45562</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5910,8 +5930,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5948,14 +5973,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 55586-2021</t>
+          <t>A 3489-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44475.88427083333</v>
+        <v>45320</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5968,7 +5993,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6005,14 +6030,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 52882-2024</t>
+          <t>A 14620-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45610</v>
+        <v>45742.41289351852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6025,7 +6050,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.2</v>
+        <v>7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6062,14 +6087,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 10695-2023</t>
+          <t>A 30738-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44988</v>
+        <v>44365.45446759259</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6082,7 +6107,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6119,14 +6144,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 13994-2025</t>
+          <t>A 37967-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45739.73532407408</v>
+        <v>45544.55668981482</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6139,7 +6164,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6176,14 +6201,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 33331-2024</t>
+          <t>A 42423-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45519</v>
+        <v>45905.41005787037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6201,7 +6226,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6238,14 +6263,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 58387-2022</t>
+          <t>A 28844-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44901</v>
+        <v>45104</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6257,13 +6282,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6300,14 +6320,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 217-2023</t>
+          <t>A 42627-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44928</v>
+        <v>45905.77766203704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6320,7 +6340,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6357,14 +6377,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 27010-2023</t>
+          <t>A 16399-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45094.36791666667</v>
+        <v>45751</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6377,7 +6397,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6414,14 +6434,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 31893-2021</t>
+          <t>A 51276-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44370.45880787037</v>
+        <v>45603</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6434,7 +6454,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6471,14 +6491,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 8017-2022</t>
+          <t>A 593-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44609.39615740741</v>
+        <v>44930.55528935185</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6491,7 +6511,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6528,14 +6548,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 42275-2024</t>
+          <t>A 33331-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45562.60690972222</v>
+        <v>45519</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6553,7 +6573,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6590,14 +6610,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 42303-2024</t>
+          <t>A 4623-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45562.6322337963</v>
+        <v>45328</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6607,11 +6627,6 @@
       <c r="E91" t="inlineStr">
         <is>
           <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -6652,14 +6667,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 15810-2024</t>
+          <t>A 40173-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45404</v>
+        <v>45554.55435185185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6677,7 +6692,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6714,14 +6729,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 14614-2023</t>
+          <t>A 7746-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45013</v>
+        <v>45349</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6733,8 +6748,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>5.1</v>
+        <v>1.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6771,14 +6791,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 29284-2025</t>
+          <t>A 34479-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45824</v>
+        <v>45847.37570601852</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6791,7 +6811,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6828,14 +6848,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 8204-2021</t>
+          <t>A 15070-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44244</v>
+        <v>45399.59040509259</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6847,8 +6867,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6885,14 +6910,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 20128-2023</t>
+          <t>A 30725-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45055</v>
+        <v>44365.44506944445</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6905,7 +6930,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6942,14 +6967,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 7515-2025</t>
+          <t>A 217-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45702</v>
+        <v>44928</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6961,13 +6986,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7004,14 +7024,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 52851-2024</t>
+          <t>A 55613-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45610</v>
+        <v>44883</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7023,8 +7043,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7061,14 +7086,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 62473-2023</t>
+          <t>A 38724-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45267</v>
+        <v>45163</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7080,13 +7105,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7123,14 +7143,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 22540-2025</t>
+          <t>A 58642-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45788.30451388889</v>
+        <v>44489.36314814815</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7143,7 +7163,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.9</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7180,14 +7200,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 32132-2025</t>
+          <t>A 36606-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45835.50878472222</v>
+        <v>45537.56913194444</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7200,7 +7220,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7237,14 +7257,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 23978-2022</t>
+          <t>A 43698-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44722</v>
+        <v>45912.39892361111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7257,7 +7277,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>9.699999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7294,14 +7314,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 27529-2025</t>
+          <t>A 5256-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45813</v>
+        <v>44593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7313,13 +7333,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>7.9</v>
+        <v>2.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7356,14 +7371,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 60783-2023</t>
+          <t>A 25069-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45260.6441087963</v>
+        <v>45086</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7376,7 +7391,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7413,14 +7428,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 8500-2023</t>
+          <t>A 24217-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44977</v>
+        <v>45797.35565972222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7433,7 +7448,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7470,14 +7485,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 33766-2025</t>
+          <t>A 18520-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45842.3869675926</v>
+        <v>44305</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7489,8 +7504,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7527,14 +7547,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 33761-2025</t>
+          <t>A 45096-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45842.38335648148</v>
+        <v>45919.38780092593</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7547,7 +7567,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7584,14 +7604,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 33450-2025</t>
+          <t>A 24815-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45841.46677083334</v>
+        <v>45799.44935185185</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7604,7 +7624,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7641,14 +7661,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 33456-2025</t>
+          <t>A 44228-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45841.47364583334</v>
+        <v>45573</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7661,7 +7681,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7698,14 +7718,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 60791-2023</t>
+          <t>A 49989-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45260.65283564815</v>
+        <v>45597</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7718,7 +7738,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.7</v>
+        <v>6.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7755,14 +7775,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 52838-2024</t>
+          <t>A 69394-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45610</v>
+        <v>44531</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7774,8 +7794,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>1.7</v>
+        <v>5.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7812,14 +7837,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 13420-2023</t>
+          <t>A 18214-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45005</v>
+        <v>45040</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7831,13 +7856,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7874,14 +7894,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 22202-2023</t>
+          <t>A 45574-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45069</v>
+        <v>45922.65922453703</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7894,7 +7914,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>7.5</v>
+        <v>1.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7931,14 +7951,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 43855-2022</t>
+          <t>A 45717-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44838</v>
+        <v>45923.44155092593</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7950,13 +7970,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>1.3</v>
+        <v>9.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7993,14 +8008,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 34472-2025</t>
+          <t>A 45886-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45847.35877314815</v>
+        <v>45923.66560185186</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8013,7 +8028,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8050,14 +8065,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 49073-2024</t>
+          <t>A 60791-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45594.61548611111</v>
+        <v>45260.65283564815</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8070,7 +8085,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8107,14 +8122,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 20717-2023</t>
+          <t>A 46138-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45055</v>
+        <v>45924.59914351852</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8127,7 +8142,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8164,14 +8179,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 56759-2023</t>
+          <t>A 2262-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45238</v>
+        <v>45673</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8184,7 +8199,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>7.4</v>
+        <v>2.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8221,14 +8236,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 42627-2025</t>
+          <t>A 23681-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45905.77766203704</v>
+        <v>45077</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8241,7 +8256,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8278,14 +8293,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 27538-2021</t>
+          <t>A 4324-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44351.67984953704</v>
+        <v>45324.67409722223</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8298,7 +8313,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8335,14 +8350,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 42423-2025</t>
+          <t>A 28490-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45905.41005787037</v>
+        <v>45103.44039351852</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8354,13 +8369,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>4.9</v>
+        <v>0.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8397,14 +8407,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 27454-2024</t>
+          <t>A 44891-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45474</v>
+        <v>44841</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8417,7 +8427,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8454,14 +8464,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 28490-2023</t>
+          <t>A 27898-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45103.44039351852</v>
+        <v>45817</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8474,7 +8484,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8511,14 +8521,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 18516-2021</t>
+          <t>A 59482-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44305</v>
+        <v>45638.52831018518</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8530,13 +8540,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8573,14 +8578,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 22120-2025</t>
+          <t>A 27010-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45785.5165625</v>
+        <v>45094.36791666667</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8593,7 +8598,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8630,14 +8635,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 46619-2024</t>
+          <t>A 17856-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45583.32314814815</v>
+        <v>45419</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8649,8 +8654,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8687,14 +8697,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 43698-2025</t>
+          <t>A 10544-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45912.39892361111</v>
+        <v>45721.48859953704</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8707,7 +8717,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8744,14 +8754,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 34479-2025</t>
+          <t>A 7515-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45847.37570601852</v>
+        <v>45702</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8763,8 +8773,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8801,14 +8816,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 11857-2025</t>
+          <t>A 13994-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45728.39798611111</v>
+        <v>45739.73532407408</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8820,13 +8835,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8863,14 +8873,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 50357-2021</t>
+          <t>A 39238-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44455</v>
+        <v>44817</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8883,7 +8893,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8920,14 +8930,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 13363-2023</t>
+          <t>A 52882-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45005</v>
+        <v>45610</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8939,13 +8949,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8982,14 +8987,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 24813-2025</t>
+          <t>A 11497-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45799.44813657407</v>
+        <v>44991</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9039,14 +9044,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 45574-2025</t>
+          <t>A 46260-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45922.65922453703</v>
+        <v>45581</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9058,8 +9063,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9096,14 +9106,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 14619-2023</t>
+          <t>A 29284-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45013</v>
+        <v>45824</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9116,7 +9126,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9153,14 +9163,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 45096-2025</t>
+          <t>A 5141-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45919.38780092593</v>
+        <v>45330</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9173,7 +9183,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9210,14 +9220,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 45717-2025</t>
+          <t>A 39244-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45923.44155092593</v>
+        <v>44817.60482638889</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9230,7 +9240,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>9.1</v>
+        <v>1.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9267,14 +9277,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 45886-2025</t>
+          <t>A 20717-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45923.66560185186</v>
+        <v>45055</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9287,7 +9297,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9324,14 +9334,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 46138-2025</t>
+          <t>A 32132-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45924.59914351852</v>
+        <v>45835.50878472222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9344,7 +9354,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9381,14 +9391,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 55587-2021</t>
+          <t>A 37068-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44475</v>
+        <v>45155</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9401,7 +9411,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9438,14 +9448,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 19097-2025</t>
+          <t>A 40762-2021</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45767.68126157407</v>
+        <v>44420</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9458,7 +9468,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9495,14 +9505,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 49394-2025</t>
+          <t>A 55588-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45938.65101851852</v>
+        <v>44475</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9514,13 +9524,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9557,14 +9562,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 69041-2021</t>
+          <t>A 8204-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44529</v>
+        <v>44244</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9577,7 +9582,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9614,14 +9619,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 23741-2023</t>
+          <t>A 52286-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45077.77087962963</v>
+        <v>45224.58796296296</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9634,7 +9639,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9671,14 +9676,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 25393-2023</t>
+          <t>A 33450-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45079</v>
+        <v>45841.46677083334</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9691,7 +9696,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9728,14 +9733,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 8712-2023</t>
+          <t>A 33456-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44978.3975462963</v>
+        <v>45841.47364583334</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9748,7 +9753,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9785,14 +9790,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 50163-2025</t>
+          <t>A 46619-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45943.58734953704</v>
+        <v>45583.32314814815</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9805,7 +9810,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9842,14 +9847,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 36842-2024</t>
+          <t>A 33761-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45538</v>
+        <v>45842.38335648148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9861,13 +9866,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9904,14 +9904,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 593-2023</t>
+          <t>A 11857-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44930.55528935185</v>
+        <v>45728.39798611111</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9923,8 +9923,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>0.2</v>
+        <v>4.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9961,14 +9966,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 46147-2022</t>
+          <t>A 24333-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44846</v>
+        <v>44726.32643518518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9981,7 +9986,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>5.7</v>
+        <v>1.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10018,14 +10023,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 20591-2023</t>
+          <t>A 33766-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45055</v>
+        <v>45842.3869675926</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10038,7 +10043,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10075,14 +10080,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 55588-2021</t>
+          <t>A 34472-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44475</v>
+        <v>45847.35877314815</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10095,7 +10100,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10132,14 +10137,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 40092-2025</t>
+          <t>A 56089-2021</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45894</v>
+        <v>44477</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10152,7 +10157,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.7</v>
+        <v>20.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10189,14 +10194,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 40105-2025</t>
+          <t>A 49394-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45894</v>
+        <v>45938.65101851852</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10208,8 +10213,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10246,14 +10256,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 51396-2025</t>
+          <t>A 54348-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45950.47131944444</v>
+        <v>44882</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10266,7 +10276,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.5</v>
+        <v>7.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10303,14 +10313,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 51384-2025</t>
+          <t>A 38156-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45950.46399305556</v>
+        <v>44812.37135416667</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10323,7 +10333,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10360,14 +10370,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 47856-2024</t>
+          <t>A 18516-2021</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45588.6680324074</v>
+        <v>44305</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10379,8 +10389,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10417,14 +10432,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 28247-2023</t>
+          <t>A 50163-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45099</v>
+        <v>45943.58734953704</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10437,7 +10452,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10474,14 +10489,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 51946-2025</t>
+          <t>A 22120-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45951</v>
+        <v>45785.5165625</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10494,7 +10509,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10531,14 +10546,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 2755-2023</t>
+          <t>A 40710-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44944</v>
+        <v>45170.63194444445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10550,13 +10565,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10593,14 +10603,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 28847-2023</t>
+          <t>A 55833-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45104</v>
+        <v>45239</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10613,7 +10623,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10650,14 +10660,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 42281-2024</t>
+          <t>A 20128-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45562.6105787037</v>
+        <v>45055</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10669,13 +10679,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10712,14 +10717,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 46260-2024</t>
+          <t>A 40105-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45581</v>
+        <v>45894</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10731,13 +10736,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10774,14 +10774,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 47967-2021</t>
+          <t>A 40092-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44448</v>
+        <v>45894</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10831,14 +10831,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 58642-2021</t>
+          <t>A 2252-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44489.36314814815</v>
+        <v>45673</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10888,14 +10888,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 63720-2023</t>
+          <t>A 50357-2021</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45275</v>
+        <v>44455</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10945,14 +10945,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 11676-2023</t>
+          <t>A 2083-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44992</v>
+        <v>45672.58853009259</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10964,13 +10964,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11007,14 +11002,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 11705-2023</t>
+          <t>A 61682-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44992</v>
+        <v>45264</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11027,7 +11022,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11064,14 +11059,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 55696-2025</t>
+          <t>A 11676-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45972</v>
+        <v>44992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11083,8 +11078,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11121,14 +11121,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 30292-2021</t>
+          <t>A 51844-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44364.33482638889</v>
+        <v>45223</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11141,7 +11141,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11178,14 +11178,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 5523-2022</t>
+          <t>A 28847-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44593</v>
+        <v>45104</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11198,7 +11198,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11235,14 +11235,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 18214-2023</t>
+          <t>A 15442-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45040</v>
+        <v>44659.85333333333</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11292,14 +11292,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 3183-2023</t>
+          <t>A 2755-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
         <v>44944</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11311,8 +11311,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>6.9</v>
+        <v>0.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11349,14 +11354,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 24647-2023</t>
+          <t>A 51396-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45084</v>
+        <v>45950.47131944444</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11368,13 +11373,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>11.6</v>
+        <v>1.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11411,14 +11411,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 7661-2025</t>
+          <t>A 49370-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45706</v>
+        <v>45211</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11468,14 +11468,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 2252-2025</t>
+          <t>A 24813-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45673</v>
+        <v>45799.44813657407</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.3</v>
+        <v>2.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11525,14 +11525,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 15065-2024</t>
+          <t>A 28709-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45399.57625</v>
+        <v>45103</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11544,13 +11544,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11587,14 +11582,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 33462-2025</t>
+          <t>A 51946-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45841</v>
+        <v>45951</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11607,7 +11602,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11644,14 +11639,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 4324-2024</t>
+          <t>A 51384-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45324.67409722223</v>
+        <v>45950.46399305556</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11664,7 +11659,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11701,14 +11696,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 41294-2022</t>
+          <t>A 46728-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44825</v>
+        <v>45198</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11721,7 +11716,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>6.1</v>
+        <v>1.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11758,14 +11753,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 9270-2022</t>
+          <t>A 15065-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44616</v>
+        <v>45399.57625</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11777,8 +11772,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>1.7</v>
+        <v>5.8</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11815,14 +11815,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 57687-2025</t>
+          <t>A 3498-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45981.44112268519</v>
+        <v>45320.47233796296</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11834,13 +11834,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11877,14 +11872,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 39097-2024</t>
+          <t>A 41294-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45548.56422453704</v>
+        <v>44825</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11897,7 +11892,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>4.2</v>
+        <v>6.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11934,14 +11929,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 51844-2023</t>
+          <t>A 39097-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45223</v>
+        <v>45548.56422453704</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11954,7 +11949,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11991,14 +11986,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 317-2026</t>
+          <t>A 8712-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>46027.56958333333</v>
+        <v>44978.3975462963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12011,7 +12006,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12048,14 +12043,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 46835-2023</t>
+          <t>A 49073-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45199</v>
+        <v>45594.61548611111</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12068,7 +12063,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12105,14 +12100,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 28844-2023</t>
+          <t>A 7661-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45104</v>
+        <v>45706</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12162,14 +12157,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 39238-2022</t>
+          <t>A 3183-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44817</v>
+        <v>44944</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12182,7 +12177,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3</v>
+        <v>6.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12219,14 +12214,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 59885-2025</t>
+          <t>A 48965-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45993.32192129629</v>
+        <v>45209</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12239,7 +12234,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12276,14 +12271,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 2806-2026</t>
+          <t>A 9270-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46038.41621527778</v>
+        <v>44616</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12296,7 +12291,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>7.9</v>
+        <v>1.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12333,14 +12328,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 5256-2022</t>
+          <t>A 36842-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44593</v>
+        <v>45538</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12352,8 +12347,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12390,14 +12390,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 15442-2022</t>
+          <t>A 55696-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44659.85333333333</v>
+        <v>45972</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12410,7 +12410,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12447,14 +12447,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 48965-2023</t>
+          <t>A 33462-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45209</v>
+        <v>45841</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12504,14 +12504,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 18520-2021</t>
+          <t>A 5523-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44305</v>
+        <v>44593</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12523,13 +12523,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>1.5</v>
+        <v>5.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12566,14 +12561,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 42006-2025</t>
+          <t>A 17060-2021</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45903</v>
+        <v>44296.63025462963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12586,7 +12581,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.8</v>
+        <v>4.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12623,14 +12618,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 20012-2022</t>
+          <t>A 57687-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44697</v>
+        <v>45981.44112268519</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12642,8 +12637,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>17.2</v>
+        <v>1.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12680,14 +12680,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 5151-2022</t>
+          <t>A 4321-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44593</v>
+        <v>45324.66635416666</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>6.5</v>
+        <v>0.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12737,14 +12737,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 243-2025</t>
+          <t>A 62473-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45660</v>
+        <v>45267</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12756,8 +12756,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12794,14 +12799,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 40762-2021</t>
+          <t>A 8500-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44420</v>
+        <v>44977</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12851,14 +12856,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 28709-2023</t>
+          <t>A 317-2026</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45103</v>
+        <v>46027.56958333333</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12871,7 +12876,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12908,14 +12913,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 21636-2024</t>
+          <t>A 55291-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45442</v>
+        <v>45237</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12928,7 +12933,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>6.3</v>
+        <v>2.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12965,14 +12970,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 46728-2023</t>
+          <t>A 69041-2021</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45198</v>
+        <v>44529</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12985,7 +12990,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13022,14 +13027,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 23874-2022</t>
+          <t>A 59885-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44722</v>
+        <v>45993.32192129629</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13042,7 +13047,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>7.8</v>
+        <v>1.2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13079,14 +13084,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 38724-2023</t>
+          <t>A 42006-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45163</v>
+        <v>45903</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13099,7 +13104,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13136,14 +13141,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 24333-2022</t>
+          <t>A 23260-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44726.32643518518</v>
+        <v>45075.87199074074</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13156,7 +13161,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13193,14 +13198,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 40710-2023</t>
+          <t>A 55586-2021</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45170.63194444445</v>
+        <v>44475.88427083333</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13213,7 +13218,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13250,14 +13255,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 4968-2026</t>
+          <t>A 15810-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46049</v>
+        <v>45404</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13269,8 +13274,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>0.4</v>
+        <v>3.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13307,14 +13317,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 61060-2025</t>
+          <t>A 2806-2026</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>46000</v>
+        <v>46038.41621527778</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13326,13 +13336,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>7.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13369,14 +13374,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 62849-2025</t>
+          <t>A 19097-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>46008.69979166667</v>
+        <v>45767.68126157407</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13389,7 +13394,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13426,14 +13431,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 37068-2023</t>
+          <t>A 10695-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45155</v>
+        <v>44988</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13446,7 +13451,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13483,14 +13488,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 39530-2023</t>
+          <t>A 44885-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45167.34055555556</v>
+        <v>44841</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13503,7 +13508,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13540,14 +13545,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 5645-2026</t>
+          <t>A 14614-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46051.42502314815</v>
+        <v>45013</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13560,7 +13565,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.3</v>
+        <v>5.1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13597,14 +13602,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 24034-2023</t>
+          <t>A 61060-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45078.86898148148</v>
+        <v>46000</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13614,6 +13619,11 @@
       <c r="E212" t="inlineStr">
         <is>
           <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G212" t="n">
@@ -13654,14 +13664,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 38945-2023</t>
+          <t>A 4968-2026</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45163.60909722222</v>
+        <v>46049</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13674,7 +13684,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13711,14 +13721,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 55291-2023</t>
+          <t>A 8017-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45237</v>
+        <v>44609.39615740741</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13731,7 +13741,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13768,14 +13778,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 6446-2026</t>
+          <t>A 62849-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>46055.85770833334</v>
+        <v>46008.69979166667</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13788,7 +13798,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13825,14 +13835,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 5141-2024</t>
+          <t>A 13995-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45330</v>
+        <v>45739.74271990741</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13845,7 +13855,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13882,14 +13892,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 6447-2026</t>
+          <t>A 5645-2026</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>46055</v>
+        <v>46051.42502314815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13902,7 +13912,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13939,14 +13949,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 3498-2024</t>
+          <t>A 42275-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45320.47233796296</v>
+        <v>45562.60690972222</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13958,8 +13968,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13996,14 +14011,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 6890-2026</t>
+          <t>A 42303-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46057.471875</v>
+        <v>45562.6322337963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14015,8 +14030,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14053,14 +14073,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 63499-2025</t>
+          <t>A 24034-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>46013</v>
+        <v>45078.86898148148</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14073,7 +14093,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14110,14 +14130,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 64224-2023</t>
+          <t>A 5196-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45279</v>
+        <v>44593</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14130,7 +14150,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.9</v>
+        <v>5.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14167,14 +14187,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 27813-2023</t>
+          <t>A 6446-2026</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45098</v>
+        <v>46055.85770833334</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14187,7 +14207,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14224,14 +14244,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 20002-2022</t>
+          <t>A 52838-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44697.62150462963</v>
+        <v>45610</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14244,7 +14264,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14281,14 +14301,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 53289-2025</t>
+          <t>A 45641-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45958</v>
+        <v>44845</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14301,7 +14321,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14338,14 +14358,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 53290-2025</t>
+          <t>A 21636-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45958</v>
+        <v>45442</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14358,7 +14378,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.9</v>
+        <v>6.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14395,14 +14415,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 2413-2026</t>
+          <t>A 63499-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>46036.73725694444</v>
+        <v>46013</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14415,7 +14435,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>8</v>
+        <v>3.9</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14452,14 +14472,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 49686-2023</t>
+          <t>A 6890-2026</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45212.36239583333</v>
+        <v>46057.471875</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14472,7 +14492,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.3</v>
+        <v>8</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14509,14 +14529,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 27452-2024</t>
+          <t>A 6447-2026</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45474</v>
+        <v>46055</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14529,7 +14549,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14566,14 +14586,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 53868-2022</t>
+          <t>A 60783-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44880.64693287037</v>
+        <v>45260.6441087963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14586,7 +14606,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>7.6</v>
+        <v>1.4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14623,14 +14643,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 68856-2021</t>
+          <t>A 14619-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44530</v>
+        <v>45013</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14643,7 +14663,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14680,14 +14700,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 50781-2025</t>
+          <t>A 27454-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45946</v>
+        <v>45474</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14700,7 +14720,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14737,14 +14757,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 30725-2021</t>
+          <t>A 11335-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44365.44506944445</v>
+        <v>44993</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14757,7 +14777,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14794,14 +14814,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 42284-2024</t>
+          <t>A 13363-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45562</v>
+        <v>45005</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14815,11 +14835,11 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14856,14 +14876,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 5196-2022</t>
+          <t>A 5151-2022</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
         <v>44593</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14876,7 +14896,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>5.6</v>
+        <v>6.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14913,14 +14933,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 1280-2023</t>
+          <t>A 23741-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44936</v>
+        <v>45077.77087962963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14933,7 +14953,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14970,14 +14990,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 39244-2022</t>
+          <t>A 50781-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44817.60482638889</v>
+        <v>45946</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14990,7 +15010,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15027,14 +15047,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 11335-2023</t>
+          <t>A 2413-2026</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44993</v>
+        <v>46036.73725694444</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15047,7 +15067,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.3</v>
+        <v>8</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15084,14 +15104,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 30852-2021</t>
+          <t>A 53289-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44365</v>
+        <v>45958</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15104,7 +15124,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15141,14 +15161,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 38323-2023</t>
+          <t>A 53290-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45161</v>
+        <v>45958</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15161,7 +15181,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15198,14 +15218,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 38325-2023</t>
+          <t>A 46147-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45161</v>
+        <v>44846</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15218,7 +15238,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15255,14 +15275,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 5557-2022</t>
+          <t>A 47870-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44593</v>
+        <v>44855.43302083333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15275,7 +15295,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15312,14 +15332,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 52877-2022</t>
+          <t>A 27813-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44875.53217592592</v>
+        <v>45098</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15332,7 +15352,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15369,14 +15389,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 11105-2021</t>
+          <t>A 58387-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44259</v>
+        <v>44901</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15390,11 +15410,11 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15431,14 +15451,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 46253-2024</t>
+          <t>A 27452-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45581</v>
+        <v>45474</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15450,13 +15470,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G244" t="n">
-        <v>9.300000000000001</v>
+        <v>1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15493,14 +15508,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 2262-2025</t>
+          <t>A 45596-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45673</v>
+        <v>45579</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15513,7 +15528,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15550,14 +15565,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 4623-2024</t>
+          <t>A 38323-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45328</v>
+        <v>45161</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15570,7 +15585,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15607,14 +15622,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 3198-2023</t>
+          <t>A 38325-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44944</v>
+        <v>45161</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15627,7 +15642,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15664,14 +15679,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 23681-2023</t>
+          <t>A 21654-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45077</v>
+        <v>45442</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15684,7 +15699,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.9</v>
+        <v>7.2</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15721,14 +15736,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 37967-2024</t>
+          <t>A 1280-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45544.55668981482</v>
+        <v>44936</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15741,7 +15756,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15778,14 +15793,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 34051-2024</t>
+          <t>A 20591-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45523</v>
+        <v>45055</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15798,7 +15813,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15835,14 +15850,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 2083-2025</t>
+          <t>A 52877-2022</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45672.58853009259</v>
+        <v>44875.53217592592</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15855,7 +15870,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15892,14 +15907,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 52286-2023</t>
+          <t>A 31893-2021</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45224.58796296296</v>
+        <v>44370.45880787037</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15949,14 +15964,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 47870-2022</t>
+          <t>A 11705-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44855.43302083333</v>
+        <v>44992</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15969,7 +15984,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16006,14 +16021,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 15070-2024</t>
+          <t>A 27538-2021</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45399.59040509259</v>
+        <v>44351.67984953704</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16025,13 +16040,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G254" t="n">
-        <v>4.9</v>
+        <v>1.2</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16068,14 +16078,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 16418-2025</t>
+          <t>A 64224-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45751.46372685185</v>
+        <v>45279</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16088,7 +16098,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16125,14 +16135,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 13995-2025</t>
+          <t>A 20002-2022</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45739.74271990741</v>
+        <v>44697.62150462963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16145,7 +16155,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16182,14 +16192,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 11497-2023</t>
+          <t>A 47856-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44991</v>
+        <v>45588.6680324074</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16202,7 +16212,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16239,14 +16249,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 45596-2024</t>
+          <t>A 49686-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45579</v>
+        <v>45212.36239583333</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16259,7 +16269,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16296,14 +16306,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 15812-2024</t>
+          <t>A 68856-2021</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45404.6669212963</v>
+        <v>44530</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16315,13 +16325,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G259" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16358,14 +16363,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 25069-2023</t>
+          <t>A 46835-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45086</v>
+        <v>45199</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16378,7 +16383,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16415,14 +16420,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 49370-2023</t>
+          <t>A 5557-2022</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45211</v>
+        <v>44593</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16435,7 +16440,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16472,14 +16477,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 14620-2025</t>
+          <t>A 46253-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45742.41289351852</v>
+        <v>45581</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16491,8 +16496,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G262" t="n">
-        <v>7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16529,14 +16539,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 61682-2023</t>
+          <t>A 39530-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45264</v>
+        <v>45167.34055555556</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16549,7 +16559,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16586,14 +16596,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 16399-2025</t>
+          <t>A 22976-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45751</v>
+        <v>45072</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16606,7 +16616,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16643,14 +16653,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 51276-2024</t>
+          <t>A 23978-2022</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45603</v>
+        <v>44722</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16663,7 +16673,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16700,14 +16710,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 7746-2024</t>
+          <t>A 15812-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45349</v>
+        <v>45404.6669212963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16721,11 +16731,11 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16762,14 +16772,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 40173-2024</t>
+          <t>A 38945-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45554.55435185185</v>
+        <v>45163.60909722222</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16781,13 +16791,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G267" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16824,14 +16829,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 55613-2022</t>
+          <t>A 55587-2021</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44883</v>
+        <v>44475</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16843,13 +16848,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G268" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16886,14 +16886,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 36606-2024</t>
+          <t>A 23874-2022</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45537.56913194444</v>
+        <v>44722</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.6</v>
+        <v>7.8</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16943,14 +16943,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 24217-2025</t>
+          <t>A 9142-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45797.35565972222</v>
+        <v>45714.31886574074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -17000,14 +17000,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 49989-2024</t>
+          <t>A 30292-2021</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45597</v>
+        <v>44364.33482638889</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>6.1</v>
+        <v>1.8</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17057,14 +17057,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 44228-2024</t>
+          <t>A 28247-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45573</v>
+        <v>45099</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17114,14 +17114,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 69394-2021</t>
+          <t>A 56759-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44531</v>
+        <v>45238</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17133,13 +17133,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G273" t="n">
-        <v>5.7</v>
+        <v>7.4</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17176,14 +17171,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 24815-2025</t>
+          <t>A 4301-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45799.44935185185</v>
+        <v>45324</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17195,8 +17190,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G274" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17233,14 +17233,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 27898-2025</t>
+          <t>A 22202-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45817</v>
+        <v>45069</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.9</v>
+        <v>7.5</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17290,14 +17290,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 10544-2025</t>
+          <t>A 20012-2022</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45721.48859953704</v>
+        <v>44697</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17310,7 +17310,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>2.2</v>
+        <v>17.2</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17347,14 +17347,14 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 59482-2024</t>
+          <t>A 16418-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45638.52831018518</v>
+        <v>45751.46372685185</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>

--- a/Översikt KLIPPAN.xlsx
+++ b/Översikt KLIPPAN.xlsx
@@ -575,7 +575,7 @@
         <v>45314</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45960</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>45973</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,14 +856,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 513-2025</t>
+          <t>A 54644-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45664</v>
+        <v>45235</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -875,22 +875,17 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G5" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -905,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -914,421 +909,426 @@
         <v>3</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Havstulpanlav
+Skogsduva</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 54644-2023 artfynd.xlsx", "A 54644-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 54644-2023 karta.png", "A 54644-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 54644-2023 FSC-klagomål.docx", "A 54644-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 54644-2023 FSC-klagomål mail.docx", "A 54644-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 54644-2023 tillsynsbegäran.docx", "A 54644-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 54644-2023 tillsynsbegäran mail.docx", "A 54644-2023")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 54644-2023 prioriterade fågelarter.docx", "A 54644-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 46256-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45581</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Rostfläck
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 46256-2024 artfynd.xlsx", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 46256-2024 karta.png", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 46256-2024 FSC-klagomål.docx", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 46256-2024 FSC-klagomål mail.docx", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 46256-2024 tillsynsbegäran.docx", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 46256-2024 tillsynsbegäran mail.docx", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 46256-2024 prioriterade fågelarter.docx", "A 46256-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 513-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45664</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Talltita
 Revlummer</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 513-2025 artfynd.xlsx", "A 513-2025")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 513-2025 karta.png", "A 513-2025")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 513-2025 FSC-klagomål.docx", "A 513-2025")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 513-2025 FSC-klagomål mail.docx", "A 513-2025")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 513-2025 tillsynsbegäran.docx", "A 513-2025")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 513-2025 tillsynsbegäran mail.docx", "A 513-2025")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 513-2025 prioriterade fågelarter.docx", "A 513-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 46256-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45581</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H6" t="n">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 45242-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45919.59901620371</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>3</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Rostfläck
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 46256-2024 artfynd.xlsx", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 46256-2024 karta.png", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 46256-2024 FSC-klagomål.docx", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 46256-2024 FSC-klagomål mail.docx", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 46256-2024 tillsynsbegäran.docx", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 46256-2024 tillsynsbegäran mail.docx", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 46256-2024 prioriterade fågelarter.docx", "A 46256-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 45242-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45919.59901620371</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Blåmossa
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 45242-2025 artfynd.xlsx", "A 45242-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 45242-2025 karta.png", "A 45242-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 45242-2025 FSC-klagomål.docx", "A 45242-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 45242-2025 FSC-klagomål mail.docx", "A 45242-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 45242-2025 tillsynsbegäran.docx", "A 45242-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 45242-2025 tillsynsbegäran mail.docx", "A 45242-2025")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 45242-2025 prioriterade fågelarter.docx", "A 45242-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 42004-2025</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>45903</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C9" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>10.1</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>3</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>3</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Gröngöling
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 42004-2025 artfynd.xlsx", "A 42004-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 42004-2025 karta.png", "A 42004-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 42004-2025 FSC-klagomål.docx", "A 42004-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 42004-2025 FSC-klagomål mail.docx", "A 42004-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 42004-2025 tillsynsbegäran.docx", "A 42004-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 42004-2025 tillsynsbegäran mail.docx", "A 42004-2025")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 42004-2025 prioriterade fågelarter.docx", "A 42004-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 54644-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45235</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Havstulpanlav
-Skogsduva</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 54644-2023 artfynd.xlsx", "A 54644-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 54644-2023 karta.png", "A 54644-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 54644-2023 FSC-klagomål.docx", "A 54644-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 54644-2023 FSC-klagomål mail.docx", "A 54644-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 54644-2023 tillsynsbegäran.docx", "A 54644-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 54644-2023 tillsynsbegäran mail.docx", "A 54644-2023")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 54644-2023 prioriterade fågelarter.docx", "A 54644-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 5797-2024</t>
+          <t>A 53878-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45335</v>
+        <v>44880</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1376,35 +1376,35 @@
       <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Entita
-Gröngöling</t>
+Gulsparv</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 5797-2024 artfynd.xlsx", "A 5797-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 53878-2022 artfynd.xlsx", "A 53878-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 5797-2024 karta.png", "A 5797-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 53878-2022 karta.png", "A 53878-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 5797-2024 FSC-klagomål.docx", "A 5797-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 53878-2022 FSC-klagomål.docx", "A 53878-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 5797-2024 FSC-klagomål mail.docx", "A 5797-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 53878-2022 FSC-klagomål mail.docx", "A 53878-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 5797-2024 tillsynsbegäran.docx", "A 5797-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 53878-2022 tillsynsbegäran.docx", "A 53878-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 5797-2024 tillsynsbegäran mail.docx", "A 5797-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 53878-2022 tillsynsbegäran mail.docx", "A 53878-2022")</f>
         <v/>
       </c>
       <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 5797-2024 prioriterade fågelarter.docx", "A 5797-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 53878-2022 prioriterade fågelarter.docx", "A 53878-2022")</f>
         <v/>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
         <v>44633</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1501,14 +1501,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 37966-2024</t>
+          <t>A 20702-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45544</v>
+        <v>45058</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1521,16 +1521,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.5</v>
+        <v>5.9</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1555,396 +1555,396 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
+          <t>Svinrot
+Grönvit nattviol</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 20702-2023 artfynd.xlsx", "A 20702-2023")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 20702-2023 karta.png", "A 20702-2023")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 20702-2023 FSC-klagomål.docx", "A 20702-2023")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 20702-2023 FSC-klagomål mail.docx", "A 20702-2023")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 20702-2023 tillsynsbegäran.docx", "A 20702-2023")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 20702-2023 tillsynsbegäran mail.docx", "A 20702-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 5797-2024</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45335</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Gröngöling</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 5797-2024 artfynd.xlsx", "A 5797-2024")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 5797-2024 karta.png", "A 5797-2024")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 5797-2024 FSC-klagomål.docx", "A 5797-2024")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 5797-2024 FSC-klagomål mail.docx", "A 5797-2024")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 5797-2024 tillsynsbegäran.docx", "A 5797-2024")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 5797-2024 tillsynsbegäran mail.docx", "A 5797-2024")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 5797-2024 prioriterade fågelarter.docx", "A 5797-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 37966-2024</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45544</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Större vattensalamander
 Vanlig padda</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 37966-2024 artfynd.xlsx", "A 37966-2024")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 37966-2024 karta.png", "A 37966-2024")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 37966-2024 FSC-klagomål.docx", "A 37966-2024")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 37966-2024 FSC-klagomål mail.docx", "A 37966-2024")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 37966-2024 tillsynsbegäran.docx", "A 37966-2024")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 37966-2024 tillsynsbegäran mail.docx", "A 37966-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 44567-2025</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>45917</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="C15" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>17.3</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H15" t="n">
         <v>2</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>2</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Gråkråka
 Grönsiska</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 44567-2025 artfynd.xlsx", "A 44567-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 44567-2025 karta.png", "A 44567-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 44567-2025 FSC-klagomål.docx", "A 44567-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 44567-2025 FSC-klagomål mail.docx", "A 44567-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 44567-2025 tillsynsbegäran.docx", "A 44567-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 44567-2025 tillsynsbegäran mail.docx", "A 44567-2025")</f>
         <v/>
       </c>
-      <c r="Z13">
+      <c r="Z15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 44567-2025 prioriterade fågelarter.docx", "A 44567-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 20702-2023</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45058</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H14" t="n">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 59769-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45992</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>2</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Svinrot
-Grönvit nattviol</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 20702-2023 artfynd.xlsx", "A 20702-2023")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 20702-2023 karta.png", "A 20702-2023")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 20702-2023 FSC-klagomål.docx", "A 20702-2023")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 20702-2023 FSC-klagomål mail.docx", "A 20702-2023")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 20702-2023 tillsynsbegäran.docx", "A 20702-2023")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 20702-2023 tillsynsbegäran mail.docx", "A 20702-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 59769-2025</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45992</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Entita
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 59769-2025 artfynd.xlsx", "A 59769-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 59769-2025 karta.png", "A 59769-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 59769-2025 FSC-klagomål.docx", "A 59769-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 59769-2025 FSC-klagomål mail.docx", "A 59769-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 59769-2025 tillsynsbegäran.docx", "A 59769-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 59769-2025 tillsynsbegäran mail.docx", "A 59769-2025")</f>
         <v/>
       </c>
-      <c r="Z15">
+      <c r="Z16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 59769-2025 prioriterade fågelarter.docx", "A 59769-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 53878-2022</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>44880</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Gulsparv</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 53878-2022 artfynd.xlsx", "A 53878-2022")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 53878-2022 karta.png", "A 53878-2022")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 53878-2022 FSC-klagomål.docx", "A 53878-2022")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 53878-2022 FSC-klagomål mail.docx", "A 53878-2022")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 53878-2022 tillsynsbegäran.docx", "A 53878-2022")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 53878-2022 tillsynsbegäran mail.docx", "A 53878-2022")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 53878-2022 prioriterade fågelarter.docx", "A 53878-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>44365</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44596</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2122,14 +2122,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 10000-2025</t>
+          <t>A 50089-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45719.44871527778</v>
+        <v>45208</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2142,17 +2142,17 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.6</v>
+        <v>13.6</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>1</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2176,382 +2176,382 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
+          <t>Entita</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 50089-2023 artfynd.xlsx", "A 50089-2023")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 50089-2023 karta.png", "A 50089-2023")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 50089-2023 FSC-klagomål.docx", "A 50089-2023")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 50089-2023 FSC-klagomål mail.docx", "A 50089-2023")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 50089-2023 tillsynsbegäran.docx", "A 50089-2023")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 50089-2023 tillsynsbegäran mail.docx", "A 50089-2023")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 50089-2023 prioriterade fågelarter.docx", "A 50089-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 14892-2023</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45015</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Mindre hackspett</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 14892-2023 artfynd.xlsx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 14892-2023 karta.png", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 14892-2023 FSC-klagomål.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 14892-2023 FSC-klagomål mail.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 14892-2023 tillsynsbegäran.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 14892-2023 tillsynsbegäran mail.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 14892-2023 prioriterade fågelarter.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 10000-2025</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45719.44871527778</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
           <t>Dvärghäxört</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 10000-2025 artfynd.xlsx", "A 10000-2025")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 10000-2025 karta.png", "A 10000-2025")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 10000-2025 FSC-klagomål.docx", "A 10000-2025")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 10000-2025 FSC-klagomål mail.docx", "A 10000-2025")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 10000-2025 tillsynsbegäran.docx", "A 10000-2025")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 10000-2025 tillsynsbegäran mail.docx", "A 10000-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>A 23403-2024</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B22" s="1" t="n">
         <v>45453</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
+      <c r="C22" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
         <v>9.1</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>1</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>1</v>
       </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>1</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Vårstarr</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 23403-2024 artfynd.xlsx", "A 23403-2024")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 23403-2024 karta.png", "A 23403-2024")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 23403-2024 FSC-klagomål.docx", "A 23403-2024")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 23403-2024 FSC-klagomål mail.docx", "A 23403-2024")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 23403-2024 tillsynsbegäran.docx", "A 23403-2024")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 23403-2024 tillsynsbegäran mail.docx", "A 23403-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>A 30721-2021</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B23" s="1" t="n">
         <v>44365</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
+      <c r="C23" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
         <v>0.4</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>1</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Brandticka</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 30721-2021 artfynd.xlsx", "A 30721-2021")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 30721-2021 karta.png", "A 30721-2021")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 30721-2021 FSC-klagomål.docx", "A 30721-2021")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 30721-2021 FSC-klagomål mail.docx", "A 30721-2021")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 30721-2021 tillsynsbegäran.docx", "A 30721-2021")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 30721-2021 tillsynsbegäran mail.docx", "A 30721-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 14892-2023</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>45015</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Mindre hackspett</t>
-        </is>
-      </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 14892-2023 artfynd.xlsx", "A 14892-2023")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 14892-2023 karta.png", "A 14892-2023")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 14892-2023 FSC-klagomål.docx", "A 14892-2023")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 14892-2023 FSC-klagomål mail.docx", "A 14892-2023")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 14892-2023 tillsynsbegäran.docx", "A 14892-2023")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 14892-2023 tillsynsbegäran mail.docx", "A 14892-2023")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 14892-2023 prioriterade fågelarter.docx", "A 14892-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 50089-2023</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>45208</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Entita</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 50089-2023 artfynd.xlsx", "A 50089-2023")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 50089-2023 karta.png", "A 50089-2023")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 50089-2023 FSC-klagomål.docx", "A 50089-2023")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 50089-2023 FSC-klagomål mail.docx", "A 50089-2023")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 50089-2023 tillsynsbegäran.docx", "A 50089-2023")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 50089-2023 tillsynsbegäran mail.docx", "A 50089-2023")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 50089-2023 prioriterade fågelarter.docx", "A 50089-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>46000</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2649,14 +2649,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 2839-2026</t>
+          <t>A 61049-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>46038</v>
+        <v>46000</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2668,8 +2668,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -2703,132 +2708,127 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
+          <t>Mindre hackspett</t>
+        </is>
+      </c>
+      <c r="S25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 61049-2025 artfynd.xlsx", "A 61049-2025")</f>
+        <v/>
+      </c>
+      <c r="T25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 61049-2025 karta.png", "A 61049-2025")</f>
+        <v/>
+      </c>
+      <c r="V25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 61049-2025 FSC-klagomål.docx", "A 61049-2025")</f>
+        <v/>
+      </c>
+      <c r="W25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 61049-2025 FSC-klagomål mail.docx", "A 61049-2025")</f>
+        <v/>
+      </c>
+      <c r="X25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 61049-2025 tillsynsbegäran.docx", "A 61049-2025")</f>
+        <v/>
+      </c>
+      <c r="Y25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 61049-2025 tillsynsbegäran mail.docx", "A 61049-2025")</f>
+        <v/>
+      </c>
+      <c r="Z25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 61049-2025 prioriterade fågelarter.docx", "A 61049-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A 2839-2026</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>46038</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
           <t>Entita</t>
         </is>
       </c>
-      <c r="S25">
+      <c r="S26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 2839-2026 artfynd.xlsx", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="T25">
+      <c r="T26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 2839-2026 karta.png", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="V25">
+      <c r="V26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 2839-2026 FSC-klagomål.docx", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="W25">
+      <c r="W26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 2839-2026 FSC-klagomål mail.docx", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="X25">
+      <c r="X26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 2839-2026 tillsynsbegäran.docx", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="Y25">
+      <c r="Y26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 2839-2026 tillsynsbegäran mail.docx", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="Z25">
+      <c r="Z26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 2839-2026 prioriterade fågelarter.docx", "A 2839-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A 61049-2025</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>46000</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Mindre hackspett</t>
-        </is>
-      </c>
-      <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 61049-2025 artfynd.xlsx", "A 61049-2025")</f>
-        <v/>
-      </c>
-      <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 61049-2025 karta.png", "A 61049-2025")</f>
-        <v/>
-      </c>
-      <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 61049-2025 FSC-klagomål.docx", "A 61049-2025")</f>
-        <v/>
-      </c>
-      <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 61049-2025 FSC-klagomål mail.docx", "A 61049-2025")</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 61049-2025 tillsynsbegäran.docx", "A 61049-2025")</f>
-        <v/>
-      </c>
-      <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 61049-2025 tillsynsbegäran mail.docx", "A 61049-2025")</f>
-        <v/>
-      </c>
-      <c r="Z26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 61049-2025 prioriterade fågelarter.docx", "A 61049-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44883</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>44287</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>44368.50049768519</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44883</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>44596</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44489.35295138889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>44691.52568287037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44697.63137731481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>44697</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>44531</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>44487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44575</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44875</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>44621.59760416667</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>44691</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3722,14 +3722,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 30195-2021</t>
+          <t>A 46692-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44363</v>
+        <v>44445</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3741,8 +3741,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3779,14 +3784,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 8686-2021</t>
+          <t>A 32455-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44245</v>
+        <v>44782.541875</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3798,13 +3803,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3841,14 +3841,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 46692-2021</t>
+          <t>A 7839-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44445</v>
+        <v>44608</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3862,11 +3862,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3903,14 +3903,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 7839-2022</t>
+          <t>A 41268-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44608</v>
+        <v>44825</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3965,14 +3965,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 2046-2022</t>
+          <t>A 55415-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44575</v>
+        <v>44882</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3986,11 +3986,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4027,14 +4027,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 41272-2022</t>
+          <t>A 2046-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44825</v>
+        <v>44575</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4048,11 +4048,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>6.2</v>
+        <v>0.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4089,14 +4089,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 32455-2022</t>
+          <t>A 41272-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44782.541875</v>
+        <v>44825</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4108,8 +4108,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>0.6</v>
+        <v>6.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4146,14 +4151,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 41268-2022</t>
+          <t>A 54516-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44825</v>
+        <v>44880</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4165,13 +4170,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4208,14 +4208,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 55415-2022</t>
+          <t>A 30195-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44882</v>
+        <v>44363</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4227,13 +4227,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4270,14 +4265,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 54516-2022</t>
+          <t>A 9046-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44880</v>
+        <v>44246</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4290,7 +4285,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4327,14 +4322,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 9046-2021</t>
+          <t>A 40238-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44246</v>
+        <v>44418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4346,8 +4341,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4384,14 +4384,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 40238-2021</t>
+          <t>A 9535-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44418</v>
+        <v>44251</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4403,13 +4403,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4446,14 +4441,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 9535-2021</t>
+          <t>A 20690-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44251</v>
+        <v>44700</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4465,8 +4460,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>44245</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4565,14 +4565,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 20690-2022</t>
+          <t>A 17425-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44700</v>
+        <v>44679.2472337963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4584,13 +4584,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>5.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4627,14 +4622,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 17425-2022</t>
+          <t>A 3489-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44679.2472337963</v>
+        <v>45320</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4647,7 +4642,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>5.1</v>
+        <v>1.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4684,14 +4679,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 39056-2022</t>
+          <t>A 593-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44816</v>
+        <v>44930.55528935185</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4704,7 +4699,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4741,14 +4736,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 47967-2021</t>
+          <t>A 44891-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44448</v>
+        <v>44841</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4761,7 +4756,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4798,14 +4793,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 30852-2021</t>
+          <t>A 46147-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44365</v>
+        <v>44846</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4818,7 +4813,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.6</v>
+        <v>5.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4855,14 +4850,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 17792-2021</t>
+          <t>A 20591-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44300</v>
+        <v>45055</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4875,7 +4870,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4912,14 +4907,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 11105-2021</t>
+          <t>A 54348-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44259</v>
+        <v>44882</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4931,13 +4926,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>2.1</v>
+        <v>7.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4974,14 +4964,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 63720-2023</t>
+          <t>A 55588-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45275</v>
+        <v>44475</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4994,7 +4984,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5031,14 +5021,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 243-2025</t>
+          <t>A 39056-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45660</v>
+        <v>44816</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5051,7 +5041,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5088,14 +5078,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 43855-2022</t>
+          <t>A 45641-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44838</v>
+        <v>44845</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5107,13 +5097,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5150,14 +5135,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 14278-2024</t>
+          <t>A 9142-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45393.60961805555</v>
+        <v>45714.31886574074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5170,7 +5155,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5207,14 +5192,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 47869-2022</t>
+          <t>A 6615-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44855.43141203704</v>
+        <v>45341</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5227,7 +5212,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5264,14 +5249,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 6615-2024</t>
+          <t>A 47856-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45341</v>
+        <v>45588.6680324074</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5284,7 +5269,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5321,14 +5306,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 52851-2024</t>
+          <t>A 17060-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45610</v>
+        <v>44296.63025462963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5341,7 +5326,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5378,14 +5363,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 24647-2023</t>
+          <t>A 28247-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45084</v>
+        <v>45099</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5397,13 +5382,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>11.6</v>
+        <v>4.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5440,14 +5420,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 22540-2025</t>
+          <t>A 22976-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45788.30451388889</v>
+        <v>45072</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5460,7 +5440,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5497,14 +5477,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 3198-2023</t>
+          <t>A 55586-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44944</v>
+        <v>44475.88427083333</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5517,7 +5497,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5554,14 +5534,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 34051-2024</t>
+          <t>A 2755-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45523</v>
+        <v>44944</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5573,8 +5553,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5611,14 +5596,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 13420-2023</t>
+          <t>A 28847-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45005</v>
+        <v>45104</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5630,13 +5615,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5673,14 +5653,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 53868-2022</t>
+          <t>A 8686-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44880.64693287037</v>
+        <v>44245</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5692,8 +5672,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>7.6</v>
+        <v>0.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5730,14 +5715,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 27529-2025</t>
+          <t>A 10695-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45813</v>
+        <v>44988</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5749,13 +5734,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>7.9</v>
+        <v>2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5792,14 +5772,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 25393-2023</t>
+          <t>A 42281-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45079</v>
+        <v>45562.6105787037</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5811,8 +5791,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5849,14 +5834,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 42281-2024</t>
+          <t>A 4321-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45562.6105787037</v>
+        <v>45324.66635416666</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5868,13 +5853,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5911,14 +5891,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 42284-2024</t>
+          <t>A 31893-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45562</v>
+        <v>44370.45880787037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5930,13 +5910,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5973,14 +5948,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 3489-2024</t>
+          <t>A 4301-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45320</v>
+        <v>45324</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5992,8 +5967,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6030,14 +6010,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 14620-2025</t>
+          <t>A 52882-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45742.41289351852</v>
+        <v>45610</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6050,7 +6030,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>7</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6087,14 +6067,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 30738-2021</t>
+          <t>A 13994-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44365.45446759259</v>
+        <v>45739.73532407408</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6107,7 +6087,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6144,14 +6124,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 37967-2024</t>
+          <t>A 17792-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45544.55668981482</v>
+        <v>44300</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6164,7 +6144,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6201,14 +6181,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 42423-2025</t>
+          <t>A 17856-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45905.41005787037</v>
+        <v>45419</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6222,11 +6202,11 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6263,14 +6243,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 28844-2023</t>
+          <t>A 33331-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45104</v>
+        <v>45519</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6282,8 +6262,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6320,14 +6305,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 42627-2025</t>
+          <t>A 46260-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45905.77766203704</v>
+        <v>45581</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6339,8 +6324,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6377,14 +6367,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 16399-2025</t>
+          <t>A 47967-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45751</v>
+        <v>44448</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6397,7 +6387,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6434,14 +6424,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 51276-2024</t>
+          <t>A 47869-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45603</v>
+        <v>44855.43141203704</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6491,14 +6481,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 593-2023</t>
+          <t>A 58642-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44930.55528935185</v>
+        <v>44489.36314814815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6511,7 +6501,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6548,14 +6538,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 33331-2024</t>
+          <t>A 58387-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45519</v>
+        <v>44901</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6569,11 +6559,11 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6610,14 +6600,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 4623-2024</t>
+          <t>A 55833-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45328</v>
+        <v>45239</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6630,7 +6620,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6667,14 +6657,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 40173-2024</t>
+          <t>A 38156-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45554.55435185185</v>
+        <v>44812.37135416667</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6686,13 +6676,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6729,14 +6714,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 7746-2024</t>
+          <t>A 44885-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45349</v>
+        <v>44841</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6748,13 +6733,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6791,14 +6771,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 34479-2025</t>
+          <t>A 14278-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45847.37570601852</v>
+        <v>45393.60961805555</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6811,7 +6791,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6848,14 +6828,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 15070-2024</t>
+          <t>A 63720-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45399.59040509259</v>
+        <v>45275</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6867,13 +6847,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6910,14 +6885,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 30725-2021</t>
+          <t>A 30738-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44365.44506944445</v>
+        <v>44365.45446759259</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6967,14 +6942,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 217-2023</t>
+          <t>A 21654-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44928</v>
+        <v>45442</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6987,7 +6962,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7024,14 +6999,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 55613-2022</t>
+          <t>A 217-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44883</v>
+        <v>44928</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7043,13 +7018,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7086,14 +7056,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 38724-2023</t>
+          <t>A 56089-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45163</v>
+        <v>44477</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7106,7 +7076,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.2</v>
+        <v>20.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7143,14 +7113,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 58642-2021</t>
+          <t>A 23260-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44489.36314814815</v>
+        <v>45075.87199074074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7163,7 +7133,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7200,14 +7170,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 36606-2024</t>
+          <t>A 11676-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45537.56913194444</v>
+        <v>44992</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7219,8 +7189,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7257,14 +7232,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 43698-2025</t>
+          <t>A 11705-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45912.39892361111</v>
+        <v>44992</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7277,7 +7252,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7314,14 +7289,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 5256-2022</t>
+          <t>A 30292-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44593</v>
+        <v>44364.33482638889</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7334,7 +7309,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7371,14 +7346,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 25069-2023</t>
+          <t>A 5523-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45086</v>
+        <v>44593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7391,7 +7366,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.2</v>
+        <v>5.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7428,14 +7403,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 24217-2025</t>
+          <t>A 8017-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45797.35565972222</v>
+        <v>44609.39615740741</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7448,7 +7423,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7485,14 +7460,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 18520-2021</t>
+          <t>A 18214-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44305</v>
+        <v>45040</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7504,13 +7479,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7547,14 +7517,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 45096-2025</t>
+          <t>A 3183-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45919.38780092593</v>
+        <v>44944</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7567,7 +7537,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.8</v>
+        <v>6.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7604,14 +7574,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 24815-2025</t>
+          <t>A 42275-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45799.44935185185</v>
+        <v>45562.60690972222</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7623,8 +7593,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7661,14 +7636,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 44228-2024</t>
+          <t>A 42303-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45573</v>
+        <v>45562.6322337963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7680,8 +7655,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7718,14 +7698,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 49989-2024</t>
+          <t>A 24647-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45597</v>
+        <v>45084</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7737,8 +7717,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>6.1</v>
+        <v>11.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7775,14 +7760,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 69394-2021</t>
+          <t>A 7661-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44531</v>
+        <v>45706</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7794,13 +7779,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7837,14 +7817,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 18214-2023</t>
+          <t>A 2252-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45040</v>
+        <v>45673</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7857,7 +7837,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.8</v>
+        <v>0.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7894,14 +7874,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 45574-2025</t>
+          <t>A 15065-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45922.65922453703</v>
+        <v>45399.57625</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7913,8 +7893,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>1.7</v>
+        <v>5.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7951,14 +7936,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 45717-2025</t>
+          <t>A 15810-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45923.44155092593</v>
+        <v>45404</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7970,8 +7955,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>9.1</v>
+        <v>3.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8008,14 +7998,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 45886-2025</t>
+          <t>A 14614-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45923.66560185186</v>
+        <v>45013</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8028,7 +8018,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.8</v>
+        <v>5.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8065,14 +8055,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 60791-2023</t>
+          <t>A 8204-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45260.65283564815</v>
+        <v>44244</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8085,7 +8075,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8122,14 +8112,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 46138-2025</t>
+          <t>A 4324-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45924.59914351852</v>
+        <v>45324.67409722223</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8142,7 +8132,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8179,14 +8169,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 2262-2025</t>
+          <t>A 41294-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45673</v>
+        <v>44825</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8199,7 +8189,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.6</v>
+        <v>6.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8236,14 +8226,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 23681-2023</t>
+          <t>A 9270-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45077</v>
+        <v>44616</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8256,7 +8246,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8293,14 +8283,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 4324-2024</t>
+          <t>A 20128-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45324.67409722223</v>
+        <v>45055</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8313,7 +8303,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8350,14 +8340,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 28490-2023</t>
+          <t>A 7515-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45103.44039351852</v>
+        <v>45702</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8369,8 +8359,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8407,14 +8402,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 44891-2022</t>
+          <t>A 27898-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44841</v>
+        <v>45817</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8427,7 +8422,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8464,14 +8459,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 27898-2025</t>
+          <t>A 62473-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45817</v>
+        <v>45267</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8483,8 +8478,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8521,14 +8521,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 59482-2024</t>
+          <t>A 39244-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45638.52831018518</v>
+        <v>44817.60482638889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8578,14 +8578,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 27010-2023</t>
+          <t>A 10544-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45094.36791666667</v>
+        <v>45721.48859953704</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8635,14 +8635,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 17856-2024</t>
+          <t>A 59482-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45419</v>
+        <v>45638.52831018518</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8654,13 +8654,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8697,14 +8692,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 10544-2025</t>
+          <t>A 23978-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45721.48859953704</v>
+        <v>44722</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8717,7 +8712,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8754,14 +8749,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 7515-2025</t>
+          <t>A 27010-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45702</v>
+        <v>45094.36791666667</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8773,13 +8768,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8816,14 +8806,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 13994-2025</t>
+          <t>A 39097-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45739.73532407408</v>
+        <v>45548.56422453704</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8836,7 +8826,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8873,14 +8863,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 39238-2022</t>
+          <t>A 60783-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44817</v>
+        <v>45260.6441087963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8893,7 +8883,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8930,14 +8920,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 52882-2024</t>
+          <t>A 51844-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45610</v>
+        <v>45223</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8950,7 +8940,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8987,14 +8977,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 11497-2023</t>
+          <t>A 8500-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44991</v>
+        <v>44977</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9007,7 +8997,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9044,14 +9034,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 46260-2024</t>
+          <t>A 11335-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45581</v>
+        <v>44993</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9063,13 +9053,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9106,14 +9091,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 29284-2025</t>
+          <t>A 60791-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45824</v>
+        <v>45260.65283564815</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9126,7 +9111,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9163,14 +9148,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 5141-2024</t>
+          <t>A 46835-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45330</v>
+        <v>45199</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9183,7 +9168,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9220,14 +9205,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 39244-2022</t>
+          <t>A 52838-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44817.60482638889</v>
+        <v>45610</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9240,7 +9225,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9277,14 +9262,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 20717-2023</t>
+          <t>A 13420-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45055</v>
+        <v>45005</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9296,8 +9281,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9334,14 +9324,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 32132-2025</t>
+          <t>A 22202-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45835.50878472222</v>
+        <v>45069</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9354,7 +9344,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.1</v>
+        <v>7.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9391,14 +9381,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 37068-2023</t>
+          <t>A 29284-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45155</v>
+        <v>45824</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9411,7 +9401,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9448,14 +9438,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 40762-2021</t>
+          <t>A 49073-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44420</v>
+        <v>45594.61548611111</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9468,7 +9458,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9505,14 +9495,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 55588-2021</t>
+          <t>A 28844-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44475</v>
+        <v>45104</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9525,7 +9515,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9562,14 +9552,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 8204-2021</t>
+          <t>A 30852-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44244</v>
+        <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9582,7 +9572,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9619,14 +9609,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 52286-2023</t>
+          <t>A 39238-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45224.58796296296</v>
+        <v>44817</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9639,7 +9629,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9676,14 +9666,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 33450-2025</t>
+          <t>A 38323-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45841.46677083334</v>
+        <v>45161</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9696,7 +9686,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9733,14 +9723,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 33456-2025</t>
+          <t>A 38325-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45841.47364583334</v>
+        <v>45161</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9753,7 +9743,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9790,14 +9780,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 46619-2024</t>
+          <t>A 20717-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45583.32314814815</v>
+        <v>45055</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9810,7 +9800,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9847,14 +9837,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 33761-2025</t>
+          <t>A 56759-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45842.38335648148</v>
+        <v>45238</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9867,7 +9857,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.4</v>
+        <v>7.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9904,14 +9894,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 11857-2025</t>
+          <t>A 27538-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45728.39798611111</v>
+        <v>44351.67984953704</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9923,13 +9913,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9966,14 +9951,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 24333-2022</t>
+          <t>A 32132-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44726.32643518518</v>
+        <v>45835.50878472222</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10023,14 +10008,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 33766-2025</t>
+          <t>A 5557-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45842.3869675926</v>
+        <v>44593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10043,7 +10028,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10080,14 +10065,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 34472-2025</t>
+          <t>A 27454-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45847.35877314815</v>
+        <v>45474</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10100,7 +10085,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10137,14 +10122,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 56089-2021</t>
+          <t>A 52877-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44477</v>
+        <v>44875.53217592592</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10157,7 +10142,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>20.9</v>
+        <v>0.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10194,14 +10179,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 49394-2025</t>
+          <t>A 28490-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45938.65101851852</v>
+        <v>45103.44039351852</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10213,13 +10198,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10256,14 +10236,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 54348-2022</t>
+          <t>A 5256-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44882</v>
+        <v>44593</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10276,7 +10256,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>7.8</v>
+        <v>2.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10313,14 +10293,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 38156-2022</t>
+          <t>A 18516-2021</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44812.37135416667</v>
+        <v>44305</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10332,8 +10312,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10370,14 +10355,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 18516-2021</t>
+          <t>A 33766-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44305</v>
+        <v>45842.3869675926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10389,13 +10374,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10432,14 +10412,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 50163-2025</t>
+          <t>A 11105-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45943.58734953704</v>
+        <v>44259</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10451,8 +10431,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10489,14 +10474,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 22120-2025</t>
+          <t>A 46253-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45785.5165625</v>
+        <v>45581</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10508,8 +10493,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>2.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10546,14 +10536,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 40710-2023</t>
+          <t>A 33761-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45170.63194444445</v>
+        <v>45842.38335648148</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10566,7 +10556,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10603,14 +10593,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 55833-2023</t>
+          <t>A 15442-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45239</v>
+        <v>44659.85333333333</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10623,7 +10613,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10660,14 +10650,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 20128-2023</t>
+          <t>A 33450-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45055</v>
+        <v>45841.46677083334</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10680,7 +10670,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10717,14 +10707,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 40105-2025</t>
+          <t>A 33456-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45894</v>
+        <v>45841.47364583334</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10737,7 +10727,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10774,14 +10764,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 40092-2025</t>
+          <t>A 48965-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45894</v>
+        <v>45209</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10794,7 +10784,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10831,14 +10821,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 2252-2025</t>
+          <t>A 18520-2021</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45673</v>
+        <v>44305</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10850,8 +10840,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10888,14 +10883,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 50357-2021</t>
+          <t>A 2262-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44455</v>
+        <v>45673</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10908,7 +10903,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10945,14 +10940,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 2083-2025</t>
+          <t>A 20012-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45672.58853009259</v>
+        <v>44697</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10965,7 +10960,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3.4</v>
+        <v>17.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11002,14 +10997,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 61682-2023</t>
+          <t>A 5151-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45264</v>
+        <v>44593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11022,7 +11017,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.8</v>
+        <v>6.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11059,14 +11054,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 11676-2023</t>
+          <t>A 4623-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44992</v>
+        <v>45328</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11078,13 +11073,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11121,14 +11111,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 51844-2023</t>
+          <t>A 34472-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45223</v>
+        <v>45847.35877314815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11141,7 +11131,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11178,14 +11168,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 28847-2023</t>
+          <t>A 46619-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45104</v>
+        <v>45583.32314814815</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11198,7 +11188,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11235,14 +11225,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 15442-2022</t>
+          <t>A 243-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44659.85333333333</v>
+        <v>45660</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11255,7 +11245,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11292,14 +11282,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 2755-2023</t>
+          <t>A 40762-2021</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44944</v>
+        <v>44420</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11311,13 +11301,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11354,14 +11339,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 51396-2025</t>
+          <t>A 28709-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45950.47131944444</v>
+        <v>45103</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11374,7 +11359,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11411,14 +11396,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 49370-2023</t>
+          <t>A 21636-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45211</v>
+        <v>45442</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11431,7 +11416,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.8</v>
+        <v>6.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11468,14 +11453,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 24813-2025</t>
+          <t>A 11857-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45799.44813657407</v>
+        <v>45728.39798611111</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11487,8 +11472,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11525,14 +11515,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 28709-2023</t>
+          <t>A 46728-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45103</v>
+        <v>45198</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11545,7 +11535,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11582,14 +11572,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 51946-2025</t>
+          <t>A 13363-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45951</v>
+        <v>45005</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11601,8 +11591,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11639,14 +11634,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 51384-2025</t>
+          <t>A 23874-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45950.46399305556</v>
+        <v>44722</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11659,7 +11654,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.7</v>
+        <v>7.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11696,14 +11691,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 46728-2023</t>
+          <t>A 38724-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45198</v>
+        <v>45163</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11716,7 +11711,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11753,14 +11748,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 15065-2024</t>
+          <t>A 24333-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45399.57625</v>
+        <v>44726.32643518518</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11772,13 +11767,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>5.8</v>
+        <v>1.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11815,14 +11805,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 3498-2024</t>
+          <t>A 40710-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45320.47233796296</v>
+        <v>45170.63194444445</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11835,7 +11825,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11872,14 +11862,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 41294-2022</t>
+          <t>A 14619-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44825</v>
+        <v>45013</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11892,7 +11882,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>6.1</v>
+        <v>0.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11929,14 +11919,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 39097-2024</t>
+          <t>A 22120-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45548.56422453704</v>
+        <v>45785.5165625</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11949,7 +11939,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11986,14 +11976,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 8712-2023</t>
+          <t>A 3198-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44978.3975462963</v>
+        <v>44944</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12006,7 +11996,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12043,14 +12033,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 49073-2024</t>
+          <t>A 55587-2021</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45594.61548611111</v>
+        <v>44475</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12063,7 +12053,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12100,14 +12090,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 7661-2025</t>
+          <t>A 37068-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45706</v>
+        <v>45155</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12120,7 +12110,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12157,14 +12147,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 3183-2023</t>
+          <t>A 50357-2021</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44944</v>
+        <v>44455</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12177,7 +12167,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>6.9</v>
+        <v>1.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12214,14 +12204,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 48965-2023</t>
+          <t>A 39530-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45209</v>
+        <v>45167.34055555556</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12234,7 +12224,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12271,14 +12261,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 9270-2022</t>
+          <t>A 24813-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44616</v>
+        <v>45799.44813657407</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12291,7 +12281,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12328,14 +12318,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 36842-2024</t>
+          <t>A 23681-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45538</v>
+        <v>45077</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12347,13 +12337,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12390,14 +12375,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 55696-2025</t>
+          <t>A 24034-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45972</v>
+        <v>45078.86898148148</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12410,7 +12395,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12447,14 +12432,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 33462-2025</t>
+          <t>A 38945-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45841</v>
+        <v>45163.60909722222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12467,7 +12452,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12504,14 +12489,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 5523-2022</t>
+          <t>A 55291-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44593</v>
+        <v>45237</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12524,7 +12509,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>5.3</v>
+        <v>2.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12561,14 +12546,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 17060-2021</t>
+          <t>A 19097-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44296.63025462963</v>
+        <v>45767.68126157407</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12581,7 +12566,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12618,14 +12603,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 57687-2025</t>
+          <t>A 5141-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45981.44112268519</v>
+        <v>45330</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12637,13 +12622,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12680,14 +12660,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 4321-2024</t>
+          <t>A 3498-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45324.66635416666</v>
+        <v>45320.47233796296</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12700,7 +12680,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12737,14 +12717,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 62473-2023</t>
+          <t>A 64224-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45267</v>
+        <v>45279</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12756,13 +12736,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12799,14 +12774,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 8500-2023</t>
+          <t>A 27813-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44977</v>
+        <v>45098</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12819,7 +12794,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12856,14 +12831,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 317-2026</t>
+          <t>A 20002-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46027.56958333333</v>
+        <v>44697.62150462963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12876,7 +12851,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12913,14 +12888,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 55291-2023</t>
+          <t>A 69041-2021</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45237</v>
+        <v>44529</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12933,7 +12908,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12970,14 +12945,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 69041-2021</t>
+          <t>A 49686-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44529</v>
+        <v>45212.36239583333</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12990,7 +12965,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13027,14 +13002,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 59885-2025</t>
+          <t>A 23741-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45993.32192129629</v>
+        <v>45077.77087962963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13047,7 +13022,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13084,14 +13059,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 42006-2025</t>
+          <t>A 25393-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45903</v>
+        <v>45079</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13104,7 +13079,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13141,14 +13116,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 23260-2023</t>
+          <t>A 27452-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45075.87199074074</v>
+        <v>45474</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13161,7 +13136,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13198,14 +13173,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 55586-2021</t>
+          <t>A 8712-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44475.88427083333</v>
+        <v>44978.3975462963</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13218,7 +13193,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13255,14 +13230,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 15810-2024</t>
+          <t>A 53868-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45404</v>
+        <v>44880.64693287037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13274,13 +13249,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>3.7</v>
+        <v>7.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13317,14 +13287,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 2806-2026</t>
+          <t>A 36842-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>46038.41621527778</v>
+        <v>45538</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13336,8 +13306,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>7.9</v>
+        <v>3.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13374,14 +13349,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 19097-2025</t>
+          <t>A 37967-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45767.68126157407</v>
+        <v>45544.55668981482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13394,7 +13369,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13431,14 +13406,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 10695-2023</t>
+          <t>A 34051-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44988</v>
+        <v>45523</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13451,7 +13426,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13488,14 +13463,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 44885-2022</t>
+          <t>A 68856-2021</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44841</v>
+        <v>44530</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13508,7 +13483,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13545,14 +13520,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 14614-2023</t>
+          <t>A 30725-2021</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45013</v>
+        <v>44365.44506944445</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13565,7 +13540,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>5.1</v>
+        <v>0.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13602,14 +13577,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 61060-2025</t>
+          <t>A 42284-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>46000</v>
+        <v>45562</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13664,14 +13639,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 4968-2026</t>
+          <t>A 52851-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46049</v>
+        <v>45610</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13684,7 +13659,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13721,14 +13696,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 8017-2022</t>
+          <t>A 5196-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44609.39615740741</v>
+        <v>44593</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13741,7 +13716,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>5.6</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13778,14 +13753,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 62849-2025</t>
+          <t>A 1280-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>46008.69979166667</v>
+        <v>44936</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13798,7 +13773,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13835,14 +13810,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 13995-2025</t>
+          <t>A 2083-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45739.74271990741</v>
+        <v>45672.58853009259</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13855,7 +13830,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13892,14 +13867,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 5645-2026</t>
+          <t>A 22540-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>46051.42502314815</v>
+        <v>45788.30451388889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13912,7 +13887,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.3</v>
+        <v>4.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13949,14 +13924,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 42275-2024</t>
+          <t>A 52286-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45562.60690972222</v>
+        <v>45224.58796296296</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13966,11 +13941,6 @@
       <c r="E218" t="inlineStr">
         <is>
           <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G218" t="n">
@@ -14011,14 +13981,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 42303-2024</t>
+          <t>A 27529-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45562.6322337963</v>
+        <v>45813</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14032,11 +14002,11 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G219" t="n">
-        <v>3.2</v>
+        <v>7.9</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14073,14 +14043,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 24034-2023</t>
+          <t>A 47870-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45078.86898148148</v>
+        <v>44855.43302083333</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14093,7 +14063,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14130,14 +14100,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 5196-2022</t>
+          <t>A 15070-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44593</v>
+        <v>45399.59040509259</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14149,8 +14119,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14187,14 +14162,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 6446-2026</t>
+          <t>A 16418-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>46055.85770833334</v>
+        <v>45751.46372685185</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14207,7 +14182,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14244,14 +14219,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 52838-2024</t>
+          <t>A 13995-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45610</v>
+        <v>45739.74271990741</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14264,7 +14239,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14301,14 +14276,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 45641-2022</t>
+          <t>A 43855-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14320,8 +14295,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14358,14 +14338,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 21636-2024</t>
+          <t>A 11497-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45442</v>
+        <v>44991</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14378,7 +14358,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>6.3</v>
+        <v>2.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14415,14 +14395,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 63499-2025</t>
+          <t>A 45596-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>46013</v>
+        <v>45579</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14435,7 +14415,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14472,14 +14452,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 6890-2026</t>
+          <t>A 42627-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>46057.471875</v>
+        <v>45905.77766203704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14492,7 +14472,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14529,14 +14509,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 6447-2026</t>
+          <t>A 42423-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>46055</v>
+        <v>45905.41005787037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14548,8 +14528,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G228" t="n">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14586,14 +14571,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 60783-2023</t>
+          <t>A 15812-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45260.6441087963</v>
+        <v>45404.6669212963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14605,8 +14590,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14643,14 +14633,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 14619-2023</t>
+          <t>A 43698-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45013</v>
+        <v>45912.39892361111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14700,14 +14690,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 27454-2024</t>
+          <t>A 25069-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45474</v>
+        <v>45086</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14720,7 +14710,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14757,14 +14747,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 11335-2023</t>
+          <t>A 34479-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44993</v>
+        <v>45847.37570601852</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14777,7 +14767,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14814,14 +14804,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 13363-2023</t>
+          <t>A 49370-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45005</v>
+        <v>45211</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14833,13 +14823,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G233" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14876,14 +14861,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 5151-2022</t>
+          <t>A 14620-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44593</v>
+        <v>45742.41289351852</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14896,7 +14881,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14933,14 +14918,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 23741-2023</t>
+          <t>A 45574-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45077.77087962963</v>
+        <v>45922.65922453703</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14953,7 +14938,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14990,14 +14975,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 50781-2025</t>
+          <t>A 45096-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45946</v>
+        <v>45919.38780092593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15010,7 +14995,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15047,14 +15032,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 2413-2026</t>
+          <t>A 61682-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>46036.73725694444</v>
+        <v>45264</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15067,7 +15052,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15104,14 +15089,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 53289-2025</t>
+          <t>A 45717-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45958</v>
+        <v>45923.44155092593</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15124,7 +15109,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.3</v>
+        <v>9.1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15161,14 +15146,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 53290-2025</t>
+          <t>A 45886-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45958</v>
+        <v>45923.66560185186</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15181,7 +15166,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15218,14 +15203,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 46147-2022</t>
+          <t>A 46138-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44846</v>
+        <v>45924.59914351852</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15238,7 +15223,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>5.7</v>
+        <v>1.9</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15275,14 +15260,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 47870-2022</t>
+          <t>A 16399-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44855.43302083333</v>
+        <v>45751</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15295,7 +15280,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15332,14 +15317,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 27813-2023</t>
+          <t>A 51276-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45098</v>
+        <v>45603</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15352,7 +15337,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15389,14 +15374,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 58387-2022</t>
+          <t>A 7746-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44901</v>
+        <v>45349</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15410,11 +15395,11 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15451,14 +15436,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 27452-2024</t>
+          <t>A 40173-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45474</v>
+        <v>45554.55435185185</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15470,8 +15455,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15508,14 +15498,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 45596-2024</t>
+          <t>A 49394-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45579</v>
+        <v>45938.65101851852</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15527,8 +15517,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G245" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15565,14 +15560,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 38323-2023</t>
+          <t>A 50163-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45161</v>
+        <v>45943.58734953704</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15585,7 +15580,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15622,14 +15617,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 38325-2023</t>
+          <t>A 55613-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45161</v>
+        <v>44883</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15641,8 +15636,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G247" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15679,14 +15679,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 21654-2024</t>
+          <t>A 40092-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45442</v>
+        <v>45894</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15699,7 +15699,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>7.2</v>
+        <v>0.7</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15736,14 +15736,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 1280-2023</t>
+          <t>A 40105-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44936</v>
+        <v>45894</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15756,7 +15756,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15793,14 +15793,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 20591-2023</t>
+          <t>A 51396-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45055</v>
+        <v>45950.47131944444</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15850,14 +15850,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 52877-2022</t>
+          <t>A 51384-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44875.53217592592</v>
+        <v>45950.46399305556</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15870,7 +15870,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15907,14 +15907,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 31893-2021</t>
+          <t>A 36606-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44370.45880787037</v>
+        <v>45537.56913194444</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15964,14 +15964,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 11705-2023</t>
+          <t>A 51946-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44992</v>
+        <v>45951</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15984,7 +15984,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16021,14 +16021,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 27538-2021</t>
+          <t>A 24217-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44351.67984953704</v>
+        <v>45797.35565972222</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16078,14 +16078,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 64224-2023</t>
+          <t>A 49989-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45279</v>
+        <v>45597</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.9</v>
+        <v>6.1</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16135,14 +16135,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 20002-2022</t>
+          <t>A 44228-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44697.62150462963</v>
+        <v>45573</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16192,14 +16192,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 47856-2024</t>
+          <t>A 69394-2021</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45588.6680324074</v>
+        <v>44531</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16211,8 +16211,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G257" t="n">
-        <v>0.5</v>
+        <v>5.7</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16249,14 +16254,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 49686-2023</t>
+          <t>A 24815-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45212.36239583333</v>
+        <v>45799.44935185185</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16269,7 +16274,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16306,14 +16311,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 68856-2021</t>
+          <t>A 55696-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44530</v>
+        <v>45972</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16326,7 +16331,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16363,14 +16368,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 46835-2023</t>
+          <t>A 33462-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45199</v>
+        <v>45841</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16383,7 +16388,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16420,14 +16425,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 5557-2022</t>
+          <t>A 57687-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44593</v>
+        <v>45981.44112268519</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16439,8 +16444,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G261" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16477,14 +16487,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 46253-2024</t>
+          <t>A 317-2026</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45581</v>
+        <v>46027.56958333333</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16496,13 +16506,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G262" t="n">
-        <v>9.300000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16539,14 +16544,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 39530-2023</t>
+          <t>A 59885-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45167.34055555556</v>
+        <v>45993.32192129629</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16559,7 +16564,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16596,14 +16601,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 22976-2023</t>
+          <t>A 2806-2026</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45072</v>
+        <v>46038.41621527778</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16616,7 +16621,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>3</v>
+        <v>7.9</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16653,14 +16658,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 23978-2022</t>
+          <t>A 42006-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44722</v>
+        <v>45903</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16673,7 +16678,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>9.699999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16710,14 +16715,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 15812-2024</t>
+          <t>A 4968-2026</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45404.6669212963</v>
+        <v>46049</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16729,13 +16734,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G266" t="n">
-        <v>2.8</v>
+        <v>0.4</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16772,14 +16772,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 38945-2023</t>
+          <t>A 62849-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45163.60909722222</v>
+        <v>46008.69979166667</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16829,14 +16829,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 55587-2021</t>
+          <t>A 5645-2026</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44475</v>
+        <v>46051.42502314815</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16886,14 +16886,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 23874-2022</t>
+          <t>A 6446-2026</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44722</v>
+        <v>46055.85770833334</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>7.8</v>
+        <v>0.5</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16943,14 +16943,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 9142-2025</t>
+          <t>A 6447-2026</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45714.31886574074</v>
+        <v>46055</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -17000,14 +17000,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 30292-2021</t>
+          <t>A 6890-2026</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44364.33482638889</v>
+        <v>46057.471875</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.8</v>
+        <v>8</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17057,14 +17057,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 28247-2023</t>
+          <t>A 63499-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45099</v>
+        <v>46013</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17114,14 +17114,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 56759-2023</t>
+          <t>A 53289-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45238</v>
+        <v>45958</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>7.4</v>
+        <v>1.3</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17171,14 +17171,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 4301-2024</t>
+          <t>A 53290-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45324</v>
+        <v>45958</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17190,13 +17190,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G274" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17233,14 +17228,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 22202-2023</t>
+          <t>A 2413-2026</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45069</v>
+        <v>46036.73725694444</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17253,7 +17248,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17290,14 +17285,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 20012-2022</t>
+          <t>A 50781-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44697</v>
+        <v>45946</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17310,7 +17305,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>17.2</v>
+        <v>1</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17347,14 +17342,14 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 16418-2025</t>
+          <t>A 61060-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45751.46372685185</v>
+        <v>46000</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17366,8 +17361,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G277" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>

--- a/Översikt KLIPPAN.xlsx
+++ b/Översikt KLIPPAN.xlsx
@@ -575,7 +575,7 @@
         <v>45314</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45960</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>45973</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -856,14 +856,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 54644-2023</t>
+          <t>A 513-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45235</v>
+        <v>45664</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -875,18 +875,23 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G5" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
@@ -900,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -909,426 +914,421 @@
         <v>3</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Talltita
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 513-2025 artfynd.xlsx", "A 513-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 513-2025 karta.png", "A 513-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 513-2025 FSC-klagomål.docx", "A 513-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 513-2025 FSC-klagomål mail.docx", "A 513-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 513-2025 tillsynsbegäran.docx", "A 513-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 513-2025 tillsynsbegäran mail.docx", "A 513-2025")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 513-2025 prioriterade fågelarter.docx", "A 513-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 46256-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45581</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Rostfläck
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 46256-2024 artfynd.xlsx", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 46256-2024 karta.png", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 46256-2024 FSC-klagomål.docx", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 46256-2024 FSC-klagomål mail.docx", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 46256-2024 tillsynsbegäran.docx", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 46256-2024 tillsynsbegäran mail.docx", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 46256-2024 prioriterade fågelarter.docx", "A 46256-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 45242-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45919.59901620371</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 45242-2025 artfynd.xlsx", "A 45242-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 45242-2025 karta.png", "A 45242-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 45242-2025 FSC-klagomål.docx", "A 45242-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 45242-2025 FSC-klagomål mail.docx", "A 45242-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 45242-2025 tillsynsbegäran.docx", "A 45242-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 45242-2025 tillsynsbegäran mail.docx", "A 45242-2025")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 45242-2025 prioriterade fågelarter.docx", "A 45242-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 42004-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45903</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Gröngöling
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 42004-2025 artfynd.xlsx", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 42004-2025 karta.png", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 42004-2025 FSC-klagomål.docx", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 42004-2025 FSC-klagomål mail.docx", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 42004-2025 tillsynsbegäran.docx", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 42004-2025 tillsynsbegäran mail.docx", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 42004-2025 prioriterade fågelarter.docx", "A 42004-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 54644-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45235</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Havstulpanlav
 Skogsduva</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 54644-2023 artfynd.xlsx", "A 54644-2023")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 54644-2023 karta.png", "A 54644-2023")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 54644-2023 FSC-klagomål.docx", "A 54644-2023")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 54644-2023 FSC-klagomål mail.docx", "A 54644-2023")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 54644-2023 tillsynsbegäran.docx", "A 54644-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 54644-2023 tillsynsbegäran mail.docx", "A 54644-2023")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 54644-2023 prioriterade fågelarter.docx", "A 54644-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 46256-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45581</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Rostfläck
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 46256-2024 artfynd.xlsx", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 46256-2024 karta.png", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 46256-2024 FSC-klagomål.docx", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 46256-2024 FSC-klagomål mail.docx", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 46256-2024 tillsynsbegäran.docx", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 46256-2024 tillsynsbegäran mail.docx", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 46256-2024 prioriterade fågelarter.docx", "A 46256-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 513-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45664</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Talltita
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 513-2025 artfynd.xlsx", "A 513-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 513-2025 karta.png", "A 513-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 513-2025 FSC-klagomål.docx", "A 513-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 513-2025 FSC-klagomål mail.docx", "A 513-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 513-2025 tillsynsbegäran.docx", "A 513-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 513-2025 tillsynsbegäran mail.docx", "A 513-2025")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 513-2025 prioriterade fågelarter.docx", "A 513-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 45242-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45919.59901620371</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 45242-2025 artfynd.xlsx", "A 45242-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 45242-2025 karta.png", "A 45242-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 45242-2025 FSC-klagomål.docx", "A 45242-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 45242-2025 FSC-klagomål mail.docx", "A 45242-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 45242-2025 tillsynsbegäran.docx", "A 45242-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 45242-2025 tillsynsbegäran mail.docx", "A 45242-2025")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 45242-2025 prioriterade fågelarter.docx", "A 45242-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 42004-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45903</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Gröngöling
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 42004-2025 artfynd.xlsx", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 42004-2025 karta.png", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 42004-2025 FSC-klagomål.docx", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 42004-2025 FSC-klagomål mail.docx", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 42004-2025 tillsynsbegäran.docx", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 42004-2025 tillsynsbegäran mail.docx", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 42004-2025 prioriterade fågelarter.docx", "A 42004-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 53878-2022</t>
+          <t>A 5797-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44880</v>
+        <v>45335</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>8.300000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1376,49 +1376,49 @@
       <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Entita
-Gulsparv</t>
+Gröngöling</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 53878-2022 artfynd.xlsx", "A 53878-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 5797-2024 artfynd.xlsx", "A 5797-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 53878-2022 karta.png", "A 53878-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 5797-2024 karta.png", "A 5797-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 53878-2022 FSC-klagomål.docx", "A 53878-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 5797-2024 FSC-klagomål.docx", "A 5797-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 53878-2022 FSC-klagomål mail.docx", "A 53878-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 5797-2024 FSC-klagomål mail.docx", "A 5797-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 53878-2022 tillsynsbegäran.docx", "A 53878-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 5797-2024 tillsynsbegäran.docx", "A 5797-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 53878-2022 tillsynsbegäran mail.docx", "A 53878-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 5797-2024 tillsynsbegäran mail.docx", "A 5797-2024")</f>
         <v/>
       </c>
       <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 53878-2022 prioriterade fågelarter.docx", "A 53878-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 5797-2024 prioriterade fågelarter.docx", "A 5797-2024")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 11673-2022</t>
+          <t>A 59769-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44633</v>
+        <v>45992</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,8 +1430,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
@@ -1465,215 +1470,215 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Entita
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 59769-2025 artfynd.xlsx", "A 59769-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 59769-2025 karta.png", "A 59769-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 59769-2025 FSC-klagomål.docx", "A 59769-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 59769-2025 FSC-klagomål mail.docx", "A 59769-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 59769-2025 tillsynsbegäran.docx", "A 59769-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 59769-2025 tillsynsbegäran mail.docx", "A 59769-2025")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 59769-2025 prioriterade fågelarter.docx", "A 59769-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 11673-2022</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>44633</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Talltita
 Vanlig groda</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 11673-2022 artfynd.xlsx", "A 11673-2022")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 11673-2022 karta.png", "A 11673-2022")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 11673-2022 FSC-klagomål.docx", "A 11673-2022")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 11673-2022 FSC-klagomål mail.docx", "A 11673-2022")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 11673-2022 tillsynsbegäran.docx", "A 11673-2022")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 11673-2022 tillsynsbegäran mail.docx", "A 11673-2022")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 11673-2022 prioriterade fågelarter.docx", "A 11673-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 20702-2023</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>45058</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+      <c r="C13" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>5.9</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>2</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Svinrot
 Grönvit nattviol</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 20702-2023 artfynd.xlsx", "A 20702-2023")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 20702-2023 karta.png", "A 20702-2023")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 20702-2023 FSC-klagomål.docx", "A 20702-2023")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 20702-2023 FSC-klagomål mail.docx", "A 20702-2023")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 20702-2023 tillsynsbegäran.docx", "A 20702-2023")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 20702-2023 tillsynsbegäran mail.docx", "A 20702-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 5797-2024</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45335</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Gröngöling</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 5797-2024 artfynd.xlsx", "A 5797-2024")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 5797-2024 karta.png", "A 5797-2024")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 5797-2024 FSC-klagomål.docx", "A 5797-2024")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 5797-2024 FSC-klagomål mail.docx", "A 5797-2024")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 5797-2024 tillsynsbegäran.docx", "A 5797-2024")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 5797-2024 tillsynsbegäran mail.docx", "A 5797-2024")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 5797-2024 prioriterade fågelarter.docx", "A 5797-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
@@ -1684,7 +1689,7 @@
         <v>45544</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1770,7 +1775,7 @@
         <v>45917</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1853,14 +1858,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 59769-2025</t>
+          <t>A 53878-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45992</v>
+        <v>44880</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1872,13 +1877,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>1.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H16" t="n">
         <v>2</v>
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1913,35 +1913,35 @@
       <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Entita
-Kungsfågel</t>
+Gulsparv</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 59769-2025 artfynd.xlsx", "A 59769-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 53878-2022 artfynd.xlsx", "A 53878-2022")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 59769-2025 karta.png", "A 59769-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 53878-2022 karta.png", "A 53878-2022")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 59769-2025 FSC-klagomål.docx", "A 59769-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 53878-2022 FSC-klagomål.docx", "A 53878-2022")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 59769-2025 FSC-klagomål mail.docx", "A 59769-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 53878-2022 FSC-klagomål mail.docx", "A 53878-2022")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 59769-2025 tillsynsbegäran.docx", "A 59769-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 53878-2022 tillsynsbegäran.docx", "A 53878-2022")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 59769-2025 tillsynsbegäran mail.docx", "A 59769-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 53878-2022 tillsynsbegäran mail.docx", "A 53878-2022")</f>
         <v/>
       </c>
       <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 59769-2025 prioriterade fågelarter.docx", "A 59769-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 53878-2022 prioriterade fågelarter.docx", "A 53878-2022")</f>
         <v/>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
         <v>44365</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44596</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2122,14 +2122,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 50089-2023</t>
+          <t>A 23403-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45208</v>
+        <v>45453</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2142,10 +2142,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>13.6</v>
+        <v>9.1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2176,659 +2176,659 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
+          <t>Vårstarr</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 23403-2024 artfynd.xlsx", "A 23403-2024")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 23403-2024 karta.png", "A 23403-2024")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 23403-2024 FSC-klagomål.docx", "A 23403-2024")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 23403-2024 FSC-klagomål mail.docx", "A 23403-2024")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 23403-2024 tillsynsbegäran.docx", "A 23403-2024")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 23403-2024 tillsynsbegäran mail.docx", "A 23403-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 30721-2021</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>44365</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Brandticka</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 30721-2021 artfynd.xlsx", "A 30721-2021")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 30721-2021 karta.png", "A 30721-2021")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 30721-2021 FSC-klagomål.docx", "A 30721-2021")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 30721-2021 FSC-klagomål mail.docx", "A 30721-2021")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 30721-2021 tillsynsbegäran.docx", "A 30721-2021")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 30721-2021 tillsynsbegäran mail.docx", "A 30721-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 2839-2026</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>46038</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
           <t>Entita</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 2839-2026 artfynd.xlsx", "A 2839-2026")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 2839-2026 karta.png", "A 2839-2026")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 2839-2026 FSC-klagomål.docx", "A 2839-2026")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 2839-2026 FSC-klagomål mail.docx", "A 2839-2026")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 2839-2026 tillsynsbegäran.docx", "A 2839-2026")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 2839-2026 tillsynsbegäran mail.docx", "A 2839-2026")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 2839-2026 prioriterade fågelarter.docx", "A 2839-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 61049-2025</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>46000</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Mindre hackspett</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 61049-2025 artfynd.xlsx", "A 61049-2025")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 61049-2025 karta.png", "A 61049-2025")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 61049-2025 FSC-klagomål.docx", "A 61049-2025")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 61049-2025 FSC-klagomål mail.docx", "A 61049-2025")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 61049-2025 tillsynsbegäran.docx", "A 61049-2025")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 61049-2025 tillsynsbegäran mail.docx", "A 61049-2025")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 61049-2025 prioriterade fågelarter.docx", "A 61049-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 61058-2025</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>46000</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 61058-2025 artfynd.xlsx", "A 61058-2025")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 61058-2025 karta.png", "A 61058-2025")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 61058-2025 FSC-klagomål.docx", "A 61058-2025")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 61058-2025 FSC-klagomål mail.docx", "A 61058-2025")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 61058-2025 tillsynsbegäran.docx", "A 61058-2025")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 61058-2025 tillsynsbegäran mail.docx", "A 61058-2025")</f>
+        <v/>
+      </c>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 61058-2025 prioriterade fågelarter.docx", "A 61058-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 14892-2023</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>45015</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>Mindre hackspett</t>
+        </is>
+      </c>
+      <c r="S24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 14892-2023 artfynd.xlsx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 14892-2023 karta.png", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="V24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 14892-2023 FSC-klagomål.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="W24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 14892-2023 FSC-klagomål mail.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="X24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 14892-2023 tillsynsbegäran.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="Y24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 14892-2023 tillsynsbegäran mail.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="Z24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 14892-2023 prioriterade fågelarter.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>A 50089-2023</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>45208</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>Entita</t>
+        </is>
+      </c>
+      <c r="S25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 50089-2023 artfynd.xlsx", "A 50089-2023")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 50089-2023 karta.png", "A 50089-2023")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 50089-2023 FSC-klagomål.docx", "A 50089-2023")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 50089-2023 FSC-klagomål mail.docx", "A 50089-2023")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 50089-2023 tillsynsbegäran.docx", "A 50089-2023")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 50089-2023 tillsynsbegäran mail.docx", "A 50089-2023")</f>
         <v/>
       </c>
-      <c r="Z19">
+      <c r="Z25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 50089-2023 prioriterade fågelarter.docx", "A 50089-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 14892-2023</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45015</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H20" t="n">
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A 10000-2025</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>45719.44871527778</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>1</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Mindre hackspett</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 14892-2023 artfynd.xlsx", "A 14892-2023")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 14892-2023 karta.png", "A 14892-2023")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 14892-2023 FSC-klagomål.docx", "A 14892-2023")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 14892-2023 FSC-klagomål mail.docx", "A 14892-2023")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 14892-2023 tillsynsbegäran.docx", "A 14892-2023")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 14892-2023 tillsynsbegäran mail.docx", "A 14892-2023")</f>
-        <v/>
-      </c>
-      <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 14892-2023 prioriterade fågelarter.docx", "A 14892-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 10000-2025</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45719.44871527778</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>Dvärghäxört</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 10000-2025 artfynd.xlsx", "A 10000-2025")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 10000-2025 karta.png", "A 10000-2025")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 10000-2025 FSC-klagomål.docx", "A 10000-2025")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 10000-2025 FSC-klagomål mail.docx", "A 10000-2025")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 10000-2025 tillsynsbegäran.docx", "A 10000-2025")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 10000-2025 tillsynsbegäran mail.docx", "A 10000-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 23403-2024</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>45453</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Vårstarr</t>
-        </is>
-      </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 23403-2024 artfynd.xlsx", "A 23403-2024")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 23403-2024 karta.png", "A 23403-2024")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 23403-2024 FSC-klagomål.docx", "A 23403-2024")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 23403-2024 FSC-klagomål mail.docx", "A 23403-2024")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 23403-2024 tillsynsbegäran.docx", "A 23403-2024")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 23403-2024 tillsynsbegäran mail.docx", "A 23403-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 30721-2021</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>44365</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Brandticka</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 30721-2021 artfynd.xlsx", "A 30721-2021")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 30721-2021 karta.png", "A 30721-2021")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 30721-2021 FSC-klagomål.docx", "A 30721-2021")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 30721-2021 FSC-klagomål mail.docx", "A 30721-2021")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 30721-2021 tillsynsbegäran.docx", "A 30721-2021")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 30721-2021 tillsynsbegäran mail.docx", "A 30721-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 61058-2025</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>46000</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 61058-2025 artfynd.xlsx", "A 61058-2025")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 61058-2025 karta.png", "A 61058-2025")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 61058-2025 FSC-klagomål.docx", "A 61058-2025")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 61058-2025 FSC-klagomål mail.docx", "A 61058-2025")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 61058-2025 tillsynsbegäran.docx", "A 61058-2025")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 61058-2025 tillsynsbegäran mail.docx", "A 61058-2025")</f>
-        <v/>
-      </c>
-      <c r="Z24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 61058-2025 prioriterade fågelarter.docx", "A 61058-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A 61049-2025</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>46000</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Mindre hackspett</t>
-        </is>
-      </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 61049-2025 artfynd.xlsx", "A 61049-2025")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 61049-2025 karta.png", "A 61049-2025")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 61049-2025 FSC-klagomål.docx", "A 61049-2025")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 61049-2025 FSC-klagomål mail.docx", "A 61049-2025")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 61049-2025 tillsynsbegäran.docx", "A 61049-2025")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 61049-2025 tillsynsbegäran mail.docx", "A 61049-2025")</f>
-        <v/>
-      </c>
-      <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 61049-2025 prioriterade fågelarter.docx", "A 61049-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A 2839-2026</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>46038</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Entita</t>
-        </is>
-      </c>
-      <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 2839-2026 artfynd.xlsx", "A 2839-2026")</f>
-        <v/>
-      </c>
-      <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 2839-2026 karta.png", "A 2839-2026")</f>
-        <v/>
-      </c>
-      <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 2839-2026 FSC-klagomål.docx", "A 2839-2026")</f>
-        <v/>
-      </c>
-      <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 2839-2026 FSC-klagomål mail.docx", "A 2839-2026")</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 2839-2026 tillsynsbegäran.docx", "A 2839-2026")</f>
-        <v/>
-      </c>
-      <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 2839-2026 tillsynsbegäran mail.docx", "A 2839-2026")</f>
-        <v/>
-      </c>
-      <c r="Z26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 2839-2026 prioriterade fågelarter.docx", "A 2839-2026")</f>
-        <v/>
-      </c>
-    </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44883</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>44287</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>44368.50049768519</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44883</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>44596</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44489.35295138889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>44691.52568287037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44697.63137731481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>44697</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>44531</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>44487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44575</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44875</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>44621.59760416667</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>44691</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3722,14 +3722,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 46692-2021</t>
+          <t>A 30195-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44445</v>
+        <v>44363</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3741,13 +3741,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3784,14 +3779,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 32455-2022</t>
+          <t>A 8686-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44782.541875</v>
+        <v>44245</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3803,8 +3798,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3841,14 +3841,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 7839-2022</t>
+          <t>A 46692-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44608</v>
+        <v>44445</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3862,11 +3862,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3903,14 +3903,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 41268-2022</t>
+          <t>A 7839-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44825</v>
+        <v>44608</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3965,14 +3965,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 55415-2022</t>
+          <t>A 2046-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44882</v>
+        <v>44575</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3986,11 +3986,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4027,14 +4027,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 2046-2022</t>
+          <t>A 41272-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44575</v>
+        <v>44825</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4048,11 +4048,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.4</v>
+        <v>6.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4089,14 +4089,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 41272-2022</t>
+          <t>A 32455-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44825</v>
+        <v>44782.541875</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4108,13 +4108,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>6.2</v>
+        <v>0.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4151,14 +4146,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 54516-2022</t>
+          <t>A 41268-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44880</v>
+        <v>44825</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4170,8 +4165,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4208,14 +4208,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 30195-2021</t>
+          <t>A 55415-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44363</v>
+        <v>44882</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4227,8 +4227,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4265,14 +4270,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 9046-2021</t>
+          <t>A 54516-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44246</v>
+        <v>44880</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4285,7 +4290,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4322,14 +4327,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 40238-2021</t>
+          <t>A 9046-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44418</v>
+        <v>44246</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4341,13 +4346,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4384,14 +4384,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 9535-2021</t>
+          <t>A 40238-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44251</v>
+        <v>44418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4403,8 +4403,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4441,14 +4446,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 20690-2022</t>
+          <t>A 9535-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44700</v>
+        <v>44251</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4460,13 +4465,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>44245</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4565,14 +4565,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 17425-2022</t>
+          <t>A 20690-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44679.2472337963</v>
+        <v>44700</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4584,8 +4584,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>5.1</v>
+        <v>0.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4622,14 +4627,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 3489-2024</t>
+          <t>A 17425-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45320</v>
+        <v>44679.2472337963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4642,7 +4647,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.7</v>
+        <v>5.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4679,14 +4684,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 593-2023</t>
+          <t>A 39056-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44930.55528935185</v>
+        <v>44816</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4699,7 +4704,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4736,14 +4741,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 44891-2022</t>
+          <t>A 47967-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44841</v>
+        <v>44448</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4756,7 +4761,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4793,14 +4798,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 46147-2022</t>
+          <t>A 17792-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44846</v>
+        <v>44300</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4813,7 +4818,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>5.7</v>
+        <v>3.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4850,14 +4855,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 20591-2023</t>
+          <t>A 11105-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45055</v>
+        <v>44259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4869,8 +4874,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4907,14 +4917,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 54348-2022</t>
+          <t>A 243-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44882</v>
+        <v>45660</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4927,7 +4937,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>7.8</v>
+        <v>1.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4964,14 +4974,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 55588-2021</t>
+          <t>A 3198-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44475</v>
+        <v>44944</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4984,7 +4994,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5021,14 +5031,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 39056-2022</t>
+          <t>A 34051-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44816</v>
+        <v>45523</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5041,7 +5051,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5078,14 +5088,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 45641-2022</t>
+          <t>A 53868-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44845</v>
+        <v>44880.64693287037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5098,7 +5108,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.1</v>
+        <v>7.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5135,14 +5145,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 9142-2025</t>
+          <t>A 25393-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45714.31886574074</v>
+        <v>45079</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5155,7 +5165,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5192,14 +5202,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 6615-2024</t>
+          <t>A 14620-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45341</v>
+        <v>45742.41289351852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5212,7 +5222,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.4</v>
+        <v>7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5249,14 +5259,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 47856-2024</t>
+          <t>A 37967-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45588.6680324074</v>
+        <v>45544.55668981482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5269,7 +5279,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5306,14 +5316,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 17060-2021</t>
+          <t>A 28844-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44296.63025462963</v>
+        <v>45104</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5326,7 +5336,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5363,14 +5373,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 28247-2023</t>
+          <t>A 593-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45099</v>
+        <v>44930.55528935185</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5383,7 +5393,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.2</v>
+        <v>0.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5420,14 +5430,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 22976-2023</t>
+          <t>A 33331-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45072</v>
+        <v>45519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5439,8 +5449,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5477,14 +5492,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 55586-2021</t>
+          <t>A 4623-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44475.88427083333</v>
+        <v>45328</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5497,7 +5512,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5534,14 +5549,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 2755-2023</t>
+          <t>A 6447-2026</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44944</v>
+        <v>46055</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5553,13 +5568,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5596,14 +5606,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 28847-2023</t>
+          <t>A 24217-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45104</v>
+        <v>45797.35565972222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5616,7 +5626,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5653,14 +5663,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 8686-2021</t>
+          <t>A 15070-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44245</v>
+        <v>45399.59040509259</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5678,7 +5688,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.8</v>
+        <v>4.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5715,14 +5725,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 10695-2023</t>
+          <t>A 30725-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44988</v>
+        <v>44365.44506944445</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5735,7 +5745,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5772,14 +5782,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 42281-2024</t>
+          <t>A 217-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45562.6105787037</v>
+        <v>44928</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5791,13 +5801,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5834,14 +5839,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 4321-2024</t>
+          <t>A 24815-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45324.66635416666</v>
+        <v>45799.44935185185</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5854,7 +5859,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5891,14 +5896,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 31893-2021</t>
+          <t>A 38724-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44370.45880787037</v>
+        <v>45163</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5911,7 +5916,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5948,14 +5953,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 4301-2024</t>
+          <t>A 44228-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45324</v>
+        <v>45573</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5967,13 +5972,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6010,14 +6010,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 52882-2024</t>
+          <t>A 49989-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45610</v>
+        <v>45597</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.2</v>
+        <v>6.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6067,14 +6067,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 13994-2025</t>
+          <t>A 58642-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45739.73532407408</v>
+        <v>44489.36314814815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6124,14 +6124,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 17792-2021</t>
+          <t>A 69394-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44300</v>
+        <v>44531</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6143,8 +6143,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>3.1</v>
+        <v>5.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6181,14 +6186,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 17856-2024</t>
+          <t>A 50781-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45419</v>
+        <v>45946</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6200,13 +6205,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6243,14 +6243,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 33331-2024</t>
+          <t>A 2413-2026</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45519</v>
+        <v>46036.73725694444</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6262,13 +6262,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>3.9</v>
+        <v>8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6305,14 +6300,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 46260-2024</t>
+          <t>A 5256-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45581</v>
+        <v>44593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6324,13 +6319,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6367,14 +6357,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 47967-2021</t>
+          <t>A 52851-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44448</v>
+        <v>45610</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6387,7 +6377,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6424,14 +6414,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 47869-2022</t>
+          <t>A 53289-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44855.43141203704</v>
+        <v>45958</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6444,7 +6434,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6481,14 +6471,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 58642-2021</t>
+          <t>A 53290-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44489.36314814815</v>
+        <v>45958</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6501,7 +6491,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6538,14 +6528,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 58387-2022</t>
+          <t>A 61060-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44901</v>
+        <v>46000</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6559,7 +6549,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -6600,14 +6590,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 55833-2023</t>
+          <t>A 25069-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45239</v>
+        <v>45086</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6620,7 +6610,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6657,14 +6647,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 38156-2022</t>
+          <t>A 22540-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44812.37135416667</v>
+        <v>45788.30451388889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6677,7 +6667,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6714,14 +6704,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 44885-2022</t>
+          <t>A 18520-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44841</v>
+        <v>44305</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6733,8 +6723,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6771,14 +6766,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 14278-2024</t>
+          <t>A 27898-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45393.60961805555</v>
+        <v>45817</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6791,7 +6786,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6828,14 +6823,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 63720-2023</t>
+          <t>A 59482-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45275</v>
+        <v>45638.52831018518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6848,7 +6843,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6885,14 +6880,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 30738-2021</t>
+          <t>A 27010-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44365.45446759259</v>
+        <v>45094.36791666667</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6905,7 +6900,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6942,14 +6937,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 21654-2024</t>
+          <t>A 10544-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45442</v>
+        <v>45721.48859953704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6962,7 +6957,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>7.2</v>
+        <v>2.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6999,14 +6994,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 217-2023</t>
+          <t>A 18214-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44928</v>
+        <v>45040</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7019,7 +7014,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7056,14 +7051,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 56089-2021</t>
+          <t>A 27529-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44477</v>
+        <v>45813</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7075,8 +7070,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>20.9</v>
+        <v>7.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7113,14 +7113,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 23260-2023</t>
+          <t>A 60791-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45075.87199074074</v>
+        <v>45260.65283564815</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7170,14 +7170,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 11676-2023</t>
+          <t>A 2262-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44992</v>
+        <v>45673</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7189,13 +7189,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7232,14 +7227,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 11705-2023</t>
+          <t>A 23681-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44992</v>
+        <v>45077</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7252,7 +7247,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7289,14 +7284,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 30292-2021</t>
+          <t>A 4324-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44364.33482638889</v>
+        <v>45324.67409722223</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7309,7 +7304,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7346,14 +7341,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 5523-2022</t>
+          <t>A 29284-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44593</v>
+        <v>45824</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7366,7 +7361,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>5.3</v>
+        <v>0.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7403,14 +7398,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 8017-2022</t>
+          <t>A 28490-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44609.39615740741</v>
+        <v>45103.44039351852</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7423,7 +7418,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7460,14 +7455,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 18214-2023</t>
+          <t>A 44891-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45040</v>
+        <v>44841</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7480,7 +7475,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.8</v>
+        <v>1.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7517,14 +7512,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 3183-2023</t>
+          <t>A 17856-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44944</v>
+        <v>45419</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7536,8 +7531,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>6.9</v>
+        <v>3.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7574,14 +7574,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 42275-2024</t>
+          <t>A 32132-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45562.60690972222</v>
+        <v>45835.50878472222</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7593,13 +7593,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7636,14 +7631,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 42303-2024</t>
+          <t>A 7515-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45562.6322337963</v>
+        <v>45702</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7657,11 +7652,11 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7698,14 +7693,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 24647-2023</t>
+          <t>A 43855-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45084</v>
+        <v>44838</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7719,11 +7714,11 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>11.6</v>
+        <v>1.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7760,14 +7755,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 7661-2025</t>
+          <t>A 13994-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45706</v>
+        <v>45739.73532407408</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7780,7 +7775,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7817,14 +7812,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 2252-2025</t>
+          <t>A 33450-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45673</v>
+        <v>45841.46677083334</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7837,7 +7832,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7874,14 +7869,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 15065-2024</t>
+          <t>A 33456-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45399.57625</v>
+        <v>45841.47364583334</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7893,13 +7888,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>5.8</v>
+        <v>0.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7936,14 +7926,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 15810-2024</t>
+          <t>A 33761-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45404</v>
+        <v>45842.38335648148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7955,13 +7945,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7998,14 +7983,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 14614-2023</t>
+          <t>A 39238-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45013</v>
+        <v>44817</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8018,7 +8003,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>5.1</v>
+        <v>3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8055,14 +8040,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 8204-2021</t>
+          <t>A 52882-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44244</v>
+        <v>45610</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8075,7 +8060,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8112,14 +8097,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 4324-2024</t>
+          <t>A 33766-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45324.67409722223</v>
+        <v>45842.3869675926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8132,7 +8117,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8169,14 +8154,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 41294-2022</t>
+          <t>A 11497-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44825</v>
+        <v>44991</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8189,7 +8174,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>6.1</v>
+        <v>2.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8226,14 +8211,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 9270-2022</t>
+          <t>A 34472-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44616</v>
+        <v>45847.35877314815</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8246,7 +8231,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8283,14 +8268,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 20128-2023</t>
+          <t>A 46260-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45055</v>
+        <v>45581</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8302,8 +8287,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8340,14 +8330,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 7515-2025</t>
+          <t>A 5141-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45702</v>
+        <v>45330</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8359,13 +8349,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8402,14 +8387,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 27898-2025</t>
+          <t>A 39244-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45817</v>
+        <v>44817.60482638889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8422,7 +8407,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8459,14 +8444,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 62473-2023</t>
+          <t>A 20717-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45267</v>
+        <v>45055</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8478,13 +8463,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8521,14 +8501,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 39244-2022</t>
+          <t>A 37068-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44817.60482638889</v>
+        <v>45155</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8541,7 +8521,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8578,14 +8558,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 10544-2025</t>
+          <t>A 40762-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45721.48859953704</v>
+        <v>44420</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8598,7 +8578,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8635,14 +8615,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 59482-2024</t>
+          <t>A 55588-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45638.52831018518</v>
+        <v>44475</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8655,7 +8635,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8692,14 +8672,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 23978-2022</t>
+          <t>A 42423-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44722</v>
+        <v>45905.41005787037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8711,8 +8691,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>9.699999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8749,14 +8734,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 27010-2023</t>
+          <t>A 8204-2021</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45094.36791666667</v>
+        <v>44244</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8769,7 +8754,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8806,14 +8791,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 39097-2024</t>
+          <t>A 52286-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45548.56422453704</v>
+        <v>45224.58796296296</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8826,7 +8811,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8863,14 +8848,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 60783-2023</t>
+          <t>A 42627-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45260.6441087963</v>
+        <v>45905.77766203704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8883,7 +8868,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8920,14 +8905,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 51844-2023</t>
+          <t>A 22120-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45223</v>
+        <v>45785.5165625</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8940,7 +8925,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8977,14 +8962,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 8500-2023</t>
+          <t>A 46619-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44977</v>
+        <v>45583.32314814815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8997,7 +8982,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9034,14 +9019,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 11335-2023</t>
+          <t>A 11857-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44993</v>
+        <v>45728.39798611111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9053,8 +9038,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9091,14 +9081,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 60791-2023</t>
+          <t>A 24333-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45260.65283564815</v>
+        <v>44726.32643518518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9111,7 +9101,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9148,14 +9138,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 46835-2023</t>
+          <t>A 56089-2021</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45199</v>
+        <v>44477</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9168,7 +9158,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.5</v>
+        <v>20.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9205,14 +9195,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 52838-2024</t>
+          <t>A 50357-2021</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45610</v>
+        <v>44455</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9225,7 +9215,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9262,14 +9252,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 13420-2023</t>
+          <t>A 34479-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45005</v>
+        <v>45847.37570601852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9281,13 +9271,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9324,14 +9309,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 22202-2023</t>
+          <t>A 54348-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45069</v>
+        <v>44882</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9344,7 +9329,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9381,14 +9366,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 29284-2025</t>
+          <t>A 24813-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45824</v>
+        <v>45799.44813657407</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9401,7 +9386,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9438,14 +9423,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 49073-2024</t>
+          <t>A 38156-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45594.61548611111</v>
+        <v>44812.37135416667</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9458,7 +9443,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9495,14 +9480,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 28844-2023</t>
+          <t>A 18516-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45104</v>
+        <v>44305</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9514,8 +9499,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9552,14 +9542,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 30852-2021</t>
+          <t>A 43698-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44365</v>
+        <v>45912.39892361111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9609,14 +9599,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 39238-2022</t>
+          <t>A 40710-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44817</v>
+        <v>45170.63194444445</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9629,7 +9619,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9666,14 +9656,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 38323-2023</t>
+          <t>A 55833-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45161</v>
+        <v>45239</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9686,7 +9676,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9723,14 +9713,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 38325-2023</t>
+          <t>A 20128-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45161</v>
+        <v>45055</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9743,7 +9733,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9780,14 +9770,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 20717-2023</t>
+          <t>A 2252-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45055</v>
+        <v>45673</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9800,7 +9790,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9837,14 +9827,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 56759-2023</t>
+          <t>A 45096-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45238</v>
+        <v>45919.38780092593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9857,7 +9847,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>7.4</v>
+        <v>2.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9894,14 +9884,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 27538-2021</t>
+          <t>A 2083-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44351.67984953704</v>
+        <v>45672.58853009259</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9914,7 +9904,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9951,14 +9941,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 32132-2025</t>
+          <t>A 45574-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45835.50878472222</v>
+        <v>45922.65922453703</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9971,7 +9961,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10008,14 +9998,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 5557-2022</t>
+          <t>A 61682-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44593</v>
+        <v>45264</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10028,7 +10018,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10065,14 +10055,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 27454-2024</t>
+          <t>A 11676-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45474</v>
+        <v>44992</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10084,8 +10074,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10122,14 +10117,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 52877-2022</t>
+          <t>A 45717-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44875.53217592592</v>
+        <v>45923.44155092593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10142,7 +10137,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.7</v>
+        <v>9.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10179,14 +10174,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 28490-2023</t>
+          <t>A 51844-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45103.44039351852</v>
+        <v>45223</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10199,7 +10194,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10236,14 +10231,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 5256-2022</t>
+          <t>A 45886-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44593</v>
+        <v>45923.66560185186</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10256,7 +10251,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10293,14 +10288,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 18516-2021</t>
+          <t>A 46138-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44305</v>
+        <v>45924.59914351852</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10312,13 +10307,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10355,14 +10345,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 33766-2025</t>
+          <t>A 28847-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45842.3869675926</v>
+        <v>45104</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10375,7 +10365,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10412,14 +10402,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 11105-2021</t>
+          <t>A 15442-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44259</v>
+        <v>44659.85333333333</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10431,13 +10421,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10474,14 +10459,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 46253-2024</t>
+          <t>A 2755-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45581</v>
+        <v>44944</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10499,7 +10484,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>9.300000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10536,14 +10521,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 33761-2025</t>
+          <t>A 49370-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45842.38335648148</v>
+        <v>45211</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10556,7 +10541,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10593,14 +10578,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 15442-2022</t>
+          <t>A 28709-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44659.85333333333</v>
+        <v>45103</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10613,7 +10598,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10650,14 +10635,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 33450-2025</t>
+          <t>A 46728-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45841.46677083334</v>
+        <v>45198</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10670,7 +10655,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10707,14 +10692,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 33456-2025</t>
+          <t>A 15065-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45841.47364583334</v>
+        <v>45399.57625</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10726,8 +10711,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>0.8</v>
+        <v>5.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10764,14 +10754,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 48965-2023</t>
+          <t>A 3498-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45209</v>
+        <v>45320.47233796296</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10784,7 +10774,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10821,14 +10811,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 18520-2021</t>
+          <t>A 41294-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44305</v>
+        <v>44825</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10840,13 +10830,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>1.5</v>
+        <v>6.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10883,14 +10868,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 2262-2025</t>
+          <t>A 39097-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45673</v>
+        <v>45548.56422453704</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10903,7 +10888,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10940,14 +10925,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 20012-2022</t>
+          <t>A 8712-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44697</v>
+        <v>44978.3975462963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10960,7 +10945,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>17.2</v>
+        <v>0.7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10997,14 +10982,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 5151-2022</t>
+          <t>A 49394-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44593</v>
+        <v>45938.65101851852</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11016,8 +11001,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11054,14 +11044,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 4623-2024</t>
+          <t>A 49073-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45328</v>
+        <v>45594.61548611111</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11074,7 +11064,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11111,14 +11101,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 34472-2025</t>
+          <t>A 50163-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45847.35877314815</v>
+        <v>45943.58734953704</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11131,7 +11121,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11168,14 +11158,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 46619-2024</t>
+          <t>A 7661-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45583.32314814815</v>
+        <v>45706</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11188,7 +11178,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11225,14 +11215,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 243-2025</t>
+          <t>A 3183-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45660</v>
+        <v>44944</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11245,7 +11235,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.1</v>
+        <v>6.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11282,14 +11272,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 40762-2021</t>
+          <t>A 48965-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44420</v>
+        <v>45209</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11302,7 +11292,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11339,14 +11329,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 28709-2023</t>
+          <t>A 9270-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45103</v>
+        <v>44616</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11359,7 +11349,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11396,14 +11386,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 21636-2024</t>
+          <t>A 40105-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45442</v>
+        <v>45894</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11416,7 +11406,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>6.3</v>
+        <v>3.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11453,14 +11443,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 11857-2025</t>
+          <t>A 40092-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45728.39798611111</v>
+        <v>45894</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11472,13 +11462,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11515,14 +11500,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 46728-2023</t>
+          <t>A 36842-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45198</v>
+        <v>45538</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11534,8 +11519,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11572,14 +11562,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 13363-2023</t>
+          <t>A 5523-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45005</v>
+        <v>44593</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11591,13 +11581,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>0.6</v>
+        <v>5.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11634,14 +11619,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 23874-2022</t>
+          <t>A 51396-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44722</v>
+        <v>45950.47131944444</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11654,7 +11639,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>7.8</v>
+        <v>1.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11691,14 +11676,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 38724-2023</t>
+          <t>A 51946-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45163</v>
+        <v>45951</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11711,7 +11696,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11748,14 +11733,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 24333-2022</t>
+          <t>A 17060-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44726.32643518518</v>
+        <v>44296.63025462963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11768,7 +11753,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11805,14 +11790,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 40710-2023</t>
+          <t>A 51384-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45170.63194444445</v>
+        <v>45950.46399305556</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11825,7 +11810,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11862,14 +11847,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 14619-2023</t>
+          <t>A 4321-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45013</v>
+        <v>45324.66635416666</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11882,7 +11867,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11919,14 +11904,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 22120-2025</t>
+          <t>A 62473-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45785.5165625</v>
+        <v>45267</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11938,8 +11923,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11976,14 +11966,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 3198-2023</t>
+          <t>A 8500-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44944</v>
+        <v>44977</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11996,7 +11986,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12033,14 +12023,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 55587-2021</t>
+          <t>A 55291-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44475</v>
+        <v>45237</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12090,14 +12080,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 37068-2023</t>
+          <t>A 69041-2021</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45155</v>
+        <v>44529</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12110,7 +12100,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12147,14 +12137,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 50357-2021</t>
+          <t>A 23260-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44455</v>
+        <v>45075.87199074074</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12167,7 +12157,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12204,14 +12194,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 39530-2023</t>
+          <t>A 55586-2021</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45167.34055555556</v>
+        <v>44475.88427083333</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12224,7 +12214,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12261,14 +12251,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 24813-2025</t>
+          <t>A 55696-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45799.44813657407</v>
+        <v>45972</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12281,7 +12271,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12318,14 +12308,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 23681-2023</t>
+          <t>A 15810-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45077</v>
+        <v>45404</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12337,8 +12327,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12375,14 +12370,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 24034-2023</t>
+          <t>A 19097-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45078.86898148148</v>
+        <v>45767.68126157407</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12395,7 +12390,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12432,14 +12427,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 38945-2023</t>
+          <t>A 33462-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45163.60909722222</v>
+        <v>45841</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12452,7 +12447,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12489,14 +12484,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 55291-2023</t>
+          <t>A 10695-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45237</v>
+        <v>44988</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12509,7 +12504,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12546,14 +12541,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 19097-2025</t>
+          <t>A 44885-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45767.68126157407</v>
+        <v>44841</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12566,7 +12561,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12603,14 +12598,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 5141-2024</t>
+          <t>A 57687-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45330</v>
+        <v>45981.44112268519</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12622,8 +12617,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12660,14 +12660,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 3498-2024</t>
+          <t>A 317-2026</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45320.47233796296</v>
+        <v>46027.56958333333</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12717,14 +12717,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 64224-2023</t>
+          <t>A 14614-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45279</v>
+        <v>45013</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.9</v>
+        <v>5.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12774,14 +12774,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 27813-2023</t>
+          <t>A 8017-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45098</v>
+        <v>44609.39615740741</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12831,14 +12831,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 20002-2022</t>
+          <t>A 13995-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44697.62150462963</v>
+        <v>45739.74271990741</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12888,14 +12888,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 69041-2021</t>
+          <t>A 42275-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44529</v>
+        <v>45562.60690972222</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12907,8 +12907,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12945,14 +12950,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 49686-2023</t>
+          <t>A 42303-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45212.36239583333</v>
+        <v>45562.6322337963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12964,8 +12969,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13002,14 +13012,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 23741-2023</t>
+          <t>A 24034-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45077.77087962963</v>
+        <v>45078.86898148148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13022,7 +13032,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13059,14 +13069,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 25393-2023</t>
+          <t>A 5196-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45079</v>
+        <v>44593</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13079,7 +13089,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.8</v>
+        <v>5.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13116,14 +13126,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 27452-2024</t>
+          <t>A 59885-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45474</v>
+        <v>45993.32192129629</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13136,7 +13146,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13173,14 +13183,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 8712-2023</t>
+          <t>A 52838-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44978.3975462963</v>
+        <v>45610</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13193,7 +13203,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13230,14 +13240,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 53868-2022</t>
+          <t>A 45641-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44880.64693287037</v>
+        <v>44845</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13250,7 +13260,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>7.6</v>
+        <v>1.1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13287,14 +13297,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 36842-2024</t>
+          <t>A 42006-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45538</v>
+        <v>45903</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13306,13 +13316,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13349,14 +13354,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 37967-2024</t>
+          <t>A 21636-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45544.55668981482</v>
+        <v>45442</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13369,7 +13374,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>6.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13406,14 +13411,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 34051-2024</t>
+          <t>A 2806-2026</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45523</v>
+        <v>46038.41621527778</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13426,7 +13431,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.4</v>
+        <v>7.9</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13463,14 +13468,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 68856-2021</t>
+          <t>A 60783-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44530</v>
+        <v>45260.6441087963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13483,7 +13488,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13520,14 +13525,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 30725-2021</t>
+          <t>A 14619-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44365.44506944445</v>
+        <v>45013</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13577,14 +13582,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 42284-2024</t>
+          <t>A 27454-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45562</v>
+        <v>45474</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13596,13 +13601,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13639,14 +13639,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 52851-2024</t>
+          <t>A 11335-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45610</v>
+        <v>44993</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13696,14 +13696,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 5196-2022</t>
+          <t>A 13363-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44593</v>
+        <v>45005</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13715,8 +13715,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>5.6</v>
+        <v>0.6</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13753,14 +13758,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 1280-2023</t>
+          <t>A 5151-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44936</v>
+        <v>44593</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13773,7 +13778,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.9</v>
+        <v>6.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13810,14 +13815,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 2083-2025</t>
+          <t>A 23741-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45672.58853009259</v>
+        <v>45077.77087962963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13830,7 +13835,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13867,14 +13872,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 22540-2025</t>
+          <t>A 4968-2026</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45788.30451388889</v>
+        <v>46049</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13887,7 +13892,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>4.9</v>
+        <v>0.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13924,14 +13929,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 52286-2023</t>
+          <t>A 62849-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45224.58796296296</v>
+        <v>46008.69979166667</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13944,7 +13949,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13981,14 +13986,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 27529-2025</t>
+          <t>A 46147-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45813</v>
+        <v>44846</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14000,13 +14005,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G219" t="n">
-        <v>7.9</v>
+        <v>5.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14043,14 +14043,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 47870-2022</t>
+          <t>A 5645-2026</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44855.43302083333</v>
+        <v>46051.42502314815</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14100,14 +14100,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 15070-2024</t>
+          <t>A 47870-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45399.59040509259</v>
+        <v>44855.43302083333</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14119,13 +14119,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>4.9</v>
+        <v>0.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14162,14 +14157,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 16418-2025</t>
+          <t>A 6446-2026</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45751.46372685185</v>
+        <v>46055.85770833334</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14182,7 +14177,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14219,14 +14214,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 13995-2025</t>
+          <t>A 27813-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45739.74271990741</v>
+        <v>45098</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14239,7 +14234,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14276,14 +14271,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 43855-2022</t>
+          <t>A 58387-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44838</v>
+        <v>44901</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14297,11 +14292,11 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14338,14 +14333,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 11497-2023</t>
+          <t>A 27452-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44991</v>
+        <v>45474</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14358,7 +14353,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14402,7 +14397,7 @@
         <v>45579</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14452,14 +14447,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 42627-2025</t>
+          <t>A 38323-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45905.77766203704</v>
+        <v>45161</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14472,7 +14467,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14509,14 +14504,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 42423-2025</t>
+          <t>A 38325-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45905.41005787037</v>
+        <v>45161</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14528,13 +14523,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G228" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14571,14 +14561,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 15812-2024</t>
+          <t>A 63499-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45404.6669212963</v>
+        <v>46013</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14590,13 +14580,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G229" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14633,14 +14618,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 43698-2025</t>
+          <t>A 6890-2026</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45912.39892361111</v>
+        <v>46057.471875</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14653,7 +14638,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.6</v>
+        <v>8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14690,14 +14675,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 25069-2023</t>
+          <t>A 21654-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45086</v>
+        <v>45442</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14710,7 +14695,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.2</v>
+        <v>7.2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14747,14 +14732,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 34479-2025</t>
+          <t>A 1280-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45847.37570601852</v>
+        <v>44936</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14767,7 +14752,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14804,14 +14789,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 49370-2023</t>
+          <t>A 20591-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45211</v>
+        <v>45055</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14824,7 +14809,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14861,14 +14846,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 14620-2025</t>
+          <t>A 52877-2022</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45742.41289351852</v>
+        <v>44875.53217592592</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14881,7 +14866,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14918,14 +14903,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 45574-2025</t>
+          <t>A 31893-2021</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45922.65922453703</v>
+        <v>44370.45880787037</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14938,7 +14923,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14975,14 +14960,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 45096-2025</t>
+          <t>A 11705-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45919.38780092593</v>
+        <v>44992</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14995,7 +14980,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15032,14 +15017,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 61682-2023</t>
+          <t>A 27538-2021</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45264</v>
+        <v>44351.67984953704</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15052,7 +15037,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15089,14 +15074,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 45717-2025</t>
+          <t>A 64224-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45923.44155092593</v>
+        <v>45279</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15109,7 +15094,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15146,14 +15131,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 45886-2025</t>
+          <t>A 20002-2022</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45923.66560185186</v>
+        <v>44697.62150462963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15166,7 +15151,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15203,14 +15188,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 46138-2025</t>
+          <t>A 47856-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45924.59914351852</v>
+        <v>45588.6680324074</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15223,7 +15208,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15260,14 +15245,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 16399-2025</t>
+          <t>A 49686-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45751</v>
+        <v>45212.36239583333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15280,7 +15265,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15317,14 +15302,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 51276-2024</t>
+          <t>A 68856-2021</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45603</v>
+        <v>44530</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15337,7 +15322,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15374,14 +15359,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 7746-2024</t>
+          <t>A 46835-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45349</v>
+        <v>45199</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15393,13 +15378,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G243" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15436,14 +15416,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 40173-2024</t>
+          <t>A 5557-2022</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45554.55435185185</v>
+        <v>44593</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15453,11 +15433,6 @@
       <c r="E244" t="inlineStr">
         <is>
           <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G244" t="n">
@@ -15498,14 +15473,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 49394-2025</t>
+          <t>A 46253-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45938.65101851852</v>
+        <v>45581</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15523,7 +15498,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15560,14 +15535,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 50163-2025</t>
+          <t>A 39530-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45943.58734953704</v>
+        <v>45167.34055555556</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15580,7 +15555,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15617,14 +15592,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 55613-2022</t>
+          <t>A 22976-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44883</v>
+        <v>45072</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15636,13 +15611,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G247" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15679,14 +15649,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 40092-2025</t>
+          <t>A 23978-2022</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45894</v>
+        <v>44722</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15699,7 +15669,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15736,14 +15706,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 40105-2025</t>
+          <t>A 15812-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45894</v>
+        <v>45404.6669212963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15755,8 +15725,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G249" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15793,14 +15768,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 51396-2025</t>
+          <t>A 38945-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45950.47131944444</v>
+        <v>45163.60909722222</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15813,7 +15788,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15850,14 +15825,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 51384-2025</t>
+          <t>A 55587-2021</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45950.46399305556</v>
+        <v>44475</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15870,7 +15845,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15907,14 +15882,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 36606-2024</t>
+          <t>A 23874-2022</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45537.56913194444</v>
+        <v>44722</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15927,7 +15902,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.6</v>
+        <v>7.8</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15964,14 +15939,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 51946-2025</t>
+          <t>A 9142-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45951</v>
+        <v>45714.31886574074</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15984,7 +15959,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16021,14 +15996,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 24217-2025</t>
+          <t>A 30292-2021</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45797.35565972222</v>
+        <v>44364.33482638889</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16041,7 +16016,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16078,14 +16053,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 49989-2024</t>
+          <t>A 28247-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45597</v>
+        <v>45099</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16098,7 +16073,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>6.1</v>
+        <v>4.2</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16135,14 +16110,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 44228-2024</t>
+          <t>A 56759-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45573</v>
+        <v>45238</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16155,7 +16130,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.4</v>
+        <v>7.4</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16192,14 +16167,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 69394-2021</t>
+          <t>A 4301-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44531</v>
+        <v>45324</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16217,7 +16192,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>5.7</v>
+        <v>0.5</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16254,14 +16229,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 24815-2025</t>
+          <t>A 22202-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45799.44935185185</v>
+        <v>45069</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16274,7 +16249,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16311,14 +16286,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 55696-2025</t>
+          <t>A 20012-2022</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45972</v>
+        <v>44697</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16331,7 +16306,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.7</v>
+        <v>17.2</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16368,14 +16343,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 33462-2025</t>
+          <t>A 16418-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45841</v>
+        <v>45751.46372685185</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16388,7 +16363,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16425,14 +16400,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 57687-2025</t>
+          <t>A 30852-2021</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45981.44112268519</v>
+        <v>44365</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16444,13 +16419,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G261" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16487,14 +16457,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 317-2026</t>
+          <t>A 63720-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>46027.56958333333</v>
+        <v>45275</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16507,7 +16477,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16544,14 +16514,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 59885-2025</t>
+          <t>A 14278-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45993.32192129629</v>
+        <v>45393.60961805555</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16564,7 +16534,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16601,14 +16571,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 2806-2026</t>
+          <t>A 47869-2022</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>46038.41621527778</v>
+        <v>44855.43141203704</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16621,7 +16591,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>7.9</v>
+        <v>2.4</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16658,14 +16628,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 42006-2025</t>
+          <t>A 6615-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45903</v>
+        <v>45341</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16678,7 +16648,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16715,14 +16685,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 4968-2026</t>
+          <t>A 24647-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>46049</v>
+        <v>45084</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16734,8 +16704,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G266" t="n">
-        <v>0.4</v>
+        <v>11.6</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16772,14 +16747,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 62849-2025</t>
+          <t>A 13420-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>46008.69979166667</v>
+        <v>45005</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16791,8 +16766,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G267" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16829,14 +16809,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 5645-2026</t>
+          <t>A 42281-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>46051.42502314815</v>
+        <v>45562.6105787037</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16848,8 +16828,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G268" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16886,14 +16871,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 6446-2026</t>
+          <t>A 42284-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>46055.85770833334</v>
+        <v>45562</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16905,8 +16890,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G269" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16943,14 +16933,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 6447-2026</t>
+          <t>A 3489-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>46055</v>
+        <v>45320</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16963,7 +16953,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -17000,14 +16990,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 6890-2026</t>
+          <t>A 30738-2021</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>46057.471875</v>
+        <v>44365.45446759259</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17020,7 +17010,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>8</v>
+        <v>0.6</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17057,14 +17047,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 63499-2025</t>
+          <t>A 16399-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>46013</v>
+        <v>45751</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17077,7 +17067,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17114,14 +17104,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 53289-2025</t>
+          <t>A 51276-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45958</v>
+        <v>45603</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17134,7 +17124,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17171,14 +17161,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 53290-2025</t>
+          <t>A 40173-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45958</v>
+        <v>45554.55435185185</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17190,8 +17180,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G274" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17228,14 +17223,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 2413-2026</t>
+          <t>A 7746-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>46036.73725694444</v>
+        <v>45349</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17247,8 +17242,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G275" t="n">
-        <v>8</v>
+        <v>1.9</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17285,14 +17285,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 50781-2025</t>
+          <t>A 55613-2022</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45946</v>
+        <v>44883</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17304,8 +17304,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G276" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17342,14 +17347,14 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 61060-2025</t>
+          <t>A 36606-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>46000</v>
+        <v>45537.56913194444</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17361,13 +17366,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G277" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>

--- a/Översikt KLIPPAN.xlsx
+++ b/Översikt KLIPPAN.xlsx
@@ -575,7 +575,7 @@
         <v>45314</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45960</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>45973</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>45664</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>45581</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>45919.59901620371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>45903</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>45235</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45335</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,14 +1411,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 59769-2025</t>
+          <t>A 11673-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45992</v>
+        <v>44633</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,13 +1430,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
@@ -1470,140 +1465,145 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Talltita
+Vanlig groda</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 11673-2022 artfynd.xlsx", "A 11673-2022")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 11673-2022 karta.png", "A 11673-2022")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 11673-2022 FSC-klagomål.docx", "A 11673-2022")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 11673-2022 FSC-klagomål mail.docx", "A 11673-2022")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 11673-2022 tillsynsbegäran.docx", "A 11673-2022")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 11673-2022 tillsynsbegäran mail.docx", "A 11673-2022")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 11673-2022 prioriterade fågelarter.docx", "A 11673-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 59769-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45992</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Entita
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 59769-2025 artfynd.xlsx", "A 59769-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 59769-2025 karta.png", "A 59769-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 59769-2025 FSC-klagomål.docx", "A 59769-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 59769-2025 FSC-klagomål mail.docx", "A 59769-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 59769-2025 tillsynsbegäran.docx", "A 59769-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 59769-2025 tillsynsbegäran mail.docx", "A 59769-2025")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 59769-2025 prioriterade fågelarter.docx", "A 59769-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 11673-2022</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>44633</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Talltita
-Vanlig groda</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 11673-2022 artfynd.xlsx", "A 11673-2022")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 11673-2022 karta.png", "A 11673-2022")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 11673-2022 FSC-klagomål.docx", "A 11673-2022")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 11673-2022 FSC-klagomål mail.docx", "A 11673-2022")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 11673-2022 tillsynsbegäran.docx", "A 11673-2022")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 11673-2022 tillsynsbegäran mail.docx", "A 11673-2022")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 11673-2022 prioriterade fågelarter.docx", "A 11673-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 20702-2023</t>
+          <t>A 37966-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45058</v>
+        <v>45544</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,16 +1616,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5.9</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1650,211 +1650,211 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Större vattensalamander
+Vanlig padda</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 37966-2024 artfynd.xlsx", "A 37966-2024")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 37966-2024 karta.png", "A 37966-2024")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 37966-2024 FSC-klagomål.docx", "A 37966-2024")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 37966-2024 FSC-klagomål mail.docx", "A 37966-2024")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 37966-2024 tillsynsbegäran.docx", "A 37966-2024")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 37966-2024 tillsynsbegäran mail.docx", "A 37966-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 44567-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45917</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Gråkråka
+Grönsiska</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 44567-2025 artfynd.xlsx", "A 44567-2025")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 44567-2025 karta.png", "A 44567-2025")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 44567-2025 FSC-klagomål.docx", "A 44567-2025")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 44567-2025 FSC-klagomål mail.docx", "A 44567-2025")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 44567-2025 tillsynsbegäran.docx", "A 44567-2025")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 44567-2025 tillsynsbegäran mail.docx", "A 44567-2025")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 44567-2025 prioriterade fågelarter.docx", "A 44567-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 20702-2023</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45058</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Svinrot
 Grönvit nattviol</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 20702-2023 artfynd.xlsx", "A 20702-2023")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 20702-2023 karta.png", "A 20702-2023")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 20702-2023 FSC-klagomål.docx", "A 20702-2023")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 20702-2023 FSC-klagomål mail.docx", "A 20702-2023")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 20702-2023 tillsynsbegäran.docx", "A 20702-2023")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 20702-2023 tillsynsbegäran mail.docx", "A 20702-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 37966-2024</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45544</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Större vattensalamander
-Vanlig padda</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 37966-2024 artfynd.xlsx", "A 37966-2024")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 37966-2024 karta.png", "A 37966-2024")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 37966-2024 FSC-klagomål.docx", "A 37966-2024")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 37966-2024 FSC-klagomål mail.docx", "A 37966-2024")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 37966-2024 tillsynsbegäran.docx", "A 37966-2024")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 37966-2024 tillsynsbegäran mail.docx", "A 37966-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 44567-2025</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45917</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Gråkråka
-Grönsiska</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 44567-2025 artfynd.xlsx", "A 44567-2025")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 44567-2025 karta.png", "A 44567-2025")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 44567-2025 FSC-klagomål.docx", "A 44567-2025")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 44567-2025 FSC-klagomål mail.docx", "A 44567-2025")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 44567-2025 tillsynsbegäran.docx", "A 44567-2025")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 44567-2025 tillsynsbegäran mail.docx", "A 44567-2025")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 44567-2025 prioriterade fågelarter.docx", "A 44567-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44880</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>44365</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44596</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>45453</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>44365</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2292,14 +2292,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 2839-2026</t>
+          <t>A 14892-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>46038</v>
+        <v>45015</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2346,404 +2346,404 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
+          <t>Mindre hackspett</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 14892-2023 artfynd.xlsx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 14892-2023 karta.png", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 14892-2023 FSC-klagomål.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 14892-2023 FSC-klagomål mail.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 14892-2023 tillsynsbegäran.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 14892-2023 tillsynsbegäran mail.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 14892-2023 prioriterade fågelarter.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 2839-2026</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>46038</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
           <t>Entita</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 2839-2026 artfynd.xlsx", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 2839-2026 karta.png", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 2839-2026 FSC-klagomål.docx", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 2839-2026 FSC-klagomål mail.docx", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 2839-2026 tillsynsbegäran.docx", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 2839-2026 tillsynsbegäran mail.docx", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="Z21">
+      <c r="Z22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 2839-2026 prioriterade fågelarter.docx", "A 2839-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 50089-2023</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>45208</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>Entita</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 50089-2023 artfynd.xlsx", "A 50089-2023")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 50089-2023 karta.png", "A 50089-2023")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 50089-2023 FSC-klagomål.docx", "A 50089-2023")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 50089-2023 FSC-klagomål mail.docx", "A 50089-2023")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 50089-2023 tillsynsbegäran.docx", "A 50089-2023")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 50089-2023 tillsynsbegäran mail.docx", "A 50089-2023")</f>
+        <v/>
+      </c>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 50089-2023 prioriterade fågelarter.docx", "A 50089-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>A 61049-2025</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B24" s="1" t="n">
         <v>46000</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="C24" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="G24" t="n">
         <v>3.6</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>1</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>1</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Mindre hackspett</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 61049-2025 artfynd.xlsx", "A 61049-2025")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 61049-2025 karta.png", "A 61049-2025")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 61049-2025 FSC-klagomål.docx", "A 61049-2025")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 61049-2025 FSC-klagomål mail.docx", "A 61049-2025")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 61049-2025 tillsynsbegäran.docx", "A 61049-2025")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 61049-2025 tillsynsbegäran mail.docx", "A 61049-2025")</f>
         <v/>
       </c>
-      <c r="Z22">
+      <c r="Z24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 61049-2025 prioriterade fågelarter.docx", "A 61049-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>A 61058-2025</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B25" s="1" t="n">
         <v>46000</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
+      <c r="C25" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G23" t="n">
+      <c r="G25" t="n">
         <v>0.8</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>1</v>
       </c>
-      <c r="R23" s="2" t="inlineStr">
+      <c r="R25" s="2" t="inlineStr">
         <is>
           <t>Kungsfågel</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 61058-2025 artfynd.xlsx", "A 61058-2025")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 61058-2025 karta.png", "A 61058-2025")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 61058-2025 FSC-klagomål.docx", "A 61058-2025")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 61058-2025 FSC-klagomål mail.docx", "A 61058-2025")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 61058-2025 tillsynsbegäran.docx", "A 61058-2025")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 61058-2025 tillsynsbegäran mail.docx", "A 61058-2025")</f>
         <v/>
       </c>
-      <c r="Z23">
+      <c r="Z25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 61058-2025 prioriterade fågelarter.docx", "A 61058-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 14892-2023</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>45015</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Mindre hackspett</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 14892-2023 artfynd.xlsx", "A 14892-2023")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 14892-2023 karta.png", "A 14892-2023")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 14892-2023 FSC-klagomål.docx", "A 14892-2023")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 14892-2023 FSC-klagomål mail.docx", "A 14892-2023")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 14892-2023 tillsynsbegäran.docx", "A 14892-2023")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 14892-2023 tillsynsbegäran mail.docx", "A 14892-2023")</f>
-        <v/>
-      </c>
-      <c r="Z24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 14892-2023 prioriterade fågelarter.docx", "A 14892-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A 50089-2023</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>45208</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Entita</t>
-        </is>
-      </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 50089-2023 artfynd.xlsx", "A 50089-2023")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 50089-2023 karta.png", "A 50089-2023")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 50089-2023 FSC-klagomål.docx", "A 50089-2023")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 50089-2023 FSC-klagomål mail.docx", "A 50089-2023")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 50089-2023 tillsynsbegäran.docx", "A 50089-2023")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 50089-2023 tillsynsbegäran mail.docx", "A 50089-2023")</f>
-        <v/>
-      </c>
-      <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 50089-2023 prioriterade fågelarter.docx", "A 50089-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>45719.44871527778</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44883</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>44287</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>44368.50049768519</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44883</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>44596</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44489.35295138889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>44691.52568287037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44697.63137731481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>44697</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>44531</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>44487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44575</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3546,14 +3546,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 53582-2022</t>
+          <t>A 10055-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44875</v>
+        <v>44621.59760416667</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3565,13 +3565,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3608,14 +3603,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 10055-2022</t>
+          <t>A 19094-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44621.59760416667</v>
+        <v>44691</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3628,7 +3623,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3665,14 +3660,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 19094-2022</t>
+          <t>A 53582-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44691</v>
+        <v>44875</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3684,8 +3679,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>44363</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>44245</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>44445</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44608</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44575</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44825</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>44782.541875</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>44825</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>44882</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44880</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>44246</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>44418</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44251</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44245</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>44700</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44679.2472337963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>44816</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44448</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>44300</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>44259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>45660</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4974,14 +4974,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 3198-2023</t>
+          <t>A 53868-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44944</v>
+        <v>44880.64693287037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.1</v>
+        <v>7.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5038,7 +5038,7 @@
         <v>45523</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5088,14 +5088,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 53868-2022</t>
+          <t>A 25393-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44880.64693287037</v>
+        <v>45079</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>7.6</v>
+        <v>2.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5145,14 +5145,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 25393-2023</t>
+          <t>A 14620-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45079</v>
+        <v>45742.41289351852</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5202,14 +5202,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 14620-2025</t>
+          <t>A 3198-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45742.41289351852</v>
+        <v>44944</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5266,7 +5266,7 @@
         <v>45544.55668981482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5316,14 +5316,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 28844-2023</t>
+          <t>A 55613-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45104</v>
+        <v>44883</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5335,8 +5335,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5373,14 +5378,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 593-2023</t>
+          <t>A 28844-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44930.55528935185</v>
+        <v>45104</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5393,7 +5398,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5430,14 +5435,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 33331-2024</t>
+          <t>A 36606-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45519</v>
+        <v>45537.56913194444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5449,13 +5454,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5492,14 +5492,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 4623-2024</t>
+          <t>A 52851-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45328</v>
+        <v>45610</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5549,14 +5549,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 6447-2026</t>
+          <t>A 593-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>46055</v>
+        <v>44930.55528935185</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.6</v>
+        <v>0.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5606,14 +5606,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 24217-2025</t>
+          <t>A 33331-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45797.35565972222</v>
+        <v>45519</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5625,8 +5625,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5663,14 +5668,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 15070-2024</t>
+          <t>A 24217-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45399.59040509259</v>
+        <v>45797.35565972222</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5682,13 +5687,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>4.9</v>
+        <v>1.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5725,14 +5725,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 30725-2021</t>
+          <t>A 4623-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44365.44506944445</v>
+        <v>45328</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5782,14 +5782,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 217-2023</t>
+          <t>A 22540-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44928</v>
+        <v>45788.30451388889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5846,7 +5846,7 @@
         <v>45799.44935185185</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5896,14 +5896,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 38724-2023</t>
+          <t>A 27529-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45163</v>
+        <v>45813</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5915,8 +5915,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>3.2</v>
+        <v>7.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5960,7 +5965,7 @@
         <v>45573</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6017,7 +6022,7 @@
         <v>45597</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6067,14 +6072,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 58642-2021</t>
+          <t>A 15070-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44489.36314814815</v>
+        <v>45399.59040509259</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6086,8 +6091,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>4.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6131,7 +6141,7 @@
         <v>44531</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6186,14 +6196,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 50781-2025</t>
+          <t>A 30725-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45946</v>
+        <v>44365.44506944445</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6206,7 +6216,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6243,14 +6253,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 2413-2026</t>
+          <t>A 217-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>46036.73725694444</v>
+        <v>44928</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6263,7 +6273,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6300,14 +6310,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 5256-2022</t>
+          <t>A 38724-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44593</v>
+        <v>45163</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6320,7 +6330,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6357,14 +6367,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 52851-2024</t>
+          <t>A 58642-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45610</v>
+        <v>44489.36314814815</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6377,7 +6387,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6414,14 +6424,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 53289-2025</t>
+          <t>A 43855-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45958</v>
+        <v>44838</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6431,6 +6441,11 @@
       <c r="E88" t="inlineStr">
         <is>
           <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -6471,14 +6486,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 53290-2025</t>
+          <t>A 5256-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45958</v>
+        <v>44593</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6491,7 +6506,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6528,14 +6543,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 61060-2025</t>
+          <t>A 25069-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>46000</v>
+        <v>45086</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6547,13 +6562,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6590,14 +6600,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 25069-2023</t>
+          <t>A 27898-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45086</v>
+        <v>45817</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6610,7 +6620,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6647,14 +6657,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 22540-2025</t>
+          <t>A 59482-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45788.30451388889</v>
+        <v>45638.52831018518</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6667,7 +6677,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.9</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6704,14 +6714,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 18520-2021</t>
+          <t>A 27010-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44305</v>
+        <v>45094.36791666667</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6723,13 +6733,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6766,14 +6771,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 27898-2025</t>
+          <t>A 10544-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45817</v>
+        <v>45721.48859953704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6786,7 +6791,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6823,14 +6828,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 59482-2024</t>
+          <t>A 42423-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45638.52831018518</v>
+        <v>45905.41005787037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6842,8 +6847,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6880,14 +6890,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 27010-2023</t>
+          <t>A 18520-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45094.36791666667</v>
+        <v>44305</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6899,8 +6909,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6937,14 +6952,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 10544-2025</t>
+          <t>A 42627-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45721.48859953704</v>
+        <v>45905.77766203704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6957,7 +6972,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6994,14 +7009,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 18214-2023</t>
+          <t>A 34479-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45040</v>
+        <v>45847.37570601852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7014,7 +7029,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.8</v>
+        <v>1.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7051,14 +7066,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 27529-2025</t>
+          <t>A 18214-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45813</v>
+        <v>45040</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7070,13 +7085,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>7.9</v>
+        <v>4.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7113,14 +7123,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 60791-2023</t>
+          <t>A 4968-2026</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45260.65283564815</v>
+        <v>46049</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7133,7 +7143,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7170,14 +7180,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 2262-2025</t>
+          <t>A 43698-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45673</v>
+        <v>45912.39892361111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7190,7 +7200,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7227,14 +7237,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 23681-2023</t>
+          <t>A 29284-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45077</v>
+        <v>45824</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7247,7 +7257,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7284,14 +7294,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 4324-2024</t>
+          <t>A 60791-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45324.67409722223</v>
+        <v>45260.65283564815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7304,7 +7314,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7341,14 +7351,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 29284-2025</t>
+          <t>A 62849-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45824</v>
+        <v>46008.69979166667</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7361,7 +7371,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7398,14 +7408,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 28490-2023</t>
+          <t>A 45096-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45103.44039351852</v>
+        <v>45919.38780092593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7418,7 +7428,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7455,14 +7465,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 44891-2022</t>
+          <t>A 5645-2026</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44841</v>
+        <v>46051.42502314815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7475,7 +7485,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7512,14 +7522,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 17856-2024</t>
+          <t>A 32132-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45419</v>
+        <v>45835.50878472222</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7531,13 +7541,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7574,14 +7579,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 32132-2025</t>
+          <t>A 45574-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45835.50878472222</v>
+        <v>45922.65922453703</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7594,7 +7599,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7631,14 +7636,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 7515-2025</t>
+          <t>A 2262-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45702</v>
+        <v>45673</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7650,13 +7655,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7693,14 +7693,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 43855-2022</t>
+          <t>A 23681-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44838</v>
+        <v>45077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7712,13 +7712,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7755,14 +7750,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 13994-2025</t>
+          <t>A 45717-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45739.73532407408</v>
+        <v>45923.44155092593</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7775,7 +7770,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.2</v>
+        <v>9.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7812,14 +7807,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 33450-2025</t>
+          <t>A 4324-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45841.46677083334</v>
+        <v>45324.67409722223</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7832,7 +7827,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7869,14 +7864,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 33456-2025</t>
+          <t>A 45886-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45841.47364583334</v>
+        <v>45923.66560185186</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7926,14 +7921,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 33761-2025</t>
+          <t>A 28490-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45842.38335648148</v>
+        <v>45103.44039351852</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7946,7 +7941,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7983,14 +7978,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 39238-2022</t>
+          <t>A 46138-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44817</v>
+        <v>45924.59914351852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8003,7 +7998,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8040,14 +8035,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 52882-2024</t>
+          <t>A 44891-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45610</v>
+        <v>44841</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8060,7 +8055,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8097,14 +8092,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 33766-2025</t>
+          <t>A 17856-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45842.3869675926</v>
+        <v>45419</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8116,8 +8111,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8154,14 +8154,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 11497-2023</t>
+          <t>A 33450-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44991</v>
+        <v>45841.46677083334</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8211,14 +8211,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 34472-2025</t>
+          <t>A 33456-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45847.35877314815</v>
+        <v>45841.47364583334</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8268,14 +8268,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 46260-2024</t>
+          <t>A 7515-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45581</v>
+        <v>45702</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8289,11 +8289,11 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8330,14 +8330,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 5141-2024</t>
+          <t>A 13994-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45330</v>
+        <v>45739.73532407408</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8387,14 +8387,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 39244-2022</t>
+          <t>A 33761-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44817.60482638889</v>
+        <v>45842.38335648148</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8444,14 +8444,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 20717-2023</t>
+          <t>A 33766-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45055</v>
+        <v>45842.3869675926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8501,14 +8501,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 37068-2023</t>
+          <t>A 6446-2026</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45155</v>
+        <v>46055.85770833334</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8558,14 +8558,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 40762-2021</t>
+          <t>A 34472-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44420</v>
+        <v>45847.35877314815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8615,14 +8615,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 55588-2021</t>
+          <t>A 39238-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44475</v>
+        <v>44817</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8672,14 +8672,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 42423-2025</t>
+          <t>A 52882-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45905.41005787037</v>
+        <v>45610</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8691,13 +8691,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>4.9</v>
+        <v>1.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8734,14 +8729,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 8204-2021</t>
+          <t>A 11497-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44244</v>
+        <v>44991</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8754,7 +8749,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8791,14 +8786,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 52286-2023</t>
+          <t>A 46260-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45224.58796296296</v>
+        <v>45581</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8810,8 +8805,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8848,14 +8848,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 42627-2025</t>
+          <t>A 5141-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45905.77766203704</v>
+        <v>45330</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>45785.5165625</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8962,14 +8962,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 46619-2024</t>
+          <t>A 39244-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45583.32314814815</v>
+        <v>44817.60482638889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9019,14 +9019,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 11857-2025</t>
+          <t>A 49394-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45728.39798611111</v>
+        <v>45938.65101851852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9040,11 +9040,11 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9081,14 +9081,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 24333-2022</t>
+          <t>A 20717-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44726.32643518518</v>
+        <v>45055</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9138,14 +9138,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 56089-2021</t>
+          <t>A 37068-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44477</v>
+        <v>45155</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>20.9</v>
+        <v>1.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9195,14 +9195,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 50357-2021</t>
+          <t>A 40762-2021</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44455</v>
+        <v>44420</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9252,14 +9252,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 34479-2025</t>
+          <t>A 50163-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45847.37570601852</v>
+        <v>45943.58734953704</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9309,14 +9309,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 54348-2022</t>
+          <t>A 55588-2021</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44882</v>
+        <v>44475</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>7.8</v>
+        <v>2.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9366,14 +9366,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 24813-2025</t>
+          <t>A 40105-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45799.44813657407</v>
+        <v>45894</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9423,14 +9423,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 38156-2022</t>
+          <t>A 40092-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44812.37135416667</v>
+        <v>45894</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9480,14 +9480,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 18516-2021</t>
+          <t>A 50357-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44305</v>
+        <v>44455</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9499,13 +9499,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9542,14 +9537,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 43698-2025</t>
+          <t>A 8204-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45912.39892361111</v>
+        <v>44244</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9562,7 +9557,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9599,14 +9594,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 40710-2023</t>
+          <t>A 52286-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45170.63194444445</v>
+        <v>45224.58796296296</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9619,7 +9614,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9656,14 +9651,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 55833-2023</t>
+          <t>A 46619-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45239</v>
+        <v>45583.32314814815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9676,7 +9671,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9713,14 +9708,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 20128-2023</t>
+          <t>A 51396-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45055</v>
+        <v>45950.47131944444</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9733,7 +9728,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9770,14 +9765,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 2252-2025</t>
+          <t>A 51946-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45673</v>
+        <v>45951</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9790,7 +9785,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9827,14 +9822,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 45096-2025</t>
+          <t>A 51384-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45919.38780092593</v>
+        <v>45950.46399305556</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9847,7 +9842,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9884,14 +9879,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 2083-2025</t>
+          <t>A 63499-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45672.58853009259</v>
+        <v>46013</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9904,7 +9899,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9941,14 +9936,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 45574-2025</t>
+          <t>A 24813-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45922.65922453703</v>
+        <v>45799.44813657407</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9961,7 +9956,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9998,14 +9993,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 61682-2023</t>
+          <t>A 11857-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45264</v>
+        <v>45728.39798611111</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10017,8 +10012,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>0.8</v>
+        <v>4.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10055,14 +10055,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 11676-2023</t>
+          <t>A 24333-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44992</v>
+        <v>44726.32643518518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10074,13 +10074,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10117,14 +10112,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 45717-2025</t>
+          <t>A 56089-2021</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45923.44155092593</v>
+        <v>44477</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10137,7 +10132,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>9.1</v>
+        <v>20.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10174,14 +10169,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 51844-2023</t>
+          <t>A 6890-2026</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45223</v>
+        <v>46057.471875</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10194,7 +10189,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.6</v>
+        <v>8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10231,14 +10226,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 45886-2025</t>
+          <t>A 6447-2026</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45923.66560185186</v>
+        <v>46055</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10251,7 +10246,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10288,14 +10283,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 46138-2025</t>
+          <t>A 54348-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45924.59914351852</v>
+        <v>44882</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10308,7 +10303,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.9</v>
+        <v>7.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10345,14 +10340,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 28847-2023</t>
+          <t>A 38156-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45104</v>
+        <v>44812.37135416667</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10365,7 +10360,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10402,14 +10397,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 15442-2022</t>
+          <t>A 18516-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44659.85333333333</v>
+        <v>44305</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10421,8 +10416,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10459,14 +10459,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 2755-2023</t>
+          <t>A 50781-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44944</v>
+        <v>45946</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10478,13 +10478,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10521,14 +10516,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 49370-2023</t>
+          <t>A 2413-2026</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45211</v>
+        <v>46036.73725694444</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10541,7 +10536,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10578,14 +10573,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 28709-2023</t>
+          <t>A 40710-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45103</v>
+        <v>45170.63194444445</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10598,7 +10593,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10635,14 +10630,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 46728-2023</t>
+          <t>A 53289-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45198</v>
+        <v>45958</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10655,7 +10650,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10692,14 +10687,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 15065-2024</t>
+          <t>A 53290-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45399.57625</v>
+        <v>45958</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10711,13 +10706,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>5.8</v>
+        <v>0.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10754,14 +10744,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 3498-2024</t>
+          <t>A 55696-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45320.47233796296</v>
+        <v>45972</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10774,7 +10764,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10811,14 +10801,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 41294-2022</t>
+          <t>A 55833-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44825</v>
+        <v>45239</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10831,7 +10821,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>6.1</v>
+        <v>1.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10868,14 +10858,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 39097-2024</t>
+          <t>A 33462-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45548.56422453704</v>
+        <v>45841</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10888,7 +10878,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10925,14 +10915,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 8712-2023</t>
+          <t>A 61060-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44978.3975462963</v>
+        <v>46000</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10944,8 +10934,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10982,14 +10977,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 49394-2025</t>
+          <t>A 20128-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45938.65101851852</v>
+        <v>45055</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11001,13 +10996,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11044,14 +11034,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 49073-2024</t>
+          <t>A 2252-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45594.61548611111</v>
+        <v>45673</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11064,7 +11054,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11101,14 +11091,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 50163-2025</t>
+          <t>A 2083-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45943.58734953704</v>
+        <v>45672.58853009259</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11121,7 +11111,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11158,14 +11148,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 7661-2025</t>
+          <t>A 57687-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45706</v>
+        <v>45981.44112268519</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11177,8 +11167,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11215,14 +11210,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 3183-2023</t>
+          <t>A 61682-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44944</v>
+        <v>45264</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11235,7 +11230,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>6.9</v>
+        <v>0.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11272,14 +11267,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 48965-2023</t>
+          <t>A 11676-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45209</v>
+        <v>44992</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11291,8 +11286,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11329,14 +11329,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 9270-2022</t>
+          <t>A 51844-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44616</v>
+        <v>45223</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11386,14 +11386,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 40105-2025</t>
+          <t>A 28847-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45894</v>
+        <v>45104</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11406,7 +11406,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11443,14 +11443,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 40092-2025</t>
+          <t>A 15442-2022</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45894</v>
+        <v>44659.85333333333</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11500,14 +11500,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 36842-2024</t>
+          <t>A 2755-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45538</v>
+        <v>44944</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11562,14 +11562,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 5523-2022</t>
+          <t>A 49370-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44593</v>
+        <v>45211</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>5.3</v>
+        <v>0.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11619,14 +11619,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 51396-2025</t>
+          <t>A 28709-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45950.47131944444</v>
+        <v>45103</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11676,14 +11676,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 51946-2025</t>
+          <t>A 317-2026</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45951</v>
+        <v>46027.56958333333</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11733,14 +11733,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 17060-2021</t>
+          <t>A 46728-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44296.63025462963</v>
+        <v>45198</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11790,14 +11790,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 51384-2025</t>
+          <t>A 15065-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45950.46399305556</v>
+        <v>45399.57625</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11809,8 +11809,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>1.7</v>
+        <v>5.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11847,14 +11852,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 4321-2024</t>
+          <t>A 3498-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45324.66635416666</v>
+        <v>45320.47233796296</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11867,7 +11872,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11904,14 +11909,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 62473-2023</t>
+          <t>A 41294-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45267</v>
+        <v>44825</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11923,13 +11928,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>2.5</v>
+        <v>6.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11966,14 +11966,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 8500-2023</t>
+          <t>A 39097-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44977</v>
+        <v>45548.56422453704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12023,14 +12023,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 55291-2023</t>
+          <t>A 8712-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45237</v>
+        <v>44978.3975462963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12080,14 +12080,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 69041-2021</t>
+          <t>A 59885-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44529</v>
+        <v>45993.32192129629</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12137,14 +12137,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 23260-2023</t>
+          <t>A 49073-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45075.87199074074</v>
+        <v>45594.61548611111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12194,14 +12194,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 55586-2021</t>
+          <t>A 7661-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44475.88427083333</v>
+        <v>45706</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12251,14 +12251,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 55696-2025</t>
+          <t>A 3183-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45972</v>
+        <v>44944</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.7</v>
+        <v>6.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12308,14 +12308,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 15810-2024</t>
+          <t>A 48965-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45404</v>
+        <v>45209</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12327,13 +12327,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12370,14 +12365,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 19097-2025</t>
+          <t>A 9270-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45767.68126157407</v>
+        <v>44616</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12390,7 +12385,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12427,14 +12422,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 33462-2025</t>
+          <t>A 42006-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45841</v>
+        <v>45903</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12447,7 +12442,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12484,14 +12479,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 10695-2023</t>
+          <t>A 36842-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44988</v>
+        <v>45538</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12503,8 +12498,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12541,14 +12541,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 44885-2022</t>
+          <t>A 2806-2026</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44841</v>
+        <v>46038.41621527778</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.7</v>
+        <v>7.9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12598,14 +12598,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 57687-2025</t>
+          <t>A 5523-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45981.44112268519</v>
+        <v>44593</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12617,13 +12617,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>1.6</v>
+        <v>5.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12660,14 +12655,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 317-2026</t>
+          <t>A 17060-2021</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46027.56958333333</v>
+        <v>44296.63025462963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12680,7 +12675,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.6</v>
+        <v>4.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12717,14 +12712,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 14614-2023</t>
+          <t>A 4321-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45013</v>
+        <v>45324.66635416666</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12737,7 +12732,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>5.1</v>
+        <v>0.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12774,14 +12769,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 8017-2022</t>
+          <t>A 62473-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44609.39615740741</v>
+        <v>45267</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12793,8 +12788,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12831,14 +12831,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 13995-2025</t>
+          <t>A 8500-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45739.74271990741</v>
+        <v>44977</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12888,14 +12888,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 42275-2024</t>
+          <t>A 55291-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45562.60690972222</v>
+        <v>45237</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12907,13 +12907,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12950,14 +12945,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 42303-2024</t>
+          <t>A 69041-2021</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45562.6322337963</v>
+        <v>44529</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12969,13 +12964,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13012,14 +13002,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 24034-2023</t>
+          <t>A 23260-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45078.86898148148</v>
+        <v>45075.87199074074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13032,7 +13022,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13069,14 +13059,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 5196-2022</t>
+          <t>A 55586-2021</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44593</v>
+        <v>44475.88427083333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13089,7 +13079,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>5.6</v>
+        <v>1.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13126,14 +13116,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 59885-2025</t>
+          <t>A 15810-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45993.32192129629</v>
+        <v>45404</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13145,8 +13135,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13183,14 +13178,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 52838-2024</t>
+          <t>A 19097-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45610</v>
+        <v>45767.68126157407</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13203,7 +13198,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13240,14 +13235,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 45641-2022</t>
+          <t>A 10695-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44845</v>
+        <v>44988</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13260,7 +13255,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13297,14 +13292,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 42006-2025</t>
+          <t>A 44885-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45903</v>
+        <v>44841</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13317,7 +13312,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13354,14 +13349,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 21636-2024</t>
+          <t>A 14614-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45442</v>
+        <v>45013</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13374,7 +13369,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>6.3</v>
+        <v>5.1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13411,14 +13406,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 2806-2026</t>
+          <t>A 8017-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46038.41621527778</v>
+        <v>44609.39615740741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13431,7 +13426,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>7.9</v>
+        <v>1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13468,14 +13463,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 60783-2023</t>
+          <t>A 13995-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45260.6441087963</v>
+        <v>45739.74271990741</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13488,7 +13483,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13525,14 +13520,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 14619-2023</t>
+          <t>A 42275-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45013</v>
+        <v>45562.60690972222</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13542,6 +13537,11 @@
       <c r="E211" t="inlineStr">
         <is>
           <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G211" t="n">
@@ -13582,14 +13582,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 27454-2024</t>
+          <t>A 42303-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45474</v>
+        <v>45562.6322337963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13601,8 +13601,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13639,14 +13644,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 11335-2023</t>
+          <t>A 24034-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44993</v>
+        <v>45078.86898148148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13659,7 +13664,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13696,14 +13701,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 13363-2023</t>
+          <t>A 5196-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45005</v>
+        <v>44593</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13715,13 +13720,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>0.6</v>
+        <v>5.6</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13758,14 +13758,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 5151-2022</t>
+          <t>A 52838-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44593</v>
+        <v>45610</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>6.5</v>
+        <v>1.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13815,14 +13815,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 23741-2023</t>
+          <t>A 45641-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45077.77087962963</v>
+        <v>44845</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13872,14 +13872,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 4968-2026</t>
+          <t>A 21636-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>46049</v>
+        <v>45442</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.4</v>
+        <v>6.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13929,14 +13929,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 62849-2025</t>
+          <t>A 60783-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>46008.69979166667</v>
+        <v>45260.6441087963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13986,14 +13986,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 46147-2022</t>
+          <t>A 14619-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44846</v>
+        <v>45013</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>5.7</v>
+        <v>0.6</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14043,14 +14043,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 5645-2026</t>
+          <t>A 27454-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>46051.42502314815</v>
+        <v>45474</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14100,14 +14100,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 47870-2022</t>
+          <t>A 11335-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44855.43302083333</v>
+        <v>44993</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14157,14 +14157,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 6446-2026</t>
+          <t>A 13363-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>46055.85770833334</v>
+        <v>45005</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14176,8 +14176,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14214,14 +14219,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 27813-2023</t>
+          <t>A 5151-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45098</v>
+        <v>44593</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14234,7 +14239,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.3</v>
+        <v>6.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14271,14 +14276,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 58387-2022</t>
+          <t>A 23741-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44901</v>
+        <v>45077.77087962963</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14290,13 +14295,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14333,14 +14333,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 27452-2024</t>
+          <t>A 46147-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45474</v>
+        <v>44846</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>5.7</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14390,14 +14390,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 45596-2024</t>
+          <t>A 47870-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45579</v>
+        <v>44855.43302083333</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14447,14 +14447,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 38323-2023</t>
+          <t>A 27813-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45161</v>
+        <v>45098</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14504,14 +14504,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 38325-2023</t>
+          <t>A 58387-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45161</v>
+        <v>44901</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14523,8 +14523,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G228" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14561,14 +14566,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 63499-2025</t>
+          <t>A 27452-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>46013</v>
+        <v>45474</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14581,7 +14586,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14618,14 +14623,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 6890-2026</t>
+          <t>A 45596-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>46057.471875</v>
+        <v>45579</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14638,7 +14643,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>8</v>
+        <v>0.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14675,14 +14680,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 21654-2024</t>
+          <t>A 38323-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45442</v>
+        <v>45161</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14695,7 +14700,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>7.2</v>
+        <v>3.7</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14732,14 +14737,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 1280-2023</t>
+          <t>A 38325-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44936</v>
+        <v>45161</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14752,7 +14757,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14789,14 +14794,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 20591-2023</t>
+          <t>A 21654-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45055</v>
+        <v>45442</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14809,7 +14814,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14846,14 +14851,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 52877-2022</t>
+          <t>A 1280-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44875.53217592592</v>
+        <v>44936</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14866,7 +14871,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14903,14 +14908,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 31893-2021</t>
+          <t>A 20591-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44370.45880787037</v>
+        <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14923,7 +14928,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14960,14 +14965,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 11705-2023</t>
+          <t>A 52877-2022</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44992</v>
+        <v>44875.53217592592</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14980,7 +14985,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15017,14 +15022,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 27538-2021</t>
+          <t>A 31893-2021</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44351.67984953704</v>
+        <v>44370.45880787037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15037,7 +15042,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15074,14 +15079,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 64224-2023</t>
+          <t>A 11705-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45279</v>
+        <v>44992</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15094,7 +15099,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15131,14 +15136,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 20002-2022</t>
+          <t>A 27538-2021</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44697.62150462963</v>
+        <v>44351.67984953704</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15151,7 +15156,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15188,14 +15193,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 47856-2024</t>
+          <t>A 64224-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45588.6680324074</v>
+        <v>45279</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15208,7 +15213,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15245,14 +15250,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 49686-2023</t>
+          <t>A 20002-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45212.36239583333</v>
+        <v>44697.62150462963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15265,7 +15270,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15302,14 +15307,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 68856-2021</t>
+          <t>A 47856-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44530</v>
+        <v>45588.6680324074</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15322,7 +15327,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15359,14 +15364,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 46835-2023</t>
+          <t>A 49686-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45199</v>
+        <v>45212.36239583333</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15379,7 +15384,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15416,14 +15421,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 5557-2022</t>
+          <t>A 68856-2021</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44593</v>
+        <v>44530</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15436,7 +15441,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15473,14 +15478,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 46253-2024</t>
+          <t>A 46835-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45581</v>
+        <v>45199</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15492,13 +15497,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G245" t="n">
-        <v>9.300000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15535,14 +15535,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 39530-2023</t>
+          <t>A 5557-2022</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45167.34055555556</v>
+        <v>44593</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15592,14 +15592,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 22976-2023</t>
+          <t>A 46253-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45072</v>
+        <v>45581</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15611,8 +15611,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G247" t="n">
-        <v>3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15649,14 +15654,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 23978-2022</t>
+          <t>A 39530-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44722</v>
+        <v>45167.34055555556</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15669,7 +15674,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>9.699999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15706,14 +15711,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 15812-2024</t>
+          <t>A 22976-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45404.6669212963</v>
+        <v>45072</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15725,13 +15730,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G249" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15768,14 +15768,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 38945-2023</t>
+          <t>A 23978-2022</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45163.60909722222</v>
+        <v>44722</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15825,14 +15825,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 55587-2021</t>
+          <t>A 15812-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44475</v>
+        <v>45404.6669212963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15844,8 +15844,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G251" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15882,14 +15887,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 23874-2022</t>
+          <t>A 38945-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44722</v>
+        <v>45163.60909722222</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15902,7 +15907,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>7.8</v>
+        <v>0.9</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15939,14 +15944,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 9142-2025</t>
+          <t>A 55587-2021</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45714.31886574074</v>
+        <v>44475</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15959,7 +15964,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15996,14 +16001,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 30292-2021</t>
+          <t>A 23874-2022</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44364.33482638889</v>
+        <v>44722</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16016,7 +16021,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.8</v>
+        <v>7.8</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16053,14 +16058,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 28247-2023</t>
+          <t>A 9142-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45099</v>
+        <v>45714.31886574074</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16073,7 +16078,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16110,14 +16115,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 56759-2023</t>
+          <t>A 30292-2021</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45238</v>
+        <v>44364.33482638889</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16130,7 +16135,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>7.4</v>
+        <v>1.8</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16167,14 +16172,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 4301-2024</t>
+          <t>A 28247-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45324</v>
+        <v>45099</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16186,13 +16191,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G257" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16229,14 +16229,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 22202-2023</t>
+          <t>A 56759-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45069</v>
+        <v>45238</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16286,14 +16286,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 20012-2022</t>
+          <t>A 4301-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44697</v>
+        <v>45324</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16305,8 +16305,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G259" t="n">
-        <v>17.2</v>
+        <v>0.5</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16343,14 +16348,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 16418-2025</t>
+          <t>A 22202-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45751.46372685185</v>
+        <v>45069</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16363,7 +16368,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.8</v>
+        <v>7.5</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16400,14 +16405,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 30852-2021</t>
+          <t>A 20012-2022</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44365</v>
+        <v>44697</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16420,7 +16425,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.6</v>
+        <v>17.2</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16457,14 +16462,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 63720-2023</t>
+          <t>A 16418-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45275</v>
+        <v>45751.46372685185</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16477,7 +16482,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16514,14 +16519,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 14278-2024</t>
+          <t>A 30852-2021</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45393.60961805555</v>
+        <v>44365</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16534,7 +16539,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16571,14 +16576,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 47869-2022</t>
+          <t>A 63720-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44855.43141203704</v>
+        <v>45275</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16591,7 +16596,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16628,14 +16633,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 6615-2024</t>
+          <t>A 14278-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45341</v>
+        <v>45393.60961805555</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16648,7 +16653,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16685,14 +16690,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 24647-2023</t>
+          <t>A 47869-2022</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45084</v>
+        <v>44855.43141203704</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16704,13 +16709,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G266" t="n">
-        <v>11.6</v>
+        <v>2.4</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16747,14 +16747,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 13420-2023</t>
+          <t>A 6615-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45005</v>
+        <v>45341</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16766,13 +16766,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G267" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16809,14 +16804,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 42281-2024</t>
+          <t>A 24647-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45562.6105787037</v>
+        <v>45084</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16830,11 +16825,11 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.6</v>
+        <v>11.6</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16871,14 +16866,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 42284-2024</t>
+          <t>A 13420-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45562</v>
+        <v>45005</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16892,11 +16887,11 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16933,14 +16928,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 3489-2024</t>
+          <t>A 42281-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45320</v>
+        <v>45562.6105787037</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16952,8 +16947,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G270" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16990,14 +16990,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 30738-2021</t>
+          <t>A 42284-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44365.45446759259</v>
+        <v>45562</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17009,8 +17009,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G271" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17047,14 +17052,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 16399-2025</t>
+          <t>A 3489-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45751</v>
+        <v>45320</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17104,14 +17109,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 51276-2024</t>
+          <t>A 30738-2021</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45603</v>
+        <v>44365.45446759259</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17124,7 +17129,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17161,14 +17166,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 40173-2024</t>
+          <t>A 16399-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45554.55435185185</v>
+        <v>45751</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17180,13 +17185,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G274" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17223,14 +17223,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 7746-2024</t>
+          <t>A 51276-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45349</v>
+        <v>45603</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17242,13 +17242,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G275" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17285,14 +17280,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 55613-2022</t>
+          <t>A 40173-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44883</v>
+        <v>45554.55435185185</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17306,11 +17301,11 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17347,14 +17342,14 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 36606-2024</t>
+          <t>A 7746-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45537.56913194444</v>
+        <v>45349</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17366,8 +17361,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G277" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>

--- a/Översikt KLIPPAN.xlsx
+++ b/Översikt KLIPPAN.xlsx
@@ -575,7 +575,7 @@
         <v>45314</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45960</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>45973</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>45664</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>45581</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
         <v>45919.59901620371</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>45903</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>45235</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45335</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>44633</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1501,14 +1501,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 59769-2025</t>
+          <t>A 37966-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45992</v>
+        <v>45544</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,13 +1520,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H12" t="n">
         <v>2</v>
@@ -1535,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1550,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1560,215 +1555,220 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
+          <t>Större vattensalamander
+Vanlig padda</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 37966-2024 artfynd.xlsx", "A 37966-2024")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 37966-2024 karta.png", "A 37966-2024")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 37966-2024 FSC-klagomål.docx", "A 37966-2024")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 37966-2024 FSC-klagomål mail.docx", "A 37966-2024")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 37966-2024 tillsynsbegäran.docx", "A 37966-2024")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 37966-2024 tillsynsbegäran mail.docx", "A 37966-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 44567-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45917</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Gråkråka
+Grönsiska</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 44567-2025 artfynd.xlsx", "A 44567-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 44567-2025 karta.png", "A 44567-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 44567-2025 FSC-klagomål.docx", "A 44567-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 44567-2025 FSC-klagomål mail.docx", "A 44567-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 44567-2025 tillsynsbegäran.docx", "A 44567-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 44567-2025 tillsynsbegäran mail.docx", "A 44567-2025")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 44567-2025 prioriterade fågelarter.docx", "A 44567-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 59769-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45992</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Entita
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 59769-2025 artfynd.xlsx", "A 59769-2025")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 59769-2025 karta.png", "A 59769-2025")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 59769-2025 FSC-klagomål.docx", "A 59769-2025")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 59769-2025 FSC-klagomål mail.docx", "A 59769-2025")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 59769-2025 tillsynsbegäran.docx", "A 59769-2025")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 59769-2025 tillsynsbegäran mail.docx", "A 59769-2025")</f>
         <v/>
       </c>
-      <c r="Z12">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 59769-2025 prioriterade fågelarter.docx", "A 59769-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 37966-2024</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45544</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Större vattensalamander
-Vanlig padda</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 37966-2024 artfynd.xlsx", "A 37966-2024")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 37966-2024 karta.png", "A 37966-2024")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 37966-2024 FSC-klagomål.docx", "A 37966-2024")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 37966-2024 FSC-klagomål mail.docx", "A 37966-2024")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 37966-2024 tillsynsbegäran.docx", "A 37966-2024")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 37966-2024 tillsynsbegäran mail.docx", "A 37966-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 44567-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45917</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Gråkråka
-Grönsiska</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 44567-2025 artfynd.xlsx", "A 44567-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 44567-2025 karta.png", "A 44567-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 44567-2025 FSC-klagomål.docx", "A 44567-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 44567-2025 FSC-klagomål mail.docx", "A 44567-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 44567-2025 tillsynsbegäran.docx", "A 44567-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 44567-2025 tillsynsbegäran mail.docx", "A 44567-2025")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 44567-2025 prioriterade fågelarter.docx", "A 44567-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45058</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44880</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>44365</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44596</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>45453</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>44365</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>45015</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2381,14 +2381,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 2839-2026</t>
+          <t>A 50089-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>46038</v>
+        <v>45208</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.4</v>
+        <v>13.6</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2439,123 +2439,123 @@
         </is>
       </c>
       <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 50089-2023 artfynd.xlsx", "A 50089-2023")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 50089-2023 karta.png", "A 50089-2023")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 50089-2023 FSC-klagomål.docx", "A 50089-2023")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 50089-2023 FSC-klagomål mail.docx", "A 50089-2023")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 50089-2023 tillsynsbegäran.docx", "A 50089-2023")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 50089-2023 tillsynsbegäran mail.docx", "A 50089-2023")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 50089-2023 prioriterade fågelarter.docx", "A 50089-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 2839-2026</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>46038</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>Entita</t>
+        </is>
+      </c>
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 2839-2026 artfynd.xlsx", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 2839-2026 karta.png", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 2839-2026 FSC-klagomål.docx", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 2839-2026 FSC-klagomål mail.docx", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 2839-2026 tillsynsbegäran.docx", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 2839-2026 tillsynsbegäran mail.docx", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="Z22">
+      <c r="Z23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 2839-2026 prioriterade fågelarter.docx", "A 2839-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 50089-2023</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>45208</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Entita</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 50089-2023 artfynd.xlsx", "A 50089-2023")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 50089-2023 karta.png", "A 50089-2023")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 50089-2023 FSC-klagomål.docx", "A 50089-2023")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 50089-2023 FSC-klagomål mail.docx", "A 50089-2023")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 50089-2023 tillsynsbegäran.docx", "A 50089-2023")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 50089-2023 tillsynsbegäran mail.docx", "A 50089-2023")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 50089-2023 prioriterade fågelarter.docx", "A 50089-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>46000</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>46000</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>45719.44871527778</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44883</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>44287</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>44368.50049768519</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44883</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>44596</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44489.35295138889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>44691.52568287037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44697.63137731481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>44697</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>44531</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>44487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44575</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44621.59760416667</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3603,14 +3603,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 19094-2022</t>
+          <t>A 53582-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44691</v>
+        <v>44875</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3622,8 +3622,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3660,14 +3665,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 53582-2022</t>
+          <t>A 19094-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44875</v>
+        <v>44691</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3679,13 +3684,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>44363</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3779,14 +3779,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 8686-2021</t>
+          <t>A 46692-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44245</v>
+        <v>44445</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3800,11 +3800,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3841,14 +3841,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 46692-2021</t>
+          <t>A 7839-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44445</v>
+        <v>44608</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3862,11 +3862,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3903,14 +3903,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 7839-2022</t>
+          <t>A 2046-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44608</v>
+        <v>44575</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3924,11 +3924,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3965,14 +3965,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 2046-2022</t>
+          <t>A 41272-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44575</v>
+        <v>44825</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3986,11 +3986,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.4</v>
+        <v>6.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4027,14 +4027,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 41272-2022</t>
+          <t>A 32455-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44825</v>
+        <v>44782.541875</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4046,13 +4046,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>6.2</v>
+        <v>0.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4089,14 +4084,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 32455-2022</t>
+          <t>A 41268-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44782.541875</v>
+        <v>44825</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4108,8 +4103,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4146,14 +4146,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 41268-2022</t>
+          <t>A 55415-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44825</v>
+        <v>44882</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4208,14 +4208,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 55415-2022</t>
+          <t>A 54516-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44882</v>
+        <v>44880</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4227,13 +4227,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4270,14 +4265,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 54516-2022</t>
+          <t>A 9046-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44880</v>
+        <v>44246</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4290,7 +4285,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4327,14 +4322,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 9046-2021</t>
+          <t>A 40238-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44246</v>
+        <v>44418</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4346,8 +4341,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4384,14 +4384,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 40238-2021</t>
+          <t>A 9535-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44418</v>
+        <v>44251</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4403,13 +4403,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4446,14 +4441,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 9535-2021</t>
+          <t>A 20690-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44251</v>
+        <v>44700</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4465,8 +4460,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4503,14 +4503,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 8680-2021</t>
+          <t>A 17425-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44245</v>
+        <v>44679.2472337963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4522,13 +4522,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>2.7</v>
+        <v>5.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4565,14 +4560,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 20690-2022</t>
+          <t>A 39056-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44700</v>
+        <v>44816</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4584,13 +4579,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4627,14 +4617,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 17425-2022</t>
+          <t>A 47967-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44679.2472337963</v>
+        <v>44448</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4647,7 +4637,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>5.1</v>
+        <v>0.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4684,14 +4674,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 39056-2022</t>
+          <t>A 17792-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44816</v>
+        <v>44300</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4704,7 +4694,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4741,14 +4731,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 47967-2021</t>
+          <t>A 11105-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44448</v>
+        <v>44259</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4760,8 +4750,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4798,14 +4793,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 17792-2021</t>
+          <t>A 243-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44300</v>
+        <v>45660</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4818,7 +4813,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4855,14 +4850,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 11105-2021</t>
+          <t>A 40173-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44259</v>
+        <v>45554.55435185185</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4876,11 +4871,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4917,14 +4912,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 243-2025</t>
+          <t>A 3198-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45660</v>
+        <v>44944</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4937,7 +4932,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4974,14 +4969,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 53868-2022</t>
+          <t>A 7746-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44880.64693287037</v>
+        <v>45349</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4993,8 +4988,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>7.6</v>
+        <v>1.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5038,7 +5038,7 @@
         <v>45523</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5088,14 +5088,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 25393-2023</t>
+          <t>A 53868-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45079</v>
+        <v>44880.64693287037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.8</v>
+        <v>7.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5145,14 +5145,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 14620-2025</t>
+          <t>A 25393-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45742.41289351852</v>
+        <v>45079</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5202,14 +5202,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 3198-2023</t>
+          <t>A 14620-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44944</v>
+        <v>45742.41289351852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5259,14 +5259,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 37967-2024</t>
+          <t>A 55613-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45544.55668981482</v>
+        <v>44883</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5278,8 +5278,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5316,14 +5321,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 55613-2022</t>
+          <t>A 37967-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44883</v>
+        <v>45544.55668981482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5335,13 +5340,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5378,14 +5378,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 28844-2023</t>
+          <t>A 55696-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45104</v>
+        <v>45972</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         <v>45537.56913194444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5499,7 +5499,7 @@
         <v>45610</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5549,14 +5549,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 593-2023</t>
+          <t>A 22540-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44930.55528935185</v>
+        <v>45788.30451388889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.2</v>
+        <v>4.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5606,14 +5606,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 33331-2024</t>
+          <t>A 33462-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45519</v>
+        <v>45841</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5625,13 +5625,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5668,14 +5663,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 24217-2025</t>
+          <t>A 28844-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45797.35565972222</v>
+        <v>45104</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5688,7 +5683,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5725,14 +5720,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 4623-2024</t>
+          <t>A 24217-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45328</v>
+        <v>45797.35565972222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5745,7 +5740,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5782,14 +5777,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 22540-2025</t>
+          <t>A 27529-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45788.30451388889</v>
+        <v>45813</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5801,8 +5796,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>4.9</v>
+        <v>7.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5839,14 +5839,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 24815-2025</t>
+          <t>A 593-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45799.44935185185</v>
+        <v>44930.55528935185</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.8</v>
+        <v>0.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5896,14 +5896,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 27529-2025</t>
+          <t>A 33331-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45813</v>
+        <v>45519</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5917,11 +5917,11 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>7.9</v>
+        <v>3.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5958,14 +5958,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 44228-2024</t>
+          <t>A 4623-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45573</v>
+        <v>45328</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6015,14 +6015,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 49989-2024</t>
+          <t>A 24815-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45597</v>
+        <v>45799.44935185185</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>6.1</v>
+        <v>3.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6072,14 +6072,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 15070-2024</t>
+          <t>A 44228-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45399.59040509259</v>
+        <v>45573</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6091,13 +6091,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>4.9</v>
+        <v>1.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6134,14 +6129,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 69394-2021</t>
+          <t>A 49989-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44531</v>
+        <v>45597</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6153,13 +6148,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6196,14 +6186,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 30725-2021</t>
+          <t>A 43855-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44365.44506944445</v>
+        <v>44838</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6215,8 +6205,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6253,14 +6248,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 217-2023</t>
+          <t>A 69394-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44928</v>
+        <v>44531</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6272,8 +6267,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>3.6</v>
+        <v>5.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6310,14 +6310,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 38724-2023</t>
+          <t>A 15070-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45163</v>
+        <v>45399.59040509259</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6329,8 +6329,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>3.2</v>
+        <v>4.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6367,14 +6372,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 58642-2021</t>
+          <t>A 30725-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44489.36314814815</v>
+        <v>44365.44506944445</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6387,7 +6392,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6424,14 +6429,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 43855-2022</t>
+          <t>A 217-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44838</v>
+        <v>44928</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6443,13 +6448,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6486,14 +6486,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 5256-2022</t>
+          <t>A 57687-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44593</v>
+        <v>45981.44112268519</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6505,8 +6505,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6543,14 +6548,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 25069-2023</t>
+          <t>A 38724-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45086</v>
+        <v>45163</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6563,7 +6568,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6600,14 +6605,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 27898-2025</t>
+          <t>A 58642-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45817</v>
+        <v>44489.36314814815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6620,7 +6625,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6657,14 +6662,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 59482-2024</t>
+          <t>A 42423-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45638.52831018518</v>
+        <v>45905.41005787037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6676,8 +6681,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6714,14 +6724,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 27010-2023</t>
+          <t>A 42627-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45094.36791666667</v>
+        <v>45905.77766203704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6734,7 +6744,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6771,14 +6781,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 10544-2025</t>
+          <t>A 5256-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45721.48859953704</v>
+        <v>44593</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6791,7 +6801,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6828,14 +6838,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 42423-2025</t>
+          <t>A 34479-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45905.41005787037</v>
+        <v>45847.37570601852</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6847,13 +6857,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>4.9</v>
+        <v>1.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6890,14 +6895,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 18520-2021</t>
+          <t>A 25069-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44305</v>
+        <v>45086</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6909,13 +6914,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6952,14 +6952,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 42627-2025</t>
+          <t>A 27898-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45905.77766203704</v>
+        <v>45817</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7009,14 +7009,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 34479-2025</t>
+          <t>A 59482-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45847.37570601852</v>
+        <v>45638.52831018518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7066,14 +7066,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 18214-2023</t>
+          <t>A 27010-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45040</v>
+        <v>45094.36791666667</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7123,14 +7123,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 4968-2026</t>
+          <t>A 10544-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46049</v>
+        <v>45721.48859953704</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7187,7 +7187,7 @@
         <v>45912.39892361111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7237,14 +7237,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 29284-2025</t>
+          <t>A 18520-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45824</v>
+        <v>44305</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7256,8 +7256,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7294,14 +7299,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 60791-2023</t>
+          <t>A 45096-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45260.65283564815</v>
+        <v>45919.38780092593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7314,7 +7319,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7351,14 +7356,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 62849-2025</t>
+          <t>A 45574-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46008.69979166667</v>
+        <v>45922.65922453703</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7371,7 +7376,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7408,14 +7413,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 45096-2025</t>
+          <t>A 45717-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45919.38780092593</v>
+        <v>45923.44155092593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7428,7 +7433,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.8</v>
+        <v>9.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7465,14 +7470,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 5645-2026</t>
+          <t>A 45886-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46051.42502314815</v>
+        <v>45923.66560185186</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7485,7 +7490,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7522,14 +7527,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 32132-2025</t>
+          <t>A 18214-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45835.50878472222</v>
+        <v>45040</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7542,7 +7547,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7579,14 +7584,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 45574-2025</t>
+          <t>A 46138-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45922.65922453703</v>
+        <v>45924.59914351852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7599,7 +7604,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7636,14 +7641,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 2262-2025</t>
+          <t>A 29284-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45673</v>
+        <v>45824</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7656,7 +7661,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7693,14 +7698,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 23681-2023</t>
+          <t>A 60791-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45077</v>
+        <v>45260.65283564815</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7713,7 +7718,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7750,14 +7755,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 45717-2025</t>
+          <t>A 2262-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45923.44155092593</v>
+        <v>45673</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7770,7 +7775,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>9.1</v>
+        <v>2.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7807,14 +7812,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 4324-2024</t>
+          <t>A 32132-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45324.67409722223</v>
+        <v>45835.50878472222</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7827,7 +7832,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7864,14 +7869,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 45886-2025</t>
+          <t>A 23681-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45923.66560185186</v>
+        <v>45077</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7884,7 +7889,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7921,14 +7926,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 28490-2023</t>
+          <t>A 4324-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45103.44039351852</v>
+        <v>45324.67409722223</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7941,7 +7946,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7978,14 +7983,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 46138-2025</t>
+          <t>A 28490-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45924.59914351852</v>
+        <v>45103.44039351852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7998,7 +8003,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8042,7 +8047,7 @@
         <v>44841</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8099,7 +8104,7 @@
         <v>45419</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8154,14 +8159,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 33450-2025</t>
+          <t>A 7515-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45841.46677083334</v>
+        <v>45702</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8173,8 +8178,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8211,14 +8221,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 33456-2025</t>
+          <t>A 13994-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45841.47364583334</v>
+        <v>45739.73532407408</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8231,7 +8241,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8268,14 +8278,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 7515-2025</t>
+          <t>A 33450-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45702</v>
+        <v>45841.46677083334</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8287,13 +8297,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8330,14 +8335,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 13994-2025</t>
+          <t>A 33456-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45739.73532407408</v>
+        <v>45841.47364583334</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8350,7 +8355,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8387,14 +8392,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 33761-2025</t>
+          <t>A 49394-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45842.38335648148</v>
+        <v>45938.65101851852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8406,8 +8411,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8444,14 +8454,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 33766-2025</t>
+          <t>A 33761-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45842.3869675926</v>
+        <v>45842.38335648148</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8464,7 +8474,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8501,14 +8511,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 6446-2026</t>
+          <t>A 33766-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>46055.85770833334</v>
+        <v>45842.3869675926</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8521,7 +8531,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8558,14 +8568,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 34472-2025</t>
+          <t>A 50163-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45847.35877314815</v>
+        <v>45943.58734953704</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8578,7 +8588,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8622,7 +8632,7 @@
         <v>44817</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8679,7 +8689,7 @@
         <v>45610</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8729,14 +8739,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 11497-2023</t>
+          <t>A 34472-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44991</v>
+        <v>45847.35877314815</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8749,7 +8759,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8786,14 +8796,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 46260-2024</t>
+          <t>A 40105-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45581</v>
+        <v>45894</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8805,13 +8815,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8848,14 +8853,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 5141-2024</t>
+          <t>A 40092-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45330</v>
+        <v>45894</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8868,7 +8873,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8905,14 +8910,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 22120-2025</t>
+          <t>A 11497-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45785.5165625</v>
+        <v>44991</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8925,7 +8930,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8962,14 +8967,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 39244-2022</t>
+          <t>A 46260-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44817.60482638889</v>
+        <v>45581</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8979,6 +8984,11 @@
       <c r="E132" t="inlineStr">
         <is>
           <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -9019,14 +9029,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 49394-2025</t>
+          <t>A 5141-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45938.65101851852</v>
+        <v>45330</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9038,13 +9048,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9081,14 +9086,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 20717-2023</t>
+          <t>A 51396-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45055</v>
+        <v>45950.47131944444</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9138,14 +9143,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 37068-2023</t>
+          <t>A 51946-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45155</v>
+        <v>45951</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9158,7 +9163,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9195,14 +9200,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 40762-2021</t>
+          <t>A 39244-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44420</v>
+        <v>44817.60482638889</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9215,7 +9220,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9252,14 +9257,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 50163-2025</t>
+          <t>A 20717-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45943.58734953704</v>
+        <v>45055</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9272,7 +9277,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9309,14 +9314,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 55588-2021</t>
+          <t>A 51384-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44475</v>
+        <v>45950.46399305556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9329,7 +9334,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9366,14 +9371,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 40105-2025</t>
+          <t>A 37068-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45894</v>
+        <v>45155</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9386,7 +9391,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9423,14 +9428,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 40092-2025</t>
+          <t>A 40762-2021</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45894</v>
+        <v>44420</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9443,7 +9448,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9480,14 +9485,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 50357-2021</t>
+          <t>A 55588-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44455</v>
+        <v>44475</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9500,7 +9505,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9537,14 +9542,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 8204-2021</t>
+          <t>A 22120-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44244</v>
+        <v>45785.5165625</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9557,7 +9562,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9601,7 +9606,7 @@
         <v>45224.58796296296</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9658,7 +9663,7 @@
         <v>45583.32314814815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9708,14 +9713,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 51396-2025</t>
+          <t>A 11857-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45950.47131944444</v>
+        <v>45728.39798611111</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9727,8 +9732,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9765,14 +9775,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 51946-2025</t>
+          <t>A 24333-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45951</v>
+        <v>44726.32643518518</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9785,7 +9795,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9822,14 +9832,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 51384-2025</t>
+          <t>A 50357-2021</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45950.46399305556</v>
+        <v>44455</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9842,7 +9852,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9879,14 +9889,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 63499-2025</t>
+          <t>A 56089-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>46013</v>
+        <v>44477</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9899,7 +9909,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.9</v>
+        <v>20.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9943,7 +9953,7 @@
         <v>45799.44813657407</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9993,14 +10003,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 11857-2025</t>
+          <t>A 54348-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45728.39798611111</v>
+        <v>44882</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10012,13 +10022,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>4.3</v>
+        <v>7.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10055,14 +10060,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 24333-2022</t>
+          <t>A 38156-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44726.32643518518</v>
+        <v>44812.37135416667</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10075,7 +10080,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10112,14 +10117,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 56089-2021</t>
+          <t>A 18516-2021</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44477</v>
+        <v>44305</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10131,8 +10136,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>20.9</v>
+        <v>4.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10169,14 +10179,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 6890-2026</t>
+          <t>A 40710-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>46057.471875</v>
+        <v>45170.63194444445</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10189,7 +10199,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10226,14 +10236,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 6447-2026</t>
+          <t>A 55833-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46055</v>
+        <v>45239</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10246,7 +10256,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10283,14 +10293,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 54348-2022</t>
+          <t>A 59885-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44882</v>
+        <v>45993.32192129629</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10303,7 +10313,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>7.8</v>
+        <v>1.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10340,14 +10350,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 38156-2022</t>
+          <t>A 20128-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44812.37135416667</v>
+        <v>45055</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10360,7 +10370,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10397,14 +10407,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 18516-2021</t>
+          <t>A 2252-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44305</v>
+        <v>45673</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10416,13 +10426,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>4.1</v>
+        <v>0.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10459,14 +10464,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 50781-2025</t>
+          <t>A 2083-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45946</v>
+        <v>45672.58853009259</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10479,7 +10484,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10516,14 +10521,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 2413-2026</t>
+          <t>A 61682-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>46036.73725694444</v>
+        <v>45264</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10536,7 +10541,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10573,14 +10578,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 40710-2023</t>
+          <t>A 11676-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45170.63194444445</v>
+        <v>44992</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10592,8 +10597,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10630,14 +10640,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 53289-2025</t>
+          <t>A 51844-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45958</v>
+        <v>45223</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10650,7 +10660,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10687,14 +10697,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 53290-2025</t>
+          <t>A 42006-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45958</v>
+        <v>45903</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10707,7 +10717,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10744,14 +10754,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 55696-2025</t>
+          <t>A 28847-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45972</v>
+        <v>45104</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10764,7 +10774,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10801,14 +10811,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 55833-2023</t>
+          <t>A 15442-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45239</v>
+        <v>44659.85333333333</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10821,7 +10831,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10858,14 +10868,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 33462-2025</t>
+          <t>A 2755-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45841</v>
+        <v>44944</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10877,8 +10887,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10915,14 +10930,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 61060-2025</t>
+          <t>A 49370-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46000</v>
+        <v>45211</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10934,13 +10949,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10977,14 +10987,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 20128-2023</t>
+          <t>A 28709-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45055</v>
+        <v>45103</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10997,7 +11007,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11034,14 +11044,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 2252-2025</t>
+          <t>A 2806-2026</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45673</v>
+        <v>46038.41621527778</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11054,7 +11064,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.3</v>
+        <v>7.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11091,14 +11101,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 2083-2025</t>
+          <t>A 46728-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45672.58853009259</v>
+        <v>45198</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11111,7 +11121,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11148,14 +11158,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 57687-2025</t>
+          <t>A 15065-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45981.44112268519</v>
+        <v>45399.57625</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11169,11 +11179,11 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.6</v>
+        <v>5.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11210,14 +11220,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 61682-2023</t>
+          <t>A 3498-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45264</v>
+        <v>45320.47233796296</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11230,7 +11240,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11267,14 +11277,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 11676-2023</t>
+          <t>A 41294-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44992</v>
+        <v>44825</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11286,13 +11296,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>6.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11329,14 +11334,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 51844-2023</t>
+          <t>A 39097-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45223</v>
+        <v>45548.56422453704</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11349,7 +11354,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11386,14 +11391,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 28847-2023</t>
+          <t>A 8712-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45104</v>
+        <v>44978.3975462963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11406,7 +11411,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11443,14 +11448,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 15442-2022</t>
+          <t>A 49073-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44659.85333333333</v>
+        <v>45594.61548611111</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11463,7 +11468,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11500,14 +11505,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 2755-2023</t>
+          <t>A 4968-2026</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44944</v>
+        <v>46049</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11519,13 +11524,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11562,14 +11562,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 49370-2023</t>
+          <t>A 7661-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45211</v>
+        <v>45706</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11619,14 +11619,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 28709-2023</t>
+          <t>A 3183-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45103</v>
+        <v>44944</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>5</v>
+        <v>6.9</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11676,14 +11676,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 317-2026</t>
+          <t>A 48965-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46027.56958333333</v>
+        <v>45209</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11733,14 +11733,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 46728-2023</t>
+          <t>A 9270-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45198</v>
+        <v>44616</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11790,14 +11790,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 15065-2024</t>
+          <t>A 36842-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45399.57625</v>
+        <v>45538</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11811,11 +11811,11 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11852,14 +11852,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 3498-2024</t>
+          <t>A 62849-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45320.47233796296</v>
+        <v>46008.69979166667</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11909,14 +11909,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 41294-2022</t>
+          <t>A 5645-2026</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44825</v>
+        <v>46051.42502314815</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>6.1</v>
+        <v>1.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11966,14 +11966,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 39097-2024</t>
+          <t>A 5523-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45548.56422453704</v>
+        <v>44593</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12023,14 +12023,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 8712-2023</t>
+          <t>A 17060-2021</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44978.3975462963</v>
+        <v>44296.63025462963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12080,14 +12080,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 59885-2025</t>
+          <t>A 6446-2026</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45993.32192129629</v>
+        <v>46055.85770833334</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12137,14 +12137,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 49073-2024</t>
+          <t>A 4321-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45594.61548611111</v>
+        <v>45324.66635416666</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12194,14 +12194,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 7661-2025</t>
+          <t>A 62473-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45706</v>
+        <v>45267</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12213,8 +12213,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12251,14 +12256,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 3183-2023</t>
+          <t>A 8500-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44944</v>
+        <v>44977</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12271,7 +12276,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>6.9</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12308,14 +12313,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 48965-2023</t>
+          <t>A 63499-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45209</v>
+        <v>46013</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12328,7 +12333,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12365,14 +12370,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 9270-2022</t>
+          <t>A 6890-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44616</v>
+        <v>46057.471875</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12385,7 +12390,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12422,14 +12427,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 42006-2025</t>
+          <t>A 6447-2026</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45903</v>
+        <v>46055</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12442,7 +12447,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12479,14 +12484,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 36842-2024</t>
+          <t>A 55291-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45538</v>
+        <v>45237</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12498,13 +12503,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12541,14 +12541,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 2806-2026</t>
+          <t>A 69041-2021</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46038.41621527778</v>
+        <v>44529</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12561,7 +12561,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>7.9</v>
+        <v>0.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12598,14 +12598,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 5523-2022</t>
+          <t>A 50781-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44593</v>
+        <v>45946</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12618,7 +12618,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12655,14 +12655,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 17060-2021</t>
+          <t>A 2413-2026</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44296.63025462963</v>
+        <v>46036.73725694444</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>4.6</v>
+        <v>8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12712,14 +12712,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 4321-2024</t>
+          <t>A 53289-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45324.66635416666</v>
+        <v>45958</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12769,14 +12769,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 62473-2023</t>
+          <t>A 61060-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45267</v>
+        <v>46000</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12790,11 +12790,11 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12831,14 +12831,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 8500-2023</t>
+          <t>A 317-2026</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44977</v>
+        <v>46027.56958333333</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12888,14 +12888,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 55291-2023</t>
+          <t>A 23260-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45237</v>
+        <v>45075.87199074074</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12945,14 +12945,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 69041-2021</t>
+          <t>A 55586-2021</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44529</v>
+        <v>44475.88427083333</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13002,14 +13002,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 23260-2023</t>
+          <t>A 15810-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45075.87199074074</v>
+        <v>45404</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13021,8 +13021,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13059,14 +13064,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 55586-2021</t>
+          <t>A 9497-2026</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44475.88427083333</v>
+        <v>46071.56422453704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13079,7 +13084,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13116,14 +13121,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 15810-2024</t>
+          <t>A 19097-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45404</v>
+        <v>45767.68126157407</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13135,13 +13140,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13178,14 +13178,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 19097-2025</t>
+          <t>A 10695-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45767.68126157407</v>
+        <v>44988</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13235,14 +13235,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 10695-2023</t>
+          <t>A 9166-2026</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44988</v>
+        <v>46070.35927083333</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13292,14 +13292,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 44885-2022</t>
+          <t>A 53290-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44841</v>
+        <v>45958</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13349,14 +13349,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 14614-2023</t>
+          <t>A 44885-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45013</v>
+        <v>44841</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>5.1</v>
+        <v>1.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13406,14 +13406,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 8017-2022</t>
+          <t>A 9488-2026</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44609.39615740741</v>
+        <v>46071.55105324074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13463,14 +13463,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 13995-2025</t>
+          <t>A 14614-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45739.74271990741</v>
+        <v>45013</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.9</v>
+        <v>5.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13520,14 +13520,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 42275-2024</t>
+          <t>A 8017-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45562.60690972222</v>
+        <v>44609.39615740741</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13539,13 +13539,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13582,14 +13577,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 42303-2024</t>
+          <t>A 13995-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45562.6322337963</v>
+        <v>45739.74271990741</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13601,13 +13596,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13644,14 +13634,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 24034-2023</t>
+          <t>A 42275-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45078.86898148148</v>
+        <v>45562.60690972222</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13663,8 +13653,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13701,14 +13696,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 5196-2022</t>
+          <t>A 42303-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44593</v>
+        <v>45562.6322337963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13720,8 +13715,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>5.6</v>
+        <v>3.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13758,14 +13758,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 52838-2024</t>
+          <t>A 24034-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45610</v>
+        <v>45078.86898148148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13815,14 +13815,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 45641-2022</t>
+          <t>A 5196-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44845</v>
+        <v>44593</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13872,14 +13872,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 21636-2024</t>
+          <t>A 52838-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45442</v>
+        <v>45610</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>6.3</v>
+        <v>1.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13929,14 +13929,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 60783-2023</t>
+          <t>A 45641-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45260.6441087963</v>
+        <v>44845</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13986,14 +13986,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 14619-2023</t>
+          <t>A 21636-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45013</v>
+        <v>45442</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.6</v>
+        <v>6.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14043,14 +14043,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 27454-2024</t>
+          <t>A 60783-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45474</v>
+        <v>45260.6441087963</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14100,14 +14100,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 11335-2023</t>
+          <t>A 14619-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44993</v>
+        <v>45013</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14157,14 +14157,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 13363-2023</t>
+          <t>A 27454-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45005</v>
+        <v>45474</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14176,13 +14176,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14219,14 +14214,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 5151-2022</t>
+          <t>A 11335-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44593</v>
+        <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14239,7 +14234,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>6.5</v>
+        <v>1.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14276,14 +14271,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 23741-2023</t>
+          <t>A 13363-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45077.77087962963</v>
+        <v>45005</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14295,8 +14290,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14333,14 +14333,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 46147-2022</t>
+          <t>A 5151-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44846</v>
+        <v>44593</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14353,7 +14353,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14390,14 +14390,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 47870-2022</t>
+          <t>A 23741-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44855.43302083333</v>
+        <v>45077.77087962963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14410,7 +14410,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14447,14 +14447,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 27813-2023</t>
+          <t>A 46147-2022</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45098</v>
+        <v>44846</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.3</v>
+        <v>5.7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14504,14 +14504,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 58387-2022</t>
+          <t>A 47870-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44901</v>
+        <v>44855.43302083333</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14523,13 +14523,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14566,14 +14561,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 27452-2024</t>
+          <t>A 27813-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45474</v>
+        <v>45098</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14586,7 +14581,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14623,14 +14618,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 45596-2024</t>
+          <t>A 58387-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45579</v>
+        <v>44901</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14642,8 +14637,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G230" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14680,14 +14680,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 38323-2023</t>
+          <t>A 27452-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45161</v>
+        <v>45474</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14737,14 +14737,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 38325-2023</t>
+          <t>A 45596-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45161</v>
+        <v>45579</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14794,14 +14794,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 21654-2024</t>
+          <t>A 38323-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45442</v>
+        <v>45161</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>7.2</v>
+        <v>3.7</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14851,14 +14851,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 1280-2023</t>
+          <t>A 38325-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44936</v>
+        <v>45161</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14908,14 +14908,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 20591-2023</t>
+          <t>A 21654-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45055</v>
+        <v>45442</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14965,14 +14965,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 52877-2022</t>
+          <t>A 1280-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44875.53217592592</v>
+        <v>44936</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15022,14 +15022,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 31893-2021</t>
+          <t>A 20591-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44370.45880787037</v>
+        <v>45055</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15079,14 +15079,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 11705-2023</t>
+          <t>A 52877-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44992</v>
+        <v>44875.53217592592</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15136,14 +15136,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 27538-2021</t>
+          <t>A 31893-2021</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44351.67984953704</v>
+        <v>44370.45880787037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15193,14 +15193,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 64224-2023</t>
+          <t>A 11705-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45279</v>
+        <v>44992</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15250,14 +15250,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 20002-2022</t>
+          <t>A 27538-2021</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44697.62150462963</v>
+        <v>44351.67984953704</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15307,14 +15307,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 47856-2024</t>
+          <t>A 64224-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45588.6680324074</v>
+        <v>45279</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15364,14 +15364,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 49686-2023</t>
+          <t>A 20002-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45212.36239583333</v>
+        <v>44697.62150462963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15421,14 +15421,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 68856-2021</t>
+          <t>A 47856-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44530</v>
+        <v>45588.6680324074</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15478,14 +15478,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 46835-2023</t>
+          <t>A 49686-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45199</v>
+        <v>45212.36239583333</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15498,7 +15498,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15535,14 +15535,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 5557-2022</t>
+          <t>A 68856-2021</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44593</v>
+        <v>44530</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15592,14 +15592,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 46253-2024</t>
+          <t>A 46835-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45581</v>
+        <v>45199</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15611,13 +15611,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G247" t="n">
-        <v>9.300000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15654,14 +15649,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 39530-2023</t>
+          <t>A 5557-2022</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45167.34055555556</v>
+        <v>44593</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15674,7 +15669,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15711,14 +15706,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 22976-2023</t>
+          <t>A 46253-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45072</v>
+        <v>45581</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15730,8 +15725,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G249" t="n">
-        <v>3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15768,14 +15768,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 23978-2022</t>
+          <t>A 39530-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44722</v>
+        <v>45167.34055555556</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>9.699999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15825,14 +15825,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 15812-2024</t>
+          <t>A 22976-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45404.6669212963</v>
+        <v>45072</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15844,13 +15844,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G251" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15887,14 +15882,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 38945-2023</t>
+          <t>A 23978-2022</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45163.60909722222</v>
+        <v>44722</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15907,7 +15902,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15944,14 +15939,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 55587-2021</t>
+          <t>A 15812-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44475</v>
+        <v>45404.6669212963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15963,8 +15958,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G253" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16001,14 +16001,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 23874-2022</t>
+          <t>A 38945-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44722</v>
+        <v>45163.60909722222</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>7.8</v>
+        <v>0.9</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16058,14 +16058,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 9142-2025</t>
+          <t>A 55587-2021</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45714.31886574074</v>
+        <v>44475</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16115,14 +16115,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 30292-2021</t>
+          <t>A 23874-2022</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44364.33482638889</v>
+        <v>44722</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.8</v>
+        <v>7.8</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16172,14 +16172,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 28247-2023</t>
+          <t>A 9142-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45099</v>
+        <v>45714.31886574074</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16229,14 +16229,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 56759-2023</t>
+          <t>A 30292-2021</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45238</v>
+        <v>44364.33482638889</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>7.4</v>
+        <v>1.8</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16286,14 +16286,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 4301-2024</t>
+          <t>A 28247-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45324</v>
+        <v>45099</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16305,13 +16305,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G259" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16348,14 +16343,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 22202-2023</t>
+          <t>A 56759-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45069</v>
+        <v>45238</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16368,7 +16363,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16405,14 +16400,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 20012-2022</t>
+          <t>A 4301-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44697</v>
+        <v>45324</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16424,8 +16419,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G261" t="n">
-        <v>17.2</v>
+        <v>0.5</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16462,14 +16462,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 16418-2025</t>
+          <t>A 22202-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45751.46372685185</v>
+        <v>45069</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>0.8</v>
+        <v>7.5</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16519,14 +16519,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 30852-2021</t>
+          <t>A 20012-2022</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44365</v>
+        <v>44697</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.6</v>
+        <v>17.2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16576,14 +16576,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 63720-2023</t>
+          <t>A 16418-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45275</v>
+        <v>45751.46372685185</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16633,14 +16633,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 14278-2024</t>
+          <t>A 30852-2021</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45393.60961805555</v>
+        <v>44365</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16690,14 +16690,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 47869-2022</t>
+          <t>A 63720-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44855.43141203704</v>
+        <v>45275</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16747,14 +16747,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 6615-2024</t>
+          <t>A 14278-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45341</v>
+        <v>45393.60961805555</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16804,14 +16804,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 24647-2023</t>
+          <t>A 47869-2022</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45084</v>
+        <v>44855.43141203704</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16823,13 +16823,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G268" t="n">
-        <v>11.6</v>
+        <v>2.4</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16866,14 +16861,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 13420-2023</t>
+          <t>A 6615-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45005</v>
+        <v>45341</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16885,13 +16880,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G269" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16928,14 +16918,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 42281-2024</t>
+          <t>A 24647-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45562.6105787037</v>
+        <v>45084</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16949,11 +16939,11 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.6</v>
+        <v>11.6</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16990,14 +16980,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 42284-2024</t>
+          <t>A 13420-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45562</v>
+        <v>45005</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17011,11 +17001,11 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17052,14 +17042,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 3489-2024</t>
+          <t>A 42281-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45320</v>
+        <v>45562.6105787037</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17071,8 +17061,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G272" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17109,14 +17104,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 30738-2021</t>
+          <t>A 42284-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44365.45446759259</v>
+        <v>45562</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17128,8 +17123,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G273" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17166,14 +17166,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 16399-2025</t>
+          <t>A 3489-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45751</v>
+        <v>45320</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17223,14 +17223,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 51276-2024</t>
+          <t>A 30738-2021</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45603</v>
+        <v>44365.45446759259</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17280,14 +17280,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 40173-2024</t>
+          <t>A 16399-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45554.55435185185</v>
+        <v>45751</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17299,13 +17299,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G276" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17342,14 +17337,14 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 7746-2024</t>
+          <t>A 51276-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45349</v>
+        <v>45603</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17361,13 +17356,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G277" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>

--- a/Översikt KLIPPAN.xlsx
+++ b/Översikt KLIPPAN.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z277"/>
+  <dimension ref="A1:Z276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45314</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45960</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>45973</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>45664</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,14 +952,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 46256-2024</t>
+          <t>A 54644-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45581</v>
+        <v>45235</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -971,19 +971,14 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>8.1</v>
       </c>
       <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -1010,325 +1005,330 @@
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Havstulpanlav
+Skogsduva</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 54644-2023 artfynd.xlsx", "A 54644-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 54644-2023 karta.png", "A 54644-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 54644-2023 FSC-klagomål.docx", "A 54644-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 54644-2023 FSC-klagomål mail.docx", "A 54644-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 54644-2023 tillsynsbegäran.docx", "A 54644-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 54644-2023 tillsynsbegäran mail.docx", "A 54644-2023")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 54644-2023 prioriterade fågelarter.docx", "A 54644-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 45242-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45919.59901620371</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 45242-2025 artfynd.xlsx", "A 45242-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 45242-2025 karta.png", "A 45242-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 45242-2025 FSC-klagomål.docx", "A 45242-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 45242-2025 FSC-klagomål mail.docx", "A 45242-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 45242-2025 tillsynsbegäran.docx", "A 45242-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 45242-2025 tillsynsbegäran mail.docx", "A 45242-2025")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 45242-2025 prioriterade fågelarter.docx", "A 45242-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 42004-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45903</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Gröngöling
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 42004-2025 artfynd.xlsx", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 42004-2025 karta.png", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 42004-2025 FSC-klagomål.docx", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 42004-2025 FSC-klagomål mail.docx", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 42004-2025 tillsynsbegäran.docx", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 42004-2025 tillsynsbegäran mail.docx", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 42004-2025 prioriterade fågelarter.docx", "A 42004-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 46256-2024</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45581</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Rostfläck
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 46256-2024 artfynd.xlsx", "A 46256-2024")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 46256-2024 karta.png", "A 46256-2024")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 46256-2024 FSC-klagomål.docx", "A 46256-2024")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 46256-2024 FSC-klagomål mail.docx", "A 46256-2024")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 46256-2024 tillsynsbegäran.docx", "A 46256-2024")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 46256-2024 tillsynsbegäran mail.docx", "A 46256-2024")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 46256-2024 prioriterade fågelarter.docx", "A 46256-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 45242-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45919.59901620371</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 45242-2025 artfynd.xlsx", "A 45242-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 45242-2025 karta.png", "A 45242-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 45242-2025 FSC-klagomål.docx", "A 45242-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 45242-2025 FSC-klagomål mail.docx", "A 45242-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 45242-2025 tillsynsbegäran.docx", "A 45242-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 45242-2025 tillsynsbegäran mail.docx", "A 45242-2025")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 45242-2025 prioriterade fågelarter.docx", "A 45242-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 42004-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45903</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Gröngöling
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 42004-2025 artfynd.xlsx", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 42004-2025 karta.png", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 42004-2025 FSC-klagomål.docx", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 42004-2025 FSC-klagomål mail.docx", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 42004-2025 tillsynsbegäran.docx", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 42004-2025 tillsynsbegäran mail.docx", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 42004-2025 prioriterade fågelarter.docx", "A 42004-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 54644-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45235</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Havstulpanlav
-Skogsduva</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 54644-2023 artfynd.xlsx", "A 54644-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 54644-2023 karta.png", "A 54644-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 54644-2023 FSC-klagomål.docx", "A 54644-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 54644-2023 FSC-klagomål mail.docx", "A 54644-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 54644-2023 tillsynsbegäran.docx", "A 54644-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 54644-2023 tillsynsbegäran mail.docx", "A 54644-2023")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 54644-2023 prioriterade fågelarter.docx", "A 54644-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 5797-2024</t>
+          <t>A 37966-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45335</v>
+        <v>45544</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1375,50 +1375,46 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Entita
-Gröngöling</t>
+          <t>Större vattensalamander
+Vanlig padda</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 5797-2024 artfynd.xlsx", "A 5797-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 37966-2024 artfynd.xlsx", "A 37966-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 5797-2024 karta.png", "A 5797-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 37966-2024 karta.png", "A 37966-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 5797-2024 FSC-klagomål.docx", "A 5797-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 37966-2024 FSC-klagomål.docx", "A 37966-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 5797-2024 FSC-klagomål mail.docx", "A 5797-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 37966-2024 FSC-klagomål mail.docx", "A 37966-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 5797-2024 tillsynsbegäran.docx", "A 5797-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 37966-2024 tillsynsbegäran.docx", "A 37966-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 5797-2024 tillsynsbegäran mail.docx", "A 5797-2024")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 5797-2024 prioriterade fågelarter.docx", "A 5797-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 37966-2024 tillsynsbegäran mail.docx", "A 37966-2024")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 11673-2022</t>
+          <t>A 44567-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44633</v>
+        <v>45917</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1431,7 +1427,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>17.3</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
@@ -1440,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1455,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1465,310 +1461,314 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Gråkråka
+Grönsiska</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 44567-2025 artfynd.xlsx", "A 44567-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 44567-2025 karta.png", "A 44567-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 44567-2025 FSC-klagomål.docx", "A 44567-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 44567-2025 FSC-klagomål mail.docx", "A 44567-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 44567-2025 tillsynsbegäran.docx", "A 44567-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 44567-2025 tillsynsbegäran mail.docx", "A 44567-2025")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 44567-2025 prioriterade fågelarter.docx", "A 44567-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 53878-2022</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>44880</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Gulsparv</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 53878-2022 artfynd.xlsx", "A 53878-2022")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 53878-2022 karta.png", "A 53878-2022")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 53878-2022 FSC-klagomål.docx", "A 53878-2022")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 53878-2022 FSC-klagomål mail.docx", "A 53878-2022")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 53878-2022 tillsynsbegäran.docx", "A 53878-2022")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 53878-2022 tillsynsbegäran mail.docx", "A 53878-2022")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 53878-2022 prioriterade fågelarter.docx", "A 53878-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 59769-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45992</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 59769-2025 artfynd.xlsx", "A 59769-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 59769-2025 karta.png", "A 59769-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 59769-2025 FSC-klagomål.docx", "A 59769-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 59769-2025 FSC-klagomål mail.docx", "A 59769-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 59769-2025 tillsynsbegäran.docx", "A 59769-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 59769-2025 tillsynsbegäran mail.docx", "A 59769-2025")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 59769-2025 prioriterade fågelarter.docx", "A 59769-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 11673-2022</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>44633</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Talltita
 Vanlig groda</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 11673-2022 artfynd.xlsx", "A 11673-2022")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 11673-2022 karta.png", "A 11673-2022")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 11673-2022 FSC-klagomål.docx", "A 11673-2022")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 11673-2022 FSC-klagomål mail.docx", "A 11673-2022")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 11673-2022 tillsynsbegäran.docx", "A 11673-2022")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 11673-2022 tillsynsbegäran mail.docx", "A 11673-2022")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 11673-2022 prioriterade fågelarter.docx", "A 11673-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 37966-2024</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45544</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Större vattensalamander
-Vanlig padda</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 37966-2024 artfynd.xlsx", "A 37966-2024")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 37966-2024 karta.png", "A 37966-2024")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 37966-2024 FSC-klagomål.docx", "A 37966-2024")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 37966-2024 FSC-klagomål mail.docx", "A 37966-2024")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 37966-2024 tillsynsbegäran.docx", "A 37966-2024")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 37966-2024 tillsynsbegäran mail.docx", "A 37966-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 44567-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45917</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Gråkråka
-Grönsiska</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 44567-2025 artfynd.xlsx", "A 44567-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 44567-2025 karta.png", "A 44567-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 44567-2025 FSC-klagomål.docx", "A 44567-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 44567-2025 FSC-klagomål mail.docx", "A 44567-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 44567-2025 tillsynsbegäran.docx", "A 44567-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 44567-2025 tillsynsbegäran mail.docx", "A 44567-2025")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 44567-2025 prioriterade fågelarter.docx", "A 44567-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 59769-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45992</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 59769-2025 artfynd.xlsx", "A 59769-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 59769-2025 karta.png", "A 59769-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 59769-2025 FSC-klagomål.docx", "A 59769-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 59769-2025 FSC-klagomål mail.docx", "A 59769-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 59769-2025 tillsynsbegäran.docx", "A 59769-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 59769-2025 tillsynsbegäran mail.docx", "A 59769-2025")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 59769-2025 prioriterade fågelarter.docx", "A 59769-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>45058</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1858,14 +1858,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 53878-2022</t>
+          <t>A 5797-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44880</v>
+        <v>45335</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>8.300000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="H16" t="n">
         <v>2</v>
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1913,35 +1913,35 @@
       <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Entita
-Gulsparv</t>
+Gröngöling</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 53878-2022 artfynd.xlsx", "A 53878-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 5797-2024 artfynd.xlsx", "A 5797-2024")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 53878-2022 karta.png", "A 53878-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 5797-2024 karta.png", "A 5797-2024")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 53878-2022 FSC-klagomål.docx", "A 53878-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 5797-2024 FSC-klagomål.docx", "A 5797-2024")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 53878-2022 FSC-klagomål mail.docx", "A 53878-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 5797-2024 FSC-klagomål mail.docx", "A 5797-2024")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 53878-2022 tillsynsbegäran.docx", "A 53878-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 5797-2024 tillsynsbegäran.docx", "A 5797-2024")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 53878-2022 tillsynsbegäran mail.docx", "A 53878-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 5797-2024 tillsynsbegäran mail.docx", "A 5797-2024")</f>
         <v/>
       </c>
       <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 53878-2022 prioriterade fågelarter.docx", "A 53878-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 5797-2024 prioriterade fågelarter.docx", "A 5797-2024")</f>
         <v/>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
         <v>44365</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44596</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2122,14 +2122,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 23403-2024</t>
+          <t>A 50089-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45453</v>
+        <v>45208</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2142,10 +2142,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>9.1</v>
+        <v>13.6</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2176,45 +2176,49 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Vårstarr</t>
+          <t>Entita</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 23403-2024 artfynd.xlsx", "A 23403-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 50089-2023 artfynd.xlsx", "A 50089-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 23403-2024 karta.png", "A 23403-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 50089-2023 karta.png", "A 50089-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 23403-2024 FSC-klagomål.docx", "A 23403-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 50089-2023 FSC-klagomål.docx", "A 50089-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 23403-2024 FSC-klagomål mail.docx", "A 23403-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 50089-2023 FSC-klagomål mail.docx", "A 50089-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 23403-2024 tillsynsbegäran.docx", "A 23403-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 50089-2023 tillsynsbegäran.docx", "A 50089-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 23403-2024 tillsynsbegäran mail.docx", "A 23403-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 50089-2023 tillsynsbegäran mail.docx", "A 50089-2023")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 50089-2023 prioriterade fågelarter.docx", "A 50089-2023")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 30721-2021</t>
+          <t>A 14892-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44365</v>
+        <v>45015</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2227,17 +2231,17 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
@@ -2251,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2261,45 +2265,49 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 30721-2021 artfynd.xlsx", "A 30721-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 14892-2023 artfynd.xlsx", "A 14892-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 30721-2021 karta.png", "A 30721-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 14892-2023 karta.png", "A 14892-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 30721-2021 FSC-klagomål.docx", "A 30721-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 14892-2023 FSC-klagomål.docx", "A 14892-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 30721-2021 FSC-klagomål mail.docx", "A 30721-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 14892-2023 FSC-klagomål mail.docx", "A 14892-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 30721-2021 tillsynsbegäran.docx", "A 30721-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 14892-2023 tillsynsbegäran.docx", "A 14892-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 30721-2021 tillsynsbegäran mail.docx", "A 30721-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 14892-2023 tillsynsbegäran mail.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 14892-2023 prioriterade fågelarter.docx", "A 14892-2023")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 14892-2023</t>
+          <t>A 61058-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45015</v>
+        <v>46000</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2311,8 +2319,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2321,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2336,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2346,49 +2359,49 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 14892-2023 artfynd.xlsx", "A 14892-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 61058-2025 artfynd.xlsx", "A 61058-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 14892-2023 karta.png", "A 14892-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 61058-2025 karta.png", "A 61058-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 14892-2023 FSC-klagomål.docx", "A 14892-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 61058-2025 FSC-klagomål.docx", "A 61058-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 14892-2023 FSC-klagomål mail.docx", "A 14892-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 61058-2025 FSC-klagomål mail.docx", "A 61058-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 14892-2023 tillsynsbegäran.docx", "A 14892-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 61058-2025 tillsynsbegäran.docx", "A 61058-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 14892-2023 tillsynsbegäran mail.docx", "A 14892-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 61058-2025 tillsynsbegäran mail.docx", "A 61058-2025")</f>
         <v/>
       </c>
       <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 14892-2023 prioriterade fågelarter.docx", "A 14892-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 61058-2025 prioriterade fågelarter.docx", "A 61058-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 50089-2023</t>
+          <t>A 61049-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45208</v>
+        <v>46000</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2400,8 +2413,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>13.6</v>
+        <v>3.6</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2435,35 +2453,35 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Entita</t>
+          <t>Mindre hackspett</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 50089-2023 artfynd.xlsx", "A 50089-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 61049-2025 artfynd.xlsx", "A 61049-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 50089-2023 karta.png", "A 50089-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 61049-2025 karta.png", "A 61049-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 50089-2023 FSC-klagomål.docx", "A 50089-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 61049-2025 FSC-klagomål.docx", "A 61049-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 50089-2023 FSC-klagomål mail.docx", "A 50089-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 61049-2025 FSC-klagomål mail.docx", "A 61049-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 50089-2023 tillsynsbegäran.docx", "A 50089-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 61049-2025 tillsynsbegäran.docx", "A 61049-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 50089-2023 tillsynsbegäran mail.docx", "A 50089-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 61049-2025 tillsynsbegäran mail.docx", "A 61049-2025")</f>
         <v/>
       </c>
       <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 50089-2023 prioriterade fågelarter.docx", "A 50089-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 61049-2025 prioriterade fågelarter.docx", "A 61049-2025")</f>
         <v/>
       </c>
     </row>
@@ -2477,7 +2495,7 @@
         <v>46038</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2559,14 +2577,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 61049-2025</t>
+          <t>A 10000-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>46000</v>
+        <v>45719.44871527778</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2578,22 +2596,17 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2608,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2618,49 +2631,45 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Dvärghäxört</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 61049-2025 artfynd.xlsx", "A 61049-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 10000-2025 artfynd.xlsx", "A 10000-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 61049-2025 karta.png", "A 61049-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 10000-2025 karta.png", "A 10000-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 61049-2025 FSC-klagomål.docx", "A 61049-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 10000-2025 FSC-klagomål.docx", "A 10000-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 61049-2025 FSC-klagomål mail.docx", "A 61049-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 10000-2025 FSC-klagomål mail.docx", "A 10000-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 61049-2025 tillsynsbegäran.docx", "A 61049-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 10000-2025 tillsynsbegäran.docx", "A 10000-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 61049-2025 tillsynsbegäran mail.docx", "A 61049-2025")</f>
-        <v/>
-      </c>
-      <c r="Z24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 61049-2025 prioriterade fågelarter.docx", "A 61049-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 10000-2025 tillsynsbegäran mail.docx", "A 10000-2025")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 61058-2025</t>
+          <t>A 23403-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>46000</v>
+        <v>45453</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2672,23 +2681,18 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>0.8</v>
+        <v>9.1</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
@@ -2702,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2712,49 +2716,45 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Vårstarr</t>
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 61058-2025 artfynd.xlsx", "A 61058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 23403-2024 artfynd.xlsx", "A 23403-2024")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 61058-2025 karta.png", "A 61058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 23403-2024 karta.png", "A 23403-2024")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 61058-2025 FSC-klagomål.docx", "A 61058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 23403-2024 FSC-klagomål.docx", "A 23403-2024")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 61058-2025 FSC-klagomål mail.docx", "A 61058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 23403-2024 FSC-klagomål mail.docx", "A 23403-2024")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 61058-2025 tillsynsbegäran.docx", "A 61058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 23403-2024 tillsynsbegäran.docx", "A 23403-2024")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 61058-2025 tillsynsbegäran mail.docx", "A 61058-2025")</f>
-        <v/>
-      </c>
-      <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 61058-2025 prioriterade fågelarter.docx", "A 61058-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 23403-2024 tillsynsbegäran mail.docx", "A 23403-2024")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 10000-2025</t>
+          <t>A 30721-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45719.44871527778</v>
+        <v>44365</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2801,31 +2801,31 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>Dvärghäxört</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 10000-2025 artfynd.xlsx", "A 10000-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 30721-2021 artfynd.xlsx", "A 30721-2021")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 10000-2025 karta.png", "A 10000-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 30721-2021 karta.png", "A 30721-2021")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 10000-2025 FSC-klagomål.docx", "A 10000-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 30721-2021 FSC-klagomål.docx", "A 30721-2021")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 10000-2025 FSC-klagomål mail.docx", "A 10000-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 30721-2021 FSC-klagomål mail.docx", "A 30721-2021")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 10000-2025 tillsynsbegäran.docx", "A 10000-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 30721-2021 tillsynsbegäran.docx", "A 30721-2021")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 10000-2025 tillsynsbegäran mail.docx", "A 10000-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 30721-2021 tillsynsbegäran mail.docx", "A 30721-2021")</f>
         <v/>
       </c>
     </row>
@@ -2839,7 +2839,7 @@
         <v>44883</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>44287</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>44368.50049768519</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44883</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>44596</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44489.35295138889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>44691.52568287037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44697.63137731481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>44697</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>44531</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>44487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44575</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         <v>44621.59760416667</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>44875</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         <v>44691</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>44363</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>44445</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>44608</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44575</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44825</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44782.541875</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>44825</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>44882</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>44880</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4265,14 +4265,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 9046-2021</t>
+          <t>A 40238-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44246</v>
+        <v>44418</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4284,8 +4284,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4322,14 +4327,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 40238-2021</t>
+          <t>A 9535-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44418</v>
+        <v>44251</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4341,13 +4346,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4384,14 +4384,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 9535-2021</t>
+          <t>A 20690-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44251</v>
+        <v>44700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4403,8 +4403,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4441,14 +4446,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 20690-2022</t>
+          <t>A 17425-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44700</v>
+        <v>44679.2472337963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4460,13 +4465,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>0.9</v>
+        <v>5.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4503,14 +4503,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 17425-2022</t>
+          <t>A 39056-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44679.2472337963</v>
+        <v>44816</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>5.1</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4560,14 +4560,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 39056-2022</t>
+          <t>A 17060-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44816</v>
+        <v>44296.63025462963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4617,14 +4617,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 47967-2021</t>
+          <t>A 6615-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44448</v>
+        <v>45341</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4674,14 +4674,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 17792-2021</t>
+          <t>A 9142-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44300</v>
+        <v>45714.31886574074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4731,14 +4731,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 11105-2021</t>
+          <t>A 14620-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44259</v>
+        <v>45742.41289351852</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4750,13 +4750,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4793,14 +4788,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 243-2025</t>
+          <t>A 22976-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45660</v>
+        <v>45072</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4813,7 +4808,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4850,14 +4845,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 40173-2024</t>
+          <t>A 61682-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45554.55435185185</v>
+        <v>45264</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4869,13 +4864,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4912,14 +4902,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 3198-2023</t>
+          <t>A 4321-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44944</v>
+        <v>45324.66635416666</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4932,7 +4922,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4969,14 +4959,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 7746-2024</t>
+          <t>A 4301-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45349</v>
+        <v>45324</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4994,7 +4984,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5031,14 +5021,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 34051-2024</t>
+          <t>A 17792-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45523</v>
+        <v>44300</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5051,7 +5041,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5088,14 +5078,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 53868-2022</t>
+          <t>A 17856-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44880.64693287037</v>
+        <v>45419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5107,8 +5097,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>7.6</v>
+        <v>3.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5145,14 +5140,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 25393-2023</t>
+          <t>A 16399-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45079</v>
+        <v>45751</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5165,7 +5160,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5202,14 +5197,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 14620-2025</t>
+          <t>A 51276-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45742.41289351852</v>
+        <v>45603</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5222,7 +5217,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5259,14 +5254,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 55613-2022</t>
+          <t>A 47869-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44883</v>
+        <v>44855.43141203704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5278,13 +5273,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5321,14 +5311,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 37967-2024</t>
+          <t>A 49394-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45544.55668981482</v>
+        <v>45938.65101851852</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5340,8 +5330,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5378,14 +5373,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 55696-2025</t>
+          <t>A 52851-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45972</v>
+        <v>45610</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5398,7 +5393,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5435,14 +5430,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 36606-2024</t>
+          <t>A 55833-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45537.56913194444</v>
+        <v>45239</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5455,7 +5450,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5492,14 +5487,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 52851-2024</t>
+          <t>A 38156-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45610</v>
+        <v>44812.37135416667</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5512,7 +5507,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5549,14 +5544,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 22540-2025</t>
+          <t>A 44885-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45788.30451388889</v>
+        <v>44841</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5569,7 +5564,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5606,14 +5601,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 33462-2025</t>
+          <t>A 14278-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45841</v>
+        <v>45393.60961805555</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5663,14 +5658,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 28844-2023</t>
+          <t>A 22540-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45104</v>
+        <v>45788.30451388889</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5683,7 +5678,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.7</v>
+        <v>4.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5720,14 +5715,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 24217-2025</t>
+          <t>A 27529-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45797.35565972222</v>
+        <v>45813</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5739,8 +5734,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1.2</v>
+        <v>7.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5777,14 +5777,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 27529-2025</t>
+          <t>A 30738-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45813</v>
+        <v>44365.45446759259</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5796,13 +5796,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>7.9</v>
+        <v>0.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5839,14 +5834,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 593-2023</t>
+          <t>A 7746-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44930.55528935185</v>
+        <v>45349</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5858,8 +5853,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5896,14 +5896,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 33331-2024</t>
+          <t>A 40173-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45519</v>
+        <v>45554.55435185185</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5958,14 +5958,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 4623-2024</t>
+          <t>A 21654-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45328</v>
+        <v>45442</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.2</v>
+        <v>7.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6015,14 +6015,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 24815-2025</t>
+          <t>A 56089-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45799.44935185185</v>
+        <v>44477</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.8</v>
+        <v>20.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6072,14 +6072,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 44228-2024</t>
+          <t>A 23260-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45573</v>
+        <v>45075.87199074074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6129,14 +6129,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 49989-2024</t>
+          <t>A 55613-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45597</v>
+        <v>44883</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6148,8 +6148,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>6.1</v>
+        <v>1.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6193,7 +6198,7 @@
         <v>44838</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6248,14 +6253,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 69394-2021</t>
+          <t>A 3489-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44531</v>
+        <v>45320</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6267,13 +6272,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>5.7</v>
+        <v>1.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6310,14 +6310,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 15070-2024</t>
+          <t>A 36606-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45399.59040509259</v>
+        <v>45537.56913194444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6329,13 +6329,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>4.9</v>
+        <v>1.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6372,14 +6367,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 30725-2021</t>
+          <t>A 44891-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44365.44506944445</v>
+        <v>44841</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6392,7 +6387,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6429,14 +6424,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 217-2023</t>
+          <t>A 50163-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44928</v>
+        <v>45943.58734953704</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6449,7 +6444,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6486,14 +6481,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 57687-2025</t>
+          <t>A 40092-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45981.44112268519</v>
+        <v>45894</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6505,13 +6500,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6548,14 +6538,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 38724-2023</t>
+          <t>A 42627-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45163</v>
+        <v>45905.77766203704</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6568,7 +6558,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6605,14 +6595,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 58642-2021</t>
+          <t>A 54348-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44489.36314814815</v>
+        <v>44882</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6625,7 +6615,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>7.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6669,7 +6659,7 @@
         <v>45905.41005787037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6724,14 +6714,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 42627-2025</t>
+          <t>A 45641-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45905.77766203704</v>
+        <v>44845</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6744,7 +6734,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6781,14 +6771,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 5256-2022</t>
+          <t>A 40105-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44593</v>
+        <v>45894</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6801,7 +6791,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6838,14 +6828,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 34479-2025</t>
+          <t>A 51396-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45847.37570601852</v>
+        <v>45950.47131944444</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6858,7 +6848,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6895,14 +6885,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 25069-2023</t>
+          <t>A 51384-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45086</v>
+        <v>45950.46399305556</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6915,7 +6905,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6952,14 +6942,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 27898-2025</t>
+          <t>A 51946-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45817</v>
+        <v>45951</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7009,14 +6999,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 59482-2024</t>
+          <t>A 24217-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45638.52831018518</v>
+        <v>45797.35565972222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7029,7 +7019,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7066,14 +7056,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 27010-2023</t>
+          <t>A 49989-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45094.36791666667</v>
+        <v>45597</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7086,7 +7076,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>6.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7123,14 +7113,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 10544-2025</t>
+          <t>A 44228-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45721.48859953704</v>
+        <v>45573</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7143,7 +7133,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7180,14 +7170,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 43698-2025</t>
+          <t>A 55586-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45912.39892361111</v>
+        <v>44475.88427083333</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7200,7 +7190,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7237,14 +7227,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 18520-2021</t>
+          <t>A 43698-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44305</v>
+        <v>45912.39892361111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7256,13 +7246,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7299,14 +7284,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 45096-2025</t>
+          <t>A 69394-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45919.38780092593</v>
+        <v>44531</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7318,8 +7303,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>2.8</v>
+        <v>5.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7356,14 +7346,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 45574-2025</t>
+          <t>A 24815-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45922.65922453703</v>
+        <v>45799.44935185185</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7376,7 +7366,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7413,14 +7403,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 45717-2025</t>
+          <t>A 34479-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45923.44155092593</v>
+        <v>45847.37570601852</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7433,7 +7423,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>9.1</v>
+        <v>1.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7470,14 +7460,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 45886-2025</t>
+          <t>A 10695-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45923.66560185186</v>
+        <v>44988</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7490,7 +7480,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7527,14 +7517,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 18214-2023</t>
+          <t>A 31893-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45040</v>
+        <v>44370.45880787037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7547,7 +7537,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7584,14 +7574,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 46138-2025</t>
+          <t>A 52882-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45924.59914351852</v>
+        <v>45610</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7604,7 +7594,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7641,14 +7631,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 29284-2025</t>
+          <t>A 55696-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45824</v>
+        <v>45972</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7661,7 +7651,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7698,14 +7688,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 60791-2023</t>
+          <t>A 13994-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45260.65283564815</v>
+        <v>45739.73532407408</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7718,7 +7708,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7755,14 +7745,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 2262-2025</t>
+          <t>A 45574-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45673</v>
+        <v>45922.65922453703</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7775,7 +7765,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7812,14 +7802,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 32132-2025</t>
+          <t>A 33331-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45835.50878472222</v>
+        <v>45519</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7831,8 +7821,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7869,14 +7864,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 23681-2023</t>
+          <t>A 45096-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45077</v>
+        <v>45919.38780092593</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7889,7 +7884,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7926,14 +7921,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 4324-2024</t>
+          <t>A 45717-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45324.67409722223</v>
+        <v>45923.44155092593</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7946,7 +7941,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.6</v>
+        <v>9.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7983,14 +7978,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 28490-2023</t>
+          <t>A 45886-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45103.44039351852</v>
+        <v>45923.66560185186</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8003,7 +7998,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8040,14 +8035,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 44891-2022</t>
+          <t>A 58387-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44841</v>
+        <v>44901</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8059,8 +8054,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8097,14 +8097,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 17856-2024</t>
+          <t>A 46138-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45419</v>
+        <v>45924.59914351852</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8116,13 +8116,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8159,14 +8154,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 7515-2025</t>
+          <t>A 27898-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45702</v>
+        <v>45817</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8178,13 +8173,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8221,14 +8211,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 13994-2025</t>
+          <t>A 10544-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45739.73532407408</v>
+        <v>45721.48859953704</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8241,7 +8231,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8278,14 +8268,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 33450-2025</t>
+          <t>A 217-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45841.46677083334</v>
+        <v>44928</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8298,7 +8288,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8335,14 +8325,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 33456-2025</t>
+          <t>A 59482-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45841.47364583334</v>
+        <v>45638.52831018518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8355,7 +8345,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8392,14 +8382,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 49394-2025</t>
+          <t>A 27010-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45938.65101851852</v>
+        <v>45094.36791666667</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8411,13 +8401,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8454,14 +8439,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 33761-2025</t>
+          <t>A 33462-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45842.38335648148</v>
+        <v>45841</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8474,7 +8459,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8511,14 +8496,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 33766-2025</t>
+          <t>A 8017-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45842.3869675926</v>
+        <v>44609.39615740741</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8531,7 +8516,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8568,14 +8553,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 50163-2025</t>
+          <t>A 42275-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45943.58734953704</v>
+        <v>45562.60690972222</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8587,8 +8572,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8625,14 +8615,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 39238-2022</t>
+          <t>A 42303-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44817</v>
+        <v>45562.6322337963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8644,8 +8634,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8682,14 +8677,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 52882-2024</t>
+          <t>A 29284-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45610</v>
+        <v>45824</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8702,7 +8697,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8739,14 +8734,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 34472-2025</t>
+          <t>A 15810-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45847.35877314815</v>
+        <v>45404</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8758,8 +8753,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8796,14 +8796,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 40105-2025</t>
+          <t>A 14614-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45894</v>
+        <v>45013</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8853,14 +8853,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 40092-2025</t>
+          <t>A 57687-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45894</v>
+        <v>45981.44112268519</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8872,8 +8872,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8910,14 +8915,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 11497-2023</t>
+          <t>A 32132-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44991</v>
+        <v>45835.50878472222</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8930,7 +8935,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8967,14 +8972,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 46260-2024</t>
+          <t>A 20128-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45581</v>
+        <v>45055</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8986,13 +8991,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9029,14 +9029,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 5141-2024</t>
+          <t>A 7515-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45330</v>
+        <v>45702</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9048,8 +9048,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9086,14 +9091,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 51396-2025</t>
+          <t>A 62473-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45950.47131944444</v>
+        <v>45267</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9105,8 +9110,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9143,14 +9153,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 51946-2025</t>
+          <t>A 23978-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45951</v>
+        <v>44722</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9163,7 +9173,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9200,14 +9210,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 39244-2022</t>
+          <t>A 33766-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44817.60482638889</v>
+        <v>45842.3869675926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9220,7 +9230,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9257,14 +9267,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 20717-2023</t>
+          <t>A 60783-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45055</v>
+        <v>45260.6441087963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9277,7 +9287,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9314,14 +9324,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 51384-2025</t>
+          <t>A 33761-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45950.46399305556</v>
+        <v>45842.38335648148</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9334,7 +9344,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9371,14 +9381,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 37068-2023</t>
+          <t>A 33450-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45155</v>
+        <v>45841.46677083334</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9391,7 +9401,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9428,14 +9438,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 40762-2021</t>
+          <t>A 33456-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44420</v>
+        <v>45841.47364583334</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9448,7 +9458,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9485,14 +9495,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 55588-2021</t>
+          <t>A 8500-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44475</v>
+        <v>44977</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9505,7 +9515,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9542,14 +9552,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 22120-2025</t>
+          <t>A 34472-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45785.5165625</v>
+        <v>45847.35877314815</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9562,7 +9572,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9599,14 +9609,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 52286-2023</t>
+          <t>A 60791-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45224.58796296296</v>
+        <v>45260.65283564815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9619,7 +9629,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9656,14 +9666,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 46619-2024</t>
+          <t>A 52838-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45583.32314814815</v>
+        <v>45610</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9676,7 +9686,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9713,14 +9723,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 11857-2025</t>
+          <t>A 13420-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45728.39798611111</v>
+        <v>45005</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9738,7 +9748,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9775,14 +9785,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 24333-2022</t>
+          <t>A 22202-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44726.32643518518</v>
+        <v>45069</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9795,7 +9805,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.1</v>
+        <v>7.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9832,14 +9842,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 50357-2021</t>
+          <t>A 49073-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44455</v>
+        <v>45594.61548611111</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9852,7 +9862,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9889,14 +9899,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 56089-2021</t>
+          <t>A 59885-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44477</v>
+        <v>45993.32192129629</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9909,7 +9919,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>20.9</v>
+        <v>1.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9946,14 +9956,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 24813-2025</t>
+          <t>A 22120-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45799.44813657407</v>
+        <v>45785.5165625</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9966,7 +9976,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10003,14 +10013,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 54348-2022</t>
+          <t>A 20717-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44882</v>
+        <v>45055</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10023,7 +10033,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>7.8</v>
+        <v>1.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10060,14 +10070,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 38156-2022</t>
+          <t>A 56759-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44812.37135416667</v>
+        <v>45238</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10080,7 +10090,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10117,14 +10127,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 18516-2021</t>
+          <t>A 27538-2021</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44305</v>
+        <v>44351.67984953704</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10136,13 +10146,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10179,14 +10184,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 40710-2023</t>
+          <t>A 2806-2026</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45170.63194444445</v>
+        <v>46038.41621527778</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10199,7 +10204,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.5</v>
+        <v>7.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10236,14 +10241,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 55833-2023</t>
+          <t>A 27454-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45239</v>
+        <v>45474</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10256,7 +10261,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10293,14 +10298,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 59885-2025</t>
+          <t>A 50357-2021</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45993.32192129629</v>
+        <v>44455</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10313,7 +10318,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10350,14 +10355,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 20128-2023</t>
+          <t>A 28490-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45055</v>
+        <v>45103.44039351852</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10370,7 +10375,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10407,14 +10412,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 2252-2025</t>
+          <t>A 18516-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45673</v>
+        <v>44305</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10426,8 +10431,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>0.3</v>
+        <v>4.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10464,14 +10474,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 2083-2025</t>
+          <t>A 24813-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45672.58853009259</v>
+        <v>45799.44813657407</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10484,7 +10494,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10521,14 +10531,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 61682-2023</t>
+          <t>A 46619-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45264</v>
+        <v>45583.32314814815</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10541,7 +10551,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10578,14 +10588,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 11676-2023</t>
+          <t>A 11857-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44992</v>
+        <v>45728.39798611111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10603,7 +10613,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10640,14 +10650,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 51844-2023</t>
+          <t>A 13363-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45223</v>
+        <v>45005</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10657,6 +10667,11 @@
       <c r="E161" t="inlineStr">
         <is>
           <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G161" t="n">
@@ -10704,7 +10719,7 @@
         <v>45903</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10754,14 +10769,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 28847-2023</t>
+          <t>A 14619-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45104</v>
+        <v>45013</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10774,7 +10789,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10811,14 +10826,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 15442-2022</t>
+          <t>A 55587-2021</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44659.85333333333</v>
+        <v>44475</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10831,7 +10846,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10868,14 +10883,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 2755-2023</t>
+          <t>A 4968-2026</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44944</v>
+        <v>46049</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10887,13 +10902,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10930,14 +10940,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 49370-2023</t>
+          <t>A 19097-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45211</v>
+        <v>45767.68126157407</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10950,7 +10960,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10987,14 +10997,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 28709-2023</t>
+          <t>A 62849-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45103</v>
+        <v>46008.69979166667</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11007,7 +11017,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11044,14 +11054,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 2806-2026</t>
+          <t>A 69041-2021</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46038.41621527778</v>
+        <v>44529</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11064,7 +11074,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>7.9</v>
+        <v>0.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11101,14 +11111,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 46728-2023</t>
+          <t>A 5645-2026</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45198</v>
+        <v>46051.42502314815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11121,7 +11131,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11158,14 +11168,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 15065-2024</t>
+          <t>A 23741-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45399.57625</v>
+        <v>45077.77087962963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11177,13 +11187,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>5.8</v>
+        <v>0.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11220,14 +11225,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 3498-2024</t>
+          <t>A 25393-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45320.47233796296</v>
+        <v>45079</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11240,7 +11245,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11277,14 +11282,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 41294-2022</t>
+          <t>A 8712-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44825</v>
+        <v>44978.3975462963</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11297,7 +11302,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>6.1</v>
+        <v>0.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11334,14 +11339,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 39097-2024</t>
+          <t>A 36842-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45548.56422453704</v>
+        <v>45538</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11353,8 +11358,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11391,14 +11401,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 8712-2023</t>
+          <t>A 593-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44978.3975462963</v>
+        <v>44930.55528935185</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11411,7 +11421,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11448,14 +11458,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 49073-2024</t>
+          <t>A 6446-2026</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45594.61548611111</v>
+        <v>46055.85770833334</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11468,7 +11478,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11505,14 +11515,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 4968-2026</t>
+          <t>A 6447-2026</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46049</v>
+        <v>46055</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11525,7 +11535,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11562,14 +11572,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 7661-2025</t>
+          <t>A 46147-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45706</v>
+        <v>44846</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11582,7 +11592,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.7</v>
+        <v>5.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11619,14 +11629,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 3183-2023</t>
+          <t>A 20591-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44944</v>
+        <v>45055</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11639,7 +11649,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>6.9</v>
+        <v>1.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11676,14 +11686,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 48965-2023</t>
+          <t>A 55588-2021</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45209</v>
+        <v>44475</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11696,7 +11706,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11733,14 +11743,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 9270-2022</t>
+          <t>A 6890-2026</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44616</v>
+        <v>46057.471875</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11753,7 +11763,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11790,14 +11800,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 36842-2024</t>
+          <t>A 63499-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45538</v>
+        <v>46013</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11809,13 +11819,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11852,14 +11857,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 62849-2025</t>
+          <t>A 47856-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46008.69979166667</v>
+        <v>45588.6680324074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11872,7 +11877,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11909,14 +11914,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 5645-2026</t>
+          <t>A 28247-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>46051.42502314815</v>
+        <v>45099</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11929,7 +11934,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11966,14 +11971,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 5523-2022</t>
+          <t>A 2413-2026</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44593</v>
+        <v>46036.73725694444</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11986,7 +11991,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>5.3</v>
+        <v>8</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12023,14 +12028,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 17060-2021</t>
+          <t>A 2755-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44296.63025462963</v>
+        <v>44944</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12042,8 +12047,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12080,14 +12090,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 6446-2026</t>
+          <t>A 28847-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46055.85770833334</v>
+        <v>45104</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12137,14 +12147,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 4321-2024</t>
+          <t>A 50781-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45324.66635416666</v>
+        <v>45946</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12157,7 +12167,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12194,14 +12204,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 62473-2023</t>
+          <t>A 42281-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45267</v>
+        <v>45562.6105787037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12215,11 +12225,11 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12256,14 +12266,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 8500-2023</t>
+          <t>A 61060-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44977</v>
+        <v>46000</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12273,6 +12283,11 @@
       <c r="E189" t="inlineStr">
         <is>
           <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G189" t="n">
@@ -12313,14 +12328,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 63499-2025</t>
+          <t>A 46260-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46013</v>
+        <v>45581</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12332,8 +12347,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12370,14 +12390,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 6890-2026</t>
+          <t>A 47967-2021</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46057.471875</v>
+        <v>44448</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12390,7 +12410,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>8</v>
+        <v>0.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12427,14 +12447,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 6447-2026</t>
+          <t>A 58642-2021</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46055</v>
+        <v>44489.36314814815</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12447,7 +12467,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12484,14 +12504,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 55291-2023</t>
+          <t>A 63720-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45237</v>
+        <v>45275</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12504,7 +12524,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12541,14 +12561,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 69041-2021</t>
+          <t>A 317-2026</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44529</v>
+        <v>46027.56958333333</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12561,7 +12581,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12598,14 +12618,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 50781-2025</t>
+          <t>A 11676-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45946</v>
+        <v>44992</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12615,6 +12635,11 @@
       <c r="E195" t="inlineStr">
         <is>
           <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G195" t="n">
@@ -12655,14 +12680,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 2413-2026</t>
+          <t>A 11705-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46036.73725694444</v>
+        <v>44992</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12675,7 +12700,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>8</v>
+        <v>1.4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12712,14 +12737,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 53289-2025</t>
+          <t>A 9166-2026</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45958</v>
+        <v>46070.35927083333</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12732,7 +12757,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12769,14 +12794,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 61060-2025</t>
+          <t>A 30292-2021</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46000</v>
+        <v>44364.33482638889</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12788,13 +12813,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12831,14 +12851,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 317-2026</t>
+          <t>A 5523-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46027.56958333333</v>
+        <v>44593</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12851,7 +12871,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.6</v>
+        <v>5.3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12888,14 +12908,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 23260-2023</t>
+          <t>A 9497-2026</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45075.87199074074</v>
+        <v>46071.56422453704</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12908,7 +12928,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12945,14 +12965,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 55586-2021</t>
+          <t>A 18214-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44475.88427083333</v>
+        <v>45040</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12965,7 +12985,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13002,14 +13022,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 15810-2024</t>
+          <t>A 3183-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45404</v>
+        <v>44944</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13021,13 +13041,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>3.7</v>
+        <v>6.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13064,14 +13079,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 9497-2026</t>
+          <t>A 53289-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46071.56422453704</v>
+        <v>45958</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13084,7 +13099,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13121,14 +13136,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 19097-2025</t>
+          <t>A 53290-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45767.68126157407</v>
+        <v>45958</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13141,7 +13156,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13178,14 +13193,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 10695-2023</t>
+          <t>A 24647-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44988</v>
+        <v>45084</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13197,8 +13212,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>2</v>
+        <v>11.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13235,14 +13255,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 9166-2026</t>
+          <t>A 7661-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46070.35927083333</v>
+        <v>45706</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13255,7 +13275,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13292,14 +13312,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 53290-2025</t>
+          <t>A 2252-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45958</v>
+        <v>45673</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13312,7 +13332,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13349,14 +13369,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 44885-2022</t>
+          <t>A 9488-2026</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44841</v>
+        <v>46071.55105324074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13369,7 +13389,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13406,14 +13426,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 9488-2026</t>
+          <t>A 15065-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46071.55105324074</v>
+        <v>45399.57625</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13425,8 +13445,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>1.2</v>
+        <v>5.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13463,14 +13488,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 14614-2023</t>
+          <t>A 4324-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45013</v>
+        <v>45324.67409722223</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13483,7 +13508,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>5.1</v>
+        <v>0.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13520,14 +13545,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 8017-2022</t>
+          <t>A 41294-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44609.39615740741</v>
+        <v>44825</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13540,7 +13565,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>6.1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13577,14 +13602,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 13995-2025</t>
+          <t>A 9270-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45739.74271990741</v>
+        <v>44616</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13597,7 +13622,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13634,14 +13659,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 42275-2024</t>
+          <t>A 39097-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45562.60690972222</v>
+        <v>45548.56422453704</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13653,13 +13678,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13696,14 +13716,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 42303-2024</t>
+          <t>A 51844-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45562.6322337963</v>
+        <v>45223</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13715,13 +13735,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13758,14 +13773,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 24034-2023</t>
+          <t>A 46835-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45078.86898148148</v>
+        <v>45199</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13778,7 +13793,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13815,14 +13830,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 5196-2022</t>
+          <t>A 28844-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44593</v>
+        <v>45104</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13835,7 +13850,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>5.6</v>
+        <v>0.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13872,14 +13887,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 52838-2024</t>
+          <t>A 39238-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45610</v>
+        <v>44817</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13892,7 +13907,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13929,14 +13944,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 45641-2022</t>
+          <t>A 5256-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44845</v>
+        <v>44593</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13949,7 +13964,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13986,14 +14001,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 21636-2024</t>
+          <t>A 15442-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45442</v>
+        <v>44659.85333333333</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14006,7 +14021,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14043,14 +14058,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 60783-2023</t>
+          <t>A 48965-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45260.6441087963</v>
+        <v>45209</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14063,7 +14078,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14100,14 +14115,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 14619-2023</t>
+          <t>A 18520-2021</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45013</v>
+        <v>44305</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14119,8 +14134,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14157,14 +14177,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 27454-2024</t>
+          <t>A 20012-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45474</v>
+        <v>44697</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14177,7 +14197,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.7</v>
+        <v>17.2</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14214,14 +14234,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 11335-2023</t>
+          <t>A 5151-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44993</v>
+        <v>44593</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14234,7 +14254,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.3</v>
+        <v>6.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14271,14 +14291,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 13363-2023</t>
+          <t>A 243-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45005</v>
+        <v>45660</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14290,13 +14310,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14333,14 +14348,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 5151-2022</t>
+          <t>A 40762-2021</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44593</v>
+        <v>44420</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14353,7 +14368,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14390,14 +14405,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 23741-2023</t>
+          <t>A 28709-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45077.77087962963</v>
+        <v>45103</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14410,7 +14425,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14447,14 +14462,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 46147-2022</t>
+          <t>A 21636-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44846</v>
+        <v>45442</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14467,7 +14482,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14504,14 +14519,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 47870-2022</t>
+          <t>A 46728-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44855.43302083333</v>
+        <v>45198</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14524,7 +14539,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14561,14 +14576,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 27813-2023</t>
+          <t>A 23874-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45098</v>
+        <v>44722</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14581,7 +14596,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.3</v>
+        <v>7.8</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14618,14 +14633,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 58387-2022</t>
+          <t>A 38724-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44901</v>
+        <v>45163</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14637,13 +14652,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14680,14 +14690,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 27452-2024</t>
+          <t>A 24333-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45474</v>
+        <v>44726.32643518518</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14700,7 +14710,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14737,14 +14747,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 45596-2024</t>
+          <t>A 40710-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45579</v>
+        <v>45170.63194444445</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14757,7 +14767,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14794,14 +14804,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 38323-2023</t>
+          <t>A 37068-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45161</v>
+        <v>45155</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14814,7 +14824,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14851,14 +14861,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 38325-2023</t>
+          <t>A 39530-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45161</v>
+        <v>45167.34055555556</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14871,7 +14881,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14908,14 +14918,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 21654-2024</t>
+          <t>A 24034-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45442</v>
+        <v>45078.86898148148</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14928,7 +14938,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>7.2</v>
+        <v>1</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14965,14 +14975,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 1280-2023</t>
+          <t>A 38945-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44936</v>
+        <v>45163.60909722222</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15022,14 +15032,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 20591-2023</t>
+          <t>A 55291-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45055</v>
+        <v>45237</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15042,7 +15052,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15079,14 +15089,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 52877-2022</t>
+          <t>A 5141-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44875.53217592592</v>
+        <v>45330</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15099,7 +15109,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15136,14 +15146,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 31893-2021</t>
+          <t>A 3498-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44370.45880787037</v>
+        <v>45320.47233796296</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15156,7 +15166,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15193,14 +15203,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 11705-2023</t>
+          <t>A 64224-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44992</v>
+        <v>45279</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15213,7 +15223,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15250,14 +15260,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 27538-2021</t>
+          <t>A 27813-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44351.67984953704</v>
+        <v>45098</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15270,7 +15280,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15307,14 +15317,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 64224-2023</t>
+          <t>A 20002-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45279</v>
+        <v>44697.62150462963</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15364,14 +15374,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 20002-2022</t>
+          <t>A 49686-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44697.62150462963</v>
+        <v>45212.36239583333</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15384,7 +15394,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15421,14 +15431,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 47856-2024</t>
+          <t>A 27452-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45588.6680324074</v>
+        <v>45474</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15441,7 +15451,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15478,14 +15488,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 49686-2023</t>
+          <t>A 53868-2022</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45212.36239583333</v>
+        <v>44880.64693287037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15498,7 +15508,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.3</v>
+        <v>7.6</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15542,7 +15552,7 @@
         <v>44530</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15592,14 +15602,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 46835-2023</t>
+          <t>A 30725-2021</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45199</v>
+        <v>44365.44506944445</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15612,7 +15622,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15649,14 +15659,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 5557-2022</t>
+          <t>A 42284-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44593</v>
+        <v>45562</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15668,8 +15678,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G248" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15706,14 +15721,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 46253-2024</t>
+          <t>A 5196-2022</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45581</v>
+        <v>44593</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15725,13 +15740,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G249" t="n">
-        <v>9.300000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15768,14 +15778,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 39530-2023</t>
+          <t>A 1280-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45167.34055555556</v>
+        <v>44936</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15788,7 +15798,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15825,14 +15835,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 22976-2023</t>
+          <t>A 39244-2022</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45072</v>
+        <v>44817.60482638889</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15845,7 +15855,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15882,14 +15892,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 23978-2022</t>
+          <t>A 11335-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44722</v>
+        <v>44993</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15902,7 +15912,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>9.699999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15939,14 +15949,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 15812-2024</t>
+          <t>A 30852-2021</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45404.6669212963</v>
+        <v>44365</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15958,13 +15968,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G253" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16001,14 +16006,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 38945-2023</t>
+          <t>A 38323-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45163.60909722222</v>
+        <v>45161</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16021,7 +16026,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16058,14 +16063,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 55587-2021</t>
+          <t>A 38325-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44475</v>
+        <v>45161</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16078,7 +16083,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16115,14 +16120,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 23874-2022</t>
+          <t>A 5557-2022</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44722</v>
+        <v>44593</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16135,7 +16140,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>7.8</v>
+        <v>2.4</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16172,14 +16177,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 9142-2025</t>
+          <t>A 52877-2022</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45714.31886574074</v>
+        <v>44875.53217592592</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16192,7 +16197,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16229,14 +16234,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 30292-2021</t>
+          <t>A 11105-2021</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44364.33482638889</v>
+        <v>44259</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16248,8 +16253,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G258" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16286,14 +16296,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 28247-2023</t>
+          <t>A 46253-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45099</v>
+        <v>45581</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16305,8 +16315,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G259" t="n">
-        <v>4.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16343,14 +16358,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 56759-2023</t>
+          <t>A 2262-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45238</v>
+        <v>45673</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16363,7 +16378,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>7.4</v>
+        <v>2.6</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16400,14 +16415,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 4301-2024</t>
+          <t>A 4623-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16419,13 +16434,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G261" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16462,14 +16472,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 22202-2023</t>
+          <t>A 3198-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45069</v>
+        <v>44944</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16482,7 +16492,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16519,14 +16529,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 20012-2022</t>
+          <t>A 23681-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44697</v>
+        <v>45077</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16539,7 +16549,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>17.2</v>
+        <v>0.9</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16576,14 +16586,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 16418-2025</t>
+          <t>A 37967-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45751.46372685185</v>
+        <v>45544.55668981482</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16596,7 +16606,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16633,14 +16643,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 30852-2021</t>
+          <t>A 34051-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44365</v>
+        <v>45523</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16653,7 +16663,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16690,14 +16700,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 63720-2023</t>
+          <t>A 2083-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45275</v>
+        <v>45672.58853009259</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16710,7 +16720,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16747,14 +16757,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 14278-2024</t>
+          <t>A 52286-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45393.60961805555</v>
+        <v>45224.58796296296</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16767,7 +16777,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16804,14 +16814,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 47869-2022</t>
+          <t>A 47870-2022</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44855.43141203704</v>
+        <v>44855.43302083333</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16824,7 +16834,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16861,14 +16871,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 6615-2024</t>
+          <t>A 15070-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45341</v>
+        <v>45399.59040509259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16880,8 +16890,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G269" t="n">
-        <v>0.4</v>
+        <v>4.9</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16918,14 +16933,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 24647-2023</t>
+          <t>A 16418-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45084</v>
+        <v>45751.46372685185</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16937,13 +16952,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G270" t="n">
-        <v>11.6</v>
+        <v>0.8</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16980,14 +16990,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 13420-2023</t>
+          <t>A 13995-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45005</v>
+        <v>45739.74271990741</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16999,13 +17009,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G271" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17042,14 +17047,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 42281-2024</t>
+          <t>A 11497-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45562.6105787037</v>
+        <v>44991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17061,13 +17066,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G272" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17104,14 +17104,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 42284-2024</t>
+          <t>A 45596-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45562</v>
+        <v>45579</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17123,13 +17123,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G273" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17166,14 +17161,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 3489-2024</t>
+          <t>A 15812-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45320</v>
+        <v>45404.6669212963</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17185,8 +17180,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G274" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17223,14 +17223,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 30738-2021</t>
+          <t>A 25069-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44365.45446759259</v>
+        <v>45086</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17277,17 +17277,17 @@
       </c>
       <c r="R275" s="2" t="inlineStr"/>
     </row>
-    <row r="276" ht="15" customHeight="1">
+    <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 16399-2025</t>
+          <t>A 49370-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45751</v>
+        <v>45211</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17300,7 +17300,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17333,63 +17333,6 @@
         <v>0</v>
       </c>
       <c r="R276" s="2" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>A 51276-2024</t>
-        </is>
-      </c>
-      <c r="B277" s="1" t="n">
-        <v>45603</v>
-      </c>
-      <c r="C277" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G277" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
-      <c r="J277" t="n">
-        <v>0</v>
-      </c>
-      <c r="K277" t="n">
-        <v>0</v>
-      </c>
-      <c r="L277" t="n">
-        <v>0</v>
-      </c>
-      <c r="M277" t="n">
-        <v>0</v>
-      </c>
-      <c r="N277" t="n">
-        <v>0</v>
-      </c>
-      <c r="O277" t="n">
-        <v>0</v>
-      </c>
-      <c r="P277" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q277" t="n">
-        <v>0</v>
-      </c>
-      <c r="R277" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KLIPPAN.xlsx
+++ b/Översikt KLIPPAN.xlsx
@@ -575,7 +575,7 @@
         <v>45314</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45960</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>45973</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>45664</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -952,14 +952,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 54644-2023</t>
+          <t>A 46256-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45235</v>
+        <v>45581</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -971,14 +971,19 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>8.1</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
         <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -1005,330 +1010,325 @@
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Rostfläck
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 46256-2024 artfynd.xlsx", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 46256-2024 karta.png", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 46256-2024 FSC-klagomål.docx", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 46256-2024 FSC-klagomål mail.docx", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 46256-2024 tillsynsbegäran.docx", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 46256-2024 tillsynsbegäran mail.docx", "A 46256-2024")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 46256-2024 prioriterade fågelarter.docx", "A 46256-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 45242-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45919.59901620371</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 45242-2025 artfynd.xlsx", "A 45242-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 45242-2025 karta.png", "A 45242-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 45242-2025 FSC-klagomål.docx", "A 45242-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 45242-2025 FSC-klagomål mail.docx", "A 45242-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 45242-2025 tillsynsbegäran.docx", "A 45242-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 45242-2025 tillsynsbegäran mail.docx", "A 45242-2025")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 45242-2025 prioriterade fågelarter.docx", "A 45242-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 42004-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45903</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Gröngöling
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 42004-2025 artfynd.xlsx", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 42004-2025 karta.png", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 42004-2025 FSC-klagomål.docx", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 42004-2025 FSC-klagomål mail.docx", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 42004-2025 tillsynsbegäran.docx", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 42004-2025 tillsynsbegäran mail.docx", "A 42004-2025")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 42004-2025 prioriterade fågelarter.docx", "A 42004-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 54644-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45235</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Havstulpanlav
 Skogsduva</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 54644-2023 artfynd.xlsx", "A 54644-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 54644-2023 karta.png", "A 54644-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 54644-2023 FSC-klagomål.docx", "A 54644-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 54644-2023 FSC-klagomål mail.docx", "A 54644-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 54644-2023 tillsynsbegäran.docx", "A 54644-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 54644-2023 tillsynsbegäran mail.docx", "A 54644-2023")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 54644-2023 prioriterade fågelarter.docx", "A 54644-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 45242-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45919.59901620371</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 45242-2025 artfynd.xlsx", "A 45242-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 45242-2025 karta.png", "A 45242-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 45242-2025 FSC-klagomål.docx", "A 45242-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 45242-2025 FSC-klagomål mail.docx", "A 45242-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 45242-2025 tillsynsbegäran.docx", "A 45242-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 45242-2025 tillsynsbegäran mail.docx", "A 45242-2025")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 45242-2025 prioriterade fågelarter.docx", "A 45242-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 42004-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45903</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Gröngöling
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 42004-2025 artfynd.xlsx", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 42004-2025 karta.png", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 42004-2025 FSC-klagomål.docx", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 42004-2025 FSC-klagomål mail.docx", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 42004-2025 tillsynsbegäran.docx", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 42004-2025 tillsynsbegäran mail.docx", "A 42004-2025")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 42004-2025 prioriterade fågelarter.docx", "A 42004-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 46256-2024</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45581</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Rostfläck
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 46256-2024 artfynd.xlsx", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 46256-2024 karta.png", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 46256-2024 FSC-klagomål.docx", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 46256-2024 FSC-klagomål mail.docx", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 46256-2024 tillsynsbegäran.docx", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 46256-2024 tillsynsbegäran mail.docx", "A 46256-2024")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 46256-2024 prioriterade fågelarter.docx", "A 46256-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 37966-2024</t>
+          <t>A 5797-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45544</v>
+        <v>45335</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1375,576 +1375,576 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Entita
+Gröngöling</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 5797-2024 artfynd.xlsx", "A 5797-2024")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 5797-2024 karta.png", "A 5797-2024")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 5797-2024 FSC-klagomål.docx", "A 5797-2024")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 5797-2024 FSC-klagomål mail.docx", "A 5797-2024")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 5797-2024 tillsynsbegäran.docx", "A 5797-2024")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 5797-2024 tillsynsbegäran mail.docx", "A 5797-2024")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 5797-2024 prioriterade fågelarter.docx", "A 5797-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 11673-2022</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>44633</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Talltita
+Vanlig groda</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 11673-2022 artfynd.xlsx", "A 11673-2022")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 11673-2022 karta.png", "A 11673-2022")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 11673-2022 FSC-klagomål.docx", "A 11673-2022")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 11673-2022 FSC-klagomål mail.docx", "A 11673-2022")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 11673-2022 tillsynsbegäran.docx", "A 11673-2022")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 11673-2022 tillsynsbegäran mail.docx", "A 11673-2022")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 11673-2022 prioriterade fågelarter.docx", "A 11673-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 37966-2024</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45544</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Större vattensalamander
 Vanlig padda</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 37966-2024 artfynd.xlsx", "A 37966-2024")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 37966-2024 karta.png", "A 37966-2024")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 37966-2024 FSC-klagomål.docx", "A 37966-2024")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 37966-2024 FSC-klagomål mail.docx", "A 37966-2024")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 37966-2024 tillsynsbegäran.docx", "A 37966-2024")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 37966-2024 tillsynsbegäran mail.docx", "A 37966-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 44567-2025</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>45917</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C13" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>17.3</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H13" t="n">
         <v>2</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>2</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Gråkråka
 Grönsiska</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 44567-2025 artfynd.xlsx", "A 44567-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 44567-2025 karta.png", "A 44567-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 44567-2025 FSC-klagomål.docx", "A 44567-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 44567-2025 FSC-klagomål mail.docx", "A 44567-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 44567-2025 tillsynsbegäran.docx", "A 44567-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 44567-2025 tillsynsbegäran mail.docx", "A 44567-2025")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 44567-2025 prioriterade fågelarter.docx", "A 44567-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 20702-2023</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45058</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Svinrot
+Grönvit nattviol</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 20702-2023 artfynd.xlsx", "A 20702-2023")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 20702-2023 karta.png", "A 20702-2023")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 20702-2023 FSC-klagomål.docx", "A 20702-2023")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 20702-2023 FSC-klagomål mail.docx", "A 20702-2023")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 20702-2023 tillsynsbegäran.docx", "A 20702-2023")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 20702-2023 tillsynsbegäran mail.docx", "A 20702-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 59769-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45992</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 59769-2025 artfynd.xlsx", "A 59769-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 59769-2025 karta.png", "A 59769-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 59769-2025 FSC-klagomål.docx", "A 59769-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 59769-2025 FSC-klagomål mail.docx", "A 59769-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 59769-2025 tillsynsbegäran.docx", "A 59769-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 59769-2025 tillsynsbegäran mail.docx", "A 59769-2025")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 59769-2025 prioriterade fågelarter.docx", "A 59769-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 53878-2022</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>44880</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+      <c r="C16" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H16" t="n">
         <v>2</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>2</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>2</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>2</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Entita
 Gulsparv</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 53878-2022 artfynd.xlsx", "A 53878-2022")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 53878-2022 karta.png", "A 53878-2022")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 53878-2022 FSC-klagomål.docx", "A 53878-2022")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 53878-2022 FSC-klagomål mail.docx", "A 53878-2022")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 53878-2022 tillsynsbegäran.docx", "A 53878-2022")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 53878-2022 tillsynsbegäran mail.docx", "A 53878-2022")</f>
         <v/>
       </c>
-      <c r="Z12">
+      <c r="Z16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 53878-2022 prioriterade fågelarter.docx", "A 53878-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 59769-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45992</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 59769-2025 artfynd.xlsx", "A 59769-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 59769-2025 karta.png", "A 59769-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 59769-2025 FSC-klagomål.docx", "A 59769-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 59769-2025 FSC-klagomål mail.docx", "A 59769-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 59769-2025 tillsynsbegäran.docx", "A 59769-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 59769-2025 tillsynsbegäran mail.docx", "A 59769-2025")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 59769-2025 prioriterade fågelarter.docx", "A 59769-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 11673-2022</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>44633</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Talltita
-Vanlig groda</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 11673-2022 artfynd.xlsx", "A 11673-2022")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 11673-2022 karta.png", "A 11673-2022")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 11673-2022 FSC-klagomål.docx", "A 11673-2022")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 11673-2022 FSC-klagomål mail.docx", "A 11673-2022")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 11673-2022 tillsynsbegäran.docx", "A 11673-2022")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 11673-2022 tillsynsbegäran mail.docx", "A 11673-2022")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 11673-2022 prioriterade fågelarter.docx", "A 11673-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 20702-2023</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45058</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Svinrot
-Grönvit nattviol</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 20702-2023 artfynd.xlsx", "A 20702-2023")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 20702-2023 karta.png", "A 20702-2023")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 20702-2023 FSC-klagomål.docx", "A 20702-2023")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 20702-2023 FSC-klagomål mail.docx", "A 20702-2023")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 20702-2023 tillsynsbegäran.docx", "A 20702-2023")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 20702-2023 tillsynsbegäran mail.docx", "A 20702-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 5797-2024</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45335</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Gröngöling</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 5797-2024 artfynd.xlsx", "A 5797-2024")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 5797-2024 karta.png", "A 5797-2024")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 5797-2024 FSC-klagomål.docx", "A 5797-2024")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 5797-2024 FSC-klagomål mail.docx", "A 5797-2024")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 5797-2024 tillsynsbegäran.docx", "A 5797-2024")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 5797-2024 tillsynsbegäran mail.docx", "A 5797-2024")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 5797-2024 prioriterade fågelarter.docx", "A 5797-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
         <v>44365</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44596</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2122,14 +2122,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 50089-2023</t>
+          <t>A 23403-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45208</v>
+        <v>45453</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2142,10 +2142,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>13.6</v>
+        <v>9.1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2176,659 +2176,659 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
+          <t>Vårstarr</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 23403-2024 artfynd.xlsx", "A 23403-2024")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 23403-2024 karta.png", "A 23403-2024")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 23403-2024 FSC-klagomål.docx", "A 23403-2024")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 23403-2024 FSC-klagomål mail.docx", "A 23403-2024")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 23403-2024 tillsynsbegäran.docx", "A 23403-2024")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 23403-2024 tillsynsbegäran mail.docx", "A 23403-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 30721-2021</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>44365</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Brandticka</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 30721-2021 artfynd.xlsx", "A 30721-2021")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 30721-2021 karta.png", "A 30721-2021")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 30721-2021 FSC-klagomål.docx", "A 30721-2021")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 30721-2021 FSC-klagomål mail.docx", "A 30721-2021")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 30721-2021 tillsynsbegäran.docx", "A 30721-2021")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 30721-2021 tillsynsbegäran mail.docx", "A 30721-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 14892-2023</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45015</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Mindre hackspett</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 14892-2023 artfynd.xlsx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 14892-2023 karta.png", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 14892-2023 FSC-klagomål.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 14892-2023 FSC-klagomål mail.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 14892-2023 tillsynsbegäran.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 14892-2023 tillsynsbegäran mail.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 14892-2023 prioriterade fågelarter.docx", "A 14892-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 50089-2023</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>45208</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
           <t>Entita</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 50089-2023 artfynd.xlsx", "A 50089-2023")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 50089-2023 karta.png", "A 50089-2023")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 50089-2023 FSC-klagomål.docx", "A 50089-2023")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 50089-2023 FSC-klagomål mail.docx", "A 50089-2023")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 50089-2023 tillsynsbegäran.docx", "A 50089-2023")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 50089-2023 tillsynsbegäran mail.docx", "A 50089-2023")</f>
         <v/>
       </c>
-      <c r="Z19">
+      <c r="Z22">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 50089-2023 prioriterade fågelarter.docx", "A 50089-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 14892-2023</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45015</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H20" t="n">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 61049-2025</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>46000</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H23" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>1</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>1</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Mindre hackspett</t>
         </is>
       </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 14892-2023 artfynd.xlsx", "A 14892-2023")</f>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 61049-2025 artfynd.xlsx", "A 61049-2025")</f>
         <v/>
       </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 14892-2023 karta.png", "A 14892-2023")</f>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 61049-2025 karta.png", "A 61049-2025")</f>
         <v/>
       </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 14892-2023 FSC-klagomål.docx", "A 14892-2023")</f>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 61049-2025 FSC-klagomål.docx", "A 61049-2025")</f>
         <v/>
       </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 14892-2023 FSC-klagomål mail.docx", "A 14892-2023")</f>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 61049-2025 FSC-klagomål mail.docx", "A 61049-2025")</f>
         <v/>
       </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 14892-2023 tillsynsbegäran.docx", "A 14892-2023")</f>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 61049-2025 tillsynsbegäran.docx", "A 61049-2025")</f>
         <v/>
       </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 14892-2023 tillsynsbegäran mail.docx", "A 14892-2023")</f>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 61049-2025 tillsynsbegäran mail.docx", "A 61049-2025")</f>
         <v/>
       </c>
-      <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 14892-2023 prioriterade fågelarter.docx", "A 14892-2023")</f>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 61049-2025 prioriterade fågelarter.docx", "A 61049-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>A 61058-2025</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B24" s="1" t="n">
         <v>46000</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+      <c r="C24" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="G24" t="n">
         <v>0.8</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>1</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Kungsfågel</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 61058-2025 artfynd.xlsx", "A 61058-2025")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 61058-2025 karta.png", "A 61058-2025")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 61058-2025 FSC-klagomål.docx", "A 61058-2025")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 61058-2025 FSC-klagomål mail.docx", "A 61058-2025")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 61058-2025 tillsynsbegäran.docx", "A 61058-2025")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 61058-2025 tillsynsbegäran mail.docx", "A 61058-2025")</f>
         <v/>
       </c>
-      <c r="Z21">
+      <c r="Z24">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 61058-2025 prioriterade fågelarter.docx", "A 61058-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 61049-2025</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>46000</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H22" t="n">
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>A 2839-2026</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>46038</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>1</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Mindre hackspett</t>
-        </is>
-      </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 61049-2025 artfynd.xlsx", "A 61049-2025")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 61049-2025 karta.png", "A 61049-2025")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 61049-2025 FSC-klagomål.docx", "A 61049-2025")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 61049-2025 FSC-klagomål mail.docx", "A 61049-2025")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 61049-2025 tillsynsbegäran.docx", "A 61049-2025")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 61049-2025 tillsynsbegäran mail.docx", "A 61049-2025")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 61049-2025 prioriterade fågelarter.docx", "A 61049-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 2839-2026</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>46038</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
+      <c r="R25" s="2" t="inlineStr">
         <is>
           <t>Entita</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 2839-2026 artfynd.xlsx", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 2839-2026 karta.png", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 2839-2026 FSC-klagomål.docx", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 2839-2026 FSC-klagomål mail.docx", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 2839-2026 tillsynsbegäran.docx", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 2839-2026 tillsynsbegäran mail.docx", "A 2839-2026")</f>
         <v/>
       </c>
-      <c r="Z23">
+      <c r="Z25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/fåglar/A 2839-2026 prioriterade fågelarter.docx", "A 2839-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>A 10000-2025</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B26" s="1" t="n">
         <v>45719.44871527778</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
+      <c r="C26" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
         <v>2.6</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>1</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>1</v>
       </c>
-      <c r="R24" s="2" t="inlineStr">
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>Dvärghäxört</t>
         </is>
       </c>
-      <c r="S24">
+      <c r="S26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 10000-2025 artfynd.xlsx", "A 10000-2025")</f>
         <v/>
       </c>
-      <c r="T24">
+      <c r="T26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 10000-2025 karta.png", "A 10000-2025")</f>
         <v/>
       </c>
-      <c r="V24">
+      <c r="V26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 10000-2025 FSC-klagomål.docx", "A 10000-2025")</f>
         <v/>
       </c>
-      <c r="W24">
+      <c r="W26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 10000-2025 FSC-klagomål mail.docx", "A 10000-2025")</f>
         <v/>
       </c>
-      <c r="X24">
+      <c r="X26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 10000-2025 tillsynsbegäran.docx", "A 10000-2025")</f>
         <v/>
       </c>
-      <c r="Y24">
+      <c r="Y26">
         <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 10000-2025 tillsynsbegäran mail.docx", "A 10000-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A 23403-2024</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>45453</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Vårstarr</t>
-        </is>
-      </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 23403-2024 artfynd.xlsx", "A 23403-2024")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 23403-2024 karta.png", "A 23403-2024")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 23403-2024 FSC-klagomål.docx", "A 23403-2024")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 23403-2024 FSC-klagomål mail.docx", "A 23403-2024")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 23403-2024 tillsynsbegäran.docx", "A 23403-2024")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 23403-2024 tillsynsbegäran mail.docx", "A 23403-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A 30721-2021</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>44365</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>KLIPPAN</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Brandticka</t>
-        </is>
-      </c>
-      <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/artfynd/A 30721-2021 artfynd.xlsx", "A 30721-2021")</f>
-        <v/>
-      </c>
-      <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/kartor/A 30721-2021 karta.png", "A 30721-2021")</f>
-        <v/>
-      </c>
-      <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomål/A 30721-2021 FSC-klagomål.docx", "A 30721-2021")</f>
-        <v/>
-      </c>
-      <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/klagomålsmail/A 30721-2021 FSC-klagomål mail.docx", "A 30721-2021")</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsyn/A 30721-2021 tillsynsbegäran.docx", "A 30721-2021")</f>
-        <v/>
-      </c>
-      <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1276/tillsynsmail/A 30721-2021 tillsynsbegäran mail.docx", "A 30721-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44883</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>44287</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2963,7 +2963,7 @@
         <v>44368.50049768519</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>44883</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>44596</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44489.35295138889</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>44691.52568287037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44697.63137731481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>44697</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>44531</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>44487</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>44575</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3546,14 +3546,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 10055-2022</t>
+          <t>A 53582-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44621.59760416667</v>
+        <v>44875</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3565,8 +3565,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3603,14 +3608,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 53582-2022</t>
+          <t>A 10055-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44875</v>
+        <v>44621.59760416667</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3622,13 +3627,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>44691</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         <v>44363</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>44445</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>44608</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44575</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44825</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44782.541875</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4084,14 +4084,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 41268-2022</t>
+          <t>A 55415-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44825</v>
+        <v>44882</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4146,14 +4146,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 55415-2022</t>
+          <t>A 41268-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44882</v>
+        <v>44825</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4215,7 +4215,7 @@
         <v>44880</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         <v>44418</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
         <v>44251</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         <v>44700</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44679.2472337963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44816</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4560,14 +4560,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 17060-2021</t>
+          <t>A 47967-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44296.63025462963</v>
+        <v>44448</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4617,14 +4617,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 6615-2024</t>
+          <t>A 17792-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45341</v>
+        <v>44300</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.4</v>
+        <v>3.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4674,14 +4674,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 9142-2025</t>
+          <t>A 11105-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45714.31886574074</v>
+        <v>44259</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4693,8 +4693,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4731,14 +4736,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 14620-2025</t>
+          <t>A 243-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45742.41289351852</v>
+        <v>45660</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4751,7 +4756,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>7</v>
+        <v>1.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4788,14 +4793,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 22976-2023</t>
+          <t>A 3198-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45072</v>
+        <v>44944</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4808,7 +4813,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4845,14 +4850,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 61682-2023</t>
+          <t>A 34051-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45264</v>
+        <v>45523</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4865,7 +4870,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4902,14 +4907,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 4321-2024</t>
+          <t>A 25393-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45324.66635416666</v>
+        <v>45079</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4922,7 +4927,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4959,14 +4964,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 4301-2024</t>
+          <t>A 53868-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45324</v>
+        <v>44880.64693287037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4978,13 +4983,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>0.5</v>
+        <v>7.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5021,14 +5021,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 17792-2021</t>
+          <t>A 14620-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44300</v>
+        <v>45742.41289351852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5041,7 +5041,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5078,14 +5078,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 17856-2024</t>
+          <t>A 37967-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45419</v>
+        <v>45544.55668981482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5097,13 +5097,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5140,14 +5135,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 16399-2025</t>
+          <t>A 28844-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45751</v>
+        <v>45104</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5160,7 +5155,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5197,14 +5192,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 51276-2024</t>
+          <t>A 593-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45603</v>
+        <v>44930.55528935185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5217,7 +5212,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5254,14 +5249,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 47869-2022</t>
+          <t>A 4623-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44855.43141203704</v>
+        <v>45328</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5274,7 +5269,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5311,14 +5306,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 49394-2025</t>
+          <t>A 33331-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45938.65101851852</v>
+        <v>45519</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5336,7 +5331,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5373,14 +5368,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 52851-2024</t>
+          <t>A 30725-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45610</v>
+        <v>44365.44506944445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5393,7 +5388,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5430,14 +5425,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 55833-2023</t>
+          <t>A 38724-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45239</v>
+        <v>45163</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5450,7 +5445,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5487,14 +5482,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 38156-2022</t>
+          <t>A 15070-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44812.37135416667</v>
+        <v>45399.59040509259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5506,8 +5501,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5544,14 +5544,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 44885-2022</t>
+          <t>A 217-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44841</v>
+        <v>44928</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5601,14 +5601,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 14278-2024</t>
+          <t>A 58642-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45393.60961805555</v>
+        <v>44489.36314814815</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5658,14 +5658,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 22540-2025</t>
+          <t>A 5256-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45788.30451388889</v>
+        <v>44593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.9</v>
+        <v>2.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5715,14 +5715,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 27529-2025</t>
+          <t>A 25069-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45813</v>
+        <v>45086</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5734,13 +5734,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>7.9</v>
+        <v>2.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5777,14 +5772,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 30738-2021</t>
+          <t>A 18520-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44365.45446759259</v>
+        <v>44305</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5796,8 +5791,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5834,14 +5834,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 7746-2024</t>
+          <t>A 18214-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45349</v>
+        <v>45040</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5853,13 +5853,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5896,14 +5891,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 40173-2024</t>
+          <t>A 59482-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45554.55435185185</v>
+        <v>45638.52831018518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5915,13 +5910,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5958,14 +5948,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 21654-2024</t>
+          <t>A 27010-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45442</v>
+        <v>45094.36791666667</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5978,7 +5968,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>7.2</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6015,14 +6005,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 56089-2021</t>
+          <t>A 10544-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44477</v>
+        <v>45721.48859953704</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6035,7 +6025,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>20.9</v>
+        <v>2.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6072,14 +6062,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 23260-2023</t>
+          <t>A 60791-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45075.87199074074</v>
+        <v>45260.65283564815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6092,7 +6082,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6129,14 +6119,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 55613-2022</t>
+          <t>A 52851-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44883</v>
+        <v>45610</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6148,13 +6138,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6191,14 +6176,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 43855-2022</t>
+          <t>A 22540-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44838</v>
+        <v>45788.30451388889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6210,13 +6195,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>1.3</v>
+        <v>4.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6253,14 +6233,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 3489-2024</t>
+          <t>A 2262-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45320</v>
+        <v>45673</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6273,7 +6253,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6310,14 +6290,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 36606-2024</t>
+          <t>A 23681-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45537.56913194444</v>
+        <v>45077</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6330,7 +6310,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6367,14 +6347,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 44891-2022</t>
+          <t>A 4324-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44841</v>
+        <v>45324.67409722223</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6387,7 +6367,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6424,14 +6404,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 50163-2025</t>
+          <t>A 28490-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45943.58734953704</v>
+        <v>45103.44039351852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6444,7 +6424,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6481,14 +6461,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 40092-2025</t>
+          <t>A 44891-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45894</v>
+        <v>44841</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6501,7 +6481,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6538,14 +6518,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 42627-2025</t>
+          <t>A 27529-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45905.77766203704</v>
+        <v>45813</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6557,8 +6537,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>1.8</v>
+        <v>7.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6595,14 +6580,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 54348-2022</t>
+          <t>A 17856-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44882</v>
+        <v>45419</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6614,8 +6599,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>7.8</v>
+        <v>3.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6652,14 +6642,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 42423-2025</t>
+          <t>A 29284-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45905.41005787037</v>
+        <v>45824</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6671,13 +6661,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>4.9</v>
+        <v>0.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6714,14 +6699,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 45641-2022</t>
+          <t>A 43855-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6733,8 +6718,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6771,14 +6761,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 40105-2025</t>
+          <t>A 7515-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45894</v>
+        <v>45702</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6790,8 +6780,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6828,14 +6823,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 51396-2025</t>
+          <t>A 13994-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45950.47131944444</v>
+        <v>45739.73532407408</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6848,7 +6843,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6885,14 +6880,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 51384-2025</t>
+          <t>A 32132-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45950.46399305556</v>
+        <v>45835.50878472222</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6905,7 +6900,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6942,14 +6937,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 51946-2025</t>
+          <t>A 39238-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45951</v>
+        <v>44817</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6962,7 +6957,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6999,14 +6994,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 24217-2025</t>
+          <t>A 52882-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45797.35565972222</v>
+        <v>45610</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7056,14 +7051,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 49989-2024</t>
+          <t>A 11497-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45597</v>
+        <v>44991</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7076,7 +7071,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>6.1</v>
+        <v>2.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7113,14 +7108,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 44228-2024</t>
+          <t>A 42423-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45573</v>
+        <v>45905.41005787037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7132,8 +7127,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>1.4</v>
+        <v>4.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7170,14 +7170,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 55586-2021</t>
+          <t>A 46260-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44475.88427083333</v>
+        <v>45581</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7187,6 +7187,11 @@
       <c r="E101" t="inlineStr">
         <is>
           <t>KLIPPAN</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -7227,14 +7232,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 43698-2025</t>
+          <t>A 42627-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45912.39892361111</v>
+        <v>45905.77766203704</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7247,7 +7252,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7284,14 +7289,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 69394-2021</t>
+          <t>A 5141-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44531</v>
+        <v>45330</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7303,13 +7308,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>5.7</v>
+        <v>0.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7346,14 +7346,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 24815-2025</t>
+          <t>A 33450-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45799.44935185185</v>
+        <v>45841.46677083334</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7403,14 +7403,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 34479-2025</t>
+          <t>A 33456-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45847.37570601852</v>
+        <v>45841.47364583334</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7460,14 +7460,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 10695-2023</t>
+          <t>A 34479-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44988</v>
+        <v>45847.37570601852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7517,14 +7517,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 31893-2021</t>
+          <t>A 39244-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44370.45880787037</v>
+        <v>44817.60482638889</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7574,14 +7574,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 52882-2024</t>
+          <t>A 20717-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45610</v>
+        <v>45055</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7631,14 +7631,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 55696-2025</t>
+          <t>A 33761-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45972</v>
+        <v>45842.38335648148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7688,14 +7688,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 13994-2025</t>
+          <t>A 37068-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45739.73532407408</v>
+        <v>45155</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7745,14 +7745,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 45574-2025</t>
+          <t>A 40762-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45922.65922453703</v>
+        <v>44420</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7802,14 +7802,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 33331-2024</t>
+          <t>A 33766-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45519</v>
+        <v>45842.3869675926</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7821,13 +7821,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7864,14 +7859,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 45096-2025</t>
+          <t>A 43698-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45919.38780092593</v>
+        <v>45912.39892361111</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7884,7 +7879,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7921,14 +7916,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 45717-2025</t>
+          <t>A 55588-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45923.44155092593</v>
+        <v>44475</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7941,7 +7936,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>9.1</v>
+        <v>2.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7978,14 +7973,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 45886-2025</t>
+          <t>A 34472-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45923.66560185186</v>
+        <v>45847.35877314815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7998,7 +7993,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8035,14 +8030,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 58387-2022</t>
+          <t>A 52286-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44901</v>
+        <v>45224.58796296296</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8054,13 +8049,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8097,14 +8087,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 46138-2025</t>
+          <t>A 46619-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45924.59914351852</v>
+        <v>45583.32314814815</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8154,14 +8144,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 27898-2025</t>
+          <t>A 45096-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45817</v>
+        <v>45919.38780092593</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8174,7 +8164,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8211,14 +8201,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 10544-2025</t>
+          <t>A 45574-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45721.48859953704</v>
+        <v>45922.65922453703</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8231,7 +8221,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8268,14 +8258,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 217-2023</t>
+          <t>A 11857-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44928</v>
+        <v>45728.39798611111</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8287,8 +8277,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8325,14 +8320,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 59482-2024</t>
+          <t>A 45717-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45638.52831018518</v>
+        <v>45923.44155092593</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8345,7 +8340,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>9.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8382,14 +8377,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 27010-2023</t>
+          <t>A 24333-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45094.36791666667</v>
+        <v>44726.32643518518</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8402,7 +8397,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8439,14 +8434,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 33462-2025</t>
+          <t>A 45886-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45841</v>
+        <v>45923.66560185186</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8459,7 +8454,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8496,14 +8491,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 8017-2022</t>
+          <t>A 46138-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44609.39615740741</v>
+        <v>45924.59914351852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8516,7 +8511,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8553,14 +8548,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 42275-2024</t>
+          <t>A 56089-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45562.60690972222</v>
+        <v>44477</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8572,13 +8567,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>0.6</v>
+        <v>20.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8615,14 +8605,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 42303-2024</t>
+          <t>A 22120-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45562.6322337963</v>
+        <v>45785.5165625</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8634,13 +8624,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8677,14 +8662,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 29284-2025</t>
+          <t>A 54348-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45824</v>
+        <v>44882</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8697,7 +8682,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.4</v>
+        <v>7.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8734,14 +8719,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 15810-2024</t>
+          <t>A 38156-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45404</v>
+        <v>44812.37135416667</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8753,13 +8738,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8796,14 +8776,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 14614-2023</t>
+          <t>A 18516-2021</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45013</v>
+        <v>44305</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8815,8 +8795,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8853,14 +8838,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 57687-2025</t>
+          <t>A 50357-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45981.44112268519</v>
+        <v>44455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8872,13 +8857,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8915,14 +8895,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 32132-2025</t>
+          <t>A 40710-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45835.50878472222</v>
+        <v>45170.63194444445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8935,7 +8915,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8972,14 +8952,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 20128-2023</t>
+          <t>A 24813-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45055</v>
+        <v>45799.44813657407</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8992,7 +8972,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9029,14 +9009,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 7515-2025</t>
+          <t>A 55833-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45702</v>
+        <v>45239</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9048,13 +9028,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9091,14 +9066,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 62473-2023</t>
+          <t>A 20128-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45267</v>
+        <v>45055</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9110,13 +9085,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9153,14 +9123,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 23978-2022</t>
+          <t>A 2252-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44722</v>
+        <v>45673</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9173,7 +9143,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>9.699999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9210,14 +9180,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 33766-2025</t>
+          <t>A 49394-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45842.3869675926</v>
+        <v>45938.65101851852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9229,8 +9199,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9267,14 +9242,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 60783-2023</t>
+          <t>A 2083-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45260.6441087963</v>
+        <v>45672.58853009259</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9287,7 +9262,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9324,14 +9299,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 33761-2025</t>
+          <t>A 61682-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45842.38335648148</v>
+        <v>45264</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9344,7 +9319,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9381,14 +9356,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 33450-2025</t>
+          <t>A 11676-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45841.46677083334</v>
+        <v>44992</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9400,8 +9375,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9438,14 +9418,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 33456-2025</t>
+          <t>A 51844-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45841.47364583334</v>
+        <v>45223</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9458,7 +9438,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9495,14 +9475,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 8500-2023</t>
+          <t>A 50163-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44977</v>
+        <v>45943.58734953704</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9552,14 +9532,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 34472-2025</t>
+          <t>A 28847-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45847.35877314815</v>
+        <v>45104</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9572,7 +9552,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9609,14 +9589,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 60791-2023</t>
+          <t>A 40105-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45260.65283564815</v>
+        <v>45894</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9629,7 +9609,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9666,14 +9646,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 52838-2024</t>
+          <t>A 15442-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45610</v>
+        <v>44659.85333333333</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9686,7 +9666,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9723,14 +9703,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 13420-2023</t>
+          <t>A 40092-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45005</v>
+        <v>45894</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9742,13 +9722,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9785,14 +9760,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 22202-2023</t>
+          <t>A 2755-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45069</v>
+        <v>44944</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9804,8 +9779,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>7.5</v>
+        <v>0.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9842,14 +9822,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 49073-2024</t>
+          <t>A 49370-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45594.61548611111</v>
+        <v>45211</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9862,7 +9842,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9899,14 +9879,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 59885-2025</t>
+          <t>A 28709-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45993.32192129629</v>
+        <v>45103</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9919,7 +9899,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9956,14 +9936,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 22120-2025</t>
+          <t>A 51396-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45785.5165625</v>
+        <v>45950.47131944444</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9976,7 +9956,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10013,14 +9993,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 20717-2023</t>
+          <t>A 46728-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45055</v>
+        <v>45198</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10033,7 +10013,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10070,14 +10050,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 56759-2023</t>
+          <t>A 51946-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45238</v>
+        <v>45951</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10090,7 +10070,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>7.4</v>
+        <v>1.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10127,14 +10107,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 27538-2021</t>
+          <t>A 51384-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44351.67984953704</v>
+        <v>45950.46399305556</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10147,7 +10127,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10184,14 +10164,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 2806-2026</t>
+          <t>A 15065-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>46038.41621527778</v>
+        <v>45399.57625</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10203,8 +10183,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>7.9</v>
+        <v>5.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10241,14 +10226,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 27454-2024</t>
+          <t>A 3498-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45474</v>
+        <v>45320.47233796296</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10261,7 +10246,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10298,14 +10283,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 50357-2021</t>
+          <t>A 41294-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44455</v>
+        <v>44825</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10318,7 +10303,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.9</v>
+        <v>6.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10355,14 +10340,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 28490-2023</t>
+          <t>A 39097-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45103.44039351852</v>
+        <v>45548.56422453704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10375,7 +10360,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10412,14 +10397,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 18516-2021</t>
+          <t>A 8712-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44305</v>
+        <v>44978.3975462963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10431,13 +10416,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10474,14 +10454,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 24813-2025</t>
+          <t>A 49073-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45799.44813657407</v>
+        <v>45594.61548611111</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10494,7 +10474,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10531,14 +10511,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 46619-2024</t>
+          <t>A 7661-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45583.32314814815</v>
+        <v>45706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10551,7 +10531,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10588,14 +10568,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 11857-2025</t>
+          <t>A 3183-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45728.39798611111</v>
+        <v>44944</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10607,13 +10587,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>4.3</v>
+        <v>6.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10650,14 +10625,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 13363-2023</t>
+          <t>A 48965-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45005</v>
+        <v>45209</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10669,13 +10644,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10712,14 +10682,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 42006-2025</t>
+          <t>A 9270-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45903</v>
+        <v>44616</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10732,7 +10702,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10769,14 +10739,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 14619-2023</t>
+          <t>A 36842-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45013</v>
+        <v>45538</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10788,8 +10758,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10826,14 +10801,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 55587-2021</t>
+          <t>A 5523-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44475</v>
+        <v>44593</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10846,7 +10821,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.1</v>
+        <v>5.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10883,14 +10858,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 4968-2026</t>
+          <t>A 55696-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46049</v>
+        <v>45972</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10903,7 +10878,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10940,14 +10915,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 19097-2025</t>
+          <t>A 17060-2021</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45767.68126157407</v>
+        <v>44296.63025462963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10960,7 +10935,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10997,14 +10972,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 62849-2025</t>
+          <t>A 33462-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46008.69979166667</v>
+        <v>45841</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11017,7 +10992,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11054,14 +11029,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 69041-2021</t>
+          <t>A 4321-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44529</v>
+        <v>45324.66635416666</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11074,7 +11049,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11111,14 +11086,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 5645-2026</t>
+          <t>A 62473-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46051.42502314815</v>
+        <v>45267</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11130,8 +11105,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11168,14 +11148,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 23741-2023</t>
+          <t>A 8500-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45077.77087962963</v>
+        <v>44977</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11188,7 +11168,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11225,14 +11205,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 25393-2023</t>
+          <t>A 57687-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45079</v>
+        <v>45981.44112268519</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11244,8 +11224,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11282,14 +11267,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 8712-2023</t>
+          <t>A 55291-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44978.3975462963</v>
+        <v>45237</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11302,7 +11287,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11339,14 +11324,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 36842-2024</t>
+          <t>A 69041-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45538</v>
+        <v>44529</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11358,13 +11343,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11401,14 +11381,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 593-2023</t>
+          <t>A 59885-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44930.55528935185</v>
+        <v>45993.32192129629</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11421,7 +11401,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11458,14 +11438,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 6446-2026</t>
+          <t>A 23260-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46055.85770833334</v>
+        <v>45075.87199074074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11478,7 +11458,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11515,14 +11495,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 6447-2026</t>
+          <t>A 42006-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46055</v>
+        <v>45903</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11535,7 +11515,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11572,14 +11552,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 46147-2022</t>
+          <t>A 55586-2021</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44846</v>
+        <v>44475.88427083333</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11592,7 +11572,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>5.7</v>
+        <v>1.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11629,14 +11609,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 20591-2023</t>
+          <t>A 15810-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45055</v>
+        <v>45404</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11648,8 +11628,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11686,14 +11671,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 55588-2021</t>
+          <t>A 19097-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44475</v>
+        <v>45767.68126157407</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11706,7 +11691,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11743,14 +11728,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 6890-2026</t>
+          <t>A 2806-2026</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46057.471875</v>
+        <v>46038.41621527778</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11763,7 +11748,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11800,14 +11785,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 63499-2025</t>
+          <t>A 10695-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46013</v>
+        <v>44988</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11820,7 +11805,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11857,14 +11842,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 47856-2024</t>
+          <t>A 44885-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45588.6680324074</v>
+        <v>44841</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11877,7 +11862,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11914,14 +11899,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 28247-2023</t>
+          <t>A 14614-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45099</v>
+        <v>45013</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11934,7 +11919,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11971,14 +11956,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 2413-2026</t>
+          <t>A 4968-2026</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>46036.73725694444</v>
+        <v>46049</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11991,7 +11976,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>8</v>
+        <v>0.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12028,14 +12013,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 2755-2023</t>
+          <t>A 8017-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44944</v>
+        <v>44609.39615740741</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12047,13 +12032,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12090,14 +12070,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 28847-2023</t>
+          <t>A 62849-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45104</v>
+        <v>46008.69979166667</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12110,7 +12090,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12147,14 +12127,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 50781-2025</t>
+          <t>A 5645-2026</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45946</v>
+        <v>46051.42502314815</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12167,7 +12147,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12204,14 +12184,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 42281-2024</t>
+          <t>A 13995-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45562.6105787037</v>
+        <v>45739.74271990741</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12223,13 +12203,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12266,14 +12241,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 61060-2025</t>
+          <t>A 6446-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46000</v>
+        <v>46055.85770833334</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12285,13 +12260,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12328,14 +12298,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 46260-2024</t>
+          <t>A 42275-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45581</v>
+        <v>45562.60690972222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12353,7 +12323,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12390,14 +12360,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 47967-2021</t>
+          <t>A 42303-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44448</v>
+        <v>45562.6322337963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12409,8 +12379,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12447,14 +12422,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 58642-2021</t>
+          <t>A 24034-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44489.36314814815</v>
+        <v>45078.86898148148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12467,7 +12442,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12504,14 +12479,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 63720-2023</t>
+          <t>A 5196-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45275</v>
+        <v>44593</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12524,7 +12499,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.7</v>
+        <v>5.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12561,14 +12536,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 317-2026</t>
+          <t>A 63499-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46027.56958333333</v>
+        <v>46013</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12581,7 +12556,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12618,14 +12593,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 11676-2023</t>
+          <t>A 6890-2026</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44992</v>
+        <v>46057.471875</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12637,13 +12612,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12680,14 +12650,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 11705-2023</t>
+          <t>A 6447-2026</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44992</v>
+        <v>46055</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12700,7 +12670,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12737,14 +12707,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 9166-2026</t>
+          <t>A 52838-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46070.35927083333</v>
+        <v>45610</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12757,7 +12727,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12794,14 +12764,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 30292-2021</t>
+          <t>A 45641-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44364.33482638889</v>
+        <v>44845</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12814,7 +12784,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12851,14 +12821,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 5523-2022</t>
+          <t>A 21636-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44593</v>
+        <v>45442</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12871,7 +12841,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>5.3</v>
+        <v>6.3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12908,14 +12878,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 9497-2026</t>
+          <t>A 50781-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46071.56422453704</v>
+        <v>45946</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12928,7 +12898,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12965,14 +12935,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 18214-2023</t>
+          <t>A 2413-2026</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45040</v>
+        <v>46036.73725694444</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12985,7 +12955,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>4.8</v>
+        <v>8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13022,14 +12992,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 3183-2023</t>
+          <t>A 61060-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44944</v>
+        <v>46000</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13041,8 +13011,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>6.9</v>
+        <v>1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13079,14 +13054,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 53289-2025</t>
+          <t>A 60783-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45958</v>
+        <v>45260.6441087963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13099,7 +13074,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13136,14 +13111,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 53290-2025</t>
+          <t>A 14619-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45958</v>
+        <v>45013</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13156,7 +13131,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13193,14 +13168,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 24647-2023</t>
+          <t>A 27454-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45084</v>
+        <v>45474</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13212,13 +13187,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>11.6</v>
+        <v>0.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13255,14 +13225,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 7661-2025</t>
+          <t>A 11335-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45706</v>
+        <v>44993</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13275,7 +13245,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13312,14 +13282,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 2252-2025</t>
+          <t>A 13363-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45673</v>
+        <v>45005</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13331,8 +13301,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13369,14 +13344,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 9488-2026</t>
+          <t>A 5151-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>46071.55105324074</v>
+        <v>44593</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13389,7 +13364,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.2</v>
+        <v>6.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13426,14 +13401,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 15065-2024</t>
+          <t>A 23741-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45399.57625</v>
+        <v>45077.77087962963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13445,13 +13420,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>5.8</v>
+        <v>0.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13488,14 +13458,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 4324-2024</t>
+          <t>A 317-2026</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45324.67409722223</v>
+        <v>46027.56958333333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13545,14 +13515,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 41294-2022</t>
+          <t>A 9497-2026</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44825</v>
+        <v>46071.56422453704</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13565,7 +13535,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>6.1</v>
+        <v>3.2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13602,14 +13572,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 9270-2022</t>
+          <t>A 46147-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44616</v>
+        <v>44846</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13622,7 +13592,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.7</v>
+        <v>5.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13659,14 +13629,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 39097-2024</t>
+          <t>A 9166-2026</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45548.56422453704</v>
+        <v>46070.35927083333</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13679,7 +13649,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13716,14 +13686,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 51844-2023</t>
+          <t>A 47870-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45223</v>
+        <v>44855.43302083333</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13736,7 +13706,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13773,14 +13743,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 46835-2023</t>
+          <t>A 9488-2026</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45199</v>
+        <v>46071.55105324074</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13793,7 +13763,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13830,14 +13800,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 28844-2023</t>
+          <t>A 27813-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13850,7 +13820,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13887,14 +13857,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 39238-2022</t>
+          <t>A 58387-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44817</v>
+        <v>44901</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13906,8 +13876,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13944,14 +13919,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 5256-2022</t>
+          <t>A 53289-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44593</v>
+        <v>45958</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13964,7 +13939,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14001,14 +13976,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 15442-2022</t>
+          <t>A 53290-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44659.85333333333</v>
+        <v>45958</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14021,7 +13996,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14058,14 +14033,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 48965-2023</t>
+          <t>A 27452-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45209</v>
+        <v>45474</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14078,7 +14053,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14115,14 +14090,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 18520-2021</t>
+          <t>A 45596-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44305</v>
+        <v>45579</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14134,13 +14109,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14177,14 +14147,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 20012-2022</t>
+          <t>A 38323-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44697</v>
+        <v>45161</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14197,7 +14167,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>17.2</v>
+        <v>3.7</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14234,14 +14204,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 5151-2022</t>
+          <t>A 38325-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44593</v>
+        <v>45161</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14254,7 +14224,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>6.5</v>
+        <v>4.1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14291,14 +14261,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 243-2025</t>
+          <t>A 21654-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45660</v>
+        <v>45442</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14311,7 +14281,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.1</v>
+        <v>7.2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14348,14 +14318,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 40762-2021</t>
+          <t>A 1280-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44420</v>
+        <v>44936</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14368,7 +14338,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14405,14 +14375,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 28709-2023</t>
+          <t>A 20591-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45103</v>
+        <v>45055</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14425,7 +14395,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14462,14 +14432,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 21636-2024</t>
+          <t>A 52877-2022</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45442</v>
+        <v>44875.53217592592</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14482,7 +14452,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>6.3</v>
+        <v>0.7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14519,14 +14489,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 46728-2023</t>
+          <t>A 31893-2021</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45198</v>
+        <v>44370.45880787037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14539,7 +14509,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14576,14 +14546,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 23874-2022</t>
+          <t>A 11705-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44722</v>
+        <v>44992</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14596,7 +14566,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>7.8</v>
+        <v>1.4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14633,14 +14603,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 38724-2023</t>
+          <t>A 27538-2021</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45163</v>
+        <v>44351.67984953704</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14653,7 +14623,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14690,14 +14660,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 24333-2022</t>
+          <t>A 64224-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44726.32643518518</v>
+        <v>45279</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14710,7 +14680,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14747,14 +14717,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 40710-2023</t>
+          <t>A 20002-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45170.63194444445</v>
+        <v>44697.62150462963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14767,7 +14737,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14804,14 +14774,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 37068-2023</t>
+          <t>A 47856-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45155</v>
+        <v>45588.6680324074</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14824,7 +14794,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14861,14 +14831,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 39530-2023</t>
+          <t>A 49686-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45167.34055555556</v>
+        <v>45212.36239583333</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14881,7 +14851,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14918,14 +14888,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 24034-2023</t>
+          <t>A 68856-2021</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45078.86898148148</v>
+        <v>44530</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14938,7 +14908,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14975,14 +14945,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 38945-2023</t>
+          <t>A 46835-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45163.60909722222</v>
+        <v>45199</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14995,7 +14965,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15032,14 +15002,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 55291-2023</t>
+          <t>A 5557-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45237</v>
+        <v>44593</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15052,7 +15022,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15089,14 +15059,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 5141-2024</t>
+          <t>A 46253-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45330</v>
+        <v>45581</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15108,8 +15078,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G238" t="n">
-        <v>0.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15146,14 +15121,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 3498-2024</t>
+          <t>A 39530-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45320.47233796296</v>
+        <v>45167.34055555556</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15166,7 +15141,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15203,14 +15178,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 64224-2023</t>
+          <t>A 22976-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45279</v>
+        <v>45072</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15223,7 +15198,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15260,14 +15235,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 27813-2023</t>
+          <t>A 23978-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45098</v>
+        <v>44722</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15280,7 +15255,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15317,14 +15292,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 20002-2022</t>
+          <t>A 15812-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44697.62150462963</v>
+        <v>45404.6669212963</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15336,8 +15311,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15374,14 +15354,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 49686-2023</t>
+          <t>A 38945-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45212.36239583333</v>
+        <v>45163.60909722222</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15394,7 +15374,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15431,14 +15411,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 27452-2024</t>
+          <t>A 55587-2021</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45474</v>
+        <v>44475</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15451,7 +15431,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15488,14 +15468,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 53868-2022</t>
+          <t>A 23874-2022</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44880.64693287037</v>
+        <v>44722</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15508,7 +15488,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15545,14 +15525,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 68856-2021</t>
+          <t>A 9142-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44530</v>
+        <v>45714.31886574074</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15565,7 +15545,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15602,14 +15582,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 30725-2021</t>
+          <t>A 30292-2021</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44365.44506944445</v>
+        <v>44364.33482638889</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15622,7 +15602,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15659,14 +15639,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 42284-2024</t>
+          <t>A 28247-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45562</v>
+        <v>45099</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15678,13 +15658,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G248" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15721,14 +15696,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 5196-2022</t>
+          <t>A 56759-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44593</v>
+        <v>45238</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15741,7 +15716,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>5.6</v>
+        <v>7.4</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15778,14 +15753,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 1280-2023</t>
+          <t>A 4301-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44936</v>
+        <v>45324</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15797,8 +15772,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G250" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15835,14 +15815,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 39244-2022</t>
+          <t>A 22202-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44817.60482638889</v>
+        <v>45069</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15855,7 +15835,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15892,14 +15872,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 11335-2023</t>
+          <t>A 20012-2022</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44993</v>
+        <v>44697</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15912,7 +15892,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.3</v>
+        <v>17.2</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15949,14 +15929,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 30852-2021</t>
+          <t>A 16418-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44365</v>
+        <v>45751.46372685185</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15969,7 +15949,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16006,14 +15986,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 38323-2023</t>
+          <t>A 30852-2021</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45161</v>
+        <v>44365</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16026,7 +16006,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16063,14 +16043,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 38325-2023</t>
+          <t>A 63720-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45161</v>
+        <v>45275</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16083,7 +16063,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16120,14 +16100,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 5557-2022</t>
+          <t>A 14278-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44593</v>
+        <v>45393.60961805555</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16140,7 +16120,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16177,14 +16157,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 52877-2022</t>
+          <t>A 47869-2022</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44875.53217592592</v>
+        <v>44855.43141203704</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16197,7 +16177,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16234,14 +16214,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 11105-2021</t>
+          <t>A 6615-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44259</v>
+        <v>45341</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16253,13 +16233,8 @@
           <t>KLIPPAN</t>
         </is>
       </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G258" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16296,14 +16271,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 46253-2024</t>
+          <t>A 24647-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45581</v>
+        <v>45084</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16317,11 +16292,11 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G259" t="n">
-        <v>9.300000000000001</v>
+        <v>11.6</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16358,14 +16333,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 2262-2025</t>
+          <t>A 13420-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45673</v>
+        <v>45005</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16377,8 +16352,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G260" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16415,14 +16395,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 4623-2024</t>
+          <t>A 42281-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45328</v>
+        <v>45562.6105787037</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16434,8 +16414,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G261" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16472,14 +16457,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 3198-2023</t>
+          <t>A 42284-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44944</v>
+        <v>45562</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16491,8 +16476,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G262" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16529,14 +16519,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 23681-2023</t>
+          <t>A 3489-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45077</v>
+        <v>45320</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16549,7 +16539,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16586,14 +16576,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 37967-2024</t>
+          <t>A 30738-2021</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45544.55668981482</v>
+        <v>44365.45446759259</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16606,7 +16596,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16643,14 +16633,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 34051-2024</t>
+          <t>A 16399-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45523</v>
+        <v>45751</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16663,7 +16653,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16700,14 +16690,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 2083-2025</t>
+          <t>A 51276-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45672.58853009259</v>
+        <v>45603</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16720,7 +16710,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16757,14 +16747,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 52286-2023</t>
+          <t>A 40173-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45224.58796296296</v>
+        <v>45554.55435185185</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16776,8 +16766,13 @@
           <t>KLIPPAN</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G267" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16814,14 +16809,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 47870-2022</t>
+          <t>A 7746-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44855.43302083333</v>
+        <v>45